--- a/data_M.xlsx
+++ b/data_M.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="980">
   <si>
     <t>questName</t>
   </si>
@@ -1270,10 +1270,10 @@
     <t>원시림(原生林)</t>
   </si>
   <si>
-    <t>垂皮油10個の納品</t>
-  </si>
-  <si>
-    <t>兵隊のフェロモン1個の納品</t>
+    <t>수피유(垂皮油) 10개 납품</t>
+  </si>
+  <si>
+    <t>병정의 페로몬(兵隊のフェロモン) 1개 남품</t>
   </si>
   <si>
     <t>美味との遭遇？</t>
@@ -1282,1084 +1282,1144 @@
     <t>맛있는음식과의 조우?</t>
   </si>
   <si>
+    <t>아르셀타스(アルセルタス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>쿤츄(クンチュウ) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>竜骨結晶の納品</t>
+  </si>
+  <si>
+    <t>용골결정 납품</t>
+  </si>
+  <si>
+    <t>용골결정(竜骨結晶) 10개 납품</t>
+  </si>
+  <si>
+    <t>이오스(イーオス) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>遺跡の怪鳥、お邪魔もの</t>
+  </si>
+  <si>
+    <t>유적의 괴조, 방해꾼</t>
+  </si>
+  <si>
+    <t>유적평원(遺跡平原)</t>
+  </si>
+  <si>
+    <t>용의 굵은 눈물(竜の大粒ナミダ) 1개 납품</t>
+  </si>
+  <si>
+    <t>遺跡平原でキノコ狩り</t>
+  </si>
+  <si>
+    <t>유적평원에서 버섯 사냥</t>
+  </si>
+  <si>
+    <t>고대나무의 열매(古代木の実) 3개 납품</t>
+  </si>
+  <si>
+    <t>迷惑な怪鳥と毒怪鳥</t>
+  </si>
+  <si>
+    <t>성가신 괴조와 독괴조</t>
+  </si>
+  <si>
+    <t>얀쿡(イャンクック) 1마리와 게료스(ゲリョス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>6600z</t>
+  </si>
+  <si>
+    <t>猪突猛進！ドスファンゴ</t>
+  </si>
+  <si>
+    <t>저돌맹진! 도스팡고</t>
+  </si>
+  <si>
+    <t>기아노스(ギアノス) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>スプラッシュパニック！</t>
+  </si>
+  <si>
+    <t>스플래쉬 패닉!</t>
+  </si>
+  <si>
+    <t>루도로스(ルドロス) 15마리 토벌</t>
+  </si>
+  <si>
+    <t>遺跡平原の狗竜達</t>
+  </si>
+  <si>
+    <t>유적평원의 구룡들</t>
+  </si>
+  <si>
+    <t>쟈기노스(ジャギィノス)와 쟈기(ジャギィ) 합계 20마리 토벌</t>
+  </si>
+  <si>
+    <t>케챠와챠(ケチャワチャ)의 귀 파괴</t>
+  </si>
+  <si>
+    <t>大地を泳ぐモンスター</t>
+  </si>
+  <si>
+    <t>대지를 헤엄치는 몬스터</t>
+  </si>
+  <si>
+    <t>어룡의 간(魚竜のキモ) 5개 납품</t>
+  </si>
+  <si>
+    <t>3900z</t>
+  </si>
+  <si>
+    <t>原生林の採集ツアー</t>
+  </si>
+  <si>
+    <t>원시림 채집 투어</t>
+  </si>
+  <si>
+    <t>란포스(ランポス) 12마리 토벌</t>
+  </si>
+  <si>
+    <t>魚竜のキモは鮮度が命</t>
+  </si>
+  <si>
+    <t>어룡의 간은 신선도가 생명</t>
+  </si>
+  <si>
+    <t>어룡의 간(魚竜のキモ) 12개 납품</t>
+  </si>
+  <si>
+    <t>アオアシラの浸食</t>
+  </si>
+  <si>
+    <t>아오아시라의 침식</t>
+  </si>
+  <si>
+    <t>하얀간(ホワイトレバー) 3개 납품</t>
+  </si>
+  <si>
+    <t>게네포스(ゲネポス) 12마리 토벌</t>
+  </si>
+  <si>
+    <t>ドクターの毒×麻痺毒研究</t>
+  </si>
+  <si>
+    <t>닥터의 독×마비독연구</t>
+  </si>
+  <si>
+    <t>이오스(イーオス)와 게네포스(ゲネポス) 합계 20마리 토벌</t>
+  </si>
+  <si>
+    <t>수피유(垂皮油) 5개 납품</t>
+  </si>
+  <si>
+    <t>飛甲虫討伐ノススメ</t>
+  </si>
+  <si>
+    <t>비갑충 토벌 권장</t>
+  </si>
+  <si>
+    <t>오르타로스(オルタロス) 15마리 토벌</t>
+  </si>
+  <si>
+    <t>肴のキモはホワイトレバー</t>
+  </si>
+  <si>
+    <t>안주로 쓸 간은 하얀간</t>
+  </si>
+  <si>
+    <t>켈비(ケルビ) 6마리 토벌</t>
+  </si>
+  <si>
+    <t>가우시카(ガウシカ) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>悪戯好きの奇猿狐を狩猟せよ</t>
+  </si>
+  <si>
+    <t>장난치기 좋아하는 기원호를 수렵해라</t>
+  </si>
+  <si>
+    <t>케챠와챠(ケチャワチャ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>遺跡平原の採集ツアー</t>
+  </si>
+  <si>
+    <t>유적평원 채집 투어</t>
+  </si>
+  <si>
+    <t>ブルファンゴたちの大集会</t>
+  </si>
+  <si>
+    <t>불팡고들의 대집회</t>
+  </si>
+  <si>
+    <t>루도로스(ルドロス) 12마리 토벌</t>
+  </si>
+  <si>
+    <t>ドス来い！遺跡平原の跳狗竜</t>
+  </si>
+  <si>
+    <t>도스덤벼! 유적평원의 도구룡</t>
+  </si>
+  <si>
+    <t>도스마콰(ドスマッカォ) 1마리 포획</t>
+  </si>
+  <si>
+    <t>마콰(マッカォ) 12마리 토벌</t>
+  </si>
+  <si>
+    <t>야오자미(ヤオザミ) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>ニャンターこそ正義のヒーロー</t>
+  </si>
+  <si>
+    <t>냥타야말로 정의의 히어로</t>
+  </si>
+  <si>
+    <t>集いし強豪</t>
+  </si>
+  <si>
+    <t>모이는 강호</t>
+  </si>
+  <si>
+    <t>超☆メモ帳～跳狗竜狩猟編～</t>
+  </si>
+  <si>
+    <t>초☆메모장 ~도구룡수렵편~</t>
+  </si>
+  <si>
+    <t>도스마콰(ドスマッカォ) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>도스마콰(ドスマッカォ)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>強敵、ドスギアノス現る！</t>
+  </si>
+  <si>
+    <t>강적, 도스기아노스 나타나다!</t>
+  </si>
+  <si>
+    <t>도스기아노스(ドスギアノス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>大師範の試練</t>
+  </si>
+  <si>
+    <t>대사범의 시련</t>
+  </si>
+  <si>
+    <t>쿤츄(クンチュウ) 15마리 토벌</t>
+  </si>
+  <si>
+    <t>ライバルの激突！！</t>
+  </si>
+  <si>
+    <t>라이벌의 격돌</t>
+  </si>
+  <si>
+    <t>수상투기장(水上闘技場)</t>
+  </si>
+  <si>
+    <t>불팡고(ブルファンゴ)와 리노프로스(リノプロス) 합계 30마리 토벌</t>
+  </si>
+  <si>
+    <t>盗まれて原生林！</t>
+  </si>
+  <si>
+    <t>도난 원시림!</t>
+  </si>
+  <si>
+    <t>冷徹な吸血鮫</t>
+  </si>
+  <si>
+    <t>집회소★5</t>
+  </si>
+  <si>
+    <t>氷海</t>
+  </si>
+  <si>
+    <t>スクアギル15頭の討伐</t>
+  </si>
+  <si>
+    <t>雪山</t>
+  </si>
+  <si>
+    <t>ドドブランゴ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ブランゴ10頭の討伐</t>
+  </si>
+  <si>
+    <t>マダラなアイツにご執心</t>
+  </si>
+  <si>
+    <t>原生林</t>
+  </si>
+  <si>
+    <t>ドスゲネポス2頭の狩猟</t>
+  </si>
+  <si>
+    <t>激闘！雌火竜リオレイア</t>
+  </si>
+  <si>
+    <t>森丘</t>
+  </si>
+  <si>
+    <t>リオレイア1頭の捕獲</t>
+  </si>
+  <si>
+    <t>乗りよるダウンを2回成功</t>
+  </si>
+  <si>
+    <t>9900z</t>
+  </si>
+  <si>
+    <t>ハンターと玉突き事故</t>
+  </si>
+  <si>
+    <t>闘技場</t>
+  </si>
+  <si>
+    <t>クンチュウ30匹の討伐</t>
+  </si>
+  <si>
+    <t>ラングロトラ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>溶岩竜ヴォルガノス出現！</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>ヴォルガノス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>汗と涙の連続狩猟</t>
+  </si>
+  <si>
+    <t>全ての大型モンスターの狩猟</t>
+  </si>
+  <si>
+    <t>14400z</t>
+  </si>
+  <si>
+    <t>地底火山のポイント招きネコ</t>
+  </si>
+  <si>
+    <t>地底火山</t>
+  </si>
+  <si>
+    <t>龍歴院ポイント1800pts入手</t>
+  </si>
+  <si>
+    <t>炎天下の麻痺牙</t>
+  </si>
+  <si>
+    <t>旧砂漠</t>
+  </si>
+  <si>
+    <t>ドスゲネポス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>孤島の釣り合戦！</t>
+  </si>
+  <si>
+    <t>孤島</t>
+  </si>
+  <si>
+    <t>白金魚3匹の納品</t>
+  </si>
+  <si>
+    <t>孤島の迷惑客</t>
+  </si>
+  <si>
+    <t>ガノトトス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>土砂竜・ボルボロス！</t>
+  </si>
+  <si>
+    <t>ボルボロス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>竜の大粒ナミダ1個の納品</t>
+  </si>
+  <si>
+    <t>超☆メモ帳～奇猿狐狩猟編～</t>
+  </si>
+  <si>
+    <t>遺跡平原</t>
+  </si>
+  <si>
+    <t>ケチャワチャ2頭の狩猟</t>
+  </si>
+  <si>
+    <t>牙獣の大粒ナミダ1個の納品</t>
+  </si>
+  <si>
+    <t>グレート・ハンター・ゲーム</t>
+  </si>
+  <si>
+    <t>水上闘技場</t>
+  </si>
+  <si>
+    <t>1700z</t>
+  </si>
+  <si>
+    <t>16500z</t>
+  </si>
+  <si>
+    <t>沼地</t>
+  </si>
+  <si>
+    <t>ランゴスタ50匹の討伐</t>
+  </si>
+  <si>
+    <t>カンタロス20匹の討伐</t>
+  </si>
+  <si>
+    <t>ガララアジャラ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガララアジャラの背中破壊</t>
+  </si>
+  <si>
+    <t>タイムアップもしくはネコタクチケットの納品</t>
+  </si>
+  <si>
+    <t>壁に耳あり、天井に目あり？</t>
+  </si>
+  <si>
+    <t>フルフル1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ザボアザギルの狩猟依頼</t>
+  </si>
+  <si>
+    <t>ザボアザギル1頭の狩猟</t>
+  </si>
+  <si>
+    <t>モンスターのキモ5個の納品</t>
+  </si>
+  <si>
+    <t>地底火山の採集ツアー</t>
+  </si>
+  <si>
+    <t>火山の冒険</t>
+  </si>
+  <si>
+    <t>バサルモス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>渓流の水竜</t>
+  </si>
+  <si>
+    <t>渓流</t>
+  </si>
+  <si>
+    <t>ガノトトス背ビレ破壊</t>
+  </si>
+  <si>
+    <t>キモ・キモ・キモ！！！</t>
+  </si>
+  <si>
+    <t>遺跡平原の精算アイテム納品</t>
+  </si>
+  <si>
+    <t>龍歴院ポイント4000pts入手</t>
+  </si>
+  <si>
+    <t>オルタロス15匹の討伐</t>
+  </si>
+  <si>
+    <t>奇猿狐の耳破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>ケチャワチャの耳破壊</t>
+  </si>
+  <si>
+    <t>イャンガルルガの洗礼</t>
+  </si>
+  <si>
+    <t>イャンガルルガ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>イャンガルルガの翼爪破壊</t>
+  </si>
+  <si>
+    <t>極寒の地の採掘依頼</t>
+  </si>
+  <si>
+    <t>血石10個の納品</t>
+  </si>
+  <si>
+    <t>ザボアザギルの背ビレ破壊</t>
+  </si>
+  <si>
+    <t>イーオスの親玉たち</t>
+  </si>
+  <si>
+    <t>ドスイーオス2頭の狩猟</t>
+  </si>
+  <si>
+    <t>毒、麻痺、混乱にご用心！</t>
+  </si>
+  <si>
+    <t>古代林</t>
+  </si>
+  <si>
+    <t>龍歴院ポイント1500pts入手</t>
+  </si>
+  <si>
+    <t>14700z</t>
+  </si>
+  <si>
+    <t>桃色大将ババコンガ</t>
+  </si>
+  <si>
+    <t>ババコンガ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>なわばりの大フン1個の納品</t>
+  </si>
+  <si>
+    <t>原生林の精算アイテム納品</t>
+  </si>
+  <si>
+    <t>ケルビ15頭の討伐</t>
+  </si>
+  <si>
+    <t>イーオスたちの親玉</t>
+  </si>
+  <si>
+    <t>ドスイーオス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>イーオス15頭の討伐</t>
+  </si>
+  <si>
+    <t>獰猛なる矢尻たち</t>
+  </si>
+  <si>
+    <t>スクアギル20頭の討伐</t>
+  </si>
+  <si>
+    <t>テツカブラ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>不眠のあなたに催眠療法×２</t>
+  </si>
+  <si>
+    <t>ホロロホルル2頭の狩猟</t>
+  </si>
+  <si>
+    <t>女王・リオレイアの狩猟</t>
+  </si>
+  <si>
+    <t>リオレイア1頭の狩猟</t>
+  </si>
+  <si>
+    <t>リオレイアの尻尾切断</t>
+  </si>
+  <si>
+    <t>ハプルボッカ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>アプケロスのキモ5個の納品</t>
+  </si>
+  <si>
+    <t>氷海の採集ツアー</t>
+  </si>
+  <si>
+    <t>２頭のドスランポス</t>
+  </si>
+  <si>
+    <t>ドスランポス2頭の狩猟</t>
+  </si>
+  <si>
+    <t>知性溢れる？夜鳥狩猟</t>
+  </si>
+  <si>
+    <t>ホロロホルル1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ホロロホルルの頭部と翼破壊</t>
+  </si>
+  <si>
+    <t>燃石炭の納品</t>
+  </si>
+  <si>
+    <t>燃石炭20個の納品</t>
+  </si>
+  <si>
+    <t>イャンガルルガの頭部破壊</t>
+  </si>
+  <si>
+    <t>熱砂の喧嘩は武器の素</t>
+  </si>
+  <si>
+    <t>1400z</t>
+  </si>
+  <si>
+    <t>13800z</t>
+  </si>
+  <si>
+    <t>沼地の捕食者・ネルスキュラ</t>
+  </si>
+  <si>
+    <t>ネルスキュラ1匹の狩猟</t>
+  </si>
+  <si>
+    <t>女王のフェロモン1個の納品</t>
+  </si>
+  <si>
+    <t>炎の山の大将軍</t>
+  </si>
+  <si>
+    <t>ショウグンギザミ1匹の狩猟</t>
+  </si>
+  <si>
+    <t>ショウグンギザミの両爪破壊</t>
+  </si>
+  <si>
+    <t>ウラガンキン1頭の狩猟</t>
+  </si>
+  <si>
+    <t>リノプロス10頭の討伐</t>
+  </si>
+  <si>
+    <t>9600z</t>
+  </si>
+  <si>
+    <t>サンドのメシよりドスガレオス</t>
+  </si>
+  <si>
+    <t>ドスガレオス2頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガブラス10頭の討伐</t>
+  </si>
+  <si>
+    <t>疾き迅竜の狩猟披露</t>
+  </si>
+  <si>
+    <t>ナルガクルガ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ナルガクルガの尻尾切断</t>
+  </si>
+  <si>
+    <t>落石注意！？</t>
+  </si>
+  <si>
+    <t>火薬岩1個の納品</t>
+  </si>
+  <si>
+    <t>お姉さまは白兎獣がお好き？</t>
+  </si>
+  <si>
+    <t>ウルクスス2頭の狩猟</t>
+  </si>
+  <si>
+    <t>スクアギル10頭の討伐</t>
+  </si>
+  <si>
+    <t>狂乱の立体闘技場</t>
+  </si>
+  <si>
+    <t>집회소★6</t>
+  </si>
+  <si>
+    <t>立体闘技場</t>
+  </si>
+  <si>
+    <t>2200z</t>
+  </si>
+  <si>
+    <t>21600z</t>
+  </si>
+  <si>
+    <t>大海の王・ラギアクルス！</t>
+  </si>
+  <si>
+    <t>ラギアクルス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>10500z</t>
+  </si>
+  <si>
+    <t>夜鳥の頭部破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>ホロロホルルの頭部破壊</t>
+  </si>
+  <si>
+    <t>ドボルがために銅鑼は鳴る</t>
+  </si>
+  <si>
+    <t>ドボルベルク1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ドボルベルクのコブ破壊</t>
+  </si>
+  <si>
+    <t>12600z</t>
+  </si>
+  <si>
+    <t>極秘依頼！獰猛なる溶岩竜！</t>
+  </si>
+  <si>
+    <t>ヴォルガノスの頭部と背ビレ破壊</t>
+  </si>
+  <si>
+    <t>どくどくパニック・毒怪鳥！！</t>
+  </si>
+  <si>
+    <t>ゲリョス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ゲリョスのトサカ破壊</t>
+  </si>
+  <si>
+    <t>遺跡平原の黒蝕竜調査</t>
+  </si>
+  <si>
+    <t>ゴア・マガラ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>11700z</t>
+  </si>
+  <si>
+    <t>ライゼクスの支配圏</t>
+  </si>
+  <si>
+    <t>ライゼクス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ライゼクスの背中破壊</t>
+  </si>
+  <si>
+    <t>12000z</t>
+  </si>
+  <si>
+    <t>最も危険な晩餐</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタス1匹の狩猟</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタスの尻尾破壊</t>
+  </si>
+  <si>
+    <t>３頭寄れば獰猛蛙</t>
+  </si>
+  <si>
+    <t>テツカブラ3頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガマの大粒ナミダ1個の納品</t>
+  </si>
+  <si>
+    <t>1600z</t>
+  </si>
+  <si>
+    <t>15900z</t>
+  </si>
+  <si>
+    <t>吹雪に立つ金獅子</t>
+  </si>
+  <si>
+    <t>ラージャン1頭の狩猟</t>
+  </si>
+  <si>
+    <t>意気地없음には鎧竜で喝！</t>
+  </si>
+  <si>
+    <t>グラビモス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>燃えたぎれ！火山の熱闘！！</t>
+  </si>
+  <si>
+    <t>1900z</t>
+  </si>
+  <si>
+    <t>18600z</t>
+  </si>
+  <si>
+    <t>空の王者・リオレウス</t>
+  </si>
+  <si>
+    <t>リオレウス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>リオレウスの頭部と翼破壊</t>
+  </si>
+  <si>
+    <t>孤島の暴君、ダイミョウザザミ</t>
+  </si>
+  <si>
+    <t>ダイミョウザザミ1匹の狩猟</t>
+  </si>
+  <si>
+    <t>ダイミョウザザミの両爪とヤド破壊</t>
+  </si>
+  <si>
+    <t>氷海の精算アイテム納品</t>
+  </si>
+  <si>
+    <t>轟竜狩猟は妹のため</t>
+  </si>
+  <si>
+    <t>ティガレックス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ティガレックスの尻尾切断</t>
+  </si>
+  <si>
+    <t>跳梁し意思を用いず悪成さば</t>
+  </si>
+  <si>
+    <t>獰猛なタテガミを求めて</t>
+  </si>
+  <si>
+    <t>ロアルドロス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ロアルドロスのタテガミ破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>たんと掘れ燃石炭</t>
+  </si>
+  <si>
+    <t>30分</t>
+  </si>
+  <si>
+    <t>燃石炭10個以上納品もしくはネコタクチケットの納品</t>
+  </si>
+  <si>
+    <t>ラージャンの角破壊</t>
+  </si>
+  <si>
+    <t>絞蛇竜は不気味に嗤う</t>
+  </si>
+  <si>
+    <t>ガララアジャラの頭部と尻尾破壊</t>
+  </si>
+  <si>
+    <t>ジンオウガ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ジンオウガの尻尾切断</t>
+  </si>
+  <si>
+    <t>素敵な素敵な電竜頭</t>
+  </si>
+  <si>
+    <t>火の海に棲む竜！</t>
+  </si>
+  <si>
+    <t>アグナコトル1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ウロコトル10頭の討伐</t>
+  </si>
+  <si>
+    <t>竜の大鎚・火山の化身</t>
+  </si>
+  <si>
+    <t>ウラガンキンの顎破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>地底火山に響く侵略の足音</t>
+  </si>
+  <si>
+    <t>18900z</t>
+  </si>
+  <si>
+    <t>奥様は白水晶がお好き</t>
+  </si>
+  <si>
+    <t>白水晶の原石2個の納品</t>
+  </si>
+  <si>
+    <t>ガミザミ12匹の討伐</t>
+  </si>
+  <si>
+    <t>3300z</t>
+  </si>
+  <si>
+    <t>ワイルドバレット</t>
+  </si>
+  <si>
+    <t>18300z</t>
+  </si>
+  <si>
+    <t>ガムート1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガムートの頭部破壊</t>
+  </si>
+  <si>
+    <t>沼地の狂騒楽団</t>
+  </si>
+  <si>
+    <t>16800z</t>
+  </si>
+  <si>
+    <t>熱願の穴掘り</t>
+  </si>
+  <si>
+    <t>アグナコトル1頭の捕獲</t>
+  </si>
+  <si>
+    <t>アグナコトルの頭部破壊</t>
+  </si>
+  <si>
+    <t>キリンの討伐</t>
+  </si>
+  <si>
+    <t>ギルドフラッグを山頂に設置</t>
+  </si>
+  <si>
+    <t>スノードロップをあなたに</t>
+  </si>
+  <si>
+    <t>ウルクスス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガノトトス冒険記</t>
+  </si>
+  <si>
+    <t>ガノトトスの頭部と背ビレ破壊</t>
+  </si>
+  <si>
+    <t>ベリオロスの狩猟</t>
+  </si>
+  <si>
+    <t>ベリオロス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>メデタイお仕事</t>
+  </si>
+  <si>
+    <t>隕石の大塊2個の納品</t>
+  </si>
+  <si>
+    <t>妖艶なる舞</t>
+  </si>
+  <si>
+    <t>タマミツネ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ジャギィノス掃討作戦</t>
+  </si>
+  <si>
+    <t>ジャギィノス25頭の討伐</t>
+  </si>
+  <si>
+    <t>イビルジョー1頭の狩猟</t>
+  </si>
+  <si>
+    <t>動くこと、山の如し！</t>
+  </si>
+  <si>
+    <t>ドボルベルク1頭の捕獲</t>
+  </si>
+  <si>
+    <t>リオレウス1頭とリオレイア1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ドドドドブランゴ！</t>
+  </si>
+  <si>
+    <t>ドドブランゴ3頭の狩猟</t>
+  </si>
+  <si>
+    <t>16200z</t>
+  </si>
+  <si>
+    <t>スリルとショックの氷海ツアー</t>
+  </si>
+  <si>
+    <t>17700z</t>
+  </si>
+  <si>
+    <t>クール！ザボアザギル！</t>
+  </si>
+  <si>
+    <t>ザボアザギルの頭部と背ビレ破壊</t>
+  </si>
+  <si>
+    <t>恐暴竜の根城</t>
+  </si>
+  <si>
+    <t>イビルジョーの頭部破壊</t>
+  </si>
+  <si>
+    <t>飛竜たちの乱舞</t>
+  </si>
+  <si>
+    <t>幻のハップル？</t>
+  </si>
+  <si>
+    <t>ハプルポッカの両前脚破壊</t>
+  </si>
+  <si>
+    <t>フルフルは黒き影と共に</t>
+  </si>
+  <si>
+    <t>フルフルの頭部と胴体破壊</t>
+  </si>
+  <si>
+    <t>攻究せよ、鎌持つショウグン</t>
+  </si>
+  <si>
+    <t>ショウグンギザミの両爪とヤド破壊</t>
+  </si>
+  <si>
+    <t>猿王伝説！</t>
+  </si>
+  <si>
+    <t>ラージャンの尻尾破壊</t>
+  </si>
+  <si>
+    <t>闇より生まれし者</t>
+  </si>
+  <si>
+    <t>ナルガクルガの頭部と刃翼破壊</t>
+  </si>
+  <si>
+    <t>燃えさかる大河</t>
+  </si>
+  <si>
+    <t>ヴォルガノス2頭の狩猟</t>
+  </si>
+  <si>
+    <t>獰猛と化した鬼蛙</t>
+  </si>
+  <si>
+    <t>テツカブラの顎と後脚破壊</t>
+  </si>
+  <si>
+    <t>オーラ漂う陸の女王！</t>
+  </si>
+  <si>
+    <t>リオレイアの翼破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>子分・取り分・イイ気分♪</t>
+  </si>
+  <si>
+    <t>乗りによるダウン4回成功</t>
+  </si>
+  <si>
+    <t>砂漠の彼方から</t>
+  </si>
+  <si>
+    <t>ディノバルド1頭の狩猟</t>
+  </si>
+  <si>
+    <t>山紫水明の地</t>
+  </si>
+  <si>
+    <t>塔の秘境</t>
+  </si>
+  <si>
+    <t>心を燃やせ、燃石炭！</t>
+  </si>
+  <si>
+    <t>燃石炭30個の納品</t>
+  </si>
+  <si>
+    <t>凍てつく牙は獰猛に</t>
+  </si>
+  <si>
+    <t>ドドブランゴの牙と尻尾破壊</t>
+  </si>
+  <si>
+    <t>振り返ってもヤツがいる</t>
+  </si>
+  <si>
+    <t>獰猛個体・調査依頼</t>
+  </si>
+  <si>
+    <t>イャンクック1頭の狩猟狩猟</t>
+  </si>
+  <si>
+    <t>イャンクックの頭部破壊</t>
+  </si>
+  <si>
+    <t>不動の山神</t>
+  </si>
+  <si>
+    <t>ボボノタン5個の納品</t>
+  </si>
+  <si>
+    <t>地底火山の精算アイテム納品</t>
+  </si>
+  <si>
+    <t>ズアロボス15頭の討伐</t>
+  </si>
+  <si>
+    <t>重厚で重甲な晩餐？</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタス1匹の捕獲</t>
+  </si>
+  <si>
     <t>アルセルタス1匹の狩猟</t>
   </si>
   <si>
-    <t>クンチュウ10匹の討伐</t>
-  </si>
-  <si>
-    <t>竜骨結晶の納品</t>
-  </si>
-  <si>
-    <t>용골결정 납품</t>
-  </si>
-  <si>
-    <t>竜骨結晶10個の納品</t>
-  </si>
-  <si>
-    <t>イーオス10頭の討伐</t>
-  </si>
-  <si>
-    <t>遺跡の怪鳥、お邪魔もの</t>
-  </si>
-  <si>
-    <t>유적의 괴조, 방해꾼</t>
-  </si>
-  <si>
-    <t>유적평원(遺跡平原)</t>
-  </si>
-  <si>
-    <t>イャンクック1頭の狩猟</t>
-  </si>
-  <si>
-    <t>竜の大粒ナミダ1個の納品</t>
-  </si>
-  <si>
-    <t>遺跡平原でキノコ狩り</t>
-  </si>
-  <si>
-    <t>유적평원에서 버섯 사냥</t>
-  </si>
-  <si>
-    <t>特産キノコ20個の納品</t>
-  </si>
-  <si>
-    <t>古代林</t>
-  </si>
-  <si>
-    <t>タイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>旧砂漠</t>
-  </si>
-  <si>
-    <t>テツカブラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>古代木の実3個の納品</t>
-  </si>
-  <si>
-    <t>迷惑な怪鳥と毒怪鳥</t>
-  </si>
-  <si>
-    <t>森丘</t>
-  </si>
-  <si>
-    <t>イャンクック1頭とゲリョス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>6600z</t>
-  </si>
-  <si>
-    <t>猪突猛進！ドスファンゴ</t>
-  </si>
-  <si>
-    <t>雪山</t>
-  </si>
-  <si>
-    <t>ドスファンゴ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ギアノス10頭の討伐</t>
-  </si>
-  <si>
-    <t>スプラッシュパニック！</t>
-  </si>
-  <si>
-    <t>渓流</t>
-  </si>
-  <si>
-    <t>ルドロス15頭の討伐</t>
-  </si>
-  <si>
-    <t>遺跡平原の狗竜達</t>
-  </si>
-  <si>
-    <t>遺跡平原</t>
-  </si>
-  <si>
-    <t>ジャギィノスとジャギィ合計20頭の討伐</t>
-  </si>
-  <si>
-    <t>ケチャワチャの耳破壊</t>
-  </si>
-  <si>
-    <t>大地を泳ぐモンスター</t>
-  </si>
-  <si>
-    <t>ドスガレオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>魚竜のキモ5個の納品</t>
-  </si>
-  <si>
-    <t>3900z</t>
-  </si>
-  <si>
-    <t>原生林の採集ツアー</t>
-  </si>
-  <si>
-    <t>原生林</t>
+    <t>夜鳥の会・危機一髪！</t>
+  </si>
+  <si>
+    <t>出陣！地底火山の果し合い！</t>
+  </si>
+  <si>
+    <t>ディノバルドの尻尾切断</t>
+  </si>
+  <si>
+    <t>リオレウス狩猟指令</t>
   </si>
   <si>
     <t>ドスランポス1頭の狩猟</t>
   </si>
   <si>
-    <t>ランポス12頭の討伐</t>
-  </si>
-  <si>
-    <t>魚竜のキモは鮮度が命</t>
-  </si>
-  <si>
-    <t>魚竜のキモ12個の納品</t>
-  </si>
-  <si>
-    <t>アオアシラの浸食</t>
-  </si>
-  <si>
-    <t>アオアシラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ホワイトレバー3個の納品</t>
-  </si>
-  <si>
-    <t>ドスゲネポス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ゲネポス12頭の討伐</t>
-  </si>
-  <si>
-    <t>ドクターの毒×麻痺毒研究</t>
-  </si>
-  <si>
-    <t>イーオスとゲネポス合計20頭の討伐</t>
-  </si>
-  <si>
-    <t>垂皮油5個の納品</t>
-  </si>
-  <si>
-    <t>飛甲虫討伐ノススメ</t>
-  </si>
-  <si>
-    <t>ブナハブラ50匹の討伐</t>
-  </si>
-  <si>
-    <t>オルタロス15匹の討伐</t>
-  </si>
-  <si>
-    <t>肴のキモはホワイトレバー</t>
-  </si>
-  <si>
-    <t>ケルビ6頭の討伐</t>
-  </si>
-  <si>
-    <t>ウルクスス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガウシカ8頭の討伐</t>
-  </si>
-  <si>
-    <t>悪戯好きの奇猿狐を狩猟せよ</t>
+    <t>黒狼鳥の獰猛警報！！</t>
+  </si>
+  <si>
+    <t>イャンガルルガの頭部と背中破壊</t>
+  </si>
+  <si>
+    <t>泡につつまれ狐につままれ</t>
+  </si>
+  <si>
+    <t>タマツミネの右爪と左爪破壊</t>
+  </si>
+  <si>
+    <t>原生林の曲者たち</t>
+  </si>
+  <si>
+    <t>アルセルタスを除く全ての大型モンスターの狩猟</t>
+  </si>
+  <si>
+    <t>20700z</t>
+  </si>
+  <si>
+    <t>奇猿狐の蛮行を止めろ！</t>
   </si>
   <si>
     <t>ケチャワチャ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを2回成功</t>
-  </si>
-  <si>
-    <t>遺跡平原の採集ツアー</t>
-  </si>
-  <si>
-    <t>ブルファンゴたちの大集会</t>
-  </si>
-  <si>
-    <t>ブルファンゴ20頭の討伐</t>
-  </si>
-  <si>
-    <t>ゲリョス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ロアルドロス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ルドロス12頭の討伐</t>
-  </si>
-  <si>
-    <t>ドス来い！遺跡平原の跳狗竜</t>
-  </si>
-  <si>
-    <t>ドスマッカォ1頭の捕獲</t>
-  </si>
-  <si>
-    <t>マッカォ12頭の討伐</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミ1匹の狩猟</t>
-  </si>
-  <si>
-    <t>ヤオザミ10匹の討伐</t>
-  </si>
-  <si>
-    <t>ニャンターこそ正義のヒーロー</t>
-  </si>
-  <si>
-    <t>集いし強豪</t>
-  </si>
-  <si>
-    <t>闘技場</t>
-  </si>
-  <si>
-    <t>全ての大型モンスターの狩猟</t>
-  </si>
-  <si>
-    <t>超☆メモ帳～跳狗竜狩猟編～</t>
-  </si>
-  <si>
-    <t>ドスマッカォ2頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドスマッカォ頭部破壊</t>
-  </si>
-  <si>
-    <t>強敵、ドスギアノス現る！</t>
-  </si>
-  <si>
-    <t>ドスギアノス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>大師範の試練</t>
-  </si>
-  <si>
-    <t>クンチュウ15匹の討伐</t>
-  </si>
-  <si>
-    <t>ライバルの激突！！</t>
-  </si>
-  <si>
-    <t>水上闘技場</t>
-  </si>
-  <si>
-    <t>ブルファンゴとリノプロス合計30頭の討伐</t>
-  </si>
-  <si>
-    <t>盗まれて原生林！</t>
-  </si>
-  <si>
-    <t>冷徹な吸血鮫</t>
-  </si>
-  <si>
-    <t>집회소★5</t>
-  </si>
-  <si>
-    <t>氷海</t>
-  </si>
-  <si>
-    <t>スクアギル15頭の討伐</t>
-  </si>
-  <si>
-    <t>ドドブランゴ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ブランゴ10頭の討伐</t>
-  </si>
-  <si>
-    <t>マダラなアイツにご執心</t>
-  </si>
-  <si>
-    <t>ドスゲネポス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>激闘！雌火竜リオレイア</t>
-  </si>
-  <si>
-    <t>リオレイア1頭の捕獲</t>
-  </si>
-  <si>
-    <t>乗りよるダウンを2回成功</t>
-  </si>
-  <si>
-    <t>9900z</t>
-  </si>
-  <si>
-    <t>ハンターと玉突き事故</t>
-  </si>
-  <si>
-    <t>クンチュウ30匹の討伐</t>
-  </si>
-  <si>
-    <t>ラングロトラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>溶岩竜ヴォルガノス出現！</t>
-  </si>
-  <si>
-    <t>火山</t>
-  </si>
-  <si>
-    <t>ヴォルガノス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>汗と涙の連続狩猟</t>
-  </si>
-  <si>
-    <t>14400z</t>
-  </si>
-  <si>
-    <t>地底火山のポイント招きネコ</t>
-  </si>
-  <si>
-    <t>地底火山</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント1800pts入手</t>
-  </si>
-  <si>
-    <t>炎天下の麻痺牙</t>
-  </si>
-  <si>
-    <t>孤島の釣り合戦！</t>
-  </si>
-  <si>
-    <t>孤島</t>
-  </si>
-  <si>
-    <t>白金魚3匹の納品</t>
-  </si>
-  <si>
-    <t>孤島の迷惑客</t>
-  </si>
-  <si>
-    <t>ガノトトス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>土砂竜・ボルボロス！</t>
-  </si>
-  <si>
-    <t>ボルボロス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>超☆メモ帳～奇猿狐狩猟編～</t>
-  </si>
-  <si>
-    <t>ケチャワチャ2頭の狩猟</t>
-  </si>
-  <si>
-    <t>牙獣の大粒ナミダ1個の納品</t>
-  </si>
-  <si>
-    <t>グレート・ハンター・ゲーム</t>
-  </si>
-  <si>
-    <t>1700z</t>
-  </si>
-  <si>
-    <t>16500z</t>
-  </si>
-  <si>
-    <t>沼地</t>
-  </si>
-  <si>
-    <t>ランゴスタ50匹の討伐</t>
-  </si>
-  <si>
-    <t>カンタロス20匹の討伐</t>
-  </si>
-  <si>
-    <t>ガララアジャラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガララアジャラの背中破壊</t>
-  </si>
-  <si>
-    <t>壁に耳あり、天井に目あり？</t>
-  </si>
-  <si>
-    <t>フルフル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ザボアザギルの狩猟依頼</t>
-  </si>
-  <si>
-    <t>ザボアザギル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>モンスターのキモ5個の納品</t>
-  </si>
-  <si>
-    <t>地底火山の採集ツアー</t>
-  </si>
-  <si>
-    <t>火山の冒険</t>
-  </si>
-  <si>
-    <t>バサルモス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>渓流の水竜</t>
-  </si>
-  <si>
-    <t>ガノトトス背ビレ破壊</t>
-  </si>
-  <si>
-    <t>キモ・キモ・キモ！！！</t>
-  </si>
-  <si>
-    <t>遺跡平原の精算アイテム納品</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント4000pts入手</t>
-  </si>
-  <si>
-    <t>奇猿狐の耳破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>イャンガルルガの洗礼</t>
-  </si>
-  <si>
-    <t>イャンガルルガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>イャンガルルガの翼爪破壊</t>
-  </si>
-  <si>
-    <t>極寒の地の採掘依頼</t>
-  </si>
-  <si>
-    <t>血石10個の納品</t>
-  </si>
-  <si>
-    <t>ザボアザギルの背ビレ破壊</t>
-  </si>
-  <si>
-    <t>イーオスの親玉たち</t>
-  </si>
-  <si>
-    <t>ドスイーオス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>毒、麻痺、混乱にご用心！</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント1500pts入手</t>
-  </si>
-  <si>
-    <t>14700z</t>
-  </si>
-  <si>
-    <t>桃色大将ババコンガ</t>
-  </si>
-  <si>
-    <t>ババコンガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>なわばりの大フン1個の納品</t>
-  </si>
-  <si>
-    <t>原生林の精算アイテム納品</t>
-  </si>
-  <si>
-    <t>ケルビ15頭の討伐</t>
-  </si>
-  <si>
-    <t>イーオスたちの親玉</t>
-  </si>
-  <si>
-    <t>ドスイーオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>イーオス15頭の討伐</t>
-  </si>
-  <si>
-    <t>獰猛なる矢尻たち</t>
-  </si>
-  <si>
-    <t>スクアギル20頭の討伐</t>
-  </si>
-  <si>
-    <t>不眠のあなたに催眠療法×２</t>
-  </si>
-  <si>
-    <t>ホロロホルル2頭の狩猟</t>
-  </si>
-  <si>
-    <t>女王・リオレイアの狩猟</t>
-  </si>
-  <si>
-    <t>リオレイア1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレイアの尻尾切断</t>
-  </si>
-  <si>
-    <t>ハプルボッカ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>アプケロスのキモ5個の納品</t>
-  </si>
-  <si>
-    <t>氷海の採集ツアー</t>
-  </si>
-  <si>
-    <t>２頭のドスランポス</t>
-  </si>
-  <si>
-    <t>ドスランポス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>知性溢れる？夜鳥狩猟</t>
-  </si>
-  <si>
-    <t>ホロロホルル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ホロロホルルの頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>燃石炭の納品</t>
-  </si>
-  <si>
-    <t>燃石炭20個の納品</t>
-  </si>
-  <si>
-    <t>イャンガルルガの頭部破壊</t>
-  </si>
-  <si>
-    <t>熱砂の喧嘩は武器の素</t>
-  </si>
-  <si>
-    <t>1400z</t>
-  </si>
-  <si>
-    <t>13800z</t>
-  </si>
-  <si>
-    <t>沼地の捕食者・ネルスキュラ</t>
-  </si>
-  <si>
-    <t>ネルスキュラ1匹の狩猟</t>
-  </si>
-  <si>
-    <t>女王のフェロモン1個の納品</t>
-  </si>
-  <si>
-    <t>炎の山の大将軍</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ1匹の狩猟</t>
-  </si>
-  <si>
-    <t>ショウグンギザミの両爪破壊</t>
-  </si>
-  <si>
-    <t>ウラガンキン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リノプロス10頭の討伐</t>
-  </si>
-  <si>
-    <t>9600z</t>
-  </si>
-  <si>
-    <t>サンドのメシよりドスガレオス</t>
-  </si>
-  <si>
-    <t>ドスガレオス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガブラス10頭の討伐</t>
-  </si>
-  <si>
-    <t>疾き迅竜の狩猟披露</t>
-  </si>
-  <si>
-    <t>ナルガクルガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ナルガクルガの尻尾切断</t>
-  </si>
-  <si>
-    <t>落石注意！？</t>
-  </si>
-  <si>
-    <t>火薬岩1個の納品</t>
-  </si>
-  <si>
-    <t>お姉さまは白兎獣がお好き？</t>
-  </si>
-  <si>
-    <t>ウルクスス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>スクアギル10頭の討伐</t>
-  </si>
-  <si>
-    <t>狂乱の立体闘技場</t>
-  </si>
-  <si>
-    <t>집회소★6</t>
-  </si>
-  <si>
-    <t>立体闘技場</t>
-  </si>
-  <si>
-    <t>2200z</t>
-  </si>
-  <si>
-    <t>21600z</t>
-  </si>
-  <si>
-    <t>大海の王・ラギアクルス！</t>
-  </si>
-  <si>
-    <t>ラギアクルス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>10500z</t>
-  </si>
-  <si>
-    <t>夜鳥の頭部破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>ホロロホルルの頭部破壊</t>
-  </si>
-  <si>
-    <t>ドボルがために銅鑼は鳴る</t>
-  </si>
-  <si>
-    <t>ドボルベルク1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドボルベルクのコブ破壊</t>
-  </si>
-  <si>
-    <t>12600z</t>
-  </si>
-  <si>
-    <t>極秘依頼！獰猛なる溶岩竜！</t>
-  </si>
-  <si>
-    <t>ヴォルガノスの頭部と背ビレ破壊</t>
-  </si>
-  <si>
-    <t>どくどくパニック・毒怪鳥！！</t>
-  </si>
-  <si>
-    <t>ゲリョスのトサカ破壊</t>
-  </si>
-  <si>
-    <t>遺跡平原の黒蝕竜調査</t>
-  </si>
-  <si>
-    <t>ゴア・マガラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>11700z</t>
-  </si>
-  <si>
-    <t>ライゼクスの支配圏</t>
-  </si>
-  <si>
-    <t>ライゼクス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ライゼクスの背中破壊</t>
-  </si>
-  <si>
-    <t>12000z</t>
-  </si>
-  <si>
-    <t>最も危険な晩餐</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス1匹の狩猟</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタスの尻尾破壊</t>
-  </si>
-  <si>
-    <t>３頭寄れば獰猛蛙</t>
-  </si>
-  <si>
-    <t>テツカブラ3頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガマの大粒ナミダ1個の納品</t>
-  </si>
-  <si>
-    <t>1600z</t>
-  </si>
-  <si>
-    <t>15900z</t>
-  </si>
-  <si>
-    <t>吹雪に立つ金獅子</t>
-  </si>
-  <si>
-    <t>ラージャン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>意気地없음には鎧竜で喝！</t>
-  </si>
-  <si>
-    <t>グラビモス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>燃えたぎれ！火山の熱闘！！</t>
-  </si>
-  <si>
-    <t>1900z</t>
-  </si>
-  <si>
-    <t>18600z</t>
-  </si>
-  <si>
-    <t>空の王者・リオレウス</t>
-  </si>
-  <si>
-    <t>リオレウス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレウスの頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>孤島の暴君、ダイミョウザザミ</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミの両爪とヤド破壊</t>
-  </si>
-  <si>
-    <t>氷海の精算アイテム納品</t>
-  </si>
-  <si>
-    <t>轟竜狩猟は妹のため</t>
-  </si>
-  <si>
-    <t>ティガレックス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ティガレックスの尻尾切断</t>
-  </si>
-  <si>
-    <t>跳梁し意思を用いず悪成さば</t>
-  </si>
-  <si>
-    <t>獰猛なタテガミを求めて</t>
-  </si>
-  <si>
-    <t>ロアルドロスのタテガミ破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>たんと掘れ燃石炭</t>
-  </si>
-  <si>
-    <t>30分</t>
-  </si>
-  <si>
-    <t>燃石炭10個以上納品もしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>ラージャンの角破壊</t>
-  </si>
-  <si>
-    <t>絞蛇竜は不気味に嗤う</t>
-  </si>
-  <si>
-    <t>ガララアジャラの頭部と尻尾破壊</t>
-  </si>
-  <si>
-    <t>ジンオウガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ジンオウガの尻尾切断</t>
-  </si>
-  <si>
-    <t>素敵な素敵な電竜頭</t>
-  </si>
-  <si>
-    <t>火の海に棲む竜！</t>
-  </si>
-  <si>
-    <t>アグナコトル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ウロコトル10頭の討伐</t>
-  </si>
-  <si>
-    <t>竜の大鎚・火山の化身</t>
-  </si>
-  <si>
-    <t>ウラガンキンの顎破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>地底火山に響く侵略の足音</t>
-  </si>
-  <si>
-    <t>18900z</t>
-  </si>
-  <si>
-    <t>奥様は白水晶がお好き</t>
-  </si>
-  <si>
-    <t>白水晶の原石2個の納品</t>
-  </si>
-  <si>
-    <t>ガミザミ12匹の討伐</t>
-  </si>
-  <si>
-    <t>3300z</t>
-  </si>
-  <si>
-    <t>ワイルドバレット</t>
-  </si>
-  <si>
-    <t>18300z</t>
-  </si>
-  <si>
-    <t>ガムート1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガムートの頭部破壊</t>
-  </si>
-  <si>
-    <t>沼地の狂騒楽団</t>
-  </si>
-  <si>
-    <t>16800z</t>
-  </si>
-  <si>
-    <t>熱願の穴掘り</t>
-  </si>
-  <si>
-    <t>アグナコトル1頭の捕獲</t>
-  </si>
-  <si>
-    <t>アグナコトルの頭部破壊</t>
-  </si>
-  <si>
-    <t>キリンの討伐</t>
-  </si>
-  <si>
-    <t>ギルドフラッグを山頂に設置</t>
-  </si>
-  <si>
-    <t>スノードロップをあなたに</t>
-  </si>
-  <si>
-    <t>ガノトトス冒険記</t>
-  </si>
-  <si>
-    <t>ガノトトスの頭部と背ビレ破壊</t>
-  </si>
-  <si>
-    <t>ベリオロスの狩猟</t>
-  </si>
-  <si>
-    <t>ベリオロス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>メデタイお仕事</t>
-  </si>
-  <si>
-    <t>隕石の大塊2個の納品</t>
-  </si>
-  <si>
-    <t>妖艶なる舞</t>
-  </si>
-  <si>
-    <t>タマミツネ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ジャギィノス掃討作戦</t>
-  </si>
-  <si>
-    <t>ジャギィノス25頭の討伐</t>
-  </si>
-  <si>
-    <t>イビルジョー1頭の狩猟</t>
-  </si>
-  <si>
-    <t>動くこと、山の如し！</t>
-  </si>
-  <si>
-    <t>ドボルベルク1頭の捕獲</t>
-  </si>
-  <si>
-    <t>リオレウス1頭とリオレイア1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドドドドブランゴ！</t>
-  </si>
-  <si>
-    <t>ドドブランゴ3頭の狩猟</t>
-  </si>
-  <si>
-    <t>16200z</t>
-  </si>
-  <si>
-    <t>スリルとショックの氷海ツアー</t>
-  </si>
-  <si>
-    <t>17700z</t>
-  </si>
-  <si>
-    <t>クール！ザボアザギル！</t>
-  </si>
-  <si>
-    <t>ザボアザギルの頭部と背ビレ破壊</t>
-  </si>
-  <si>
-    <t>恐暴竜の根城</t>
-  </si>
-  <si>
-    <t>イビルジョーの頭部破壊</t>
-  </si>
-  <si>
-    <t>飛竜たちの乱舞</t>
-  </si>
-  <si>
-    <t>幻のハップル？</t>
-  </si>
-  <si>
-    <t>ハプルポッカの両前脚破壊</t>
-  </si>
-  <si>
-    <t>フルフルは黒き影と共に</t>
-  </si>
-  <si>
-    <t>フルフルの頭部と胴体破壊</t>
-  </si>
-  <si>
-    <t>攻究せよ、鎌持つショウグン</t>
-  </si>
-  <si>
-    <t>ショウグンギザミの両爪とヤド破壊</t>
-  </si>
-  <si>
-    <t>猿王伝説！</t>
-  </si>
-  <si>
-    <t>ラージャンの尻尾破壊</t>
-  </si>
-  <si>
-    <t>闇より生まれし者</t>
-  </si>
-  <si>
-    <t>ナルガクルガの頭部と刃翼破壊</t>
-  </si>
-  <si>
-    <t>燃えさかる大河</t>
-  </si>
-  <si>
-    <t>ヴォルガノス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>獰猛と化した鬼蛙</t>
-  </si>
-  <si>
-    <t>テツカブラの顎と後脚破壊</t>
-  </si>
-  <si>
-    <t>オーラ漂う陸の女王！</t>
-  </si>
-  <si>
-    <t>リオレイアの翼破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>子分・取り分・イイ気分♪</t>
-  </si>
-  <si>
-    <t>乗りによるダウン4回成功</t>
-  </si>
-  <si>
-    <t>砂漠の彼方から</t>
-  </si>
-  <si>
-    <t>ディノバルド1頭の狩猟</t>
-  </si>
-  <si>
-    <t>山紫水明の地</t>
-  </si>
-  <si>
-    <t>塔の秘境</t>
-  </si>
-  <si>
-    <t>心を燃やせ、燃石炭！</t>
-  </si>
-  <si>
-    <t>燃石炭30個の納品</t>
-  </si>
-  <si>
-    <t>凍てつく牙は獰猛に</t>
-  </si>
-  <si>
-    <t>ドドブランゴの牙と尻尾破壊</t>
-  </si>
-  <si>
-    <t>振り返ってもヤツがいる</t>
-  </si>
-  <si>
-    <t>獰猛個体・調査依頼</t>
-  </si>
-  <si>
-    <t>イャンクック1頭の狩猟狩猟</t>
-  </si>
-  <si>
-    <t>イャンクックの頭部破壊</t>
-  </si>
-  <si>
-    <t>不動の山神</t>
-  </si>
-  <si>
-    <t>ボボノタン5個の納品</t>
-  </si>
-  <si>
-    <t>地底火山の精算アイテム納品</t>
-  </si>
-  <si>
-    <t>ズアロボス15頭の討伐</t>
-  </si>
-  <si>
-    <t>重厚で重甲な晩餐？</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス1匹の捕獲</t>
-  </si>
-  <si>
-    <t>夜鳥の会・危機一髪！</t>
-  </si>
-  <si>
-    <t>出陣！地底火山の果し合い！</t>
-  </si>
-  <si>
-    <t>ディノバルドの尻尾切断</t>
-  </si>
-  <si>
-    <t>リオレウス狩猟指令</t>
-  </si>
-  <si>
-    <t>黒狼鳥の獰猛警報！！</t>
-  </si>
-  <si>
-    <t>イャンガルルガの頭部と背中破壊</t>
-  </si>
-  <si>
-    <t>泡につつまれ狐につままれ</t>
-  </si>
-  <si>
-    <t>タマツミネの右爪と左爪破壊</t>
-  </si>
-  <si>
-    <t>原生林の曲者たち</t>
-  </si>
-  <si>
-    <t>アルセルタスを除く全ての大型モンスターの狩猟</t>
-  </si>
-  <si>
-    <t>20700z</t>
-  </si>
-  <si>
-    <t>奇猿狐の蛮行を止めろ！</t>
   </si>
   <si>
     <t>ケチャワチャの爪と耳破壊</t>
@@ -3274,8 +3334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C89" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D33:I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3283,7 +3344,7 @@
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="66.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.42578125" customWidth="1"/>
@@ -6765,10 +6826,10 @@
         <v>14</v>
       </c>
       <c r="F109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" t="s">
         <v>430</v>
-      </c>
-      <c r="G109" t="s">
-        <v>431</v>
       </c>
       <c r="H109" t="s">
         <v>79</v>
@@ -6782,10 +6843,10 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
+        <v>431</v>
+      </c>
+      <c r="B110" t="s">
         <v>432</v>
-      </c>
-      <c r="B110" t="s">
-        <v>433</v>
       </c>
       <c r="C110" t="s">
         <v>415</v>
@@ -6797,7 +6858,7 @@
         <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>434</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>421</v>
@@ -6816,17 +6877,20 @@
       <c r="A111" t="s">
         <v>100</v>
       </c>
+      <c r="B111" t="s">
+        <v>101</v>
+      </c>
       <c r="C111" t="s">
         <v>415</v>
       </c>
       <c r="D111" t="s">
-        <v>435</v>
+        <v>36</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>436</v>
+        <v>23</v>
       </c>
       <c r="G111" t="s">
         <v>24</v>
@@ -6845,17 +6909,20 @@
       <c r="A112" t="s">
         <v>102</v>
       </c>
+      <c r="B112" t="s">
+        <v>103</v>
+      </c>
       <c r="C112" t="s">
         <v>415</v>
       </c>
       <c r="D112" t="s">
-        <v>437</v>
+        <v>64</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>436</v>
+        <v>23</v>
       </c>
       <c r="G112" t="s">
         <v>24</v>
@@ -6874,20 +6941,23 @@
       <c r="A113" t="s">
         <v>76</v>
       </c>
+      <c r="B113" t="s">
+        <v>77</v>
+      </c>
       <c r="C113" t="s">
         <v>415</v>
       </c>
       <c r="D113" t="s">
-        <v>435</v>
+        <v>36</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="G113" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H113" t="s">
         <v>19</v>
@@ -6901,28 +6971,31 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>440</v>
+        <v>434</v>
+      </c>
+      <c r="B114" t="s">
+        <v>435</v>
       </c>
       <c r="C114" t="s">
         <v>415</v>
       </c>
       <c r="D114" t="s">
-        <v>441</v>
+        <v>13</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G114" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H114" t="s">
         <v>185</v>
       </c>
       <c r="I114" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="J114" t="s">
         <v>67</v>
@@ -6930,22 +7003,25 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>444</v>
+        <v>438</v>
+      </c>
+      <c r="B115" t="s">
+        <v>439</v>
       </c>
       <c r="C115" t="s">
         <v>415</v>
       </c>
       <c r="D115" t="s">
-        <v>445</v>
+        <v>29</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>446</v>
+        <v>138</v>
       </c>
       <c r="G115" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H115" t="s">
         <v>17</v>
@@ -6959,19 +7035,22 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>448</v>
+        <v>441</v>
+      </c>
+      <c r="B116" t="s">
+        <v>442</v>
       </c>
       <c r="C116" t="s">
         <v>415</v>
       </c>
       <c r="D116" t="s">
-        <v>449</v>
+        <v>46</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G116" t="s">
         <v>24</v>
@@ -6988,22 +7067,25 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>451</v>
+        <v>444</v>
+      </c>
+      <c r="B117" t="s">
+        <v>445</v>
       </c>
       <c r="C117" t="s">
         <v>415</v>
       </c>
       <c r="D117" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G117" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H117" t="s">
         <v>17</v>
@@ -7019,17 +7101,20 @@
       <c r="A118" t="s">
         <v>85</v>
       </c>
+      <c r="B118" t="s">
+        <v>86</v>
+      </c>
       <c r="C118" t="s">
         <v>415</v>
       </c>
       <c r="D118" t="s">
-        <v>449</v>
+        <v>46</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>436</v>
+        <v>23</v>
       </c>
       <c r="G118" t="s">
         <v>24</v>
@@ -7046,28 +7131,31 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>455</v>
+        <v>448</v>
+      </c>
+      <c r="B119" t="s">
+        <v>449</v>
       </c>
       <c r="C119" t="s">
         <v>415</v>
       </c>
       <c r="D119" t="s">
-        <v>437</v>
+        <v>64</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>456</v>
+        <v>65</v>
       </c>
       <c r="G119" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H119" t="s">
         <v>126</v>
       </c>
       <c r="I119" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
@@ -7075,19 +7163,22 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>459</v>
+        <v>452</v>
+      </c>
+      <c r="B120" t="s">
+        <v>453</v>
       </c>
       <c r="C120" t="s">
         <v>415</v>
       </c>
       <c r="D120" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>436</v>
+        <v>23</v>
       </c>
       <c r="G120" t="s">
         <v>24</v>
@@ -7106,20 +7197,23 @@
       <c r="A121" t="s">
         <v>49</v>
       </c>
+      <c r="B121" t="s">
+        <v>50</v>
+      </c>
       <c r="C121" t="s">
         <v>415</v>
       </c>
       <c r="D121" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>461</v>
+        <v>51</v>
       </c>
       <c r="G121" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H121" t="s">
         <v>17</v>
@@ -7133,19 +7227,22 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>463</v>
+        <v>455</v>
+      </c>
+      <c r="B122" t="s">
+        <v>456</v>
       </c>
       <c r="C122" t="s">
         <v>415</v>
       </c>
       <c r="D122" t="s">
-        <v>437</v>
+        <v>64</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G122" t="s">
         <v>24</v>
@@ -7162,22 +7259,25 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>465</v>
+        <v>458</v>
+      </c>
+      <c r="B123" t="s">
+        <v>459</v>
       </c>
       <c r="C123" t="s">
         <v>415</v>
       </c>
       <c r="D123" t="s">
-        <v>449</v>
+        <v>46</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>466</v>
+        <v>106</v>
       </c>
       <c r="G123" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="H123" t="s">
         <v>17</v>
@@ -7193,20 +7293,23 @@
       <c r="A124" t="s">
         <v>87</v>
       </c>
+      <c r="B124" t="s">
+        <v>88</v>
+      </c>
       <c r="C124" t="s">
         <v>415</v>
       </c>
       <c r="D124" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>468</v>
+        <v>89</v>
       </c>
       <c r="G124" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H124" t="s">
         <v>17</v>
@@ -7220,22 +7323,25 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>470</v>
+        <v>462</v>
+      </c>
+      <c r="B125" t="s">
+        <v>463</v>
       </c>
       <c r="C125" t="s">
         <v>415</v>
       </c>
       <c r="D125" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G125" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H125" t="s">
         <v>17</v>
@@ -7249,22 +7355,25 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>473</v>
+        <v>466</v>
+      </c>
+      <c r="B126" t="s">
+        <v>467</v>
       </c>
       <c r="C126" t="s">
         <v>415</v>
       </c>
       <c r="D126" t="s">
-        <v>449</v>
+        <v>46</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>474</v>
+        <v>162</v>
       </c>
       <c r="G126" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H126" t="s">
         <v>79</v>
@@ -7278,22 +7387,25 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>476</v>
+        <v>469</v>
+      </c>
+      <c r="B127" t="s">
+        <v>470</v>
       </c>
       <c r="C127" t="s">
         <v>415</v>
       </c>
       <c r="D127" t="s">
-        <v>441</v>
+        <v>13</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G127" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H127" t="s">
         <v>17</v>
@@ -7309,20 +7421,23 @@
       <c r="A128" t="s">
         <v>128</v>
       </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
       <c r="C128" t="s">
         <v>415</v>
       </c>
       <c r="D128" t="s">
-        <v>445</v>
+        <v>29</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>478</v>
+        <v>130</v>
       </c>
       <c r="G128" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H128" t="s">
         <v>79</v>
@@ -7336,22 +7451,25 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>480</v>
+        <v>473</v>
+      </c>
+      <c r="B129" t="s">
+        <v>474</v>
       </c>
       <c r="C129" t="s">
         <v>415</v>
       </c>
       <c r="D129" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G129" t="s">
-        <v>482</v>
+        <v>16</v>
       </c>
       <c r="H129" t="s">
         <v>19</v>
@@ -7365,19 +7483,22 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>483</v>
+        <v>476</v>
+      </c>
+      <c r="B130" t="s">
+        <v>477</v>
       </c>
       <c r="C130" t="s">
         <v>415</v>
       </c>
       <c r="D130" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>436</v>
+        <v>23</v>
       </c>
       <c r="G130" t="s">
         <v>24</v>
@@ -7394,22 +7515,25 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>484</v>
+        <v>478</v>
+      </c>
+      <c r="B131" t="s">
+        <v>479</v>
       </c>
       <c r="C131" t="s">
         <v>415</v>
       </c>
       <c r="D131" t="s">
-        <v>441</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>485</v>
+        <v>208</v>
       </c>
       <c r="G131" t="s">
-        <v>486</v>
+        <v>124</v>
       </c>
       <c r="H131" t="s">
         <v>17</v>
@@ -7425,20 +7549,23 @@
       <c r="A132" t="s">
         <v>139</v>
       </c>
+      <c r="B132" t="s">
+        <v>140</v>
+      </c>
       <c r="C132" t="s">
         <v>415</v>
       </c>
       <c r="D132" t="s">
-        <v>449</v>
+        <v>46</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>487</v>
+        <v>141</v>
       </c>
       <c r="G132" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H132" t="s">
         <v>19</v>
@@ -7452,22 +7579,25 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>489</v>
+        <v>481</v>
+      </c>
+      <c r="B133" t="s">
+        <v>482</v>
       </c>
       <c r="C133" t="s">
         <v>415</v>
       </c>
       <c r="D133" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G133" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H133" t="s">
         <v>126</v>
@@ -7483,20 +7613,23 @@
       <c r="A134" t="s">
         <v>92</v>
       </c>
+      <c r="B134" t="s">
+        <v>93</v>
+      </c>
       <c r="C134" t="s">
         <v>415</v>
       </c>
       <c r="D134" t="s">
-        <v>437</v>
+        <v>64</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
       </c>
       <c r="F134" t="s">
-        <v>492</v>
+        <v>94</v>
       </c>
       <c r="G134" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="H134" t="s">
         <v>19</v>
@@ -7510,13 +7643,16 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>494</v>
+        <v>486</v>
+      </c>
+      <c r="B135" t="s">
+        <v>487</v>
       </c>
       <c r="C135" t="s">
         <v>415</v>
       </c>
       <c r="D135" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
@@ -7541,17 +7677,20 @@
       <c r="A136" t="s">
         <v>20</v>
       </c>
+      <c r="B136" t="s">
+        <v>21</v>
+      </c>
       <c r="C136" t="s">
         <v>415</v>
       </c>
       <c r="D136" t="s">
-        <v>441</v>
+        <v>13</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>436</v>
+        <v>23</v>
       </c>
       <c r="G136" t="s">
         <v>24</v>
@@ -7570,17 +7709,20 @@
       <c r="A137" t="s">
         <v>134</v>
       </c>
+      <c r="B137" t="s">
+        <v>135</v>
+      </c>
       <c r="C137" t="s">
         <v>415</v>
       </c>
       <c r="D137" t="s">
-        <v>445</v>
+        <v>29</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
       </c>
       <c r="F137" t="s">
-        <v>436</v>
+        <v>23</v>
       </c>
       <c r="G137" t="s">
         <v>24</v>
@@ -7597,19 +7739,22 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>495</v>
+        <v>488</v>
+      </c>
+      <c r="B138" t="s">
+        <v>489</v>
       </c>
       <c r="C138" t="s">
         <v>415</v>
       </c>
       <c r="D138" t="s">
-        <v>496</v>
+        <v>299</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>497</v>
+        <v>287</v>
       </c>
       <c r="G138" t="s">
         <v>24</v>
@@ -7626,28 +7771,31 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>498</v>
+        <v>490</v>
+      </c>
+      <c r="B139" t="s">
+        <v>491</v>
       </c>
       <c r="C139" t="s">
         <v>415</v>
       </c>
       <c r="D139" t="s">
-        <v>435</v>
+        <v>36</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="G139" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H139" t="s">
         <v>126</v>
       </c>
       <c r="I139" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J139" t="s">
         <v>33</v>
@@ -7655,22 +7803,25 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>501</v>
+        <v>494</v>
+      </c>
+      <c r="B140" t="s">
+        <v>495</v>
       </c>
       <c r="C140" t="s">
         <v>415</v>
       </c>
       <c r="D140" t="s">
-        <v>445</v>
+        <v>29</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G140" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H140" t="s">
         <v>17</v>
@@ -7684,19 +7835,22 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>503</v>
+        <v>497</v>
+      </c>
+      <c r="B141" t="s">
+        <v>498</v>
       </c>
       <c r="C141" t="s">
         <v>415</v>
       </c>
       <c r="D141" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G141" t="s">
         <v>24</v>
@@ -7713,19 +7867,22 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>505</v>
+        <v>500</v>
+      </c>
+      <c r="B142" t="s">
+        <v>501</v>
       </c>
       <c r="C142" t="s">
         <v>415</v>
       </c>
       <c r="D142" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G142" t="s">
         <v>24</v>
@@ -7742,22 +7899,25 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>508</v>
+        <v>504</v>
+      </c>
+      <c r="B143" t="s">
+        <v>505</v>
       </c>
       <c r="C143" t="s">
         <v>415</v>
       </c>
       <c r="D143" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="E143" t="s">
         <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>486</v>
+        <v>124</v>
       </c>
       <c r="G143" t="s">
-        <v>482</v>
+        <v>16</v>
       </c>
       <c r="H143" t="s">
         <v>19</v>
@@ -7771,19 +7931,19 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
+        <v>506</v>
+      </c>
+      <c r="C144" t="s">
+        <v>507</v>
+      </c>
+      <c r="D144" t="s">
+        <v>508</v>
+      </c>
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" t="s">
         <v>509</v>
-      </c>
-      <c r="C144" t="s">
-        <v>510</v>
-      </c>
-      <c r="D144" t="s">
-        <v>511</v>
-      </c>
-      <c r="E144" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" t="s">
-        <v>512</v>
       </c>
       <c r="G144" t="s">
         <v>24</v>
@@ -7803,19 +7963,19 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
+        <v>507</v>
+      </c>
+      <c r="D145" t="s">
         <v>510</v>
       </c>
-      <c r="D145" t="s">
-        <v>445</v>
-      </c>
       <c r="E145" t="s">
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G145" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H145" t="s">
         <v>232</v>
@@ -7829,19 +7989,19 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
+        <v>513</v>
+      </c>
+      <c r="C146" t="s">
+        <v>507</v>
+      </c>
+      <c r="D146" t="s">
+        <v>514</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" t="s">
         <v>515</v>
-      </c>
-      <c r="C146" t="s">
-        <v>510</v>
-      </c>
-      <c r="D146" t="s">
-        <v>460</v>
-      </c>
-      <c r="E146" t="s">
-        <v>14</v>
-      </c>
-      <c r="F146" t="s">
-        <v>516</v>
       </c>
       <c r="G146" t="s">
         <v>24</v>
@@ -7858,13 +8018,13 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
+        <v>516</v>
+      </c>
+      <c r="C147" t="s">
+        <v>507</v>
+      </c>
+      <c r="D147" t="s">
         <v>517</v>
-      </c>
-      <c r="C147" t="s">
-        <v>510</v>
-      </c>
-      <c r="D147" t="s">
-        <v>441</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -7890,25 +8050,25 @@
         <v>521</v>
       </c>
       <c r="C148" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D148" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G148" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H148" t="s">
         <v>126</v>
       </c>
       <c r="I148" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J148" t="s">
         <v>369</v>
@@ -7916,19 +8076,19 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C149" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D149" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G149" t="s">
         <v>519</v>
@@ -7945,19 +8105,19 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C150" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D150" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G150" t="s">
         <v>24</v>
@@ -7966,7 +8126,7 @@
         <v>48</v>
       </c>
       <c r="I150" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J150" t="s">
         <v>25</v>
@@ -7974,19 +8134,19 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C151" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D151" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G151" t="s">
         <v>24</v>
@@ -7995,7 +8155,7 @@
         <v>126</v>
       </c>
       <c r="I151" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J151" t="s">
         <v>25</v>
@@ -8003,19 +8163,19 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C152" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D152" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>468</v>
+        <v>536</v>
       </c>
       <c r="G152" t="s">
         <v>24</v>
@@ -8032,19 +8192,19 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C153" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D153" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G153" t="s">
         <v>24</v>
@@ -8061,19 +8221,19 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C154" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D154" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G154" t="s">
         <v>24</v>
@@ -8090,22 +8250,22 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C155" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D155" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
       </c>
       <c r="F155" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G155" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H155" t="s">
         <v>185</v>
@@ -8119,22 +8279,22 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C156" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D156" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
       </c>
       <c r="F156" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="G156" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H156" t="s">
         <v>232</v>
@@ -8148,28 +8308,28 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C157" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D157" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="E157" t="s">
         <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G157" t="s">
         <v>24</v>
       </c>
       <c r="H157" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="I157" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="J157" t="s">
         <v>25</v>
@@ -8180,19 +8340,19 @@
         <v>164</v>
       </c>
       <c r="C158" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D158" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
       </c>
       <c r="F158" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="G158" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="H158" t="s">
         <v>19</v>
@@ -8209,19 +8369,19 @@
         <v>187</v>
       </c>
       <c r="C159" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D159" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="G159" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="H159" t="s">
         <v>39</v>
@@ -8238,16 +8398,16 @@
         <v>263</v>
       </c>
       <c r="C160" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D160" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="G160" t="s">
         <v>24</v>
@@ -8264,19 +8424,19 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C161" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D161" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="G161" t="s">
         <v>24</v>
@@ -8293,22 +8453,22 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="C162" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D162" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E162" t="s">
         <v>14</v>
       </c>
       <c r="F162" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="G162" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="H162" t="s">
         <v>185</v>
@@ -8322,19 +8482,19 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="C163" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D163" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E163" t="s">
         <v>14</v>
       </c>
       <c r="F163" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="G163" t="s">
         <v>24</v>
@@ -8351,22 +8511,22 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="C164" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D164" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E164" t="s">
         <v>14</v>
       </c>
       <c r="F164" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="G164" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H164" t="s">
         <v>185</v>
@@ -8380,22 +8540,22 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="C165" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D165" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
       </c>
       <c r="F165" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G165" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="H165" t="s">
         <v>232</v>
@@ -8409,19 +8569,19 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="C166" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D166" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E166" t="s">
         <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="G166" t="s">
         <v>24</v>
@@ -8438,22 +8598,22 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="C167" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D167" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="G167" t="s">
-        <v>475</v>
+        <v>573</v>
       </c>
       <c r="H167" t="s">
         <v>19</v>
@@ -8467,19 +8627,19 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="C168" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D168" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E168" t="s">
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>454</v>
+        <v>575</v>
       </c>
       <c r="G168" t="s">
         <v>24</v>
@@ -8496,22 +8656,22 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="C169" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D169" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E169" t="s">
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="G169" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="H169" t="s">
         <v>39</v>
@@ -8525,22 +8685,22 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="C170" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D170" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E170" t="s">
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="G170" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="H170" t="s">
         <v>17</v>
@@ -8554,19 +8714,19 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C171" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D171" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E171" t="s">
         <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="G171" t="s">
         <v>24</v>
@@ -8583,28 +8743,28 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="C172" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D172" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G172" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H172" t="s">
         <v>48</v>
       </c>
       <c r="I172" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="J172" t="s">
         <v>18</v>
@@ -8612,22 +8772,22 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="C173" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D173" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E173" t="s">
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="G173" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="H173" t="s">
         <v>19</v>
@@ -8641,22 +8801,22 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="C174" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D174" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="G174" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="H174" t="s">
         <v>19</v>
@@ -8670,22 +8830,22 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="C175" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D175" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="G175" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="H175" t="s">
         <v>79</v>
@@ -8699,22 +8859,22 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="C176" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D176" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="G176" t="s">
-        <v>438</v>
+        <v>598</v>
       </c>
       <c r="H176" t="s">
         <v>79</v>
@@ -8728,22 +8888,22 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="C177" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D177" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="G177" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H177" t="s">
         <v>273</v>
@@ -8757,22 +8917,22 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="C178" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D178" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="G178" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="H178" t="s">
         <v>232</v>
@@ -8789,19 +8949,19 @@
         <v>202</v>
       </c>
       <c r="C179" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D179" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="G179" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="H179" t="s">
         <v>185</v>
@@ -8815,19 +8975,19 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C180" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D180" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
       </c>
       <c r="F180" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="G180" t="s">
         <v>24</v>
@@ -8844,19 +9004,19 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="C181" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D181" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
       </c>
       <c r="F181" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="G181" t="s">
         <v>24</v>
@@ -8865,7 +9025,7 @@
         <v>126</v>
       </c>
       <c r="I181" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J181" t="s">
         <v>25</v>
@@ -8873,22 +9033,22 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="C182" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D182" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="G182" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="H182" t="s">
         <v>185</v>
@@ -8902,22 +9062,22 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="C183" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D183" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="G183" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="H183" t="s">
         <v>79</v>
@@ -8931,28 +9091,28 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="C184" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D184" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G184" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H184" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="I184" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="J184" t="s">
         <v>18</v>
@@ -8963,16 +9123,16 @@
         <v>387</v>
       </c>
       <c r="C185" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D185" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="G185" t="s">
         <v>24</v>
@@ -8989,22 +9149,22 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="C186" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D186" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="G186" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="H186" t="s">
         <v>232</v>
@@ -9018,22 +9178,22 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="C187" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D187" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="G187" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="H187" t="s">
         <v>232</v>
@@ -9050,16 +9210,16 @@
         <v>212</v>
       </c>
       <c r="C188" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D188" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="G188" t="s">
         <v>24</v>
@@ -9079,25 +9239,25 @@
         <v>279</v>
       </c>
       <c r="C189" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D189" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E189" t="s">
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="G189" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="H189" t="s">
         <v>273</v>
       </c>
       <c r="I189" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
@@ -9105,19 +9265,19 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="C190" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D190" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="G190" t="s">
         <v>24</v>
@@ -9137,19 +9297,19 @@
         <v>171</v>
       </c>
       <c r="C191" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D191" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E191" t="s">
         <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>438</v>
+        <v>598</v>
       </c>
       <c r="G191" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="H191" t="s">
         <v>19</v>
@@ -9163,22 +9323,22 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="C192" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D192" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E192" t="s">
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="G192" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="H192" t="s">
         <v>39</v>
@@ -9192,22 +9352,22 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="C193" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D193" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G193" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="H193" t="s">
         <v>19</v>
@@ -9221,22 +9381,22 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="C194" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D194" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="G194" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="H194" t="s">
         <v>19</v>
@@ -9250,28 +9410,28 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="C195" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D195" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G195" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H195" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="I195" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="J195" t="s">
         <v>80</v>
@@ -9279,28 +9439,28 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="C196" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D196" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="G196" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H196" t="s">
         <v>323</v>
       </c>
       <c r="I196" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="J196" t="s">
         <v>67</v>
@@ -9308,19 +9468,19 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="C197" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D197" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="G197" t="s">
         <v>24</v>
@@ -9337,28 +9497,28 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="C198" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D198" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
       </c>
       <c r="F198" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="G198" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="H198" t="s">
         <v>333</v>
       </c>
       <c r="I198" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="J198" t="s">
         <v>53</v>
@@ -9366,22 +9526,22 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
+        <v>652</v>
+      </c>
+      <c r="C199" t="s">
         <v>639</v>
       </c>
-      <c r="C199" t="s">
-        <v>626</v>
-      </c>
       <c r="D199" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G199" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="H199" t="s">
         <v>39</v>
@@ -9395,22 +9555,22 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="C200" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D200" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>486</v>
+        <v>655</v>
       </c>
       <c r="G200" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="H200" t="s">
         <v>185</v>
@@ -9424,19 +9584,19 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="C201" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D201" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E201" t="s">
         <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="G201" t="s">
         <v>24</v>
@@ -9445,7 +9605,7 @@
         <v>33</v>
       </c>
       <c r="I201" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="J201" t="s">
         <v>25</v>
@@ -9453,28 +9613,28 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="C202" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D202" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="E202" t="s">
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="G202" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="H202" t="s">
         <v>33</v>
       </c>
       <c r="I202" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="J202" t="s">
         <v>53</v>
@@ -9482,28 +9642,28 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="C203" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D203" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="G203" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="H203" t="s">
         <v>323</v>
       </c>
       <c r="I203" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="J203" t="s">
         <v>53</v>
@@ -9511,28 +9671,28 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="C204" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D204" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="G204" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="H204" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="I204" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="J204" t="s">
         <v>53</v>
@@ -9540,19 +9700,19 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="C205" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D205" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="G205" t="s">
         <v>519</v>
@@ -9569,22 +9729,22 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="C206" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D206" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="G206" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H206" t="s">
         <v>33</v>
@@ -9598,28 +9758,28 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="C207" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D207" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G207" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H207" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="I207" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="J207" t="s">
         <v>80</v>
@@ -9627,28 +9787,28 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="C208" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D208" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="G208" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="H208" t="s">
         <v>323</v>
       </c>
       <c r="I208" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="J208" t="s">
         <v>53</v>
@@ -9656,22 +9816,22 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="C209" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D209" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>492</v>
+        <v>683</v>
       </c>
       <c r="G209" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="H209" t="s">
         <v>232</v>
@@ -9685,22 +9845,22 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="C210" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D210" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E210" t="s">
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="G210" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H210" t="s">
         <v>39</v>
@@ -9714,28 +9874,28 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="C211" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D211" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="G211" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="H211" t="s">
         <v>333</v>
       </c>
       <c r="I211" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="J211" t="s">
         <v>53</v>
@@ -9743,19 +9903,19 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="C212" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D212" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E212" t="s">
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="G212" t="s">
         <v>519</v>
@@ -9764,7 +9924,7 @@
         <v>33</v>
       </c>
       <c r="I212" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="J212" t="s">
         <v>53</v>
@@ -9772,22 +9932,22 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="C213" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D213" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E213" t="s">
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>487</v>
+        <v>691</v>
       </c>
       <c r="G213" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="H213" t="s">
         <v>232</v>
@@ -9801,22 +9961,22 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="C214" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D214" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E214" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="F214" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="G214" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="H214" t="s">
         <v>79</v>
@@ -9830,22 +9990,22 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="C215" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D215" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="G215" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="H215" t="s">
         <v>273</v>
@@ -9862,19 +10022,19 @@
         <v>361</v>
       </c>
       <c r="C216" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D216" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="G216" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="H216" t="s">
         <v>33</v>
@@ -9888,28 +10048,28 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="C217" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D217" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="G217" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H217" t="s">
         <v>33</v>
       </c>
       <c r="I217" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="J217" t="s">
         <v>67</v>
@@ -9917,22 +10077,22 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="C218" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D218" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E218" t="s">
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="G218" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="H218" t="s">
         <v>33</v>
@@ -9946,28 +10106,28 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="C219" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D219" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
       </c>
       <c r="F219" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="G219" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="H219" t="s">
         <v>33</v>
       </c>
       <c r="I219" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="J219" t="s">
         <v>91</v>
@@ -9975,28 +10135,28 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="C220" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D220" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G220" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H220" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="I220" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="J220" t="s">
         <v>80</v>
@@ -10004,22 +10164,22 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="C221" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D221" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
       </c>
       <c r="F221" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="G221" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="H221" t="s">
         <v>19</v>
@@ -10028,33 +10188,33 @@
         <v>154</v>
       </c>
       <c r="J221" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="C222" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D222" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
       </c>
       <c r="F222" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G222" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H222" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="I222" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="J222" t="s">
         <v>80</v>
@@ -10065,25 +10225,25 @@
         <v>396</v>
       </c>
       <c r="C223" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D223" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
       </c>
       <c r="F223" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="G223" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="H223" t="s">
         <v>33</v>
       </c>
       <c r="I223" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="J223" t="s">
         <v>53</v>
@@ -10091,28 +10251,28 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="C224" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D224" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E224" t="s">
         <v>14</v>
       </c>
       <c r="F224" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G224" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H224" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="I224" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="J224" t="s">
         <v>80</v>
@@ -10120,22 +10280,22 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="C225" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D225" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="G225" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="H225" t="s">
         <v>48</v>
@@ -10152,25 +10312,25 @@
         <v>356</v>
       </c>
       <c r="C226" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D226" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
       </c>
       <c r="F226" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G226" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="H226" t="s">
         <v>48</v>
       </c>
       <c r="I226" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J226" t="s">
         <v>53</v>
@@ -10178,19 +10338,19 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="C227" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D227" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
       </c>
       <c r="F227" t="s">
-        <v>478</v>
+        <v>725</v>
       </c>
       <c r="G227" t="s">
         <v>24</v>
@@ -10207,22 +10367,22 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="C228" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D228" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
       </c>
       <c r="F228" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G228" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="H228" t="s">
         <v>39</v>
@@ -10236,28 +10396,28 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="C229" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D229" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E229" t="s">
         <v>14</v>
       </c>
       <c r="F229" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="G229" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H229" t="s">
         <v>323</v>
       </c>
       <c r="I229" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="J229" t="s">
         <v>67</v>
@@ -10268,16 +10428,16 @@
         <v>383</v>
       </c>
       <c r="C230" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D230" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G230" t="s">
         <v>24</v>
@@ -10286,7 +10446,7 @@
         <v>48</v>
       </c>
       <c r="I230" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J230" t="s">
         <v>25</v>
@@ -10294,19 +10454,19 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="C231" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D231" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E231" t="s">
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="G231" t="s">
         <v>24</v>
@@ -10315,7 +10475,7 @@
         <v>126</v>
       </c>
       <c r="I231" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J231" t="s">
         <v>25</v>
@@ -10323,28 +10483,28 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C232" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D232" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E232" t="s">
         <v>14</v>
       </c>
       <c r="F232" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="G232" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H232" t="s">
         <v>33</v>
       </c>
       <c r="I232" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="J232" t="s">
         <v>67</v>
@@ -10352,22 +10512,22 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="C233" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D233" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E233" t="s">
         <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="G233" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="H233" t="s">
         <v>79</v>
@@ -10381,28 +10541,28 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="C234" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D234" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="E234" t="s">
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="G234" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H234" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="I234" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="J234" t="s">
         <v>67</v>
@@ -10413,16 +10573,16 @@
         <v>269</v>
       </c>
       <c r="C235" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D235" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
       </c>
       <c r="F235" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G235" t="s">
         <v>24</v>
@@ -10431,7 +10591,7 @@
         <v>333</v>
       </c>
       <c r="I235" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="J235" t="s">
         <v>25</v>
@@ -10439,28 +10599,28 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="C236" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D236" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="E236" t="s">
         <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="G236" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="H236" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="I236" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="J236" t="s">
         <v>67</v>
@@ -10468,28 +10628,28 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="C237" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D237" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E237" t="s">
         <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G237" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H237" t="s">
         <v>53</v>
       </c>
       <c r="I237" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="J237" t="s">
         <v>80</v>
@@ -10497,22 +10657,22 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="C238" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D238" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E238" t="s">
         <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="G238" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="H238" t="s">
         <v>39</v>
@@ -10526,22 +10686,22 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="C239" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D239" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E239" t="s">
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="G239" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="H239" t="s">
         <v>48</v>
@@ -10555,28 +10715,28 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="C240" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D240" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E240" t="s">
         <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G240" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H240" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="I240" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="J240" t="s">
         <v>80</v>
@@ -10584,22 +10744,22 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="C241" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D241" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E241" t="s">
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="G241" t="s">
-        <v>734</v>
+        <v>751</v>
       </c>
       <c r="H241" t="s">
         <v>232</v>
@@ -10613,22 +10773,22 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="C242" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D242" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="G242" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="H242" t="s">
         <v>232</v>
@@ -10642,22 +10802,22 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="C243" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D243" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E243" t="s">
         <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="G243" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="H243" t="s">
         <v>39</v>
@@ -10671,22 +10831,22 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
       <c r="C244" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D244" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E244" t="s">
         <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="G244" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
       <c r="H244" t="s">
         <v>48</v>
@@ -10700,22 +10860,22 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="C245" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D245" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E245" t="s">
         <v>14</v>
       </c>
       <c r="F245" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="G245" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="H245" t="s">
         <v>273</v>
@@ -10729,28 +10889,28 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="C246" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D246" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E246" t="s">
         <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="G246" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H246" t="s">
         <v>323</v>
       </c>
       <c r="I246" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="J246" t="s">
         <v>67</v>
@@ -10758,22 +10918,22 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
       <c r="C247" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D247" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E247" t="s">
         <v>14</v>
       </c>
       <c r="F247" t="s">
-        <v>438</v>
+        <v>598</v>
       </c>
       <c r="G247" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="H247" t="s">
         <v>232</v>
@@ -10787,22 +10947,22 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="C248" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D248" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E248" t="s">
         <v>14</v>
       </c>
       <c r="F248" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="G248" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="H248" t="s">
         <v>39</v>
@@ -10816,28 +10976,28 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
       <c r="C249" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D249" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
       </c>
       <c r="F249" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G249" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="H249" t="s">
         <v>33</v>
       </c>
       <c r="I249" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="J249" t="s">
         <v>91</v>
@@ -10845,28 +11005,28 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="C250" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D250" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E250" t="s">
         <v>14</v>
       </c>
       <c r="F250" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="G250" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H250" t="s">
         <v>33</v>
       </c>
       <c r="I250" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="J250" t="s">
         <v>67</v>
@@ -10874,19 +11034,19 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="C251" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D251" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="E251" t="s">
         <v>14</v>
       </c>
       <c r="F251" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G251" t="s">
         <v>24</v>
@@ -10895,7 +11055,7 @@
         <v>48</v>
       </c>
       <c r="I251" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J251" t="s">
         <v>25</v>
@@ -10903,22 +11063,22 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="C252" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D252" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E252" t="s">
         <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="G252" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="H252" t="s">
         <v>19</v>
@@ -10927,27 +11087,27 @@
         <v>154</v>
       </c>
       <c r="J252" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="C253" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D253" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="E253" t="s">
         <v>14</v>
       </c>
       <c r="F253" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G253" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="H253" t="s">
         <v>39</v>
@@ -10961,19 +11121,19 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="C254" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D254" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E254" t="s">
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="G254" t="s">
         <v>24</v>
@@ -10990,22 +11150,22 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="C255" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D255" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E255" t="s">
         <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="G255" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="H255" t="s">
         <v>19</v>
@@ -11019,28 +11179,28 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="C256" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D256" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
       </c>
       <c r="F256" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="G256" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="H256" t="s">
         <v>33</v>
       </c>
       <c r="I256" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="J256" t="s">
         <v>17</v>
@@ -11048,22 +11208,22 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="C257" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D257" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E257" t="s">
         <v>14</v>
       </c>
       <c r="F257" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="G257" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="H257" t="s">
         <v>39</v>
@@ -11077,28 +11237,28 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="C258" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D258" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E258" t="s">
         <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="G258" t="s">
-        <v>421</v>
+        <v>786</v>
       </c>
       <c r="H258" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="I258" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="J258" t="s">
         <v>18</v>
@@ -11106,22 +11266,22 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="C259" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D259" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E259" t="s">
         <v>14</v>
       </c>
       <c r="F259" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="G259" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="H259" t="s">
         <v>39</v>
@@ -11135,28 +11295,28 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
       <c r="C260" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D260" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E260" t="s">
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="G260" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="H260" t="s">
         <v>33</v>
       </c>
       <c r="I260" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="J260" t="s">
         <v>53</v>
@@ -11164,28 +11324,28 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="C261" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D261" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="E261" t="s">
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="G261" t="s">
-        <v>461</v>
+        <v>791</v>
       </c>
       <c r="H261" t="s">
         <v>323</v>
       </c>
       <c r="I261" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="J261" t="s">
         <v>67</v>
@@ -11193,22 +11353,22 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="C262" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D262" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="E262" t="s">
         <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="G262" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="H262" t="s">
         <v>323</v>
@@ -11222,28 +11382,28 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="C263" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D263" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="G263" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="H263" t="s">
         <v>33</v>
       </c>
       <c r="I263" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="J263" t="s">
         <v>53</v>
@@ -11251,28 +11411,28 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="C264" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D264" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E264" t="s">
         <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="G264" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="H264" t="s">
         <v>91</v>
       </c>
       <c r="I264" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="J264" t="s">
         <v>80</v>
@@ -11280,22 +11440,22 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="C265" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="D265" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E265" t="s">
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>481</v>
+        <v>800</v>
       </c>
       <c r="G265" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="H265" t="s">
         <v>185</v>
@@ -11309,28 +11469,28 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
       <c r="C266" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D266" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E266" t="s">
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>784</v>
+        <v>804</v>
       </c>
       <c r="G266" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H266" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="I266" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="J266" t="s">
         <v>67</v>
@@ -11338,28 +11498,28 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
       <c r="C267" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D267" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E267" t="s">
         <v>14</v>
       </c>
       <c r="F267" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G267" t="s">
         <v>24</v>
       </c>
       <c r="H267" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="I267" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="J267" t="s">
         <v>25</v>
@@ -11367,28 +11527,28 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="C268" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D268" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E268" t="s">
         <v>14</v>
       </c>
       <c r="F268" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G268" t="s">
         <v>24</v>
       </c>
       <c r="H268" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
       <c r="I268" t="s">
-        <v>789</v>
+        <v>809</v>
       </c>
       <c r="J268" t="s">
         <v>25</v>
@@ -11396,28 +11556,28 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="C269" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D269" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="E269" t="s">
         <v>14</v>
       </c>
       <c r="F269" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="G269" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="H269" t="s">
         <v>333</v>
       </c>
       <c r="I269" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="J269" t="s">
         <v>75</v>
@@ -11425,28 +11585,28 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="C270" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D270" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
       </c>
       <c r="F270" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="G270" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="H270" t="s">
         <v>48</v>
       </c>
       <c r="I270" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J270" t="s">
         <v>75</v>
@@ -11454,28 +11614,28 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>794</v>
+        <v>814</v>
       </c>
       <c r="C271" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D271" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E271" t="s">
         <v>14</v>
       </c>
       <c r="F271" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="G271" t="s">
         <v>24</v>
       </c>
       <c r="H271" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="I271" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="J271" t="s">
         <v>25</v>
@@ -11483,19 +11643,19 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>798</v>
+        <v>818</v>
       </c>
       <c r="C272" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D272" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E272" t="s">
         <v>14</v>
       </c>
       <c r="F272" t="s">
-        <v>799</v>
+        <v>819</v>
       </c>
       <c r="G272" t="s">
         <v>24</v>
@@ -11504,7 +11664,7 @@
         <v>53</v>
       </c>
       <c r="I272" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="J272" t="s">
         <v>25</v>
@@ -11512,28 +11672,28 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="C273" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D273" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E273" t="s">
         <v>14</v>
       </c>
       <c r="F273" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="G273" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="H273" t="s">
         <v>53</v>
       </c>
       <c r="I273" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="J273" t="s">
         <v>75</v>
@@ -11541,28 +11701,28 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>802</v>
+        <v>822</v>
       </c>
       <c r="C274" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D274" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="E274" t="s">
         <v>14</v>
       </c>
       <c r="F274" t="s">
-        <v>803</v>
+        <v>823</v>
       </c>
       <c r="G274" t="s">
-        <v>804</v>
+        <v>824</v>
       </c>
       <c r="H274" t="s">
         <v>48</v>
       </c>
       <c r="I274" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J274" t="s">
         <v>75</v>
@@ -11570,28 +11730,28 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="C275" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D275" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="E275" t="s">
         <v>14</v>
       </c>
       <c r="F275" t="s">
-        <v>806</v>
+        <v>826</v>
       </c>
       <c r="G275" t="s">
         <v>24</v>
       </c>
       <c r="H275" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="I275" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="J275" t="s">
         <v>25</v>
@@ -11599,28 +11759,28 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="C276" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D276" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E276" t="s">
         <v>14</v>
       </c>
       <c r="F276" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G276" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="H276" t="s">
         <v>18</v>
       </c>
       <c r="I276" t="s">
-        <v>809</v>
+        <v>829</v>
       </c>
       <c r="J276" t="s">
         <v>75</v>
@@ -11631,25 +11791,25 @@
         <v>328</v>
       </c>
       <c r="C277" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D277" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="E277" t="s">
         <v>330</v>
       </c>
       <c r="F277" t="s">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="G277" t="s">
-        <v>811</v>
+        <v>831</v>
       </c>
       <c r="H277" t="s">
         <v>53</v>
       </c>
       <c r="I277" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="J277" t="s">
         <v>91</v>
@@ -11660,25 +11820,25 @@
         <v>352</v>
       </c>
       <c r="C278" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D278" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="E278" t="s">
         <v>330</v>
       </c>
       <c r="F278" t="s">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="G278" t="s">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="H278" t="s">
         <v>53</v>
       </c>
       <c r="I278" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="J278" t="s">
         <v>91</v>
@@ -11686,28 +11846,28 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>814</v>
+        <v>834</v>
       </c>
       <c r="C279" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D279" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E279" t="s">
         <v>14</v>
       </c>
       <c r="F279" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="G279" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H279" t="s">
         <v>67</v>
       </c>
       <c r="I279" t="s">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="J279" t="s">
         <v>67</v>
@@ -11715,28 +11875,28 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>817</v>
+        <v>837</v>
       </c>
       <c r="C280" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D280" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="E280" t="s">
         <v>14</v>
       </c>
       <c r="F280" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
       <c r="G280" t="s">
         <v>24</v>
       </c>
       <c r="H280" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="I280" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="J280" t="s">
         <v>25</v>
@@ -11744,28 +11904,28 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="C281" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D281" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E281" t="s">
         <v>14</v>
       </c>
       <c r="F281" t="s">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="G281" t="s">
-        <v>821</v>
+        <v>841</v>
       </c>
       <c r="H281" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="I281" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="J281" t="s">
         <v>91</v>
@@ -11773,28 +11933,28 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>822</v>
+        <v>842</v>
       </c>
       <c r="C282" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D282" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="E282" t="s">
         <v>14</v>
       </c>
       <c r="F282" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="G282" t="s">
-        <v>823</v>
+        <v>843</v>
       </c>
       <c r="H282" t="s">
         <v>48</v>
       </c>
       <c r="I282" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J282" t="s">
         <v>75</v>
@@ -11802,28 +11962,28 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" t="s">
-        <v>824</v>
+        <v>844</v>
       </c>
       <c r="C283" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D283" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E283" t="s">
         <v>14</v>
       </c>
       <c r="F283" t="s">
-        <v>825</v>
+        <v>845</v>
       </c>
       <c r="G283" t="s">
-        <v>826</v>
+        <v>846</v>
       </c>
       <c r="H283" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="I283" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="J283" t="s">
         <v>75</v>
@@ -11831,28 +11991,28 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="C284" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D284" t="s">
-        <v>828</v>
+        <v>848</v>
       </c>
       <c r="E284" t="s">
         <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>829</v>
+        <v>849</v>
       </c>
       <c r="G284" t="s">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="H284" t="s">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="I284" t="s">
-        <v>832</v>
+        <v>852</v>
       </c>
       <c r="J284" t="s">
         <v>91</v>
@@ -11860,28 +12020,28 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>833</v>
+        <v>853</v>
       </c>
       <c r="C285" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D285" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E285" t="s">
         <v>14</v>
       </c>
       <c r="F285" t="s">
-        <v>834</v>
+        <v>854</v>
       </c>
       <c r="G285" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H285" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="I285" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="J285" t="s">
         <v>67</v>
@@ -11889,28 +12049,28 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>835</v>
+        <v>855</v>
       </c>
       <c r="C286" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D286" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="E286" t="s">
         <v>14</v>
       </c>
       <c r="F286" t="s">
-        <v>836</v>
+        <v>856</v>
       </c>
       <c r="G286" t="s">
-        <v>837</v>
+        <v>857</v>
       </c>
       <c r="H286" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="I286" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="J286" t="s">
         <v>91</v>
@@ -11918,28 +12078,28 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="C287" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D287" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="E287" t="s">
         <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="G287" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
       <c r="H287" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="I287" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="J287" t="s">
         <v>75</v>
@@ -11947,28 +12107,28 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="C288" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D288" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="E288" t="s">
         <v>14</v>
       </c>
       <c r="F288" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="G288" t="s">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="H288" t="s">
         <v>48</v>
       </c>
       <c r="I288" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J288" t="s">
         <v>75</v>
@@ -11976,28 +12136,28 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
       <c r="C289" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D289" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E289" t="s">
         <v>14</v>
       </c>
       <c r="F289" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="G289" t="s">
-        <v>843</v>
+        <v>863</v>
       </c>
       <c r="H289" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="I289" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="J289" t="s">
         <v>75</v>
@@ -12005,19 +12165,19 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>844</v>
+        <v>864</v>
       </c>
       <c r="C290" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D290" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E290" t="s">
         <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>845</v>
+        <v>865</v>
       </c>
       <c r="G290" t="s">
         <v>24</v>
@@ -12026,7 +12186,7 @@
         <v>91</v>
       </c>
       <c r="I290" t="s">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="J290" t="s">
         <v>25</v>
@@ -12034,19 +12194,19 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="C291" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D291" t="s">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="E291" t="s">
         <v>14</v>
       </c>
       <c r="F291" t="s">
-        <v>849</v>
+        <v>869</v>
       </c>
       <c r="G291" t="s">
         <v>24</v>
@@ -12055,7 +12215,7 @@
         <v>91</v>
       </c>
       <c r="I291" t="s">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="J291" t="s">
         <v>25</v>
@@ -12063,28 +12223,28 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="C292" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D292" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E292" t="s">
         <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="G292" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
       <c r="H292" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="I292" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="J292" t="s">
         <v>75</v>
@@ -12092,28 +12252,28 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
       <c r="C293" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D293" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E293" t="s">
         <v>14</v>
       </c>
       <c r="F293" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G293" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="H293" t="s">
         <v>53</v>
       </c>
       <c r="I293" t="s">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="J293" t="s">
         <v>75</v>
@@ -12121,28 +12281,28 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
-        <v>854</v>
+        <v>874</v>
       </c>
       <c r="C294" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D294" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E294" t="s">
         <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
       <c r="G294" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="H294" t="s">
         <v>53</v>
       </c>
       <c r="I294" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="J294" t="s">
         <v>91</v>
@@ -12150,19 +12310,19 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>855</v>
+        <v>875</v>
       </c>
       <c r="C295" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D295" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E295" t="s">
         <v>14</v>
       </c>
       <c r="F295" t="s">
-        <v>856</v>
+        <v>876</v>
       </c>
       <c r="G295" t="s">
         <v>24</v>
@@ -12179,28 +12339,28 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>857</v>
+        <v>877</v>
       </c>
       <c r="C296" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D296" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E296" t="s">
         <v>14</v>
       </c>
       <c r="F296" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G296" t="s">
         <v>24</v>
       </c>
       <c r="H296" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="I296" t="s">
-        <v>858</v>
+        <v>878</v>
       </c>
       <c r="J296" t="s">
         <v>25</v>
@@ -12208,28 +12368,28 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>859</v>
+        <v>879</v>
       </c>
       <c r="C297" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D297" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E297" t="s">
         <v>14</v>
       </c>
       <c r="F297" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="G297" t="s">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="H297" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="I297" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="J297" t="s">
         <v>75</v>
@@ -12237,28 +12397,28 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="C298" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D298" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E298" t="s">
         <v>14</v>
       </c>
       <c r="F298" t="s">
-        <v>862</v>
+        <v>882</v>
       </c>
       <c r="G298" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H298" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="I298" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="J298" t="s">
         <v>67</v>
@@ -12266,28 +12426,28 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>863</v>
+        <v>883</v>
       </c>
       <c r="C299" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D299" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E299" t="s">
         <v>14</v>
       </c>
       <c r="F299" t="s">
-        <v>864</v>
+        <v>884</v>
       </c>
       <c r="G299" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="H299" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="I299" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="J299" t="s">
         <v>75</v>
@@ -12295,28 +12455,28 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>866</v>
+        <v>886</v>
       </c>
       <c r="C300" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D300" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E300" t="s">
         <v>14</v>
       </c>
       <c r="F300" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="G300" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="H300" t="s">
         <v>53</v>
       </c>
       <c r="I300" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="J300" t="s">
         <v>75</v>
@@ -12324,28 +12484,28 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="C301" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D301" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E301" t="s">
         <v>14</v>
       </c>
       <c r="F301" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G301" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="H301" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="I301" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="J301" t="s">
         <v>75</v>
@@ -12353,28 +12513,28 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="C302" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D302" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E302" t="s">
         <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="G302" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H302" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="I302" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="J302" t="s">
         <v>53</v>
@@ -12382,28 +12542,28 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>874</v>
+        <v>894</v>
       </c>
       <c r="C303" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D303" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E303" t="s">
         <v>330</v>
       </c>
       <c r="F303" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="G303" t="s">
-        <v>876</v>
+        <v>896</v>
       </c>
       <c r="H303" t="s">
         <v>53</v>
       </c>
       <c r="I303" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="J303" t="s">
         <v>91</v>
@@ -12411,28 +12571,28 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="C304" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D304" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E304" t="s">
         <v>14</v>
       </c>
       <c r="F304" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
       <c r="G304" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H304" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="I304" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="J304" t="s">
         <v>67</v>
@@ -12440,19 +12600,19 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="C305" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D305" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E305" t="s">
         <v>14</v>
       </c>
       <c r="F305" t="s">
-        <v>864</v>
+        <v>884</v>
       </c>
       <c r="G305" t="s">
         <v>519</v>
@@ -12461,7 +12621,7 @@
         <v>333</v>
       </c>
       <c r="I305" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="J305" t="s">
         <v>91</v>
@@ -12469,28 +12629,28 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="C306" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D306" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="E306" t="s">
         <v>14</v>
       </c>
       <c r="F306" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="G306" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="H306" t="s">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="I306" t="s">
-        <v>832</v>
+        <v>852</v>
       </c>
       <c r="J306" t="s">
         <v>91</v>
@@ -12498,28 +12658,28 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="C307" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D307" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E307" t="s">
         <v>14</v>
       </c>
       <c r="F307" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="G307" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="H307" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="I307" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="J307" t="s">
         <v>75</v>
@@ -12527,28 +12687,28 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
       <c r="C308" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D308" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E308" t="s">
         <v>330</v>
       </c>
       <c r="F308" t="s">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="G308" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="H308" t="s">
         <v>53</v>
       </c>
       <c r="I308" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="J308" t="s">
         <v>91</v>
@@ -12556,28 +12716,28 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="C309" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D309" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="E309" t="s">
         <v>14</v>
       </c>
       <c r="F309" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="G309" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="H309" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="I309" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="J309" t="s">
         <v>91</v>
@@ -12585,19 +12745,19 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="C310" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D310" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E310" t="s">
         <v>14</v>
       </c>
       <c r="F310" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G310" t="s">
         <v>24</v>
@@ -12614,28 +12774,28 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="C311" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D311" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E311" t="s">
         <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="G311" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H311" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="I311" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="J311" t="s">
         <v>67</v>
@@ -12643,28 +12803,28 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="C312" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D312" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="E312" t="s">
         <v>14</v>
       </c>
       <c r="F312" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G312" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="H312" t="s">
         <v>53</v>
       </c>
       <c r="I312" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
       <c r="J312" t="s">
         <v>369</v>
@@ -12672,28 +12832,28 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="C313" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D313" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="E313" t="s">
         <v>14</v>
       </c>
       <c r="F313" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="G313" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="H313" t="s">
         <v>48</v>
       </c>
       <c r="I313" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="J313" t="s">
         <v>75</v>
@@ -12701,28 +12861,28 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="C314" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D314" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E314" t="s">
         <v>14</v>
       </c>
       <c r="F314" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="G314" t="s">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="H314" t="s">
         <v>333</v>
       </c>
       <c r="I314" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="J314" t="s">
         <v>75</v>
@@ -12730,19 +12890,19 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="C315" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D315" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E315" t="s">
         <v>14</v>
       </c>
       <c r="F315" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G315" t="s">
         <v>24</v>
@@ -12759,28 +12919,28 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="C316" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D316" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="E316" t="s">
         <v>14</v>
       </c>
       <c r="F316" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G316" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="H316" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="I316" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
       <c r="J316" t="s">
         <v>75</v>
@@ -12788,28 +12948,28 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="C317" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D317" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="E317" t="s">
         <v>14</v>
       </c>
       <c r="F317" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="G317" t="s">
         <v>24</v>
       </c>
       <c r="H317" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="I317" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="J317" t="s">
         <v>25</v>
@@ -12817,28 +12977,28 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="C318" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D318" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E318" t="s">
         <v>14</v>
       </c>
       <c r="F318" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="G318" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="H318" t="s">
         <v>91</v>
       </c>
       <c r="I318" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="J318" t="s">
         <v>75</v>
@@ -12846,28 +13006,28 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="C319" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D319" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E319" t="s">
         <v>14</v>
       </c>
       <c r="F319" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G319" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="H319" t="s">
         <v>91</v>
       </c>
       <c r="I319" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="J319" t="s">
         <v>75</v>
@@ -12875,28 +13035,28 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="C320" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D320" t="s">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E320" t="s">
         <v>14</v>
       </c>
       <c r="F320" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="G320" t="s">
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="H320" t="s">
         <v>333</v>
       </c>
       <c r="I320" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="J320" t="s">
         <v>75</v>
@@ -12904,28 +13064,28 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="C321" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D321" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E321" t="s">
         <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G321" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="H321" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="I321" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="J321" t="s">
         <v>75</v>
@@ -12936,25 +13096,25 @@
         <v>389</v>
       </c>
       <c r="C322" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D322" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E322" t="s">
         <v>330</v>
       </c>
       <c r="F322" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="G322" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="H322" t="s">
         <v>53</v>
       </c>
       <c r="I322" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="J322" t="s">
         <v>91</v>
@@ -12962,28 +13122,28 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="C323" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D323" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E323" t="s">
         <v>14</v>
       </c>
       <c r="F323" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="G323" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="H323" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="I323" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="J323" t="s">
         <v>53</v>
@@ -12991,19 +13151,19 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="C324" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D324" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E324" t="s">
         <v>14</v>
       </c>
       <c r="F324" t="s">
-        <v>825</v>
+        <v>845</v>
       </c>
       <c r="G324" t="s">
         <v>24</v>
@@ -13012,7 +13172,7 @@
         <v>333</v>
       </c>
       <c r="I324" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="J324" t="s">
         <v>25</v>
@@ -13020,28 +13180,28 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>922</v>
+        <v>942</v>
       </c>
       <c r="C325" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D325" t="s">
-        <v>923</v>
+        <v>943</v>
       </c>
       <c r="E325" t="s">
         <v>14</v>
       </c>
       <c r="F325" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G325" t="s">
         <v>24</v>
       </c>
       <c r="H325" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="I325" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="J325" t="s">
         <v>25</v>
@@ -13049,19 +13209,19 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>926</v>
+        <v>946</v>
       </c>
       <c r="C326" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D326" t="s">
-        <v>437</v>
+        <v>535</v>
       </c>
       <c r="E326" t="s">
         <v>14</v>
       </c>
       <c r="F326" t="s">
-        <v>927</v>
+        <v>947</v>
       </c>
       <c r="G326" t="s">
         <v>24</v>
@@ -13070,7 +13230,7 @@
         <v>333</v>
       </c>
       <c r="I326" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="J326" t="s">
         <v>25</v>
@@ -13078,28 +13238,28 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="C327" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D327" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E327" t="s">
         <v>330</v>
       </c>
       <c r="F327" t="s">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="G327" t="s">
-        <v>929</v>
+        <v>949</v>
       </c>
       <c r="H327" t="s">
         <v>53</v>
       </c>
       <c r="I327" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="J327" t="s">
         <v>91</v>
@@ -13107,28 +13267,28 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="C328" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D328" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="E328" t="s">
         <v>14</v>
       </c>
       <c r="F328" t="s">
-        <v>931</v>
+        <v>951</v>
       </c>
       <c r="G328" t="s">
         <v>24</v>
       </c>
       <c r="H328" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="I328" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="J328" t="s">
         <v>25</v>
@@ -13136,28 +13296,28 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>932</v>
+        <v>952</v>
       </c>
       <c r="C329" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D329" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="E329" t="s">
         <v>14</v>
       </c>
       <c r="F329" t="s">
-        <v>934</v>
+        <v>954</v>
       </c>
       <c r="G329" t="s">
-        <v>935</v>
+        <v>955</v>
       </c>
       <c r="H329" t="s">
         <v>91</v>
       </c>
       <c r="I329" t="s">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="J329" t="s">
         <v>91</v>
@@ -13165,19 +13325,19 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>936</v>
+        <v>956</v>
       </c>
       <c r="C330" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D330" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E330" t="s">
         <v>14</v>
       </c>
       <c r="F330" t="s">
-        <v>937</v>
+        <v>957</v>
       </c>
       <c r="G330" t="s">
         <v>24</v>
@@ -13194,28 +13354,28 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
       <c r="C331" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D331" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="E331" t="s">
         <v>14</v>
       </c>
       <c r="F331" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="G331" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="H331" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="I331" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="J331" t="s">
         <v>75</v>
@@ -13223,28 +13383,28 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="C332" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D332" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="E332" t="s">
         <v>14</v>
       </c>
       <c r="F332" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G332" t="s">
-        <v>942</v>
+        <v>962</v>
       </c>
       <c r="H332" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="I332" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="J332" t="s">
         <v>75</v>
@@ -13252,28 +13412,28 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
       <c r="C333" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D333" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E333" t="s">
         <v>14</v>
       </c>
       <c r="F333" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G333" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="H333" t="s">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="I333" t="s">
-        <v>945</v>
+        <v>965</v>
       </c>
       <c r="J333" t="s">
         <v>75</v>
@@ -13281,28 +13441,28 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="C334" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D334" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
       <c r="E334" t="s">
         <v>14</v>
       </c>
       <c r="F334" t="s">
-        <v>836</v>
+        <v>856</v>
       </c>
       <c r="G334" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="H334" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="I334" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="J334" t="s">
         <v>75</v>
@@ -13310,28 +13470,28 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>948</v>
+        <v>968</v>
       </c>
       <c r="C335" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D335" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="E335" t="s">
         <v>14</v>
       </c>
       <c r="F335" t="s">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="G335" t="s">
         <v>24</v>
       </c>
       <c r="H335" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="I335" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="J335" t="s">
         <v>25</v>
@@ -13339,28 +13499,28 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="C336" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D336" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="E336" t="s">
         <v>14</v>
       </c>
       <c r="F336" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G336" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
       <c r="H336" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="I336" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="J336" t="s">
         <v>67</v>
@@ -13368,28 +13528,28 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" t="s">
-        <v>951</v>
+        <v>971</v>
       </c>
       <c r="C337" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D337" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="E337" t="s">
         <v>14</v>
       </c>
       <c r="F337" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="G337" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="H337" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="I337" t="s">
-        <v>952</v>
+        <v>972</v>
       </c>
       <c r="J337" t="s">
         <v>75</v>
@@ -13400,25 +13560,25 @@
         <v>305</v>
       </c>
       <c r="C338" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D338" t="s">
-        <v>923</v>
+        <v>943</v>
       </c>
       <c r="E338" t="s">
         <v>14</v>
       </c>
       <c r="F338" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="G338" t="s">
         <v>519</v>
       </c>
       <c r="H338" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="I338" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="J338" t="s">
         <v>91</v>
@@ -13426,28 +13586,28 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
       <c r="C339" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D339" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="E339" t="s">
         <v>14</v>
       </c>
       <c r="F339" t="s">
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="G339" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
       <c r="H339" t="s">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="I339" t="s">
-        <v>832</v>
+        <v>852</v>
       </c>
       <c r="J339" t="s">
         <v>91</v>
@@ -13455,28 +13615,28 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="C340" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="D340" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E340" t="s">
         <v>14</v>
       </c>
       <c r="F340" t="s">
-        <v>825</v>
+        <v>845</v>
       </c>
       <c r="G340" t="s">
-        <v>959</v>
+        <v>979</v>
       </c>
       <c r="H340" t="s">
         <v>333</v>
       </c>
       <c r="I340" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="J340" t="s">
         <v>91</v>

--- a/data_M.xlsx
+++ b/data_M.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1024">
   <si>
     <t>questName</t>
   </si>
@@ -1540,1261 +1540,1393 @@
     <t>冷徹な吸血鮫</t>
   </si>
   <si>
+    <t>냉철한 흡혈상어</t>
+  </si>
+  <si>
     <t>집회소★5</t>
   </si>
   <si>
+    <t>빙해(氷海)</t>
+  </si>
+  <si>
+    <t>스쿠아길(スクアギル) 15마리 토벌</t>
+  </si>
+  <si>
+    <t>블랑고(ブランゴ) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>マダラなアイツにご執心</t>
+  </si>
+  <si>
+    <t>얼룩덜룩한 그녀석에게 집착</t>
+  </si>
+  <si>
+    <t>激闘！雌火竜リオレイア</t>
+  </si>
+  <si>
+    <t>격투! 자화룡 리오레이아</t>
+  </si>
+  <si>
+    <t>리오레이아(リオレイア) 1마리 포획</t>
+  </si>
+  <si>
+    <t>9900z</t>
+  </si>
+  <si>
+    <t>ハンターと玉突き事故</t>
+  </si>
+  <si>
+    <t>헌터와 당구사고</t>
+  </si>
+  <si>
+    <t>쿤츄(クンチュウ) 30마리 토벌</t>
+  </si>
+  <si>
+    <t>溶岩竜ヴォルガノス出現！</t>
+  </si>
+  <si>
+    <t>용암룡 볼가노스 출현!</t>
+  </si>
+  <si>
+    <t>볼가노스(ヴォルガノス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>汗と涙の連続狩猟</t>
+  </si>
+  <si>
+    <t>땀과 눈물의 연속수렵</t>
+  </si>
+  <si>
+    <t>14400z</t>
+  </si>
+  <si>
+    <t>地底火山のポイント招きネコ</t>
+  </si>
+  <si>
+    <t>지저화산의 포인트 마네키 네코</t>
+  </si>
+  <si>
+    <t>지저화산(地底火山)</t>
+  </si>
+  <si>
+    <t>용역원(龍歴院)포인트 1800pts 입수</t>
+  </si>
+  <si>
+    <t>炎天下の麻痺牙</t>
+  </si>
+  <si>
+    <t>염천하의 마비 이빨</t>
+  </si>
+  <si>
+    <t>孤島の釣り合戦！</t>
+  </si>
+  <si>
+    <t>고도의 낚시경쟁!</t>
+  </si>
+  <si>
+    <t>백금어(白金魚) 3마리 납품</t>
+  </si>
+  <si>
+    <t>孤島の迷惑客</t>
+  </si>
+  <si>
+    <t>고도의 불청객</t>
+  </si>
+  <si>
+    <t>가노토토스(ガノトトス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>土砂竜・ボルボロス！</t>
+  </si>
+  <si>
+    <t>토사룡・볼보로스!</t>
+  </si>
+  <si>
+    <t>볼보로스(ボルボロス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>超☆メモ帳～奇猿狐狩猟編～</t>
+  </si>
+  <si>
+    <t>초☆메모장 ~기원호수렵편~</t>
+  </si>
+  <si>
+    <t>케챠와챠(ケチャワチャ) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>아수의 굵은 눈물(牙獣の大粒ナミダ) 1개 납품</t>
+  </si>
+  <si>
+    <t>グレート・ハンター・ゲーム</t>
+  </si>
+  <si>
+    <t>그레이트・헌터・게임</t>
+  </si>
+  <si>
+    <t>1700z</t>
+  </si>
+  <si>
+    <t>16500z</t>
+  </si>
+  <si>
+    <t>가라라아자라(ガララアジャラ)의 등 파괴</t>
+  </si>
+  <si>
+    <t>壁に耳あり、天井に目あり？</t>
+  </si>
+  <si>
+    <t>벽에는 귀가 있고, 천장에는 눈이 있다?</t>
+  </si>
+  <si>
+    <t>ザボアザギルの狩猟依頼</t>
+  </si>
+  <si>
+    <t>자보아자길 수렵의뢰</t>
+  </si>
+  <si>
+    <t>자보아자길(ザボアザギル) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>몬스터의 간(モンスターのキモ) 5개 납품</t>
+  </si>
+  <si>
+    <t>地底火山の採集ツアー</t>
+  </si>
+  <si>
+    <t>지저화산 채집 투어</t>
+  </si>
+  <si>
+    <t>火山の冒険</t>
+  </si>
+  <si>
+    <t>화산의 모험</t>
+  </si>
+  <si>
+    <t>바살모스(バサルモス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>渓流の水竜</t>
+  </si>
+  <si>
+    <t>계류의 수룡</t>
+  </si>
+  <si>
+    <t>가노토토스(ガノトトス)의 등지느러미 파괴</t>
+  </si>
+  <si>
+    <t>キモ・キモ・キモ！！！</t>
+  </si>
+  <si>
+    <t>간・간・간!!!</t>
+  </si>
+  <si>
+    <t>遺跡平原の精算アイテム納品</t>
+  </si>
+  <si>
+    <t>유적평원의 정산 아이템 납품</t>
+  </si>
+  <si>
+    <t>용역원(龍歴院)포인트 4000pts 입수</t>
+  </si>
+  <si>
+    <t>奇猿狐の耳破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>기원호의 귀 파괴에 도전!</t>
+  </si>
+  <si>
+    <t>イャンガルルガの洗礼</t>
+  </si>
+  <si>
+    <t>얀가루루가의 세례</t>
+  </si>
+  <si>
+    <t>얀가루루가(イャンガルルガ)의 날개발톱 파괴</t>
+  </si>
+  <si>
+    <t>極寒の地の採掘依頼</t>
+  </si>
+  <si>
+    <t>극한의 땅의 채굴 의뢰</t>
+  </si>
+  <si>
+    <t>혈석(血石) 10개 납품</t>
+  </si>
+  <si>
+    <t>자보아자길(ザボアザギル)의 등지느러미 파괴</t>
+  </si>
+  <si>
+    <t>イーオスの親玉たち</t>
+  </si>
+  <si>
+    <t>이오스의 우두머리들</t>
+  </si>
+  <si>
+    <t>도스이오스(ドスイーオス) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>毒、麻痺、混乱にご用心！</t>
+  </si>
+  <si>
+    <t>독, 마비, 혼란에 주의!</t>
+  </si>
+  <si>
+    <t>14700z</t>
+  </si>
+  <si>
+    <t>桃色大将ババコンガ</t>
+  </si>
+  <si>
+    <t>분홍색 대장 바바콩가</t>
+  </si>
+  <si>
+    <t>바바콩가(ババコンガ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>영역의 큰똥(なわばりの大フン) 1개 납품</t>
+  </si>
+  <si>
+    <t>原生林の精算アイテム納品</t>
+  </si>
+  <si>
+    <t>원시림의 정산 아이템 납품</t>
+  </si>
+  <si>
+    <t>켈비(ケルビ) 15마리 토벌</t>
+  </si>
+  <si>
+    <t>イーオスたちの親玉</t>
+  </si>
+  <si>
+    <t>이오스들의 우두머리</t>
+  </si>
+  <si>
+    <t>이오스(イーオス) 15마리 토벌</t>
+  </si>
+  <si>
+    <t>獰猛なる矢尻たち</t>
+  </si>
+  <si>
+    <t>영맹한 화살촉들</t>
+  </si>
+  <si>
+    <t>스쿠아길(スクアギル) 20마리 토벌</t>
+  </si>
+  <si>
+    <t>不眠のあなたに催眠療法×２</t>
+  </si>
+  <si>
+    <t>불면증인 당신에게 최면요법×2</t>
+  </si>
+  <si>
+    <t>호로로호루루(ホロロホルル) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>女王・リオレイアの狩猟</t>
+  </si>
+  <si>
+    <t>여왕・리오레이아 수렵</t>
+  </si>
+  <si>
+    <t>리오레이아(リオレイア)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>모래 위의 테이블 매너</t>
+  </si>
+  <si>
+    <t>아프케로스의 간(アプケロスのキモ) 5개 납품</t>
+  </si>
+  <si>
+    <t>氷海の採集ツアー</t>
+  </si>
+  <si>
+    <t>빙해 채집 투어</t>
+  </si>
+  <si>
+    <t>２頭のドスランポス</t>
+  </si>
+  <si>
+    <t>2마리의 도스란포스</t>
+  </si>
+  <si>
+    <t>知性溢れる？夜鳥狩猟</t>
+  </si>
+  <si>
+    <t>지성이 넘치는? 야조수렵</t>
+  </si>
+  <si>
+    <t>호로로호루루(ホロロホルル)의 머리와 날개 파괴</t>
+  </si>
+  <si>
+    <t>燃石炭の納品</t>
+  </si>
+  <si>
+    <t>연석탄 납품</t>
+  </si>
+  <si>
+    <t>얀가루루가(イャンガルルガ)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>熱砂の喧嘩は武器の素</t>
+  </si>
+  <si>
+    <t>열사의 싸움은 무기의 소재</t>
+  </si>
+  <si>
+    <t>1400z</t>
+  </si>
+  <si>
+    <t>13800z</t>
+  </si>
+  <si>
+    <t>沼地の捕食者・ネルスキュラ</t>
+  </si>
+  <si>
+    <t>늪지의 포식자・네르스큐라</t>
+  </si>
+  <si>
+    <t>네르스큐라(ネルスキュラ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>여왕의 페로몬(女王のフェロモン) 1개 납품</t>
+  </si>
+  <si>
+    <t>炎の山の大将軍</t>
+  </si>
+  <si>
+    <t>불꽃의 산의 대장군</t>
+  </si>
+  <si>
+    <t>쇼군기자미(ショウグンギザミ)의 양발톱 파괴</t>
+  </si>
+  <si>
+    <t>위협! 화산의 철퇴!</t>
+  </si>
+  <si>
+    <t>리노프로스(リノプロス) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>9600z</t>
+  </si>
+  <si>
+    <t>サンドのメシよりドスガレオス</t>
+  </si>
+  <si>
+    <t>샌드의 밥보다 도스가레오스</t>
+  </si>
+  <si>
+    <t>도스가레오스(ドスガレオス) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>가브라스(ガブラス) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>疾き迅竜の狩猟披露</t>
+  </si>
+  <si>
+    <t>빠른 신룡의 수렵피로</t>
+  </si>
+  <si>
+    <t>나르가쿠르가(ナルガクルガ)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>落石注意！？</t>
+  </si>
+  <si>
+    <t>낙석주의!?</t>
+  </si>
+  <si>
+    <t>お姉さまは白兎獣がお好き？</t>
+  </si>
+  <si>
+    <t>누나는 백토수가 좋아?</t>
+  </si>
+  <si>
+    <t>우르크스스(ウルクスス) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>스쿠아길(スクアギル) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>狂乱の立体闘技場</t>
+  </si>
+  <si>
+    <t>집회소★6</t>
+  </si>
+  <si>
+    <t>立体闘技場</t>
+  </si>
+  <si>
+    <t>全ての大型モンスターの狩猟</t>
+  </si>
+  <si>
+    <t>龍歴院ポイント1500pts入手</t>
+  </si>
+  <si>
+    <t>2200z</t>
+  </si>
+  <si>
+    <t>21600z</t>
+  </si>
+  <si>
+    <t>大海の王・ラギアクルス！</t>
+  </si>
+  <si>
+    <t>孤島</t>
+  </si>
+  <si>
+    <t>ラギアクルス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>竜の大粒ナミダ1個の納品</t>
+  </si>
+  <si>
+    <t>10500z</t>
+  </si>
+  <si>
+    <t>夜鳥の頭部破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>ホロロホルルの頭部破壊</t>
+  </si>
+  <si>
+    <t>ドボルがために銅鑼は鳴る</t>
+  </si>
+  <si>
+    <t>沼地</t>
+  </si>
+  <si>
+    <t>ドボルベルク1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ドボルベルクのコブ破壊</t>
+  </si>
+  <si>
+    <t>12600z</t>
+  </si>
+  <si>
+    <t>極秘依頼！獰猛なる溶岩竜！</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>ヴォルガノス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ヴォルガノスの頭部と背ビレ破壊</t>
+  </si>
+  <si>
+    <t>どくどくパニック・毒怪鳥！！</t>
+  </si>
+  <si>
+    <t>遺跡平原</t>
+  </si>
+  <si>
+    <t>ゲリョス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ゲリョスのトサカ破壊</t>
+  </si>
+  <si>
+    <t>遺跡平原の黒蝕竜調査</t>
+  </si>
+  <si>
+    <t>ゴア・マガラ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>11700z</t>
+  </si>
+  <si>
+    <t>ライゼクスの支配圏</t>
+  </si>
+  <si>
+    <t>森丘</t>
+  </si>
+  <si>
+    <t>ライゼクス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ライゼクスの背中破壊</t>
+  </si>
+  <si>
+    <t>12000z</t>
+  </si>
+  <si>
+    <t>最も危険な晩餐</t>
+  </si>
+  <si>
+    <t>原生林</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタス1匹の狩猟</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタスの尻尾破壊</t>
+  </si>
+  <si>
+    <t>３頭寄れば獰猛蛙</t>
+  </si>
+  <si>
+    <t>地底火山</t>
+  </si>
+  <si>
+    <t>テツカブラ3頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガマの大粒ナミダ1個の納品</t>
+  </si>
+  <si>
+    <t>1600z</t>
+  </si>
+  <si>
+    <t>15900z</t>
+  </si>
+  <si>
+    <t>吹雪に立つ金獅子</t>
+  </si>
+  <si>
+    <t>雪山</t>
+  </si>
+  <si>
+    <t>ラージャン1頭の狩猟</t>
+  </si>
+  <si>
+    <t>乗りよるダウンを2回成功</t>
+  </si>
+  <si>
+    <t>意気地없음には鎧竜で喝！</t>
+  </si>
+  <si>
+    <t>グラビモス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>燃えたぎれ！火山の熱闘！！</t>
+  </si>
+  <si>
+    <t>1900z</t>
+  </si>
+  <si>
+    <t>18600z</t>
+  </si>
+  <si>
+    <t>空の王者・リオレウス</t>
+  </si>
+  <si>
+    <t>リオレウス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>リオレウスの頭部と翼破壊</t>
+  </si>
+  <si>
+    <t>孤島の暴君、ダイミョウザザミ</t>
+  </si>
+  <si>
+    <t>ダイミョウザザミ1匹の狩猟</t>
+  </si>
+  <si>
+    <t>ダイミョウザザミの両爪とヤド破壊</t>
+  </si>
+  <si>
+    <t>氷海の精算アイテム納品</t>
+  </si>
+  <si>
     <t>氷海</t>
   </si>
   <si>
+    <t>龍歴院ポイント4000pts入手</t>
+  </si>
+  <si>
     <t>スクアギル15頭の討伐</t>
   </si>
   <si>
-    <t>雪山</t>
+    <t>轟竜狩猟は妹のため</t>
+  </si>
+  <si>
+    <t>ティガレックス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ティガレックスの尻尾切断</t>
+  </si>
+  <si>
+    <t>跳梁し意思を用いず悪成さば</t>
+  </si>
+  <si>
+    <t>獰猛なタテガミを求めて</t>
+  </si>
+  <si>
+    <t>ロアルドロス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ロアルドロスのタテガミ破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>たんと掘れ燃石炭</t>
+  </si>
+  <si>
+    <t>30分</t>
+  </si>
+  <si>
+    <t>燃石炭10個以上納品もしくはネコタクチケットの納品</t>
+  </si>
+  <si>
+    <t>ラージャンの角破壊</t>
+  </si>
+  <si>
+    <t>絞蛇竜は不気味に嗤う</t>
+  </si>
+  <si>
+    <t>ガララアジャラ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガララアジャラの頭部と尻尾破壊</t>
+  </si>
+  <si>
+    <t>ジンオウガ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ジンオウガの尻尾切断</t>
+  </si>
+  <si>
+    <t>素敵な素敵な電竜頭</t>
+  </si>
+  <si>
+    <t>火の海に棲む竜！</t>
+  </si>
+  <si>
+    <t>アグナコトル1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ウロコトル10頭の討伐</t>
+  </si>
+  <si>
+    <t>竜の大鎚・火山の化身</t>
+  </si>
+  <si>
+    <t>ウラガンキン1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ウラガンキンの顎破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>地底火山に響く侵略の足音</t>
+  </si>
+  <si>
+    <t>18900z</t>
+  </si>
+  <si>
+    <t>奥様は白水晶がお好き</t>
+  </si>
+  <si>
+    <t>白水晶の原石2個の納品</t>
+  </si>
+  <si>
+    <t>ガミザミ12匹の討伐</t>
+  </si>
+  <si>
+    <t>3300z</t>
+  </si>
+  <si>
+    <t>ワイルドバレット</t>
+  </si>
+  <si>
+    <t>18300z</t>
+  </si>
+  <si>
+    <t>ガムート1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガムートの頭部破壊</t>
+  </si>
+  <si>
+    <t>沼地の狂騒楽団</t>
+  </si>
+  <si>
+    <t>16800z</t>
+  </si>
+  <si>
+    <t>熱願の穴掘り</t>
+  </si>
+  <si>
+    <t>アグナコトル1頭の捕獲</t>
+  </si>
+  <si>
+    <t>アグナコトルの頭部破壊</t>
+  </si>
+  <si>
+    <t>キリンの討伐</t>
+  </si>
+  <si>
+    <t>ギルドフラッグを山頂に設置</t>
+  </si>
+  <si>
+    <t>スノードロップをあなたに</t>
+  </si>
+  <si>
+    <t>ウルクスス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガノトトス冒険記</t>
+  </si>
+  <si>
+    <t>渓流</t>
+  </si>
+  <si>
+    <t>ガノトトス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガノトトスの頭部と背ビレ破壊</t>
+  </si>
+  <si>
+    <t>ベリオロスの狩猟</t>
+  </si>
+  <si>
+    <t>ベリオロス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>古代林</t>
+  </si>
+  <si>
+    <t>メデタイお仕事</t>
+  </si>
+  <si>
+    <t>旧砂漠</t>
+  </si>
+  <si>
+    <t>隕石の大塊2個の納品</t>
+  </si>
+  <si>
+    <t>妖艶なる舞</t>
+  </si>
+  <si>
+    <t>タマミツネ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ジャギィノス掃討作戦</t>
+  </si>
+  <si>
+    <t>ジャギィノス25頭の討伐</t>
+  </si>
+  <si>
+    <t>イビルジョー1頭の狩猟</t>
+  </si>
+  <si>
+    <t>動くこと、山の如し！</t>
+  </si>
+  <si>
+    <t>ドボルベルク1頭の捕獲</t>
+  </si>
+  <si>
+    <t>リオレウス1頭とリオレイア1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ドドドドブランゴ！</t>
+  </si>
+  <si>
+    <t>ドドブランゴ3頭の狩猟</t>
+  </si>
+  <si>
+    <t>なわばりの大フン1個の納品</t>
+  </si>
+  <si>
+    <t>16200z</t>
+  </si>
+  <si>
+    <t>スリルとショックの氷海ツアー</t>
+  </si>
+  <si>
+    <t>17700z</t>
+  </si>
+  <si>
+    <t>クール！ザボアザギル！</t>
+  </si>
+  <si>
+    <t>ザボアザギル1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ザボアザギルの頭部と背ビレ破壊</t>
+  </si>
+  <si>
+    <t>恐暴竜の根城</t>
+  </si>
+  <si>
+    <t>イビルジョーの頭部破壊</t>
+  </si>
+  <si>
+    <t>飛竜たちの乱舞</t>
+  </si>
+  <si>
+    <t>幻のハップル？</t>
+  </si>
+  <si>
+    <t>ハプルボッカ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ハプルポッカの両前脚破壊</t>
+  </si>
+  <si>
+    <t>フルフルは黒き影と共に</t>
+  </si>
+  <si>
+    <t>フルフル1頭の狩猟</t>
+  </si>
+  <si>
+    <t>フルフルの頭部と胴体破壊</t>
+  </si>
+  <si>
+    <t>攻究せよ、鎌持つショウグン</t>
+  </si>
+  <si>
+    <t>ショウグンギザミ1匹の狩猟</t>
+  </si>
+  <si>
+    <t>ショウグンギザミの両爪とヤド破壊</t>
+  </si>
+  <si>
+    <t>猿王伝説！</t>
+  </si>
+  <si>
+    <t>ラージャンの尻尾破壊</t>
+  </si>
+  <si>
+    <t>闇より生まれし者</t>
+  </si>
+  <si>
+    <t>ナルガクルガ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ナルガクルガの頭部と刃翼破壊</t>
+  </si>
+  <si>
+    <t>燃えさかる大河</t>
+  </si>
+  <si>
+    <t>ヴォルガノス2頭の狩猟</t>
+  </si>
+  <si>
+    <t>獰猛と化した鬼蛙</t>
+  </si>
+  <si>
+    <t>テツカブラ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>テツカブラの顎と後脚破壊</t>
+  </si>
+  <si>
+    <t>オーラ漂う陸の女王！</t>
+  </si>
+  <si>
+    <t>リオレイア1頭の狩猟</t>
+  </si>
+  <si>
+    <t>リオレイアの翼破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>子分・取り分・イイ気分♪</t>
+  </si>
+  <si>
+    <t>乗りによるダウン4回成功</t>
+  </si>
+  <si>
+    <t>砂漠の彼方から</t>
+  </si>
+  <si>
+    <t>ディノバルド1頭の狩猟</t>
+  </si>
+  <si>
+    <t>山紫水明の地</t>
+  </si>
+  <si>
+    <t>塔の秘境</t>
+  </si>
+  <si>
+    <t>心を燃やせ、燃石炭！</t>
+  </si>
+  <si>
+    <t>燃石炭30個の納品</t>
+  </si>
+  <si>
+    <t>凍てつく牙は獰猛に</t>
   </si>
   <si>
     <t>ドドブランゴ1頭の狩猟</t>
   </si>
   <si>
-    <t>ブランゴ10頭の討伐</t>
-  </si>
-  <si>
-    <t>マダラなアイツにご執心</t>
-  </si>
-  <si>
-    <t>原生林</t>
-  </si>
-  <si>
-    <t>ドスゲネポス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>激闘！雌火竜リオレイア</t>
-  </si>
-  <si>
-    <t>森丘</t>
-  </si>
-  <si>
-    <t>リオレイア1頭の捕獲</t>
-  </si>
-  <si>
-    <t>乗りよるダウンを2回成功</t>
-  </si>
-  <si>
-    <t>9900z</t>
-  </si>
-  <si>
-    <t>ハンターと玉突き事故</t>
+    <t>ドドブランゴの牙と尻尾破壊</t>
+  </si>
+  <si>
+    <t>振り返ってもヤツがいる</t>
+  </si>
+  <si>
+    <t>ドスイーオス2頭の狩猟</t>
+  </si>
+  <si>
+    <t>獰猛個体・調査依頼</t>
+  </si>
+  <si>
+    <t>イャンクック1頭の狩猟狩猟</t>
+  </si>
+  <si>
+    <t>イャンクックの頭部破壊</t>
+  </si>
+  <si>
+    <t>不動の山神</t>
+  </si>
+  <si>
+    <t>ボボノタン5個の納品</t>
+  </si>
+  <si>
+    <t>地底火山の精算アイテム納品</t>
+  </si>
+  <si>
+    <t>ズアロボス15頭の討伐</t>
+  </si>
+  <si>
+    <t>重厚で重甲な晩餐？</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタス1匹の捕獲</t>
+  </si>
+  <si>
+    <t>アルセルタス1匹の狩猟</t>
+  </si>
+  <si>
+    <t>夜鳥の会・危機一髪！</t>
+  </si>
+  <si>
+    <t>ホロロホルル1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ホロロホルルの頭部と翼破壊</t>
+  </si>
+  <si>
+    <t>出陣！地底火山の果し合い！</t>
+  </si>
+  <si>
+    <t>ディノバルドの尻尾切断</t>
+  </si>
+  <si>
+    <t>リオレウス狩猟指令</t>
+  </si>
+  <si>
+    <t>ドスランポス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>黒狼鳥の獰猛警報！！</t>
+  </si>
+  <si>
+    <t>イャンガルルガ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>イャンガルルガの頭部と背中破壊</t>
+  </si>
+  <si>
+    <t>泡につつまれ狐につままれ</t>
+  </si>
+  <si>
+    <t>タマツミネの右爪と左爪破壊</t>
+  </si>
+  <si>
+    <t>原生林の曲者たち</t>
+  </si>
+  <si>
+    <t>アルセルタスを除く全ての大型モンスターの狩猟</t>
+  </si>
+  <si>
+    <t>20700z</t>
+  </si>
+  <si>
+    <t>奇猿狐の蛮行を止めろ！</t>
+  </si>
+  <si>
+    <t>ケチャワチャ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ケチャワチャの爪と耳破壊</t>
+  </si>
+  <si>
+    <t>鎚と刀の鍔迫り合い</t>
+  </si>
+  <si>
+    <t>집회소★7</t>
+  </si>
+  <si>
+    <t>ディノバルド1頭とウラガンキン1頭の狩猟</t>
+  </si>
+  <si>
+    <t>15300z</t>
+  </si>
+  <si>
+    <t>住めば都の闘技場暮らし</t>
   </si>
   <si>
     <t>闘技場</t>
   </si>
   <si>
-    <t>クンチュウ30匹の討伐</t>
+    <t>熱気で熱狂！炎の軍勢！</t>
+  </si>
+  <si>
+    <t>3700z</t>
+  </si>
+  <si>
+    <t>36900z</t>
+  </si>
+  <si>
+    <t>蒼く渦巻く登竜門</t>
+  </si>
+  <si>
+    <t>ラギアクルスの頭部と背中破壊</t>
+  </si>
+  <si>
+    <t>灼熱砂上の荒ぶる刀剣</t>
+  </si>
+  <si>
+    <t>ディノバルドの頭部破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>月夜に出でし阿吽の雷撃</t>
+  </si>
+  <si>
+    <t>ラージャン2頭の狩猟</t>
+  </si>
+  <si>
+    <t>2600z</t>
+  </si>
+  <si>
+    <t>25200z</t>
+  </si>
+  <si>
+    <t>憤怒の雄叫び</t>
+  </si>
+  <si>
+    <t>怒り喰らうイビルジョー1頭の狩猟</t>
+  </si>
+  <si>
+    <t>18000z</t>
+  </si>
+  <si>
+    <t>金獅子の黒き覇気</t>
+  </si>
+  <si>
+    <t>荒れる山神、鎮める狩人</t>
+  </si>
+  <si>
+    <t>ガムート1頭の狩猟狩猟</t>
+  </si>
+  <si>
+    <t>ガムートの頭部と脚破壊</t>
+  </si>
+  <si>
+    <t>竜のコリーダ</t>
+  </si>
+  <si>
+    <t>イャンガルルガ1頭とティガレックス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>震天動地なグランドウイング</t>
+  </si>
+  <si>
+    <t>乗りによるダウンを5回成功</t>
+  </si>
+  <si>
+    <t>29700z</t>
+  </si>
+  <si>
+    <t>クシャルダオラの討伐または撃退</t>
+  </si>
+  <si>
+    <t>クシャルダオラの尻尾切断</t>
+  </si>
+  <si>
+    <t>オオナズチの討伐または撃退</t>
+  </si>
+  <si>
+    <t>オオナズチの角破壊</t>
+  </si>
+  <si>
+    <t>竜王の系譜</t>
+  </si>
+  <si>
+    <t>リオレウス希少種1頭とリオレイア希少種1頭の狩猟</t>
+  </si>
+  <si>
+    <t>26700z</t>
+  </si>
+  <si>
+    <t>受付嬢オススメ！雷狼竜×２</t>
+  </si>
+  <si>
+    <t>ジンオウガ2頭の狩猟</t>
+  </si>
+  <si>
+    <t>超☆メモ帳～千刃竜捕獲編～</t>
+  </si>
+  <si>
+    <t>セルレギオス1頭の捕獲</t>
+  </si>
+  <si>
+    <t>セルレギオスの翼破壊</t>
+  </si>
+  <si>
+    <t>柔能く剛能く狩人を制す</t>
+  </si>
+  <si>
+    <t>タマミツネの頭部と背ビレ破壊</t>
+  </si>
+  <si>
+    <t>湯けむりと噴煙と</t>
+  </si>
+  <si>
+    <t>ブラキディオス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ブラキディオスの頭部と前脚破壊</t>
+  </si>
+  <si>
+    <t>絶対零度</t>
+  </si>
+  <si>
+    <t>極圏</t>
+  </si>
+  <si>
+    <t>ウカムルバスの討伐</t>
+  </si>
+  <si>
+    <t>ウカムルパスの背中破壊</t>
+  </si>
+  <si>
+    <t>2000z</t>
+  </si>
+  <si>
+    <t>19200z</t>
+  </si>
+  <si>
+    <t>熱愛発覚！？竜達の密会！</t>
+  </si>
+  <si>
+    <t>ライゼクス1頭とリオレイア1頭の狩猟</t>
+  </si>
+  <si>
+    <t>黄金の月輪</t>
+  </si>
+  <si>
+    <t>リオレイア希少種1頭の狩猟</t>
+  </si>
+  <si>
+    <t>リオレイア希少種の頭部破壊</t>
+  </si>
+  <si>
+    <t>山紫水明の破壊者</t>
+  </si>
+  <si>
+    <t>ドボルベルクの角とコブ破壊</t>
+  </si>
+  <si>
+    <t>電光煌めく飛竜の夜</t>
+  </si>
+  <si>
+    <t>ライゼクスのトサカと背中破壊</t>
+  </si>
+  <si>
+    <t>熱き闘魂、纏いし炎戈</t>
+  </si>
+  <si>
+    <t>アグナコトルの背中と脚破壊</t>
+  </si>
+  <si>
+    <t>戦々恐々、最恐コンビ</t>
+  </si>
+  <si>
+    <t>イビルジョー1頭とラージャン1頭の狩猟</t>
+  </si>
+  <si>
+    <t>21000z</t>
+  </si>
+  <si>
+    <t>奈落の妖星</t>
+  </si>
+  <si>
+    <t>竜ノ墓場</t>
+  </si>
+  <si>
+    <t>オストガロアの討伐</t>
+  </si>
+  <si>
+    <t>轟虎馮海</t>
+  </si>
+  <si>
+    <t>ティガレックスの頭部と爪破壊</t>
+  </si>
+  <si>
+    <t>奇奇怪怪のハードビーク</t>
+  </si>
+  <si>
+    <t>17100z</t>
+  </si>
+  <si>
+    <t>破壊と滅亡の申し子</t>
+  </si>
+  <si>
+    <t>曇天毒雨</t>
+  </si>
+  <si>
+    <t>ガブラス20頭の討伐</t>
+  </si>
+  <si>
+    <t>ビリビリバリバリパニック！！</t>
+  </si>
+  <si>
+    <t>38700z</t>
+  </si>
+  <si>
+    <t>ユクモノ足湯と雷狼竜</t>
+  </si>
+  <si>
+    <t>ジンオウガの頭部と背中破壊</t>
+  </si>
+  <si>
+    <t>凶賊ゲリョス狩り</t>
+  </si>
+  <si>
+    <t>ゲリョス3頭の狩猟</t>
+  </si>
+  <si>
+    <t>昂ぶる千の刃</t>
+  </si>
+  <si>
+    <t>セルレギオス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>セルレギオスの角と脚破壊</t>
+  </si>
+  <si>
+    <t>遺跡平原からの伝書</t>
+  </si>
+  <si>
+    <t>試練の帰結点</t>
+  </si>
+  <si>
+    <t>乗りによるダウンを4回成功</t>
+  </si>
+  <si>
+    <t>21300z</t>
+  </si>
+  <si>
+    <t>容赦なき、金獅子相手に用心棒</t>
+  </si>
+  <si>
+    <t>ラージャン3頭の狩猟</t>
+  </si>
+  <si>
+    <t>牙獣の大粒ナミダ1個の納品</t>
+  </si>
+  <si>
+    <t>2300z</t>
+  </si>
+  <si>
+    <t>22500z</t>
+  </si>
+  <si>
+    <t>吹き荒れる災厄の火</t>
+  </si>
+  <si>
+    <t>テオ・テスカトルの討伐または撃退</t>
+  </si>
+  <si>
+    <t>テオ・テスカトルの頭部破壊</t>
+  </si>
+  <si>
+    <t>白と瑠璃の輪舞曲</t>
+  </si>
+  <si>
+    <t>タマミツネ1頭とホロロホルル1頭の狩猟</t>
+  </si>
+  <si>
+    <t>13500z</t>
+  </si>
+  <si>
+    <t>千刃竜セルレギオス</t>
+  </si>
+  <si>
+    <t>舞うは嵐、奏でるは災禍の調べ</t>
+  </si>
+  <si>
+    <t>霊峰</t>
+  </si>
+  <si>
+    <t>アマツマガツチの討伐</t>
+  </si>
+  <si>
+    <t>アマツマガツチの頭部破壊</t>
+  </si>
+  <si>
+    <t>いつか見た幻日</t>
+  </si>
+  <si>
+    <t>リオレウス希少種1頭の狩猟</t>
+  </si>
+  <si>
+    <t>リオレウス希少種の頭部と翼破壊</t>
+  </si>
+  <si>
+    <t>22800z</t>
+  </si>
+  <si>
+    <t>舞い降りる鋼龍</t>
+  </si>
+  <si>
+    <t>クシャルダオラの翼破壊</t>
+  </si>
+  <si>
+    <t>白銀の火輪</t>
+  </si>
+  <si>
+    <t>リオレウス希少種の頭部破壊</t>
+  </si>
+  <si>
+    <t>モンスターニャンター</t>
+  </si>
+  <si>
+    <t>天に吼えろ、大地を揺らせ</t>
+  </si>
+  <si>
+    <t>ジンオウガ1頭とティガレックス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>森丘の黒い霧</t>
+  </si>
+  <si>
+    <t>竜の大粒ナミダ2個の納品</t>
+  </si>
+  <si>
+    <t>17400z</t>
+  </si>
+  <si>
+    <t>顕現せし黒蝕竜</t>
+  </si>
+  <si>
+    <t>ゴア･マガラの触角と翼脚破壊</t>
+  </si>
+  <si>
+    <t>14100z</t>
+  </si>
+  <si>
+    <t>獰にして猛だが火でもある</t>
+  </si>
+  <si>
+    <t>リオレウスの翼破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>痺れる魔球</t>
   </si>
   <si>
     <t>ラングロトラ1頭の狩猟</t>
   </si>
   <si>
-    <t>溶岩竜ヴォルガノス出現！</t>
-  </si>
-  <si>
-    <t>火山</t>
-  </si>
-  <si>
-    <t>ヴォルガノス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>汗と涙の連続狩猟</t>
-  </si>
-  <si>
-    <t>全ての大型モンスターの狩猟</t>
-  </si>
-  <si>
-    <t>14400z</t>
-  </si>
-  <si>
-    <t>地底火山のポイント招きネコ</t>
-  </si>
-  <si>
-    <t>地底火山</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント1800pts入手</t>
-  </si>
-  <si>
-    <t>炎天下の麻痺牙</t>
-  </si>
-  <si>
-    <t>旧砂漠</t>
-  </si>
-  <si>
-    <t>ドスゲネポス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>孤島の釣り合戦！</t>
-  </si>
-  <si>
-    <t>孤島</t>
-  </si>
-  <si>
-    <t>白金魚3匹の納品</t>
-  </si>
-  <si>
-    <t>孤島の迷惑客</t>
-  </si>
-  <si>
-    <t>ガノトトス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>土砂竜・ボルボロス！</t>
-  </si>
-  <si>
-    <t>ボルボロス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>竜の大粒ナミダ1個の納品</t>
-  </si>
-  <si>
-    <t>超☆メモ帳～奇猿狐狩猟編～</t>
-  </si>
-  <si>
-    <t>遺跡平原</t>
-  </si>
-  <si>
-    <t>ケチャワチャ2頭の狩猟</t>
-  </si>
-  <si>
-    <t>牙獣の大粒ナミダ1個の納品</t>
-  </si>
-  <si>
-    <t>グレート・ハンター・ゲーム</t>
+    <t>縦横無尽なフレックスフィン</t>
   </si>
   <si>
     <t>水上闘技場</t>
-  </si>
-  <si>
-    <t>1700z</t>
-  </si>
-  <si>
-    <t>16500z</t>
-  </si>
-  <si>
-    <t>沼地</t>
-  </si>
-  <si>
-    <t>ランゴスタ50匹の討伐</t>
-  </si>
-  <si>
-    <t>カンタロス20匹の討伐</t>
-  </si>
-  <si>
-    <t>ガララアジャラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガララアジャラの背中破壊</t>
-  </si>
-  <si>
-    <t>タイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>壁に耳あり、天井に目あり？</t>
-  </si>
-  <si>
-    <t>フルフル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ザボアザギルの狩猟依頼</t>
-  </si>
-  <si>
-    <t>ザボアザギル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>モンスターのキモ5個の納品</t>
-  </si>
-  <si>
-    <t>地底火山の採集ツアー</t>
-  </si>
-  <si>
-    <t>火山の冒険</t>
-  </si>
-  <si>
-    <t>バサルモス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>渓流の水竜</t>
-  </si>
-  <si>
-    <t>渓流</t>
-  </si>
-  <si>
-    <t>ガノトトス背ビレ破壊</t>
-  </si>
-  <si>
-    <t>キモ・キモ・キモ！！！</t>
-  </si>
-  <si>
-    <t>遺跡平原の精算アイテム納品</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント4000pts入手</t>
-  </si>
-  <si>
-    <t>オルタロス15匹の討伐</t>
-  </si>
-  <si>
-    <t>奇猿狐の耳破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>ケチャワチャの耳破壊</t>
-  </si>
-  <si>
-    <t>イャンガルルガの洗礼</t>
-  </si>
-  <si>
-    <t>イャンガルルガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>イャンガルルガの翼爪破壊</t>
-  </si>
-  <si>
-    <t>極寒の地の採掘依頼</t>
-  </si>
-  <si>
-    <t>血石10個の納品</t>
-  </si>
-  <si>
-    <t>ザボアザギルの背ビレ破壊</t>
-  </si>
-  <si>
-    <t>イーオスの親玉たち</t>
-  </si>
-  <si>
-    <t>ドスイーオス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>毒、麻痺、混乱にご用心！</t>
-  </si>
-  <si>
-    <t>古代林</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント1500pts入手</t>
-  </si>
-  <si>
-    <t>14700z</t>
-  </si>
-  <si>
-    <t>桃色大将ババコンガ</t>
-  </si>
-  <si>
-    <t>ババコンガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>なわばりの大フン1個の納品</t>
-  </si>
-  <si>
-    <t>原生林の精算アイテム納品</t>
-  </si>
-  <si>
-    <t>ケルビ15頭の討伐</t>
-  </si>
-  <si>
-    <t>イーオスたちの親玉</t>
-  </si>
-  <si>
-    <t>ドスイーオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>イーオス15頭の討伐</t>
-  </si>
-  <si>
-    <t>獰猛なる矢尻たち</t>
-  </si>
-  <si>
-    <t>スクアギル20頭の討伐</t>
-  </si>
-  <si>
-    <t>テツカブラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>不眠のあなたに催眠療法×２</t>
-  </si>
-  <si>
-    <t>ホロロホルル2頭の狩猟</t>
-  </si>
-  <si>
-    <t>女王・リオレイアの狩猟</t>
-  </si>
-  <si>
-    <t>リオレイア1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレイアの尻尾切断</t>
-  </si>
-  <si>
-    <t>ハプルボッカ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>アプケロスのキモ5個の納品</t>
-  </si>
-  <si>
-    <t>氷海の採集ツアー</t>
-  </si>
-  <si>
-    <t>２頭のドスランポス</t>
-  </si>
-  <si>
-    <t>ドスランポス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>知性溢れる？夜鳥狩猟</t>
-  </si>
-  <si>
-    <t>ホロロホルル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ホロロホルルの頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>燃石炭の納品</t>
-  </si>
-  <si>
-    <t>燃石炭20個の納品</t>
-  </si>
-  <si>
-    <t>イャンガルルガの頭部破壊</t>
-  </si>
-  <si>
-    <t>熱砂の喧嘩は武器の素</t>
-  </si>
-  <si>
-    <t>1400z</t>
-  </si>
-  <si>
-    <t>13800z</t>
-  </si>
-  <si>
-    <t>沼地の捕食者・ネルスキュラ</t>
-  </si>
-  <si>
-    <t>ネルスキュラ1匹の狩猟</t>
-  </si>
-  <si>
-    <t>女王のフェロモン1個の納品</t>
-  </si>
-  <si>
-    <t>炎の山の大将軍</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ1匹の狩猟</t>
-  </si>
-  <si>
-    <t>ショウグンギザミの両爪破壊</t>
-  </si>
-  <si>
-    <t>ウラガンキン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リノプロス10頭の討伐</t>
-  </si>
-  <si>
-    <t>9600z</t>
-  </si>
-  <si>
-    <t>サンドのメシよりドスガレオス</t>
-  </si>
-  <si>
-    <t>ドスガレオス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガブラス10頭の討伐</t>
-  </si>
-  <si>
-    <t>疾き迅竜の狩猟披露</t>
-  </si>
-  <si>
-    <t>ナルガクルガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ナルガクルガの尻尾切断</t>
-  </si>
-  <si>
-    <t>落石注意！？</t>
-  </si>
-  <si>
-    <t>火薬岩1個の納品</t>
-  </si>
-  <si>
-    <t>お姉さまは白兎獣がお好き？</t>
-  </si>
-  <si>
-    <t>ウルクスス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>スクアギル10頭の討伐</t>
-  </si>
-  <si>
-    <t>狂乱の立体闘技場</t>
-  </si>
-  <si>
-    <t>집회소★6</t>
-  </si>
-  <si>
-    <t>立体闘技場</t>
-  </si>
-  <si>
-    <t>2200z</t>
-  </si>
-  <si>
-    <t>21600z</t>
-  </si>
-  <si>
-    <t>大海の王・ラギアクルス！</t>
-  </si>
-  <si>
-    <t>ラギアクルス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>10500z</t>
-  </si>
-  <si>
-    <t>夜鳥の頭部破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>ホロロホルルの頭部破壊</t>
-  </si>
-  <si>
-    <t>ドボルがために銅鑼は鳴る</t>
-  </si>
-  <si>
-    <t>ドボルベルク1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドボルベルクのコブ破壊</t>
-  </si>
-  <si>
-    <t>12600z</t>
-  </si>
-  <si>
-    <t>極秘依頼！獰猛なる溶岩竜！</t>
-  </si>
-  <si>
-    <t>ヴォルガノスの頭部と背ビレ破壊</t>
-  </si>
-  <si>
-    <t>どくどくパニック・毒怪鳥！！</t>
-  </si>
-  <si>
-    <t>ゲリョス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ゲリョスのトサカ破壊</t>
-  </si>
-  <si>
-    <t>遺跡平原の黒蝕竜調査</t>
-  </si>
-  <si>
-    <t>ゴア・マガラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>11700z</t>
-  </si>
-  <si>
-    <t>ライゼクスの支配圏</t>
-  </si>
-  <si>
-    <t>ライゼクス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ライゼクスの背中破壊</t>
-  </si>
-  <si>
-    <t>12000z</t>
-  </si>
-  <si>
-    <t>最も危険な晩餐</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス1匹の狩猟</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタスの尻尾破壊</t>
-  </si>
-  <si>
-    <t>３頭寄れば獰猛蛙</t>
-  </si>
-  <si>
-    <t>テツカブラ3頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガマの大粒ナミダ1個の納品</t>
-  </si>
-  <si>
-    <t>1600z</t>
-  </si>
-  <si>
-    <t>15900z</t>
-  </si>
-  <si>
-    <t>吹雪に立つ金獅子</t>
-  </si>
-  <si>
-    <t>ラージャン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>意気地없음には鎧竜で喝！</t>
-  </si>
-  <si>
-    <t>グラビモス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>燃えたぎれ！火山の熱闘！！</t>
-  </si>
-  <si>
-    <t>1900z</t>
-  </si>
-  <si>
-    <t>18600z</t>
-  </si>
-  <si>
-    <t>空の王者・リオレウス</t>
-  </si>
-  <si>
-    <t>リオレウス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレウスの頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>孤島の暴君、ダイミョウザザミ</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミ1匹の狩猟</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミの両爪とヤド破壊</t>
-  </si>
-  <si>
-    <t>氷海の精算アイテム納品</t>
-  </si>
-  <si>
-    <t>轟竜狩猟は妹のため</t>
-  </si>
-  <si>
-    <t>ティガレックス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ティガレックスの尻尾切断</t>
-  </si>
-  <si>
-    <t>跳梁し意思を用いず悪成さば</t>
-  </si>
-  <si>
-    <t>獰猛なタテガミを求めて</t>
-  </si>
-  <si>
-    <t>ロアルドロス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ロアルドロスのタテガミ破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>たんと掘れ燃石炭</t>
-  </si>
-  <si>
-    <t>30分</t>
-  </si>
-  <si>
-    <t>燃石炭10個以上納品もしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>ラージャンの角破壊</t>
-  </si>
-  <si>
-    <t>絞蛇竜は不気味に嗤う</t>
-  </si>
-  <si>
-    <t>ガララアジャラの頭部と尻尾破壊</t>
-  </si>
-  <si>
-    <t>ジンオウガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ジンオウガの尻尾切断</t>
-  </si>
-  <si>
-    <t>素敵な素敵な電竜頭</t>
-  </si>
-  <si>
-    <t>火の海に棲む竜！</t>
-  </si>
-  <si>
-    <t>アグナコトル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ウロコトル10頭の討伐</t>
-  </si>
-  <si>
-    <t>竜の大鎚・火山の化身</t>
-  </si>
-  <si>
-    <t>ウラガンキンの顎破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>地底火山に響く侵略の足音</t>
-  </si>
-  <si>
-    <t>18900z</t>
-  </si>
-  <si>
-    <t>奥様は白水晶がお好き</t>
-  </si>
-  <si>
-    <t>白水晶の原石2個の納品</t>
-  </si>
-  <si>
-    <t>ガミザミ12匹の討伐</t>
-  </si>
-  <si>
-    <t>3300z</t>
-  </si>
-  <si>
-    <t>ワイルドバレット</t>
-  </si>
-  <si>
-    <t>18300z</t>
-  </si>
-  <si>
-    <t>ガムート1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガムートの頭部破壊</t>
-  </si>
-  <si>
-    <t>沼地の狂騒楽団</t>
-  </si>
-  <si>
-    <t>16800z</t>
-  </si>
-  <si>
-    <t>熱願の穴掘り</t>
-  </si>
-  <si>
-    <t>アグナコトル1頭の捕獲</t>
-  </si>
-  <si>
-    <t>アグナコトルの頭部破壊</t>
-  </si>
-  <si>
-    <t>キリンの討伐</t>
-  </si>
-  <si>
-    <t>ギルドフラッグを山頂に設置</t>
-  </si>
-  <si>
-    <t>スノードロップをあなたに</t>
-  </si>
-  <si>
-    <t>ウルクスス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガノトトス冒険記</t>
-  </si>
-  <si>
-    <t>ガノトトスの頭部と背ビレ破壊</t>
-  </si>
-  <si>
-    <t>ベリオロスの狩猟</t>
-  </si>
-  <si>
-    <t>ベリオロス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>メデタイお仕事</t>
-  </si>
-  <si>
-    <t>隕石の大塊2個の納品</t>
-  </si>
-  <si>
-    <t>妖艶なる舞</t>
-  </si>
-  <si>
-    <t>タマミツネ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ジャギィノス掃討作戦</t>
-  </si>
-  <si>
-    <t>ジャギィノス25頭の討伐</t>
-  </si>
-  <si>
-    <t>イビルジョー1頭の狩猟</t>
-  </si>
-  <si>
-    <t>動くこと、山の如し！</t>
-  </si>
-  <si>
-    <t>ドボルベルク1頭の捕獲</t>
-  </si>
-  <si>
-    <t>リオレウス1頭とリオレイア1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドドドドブランゴ！</t>
-  </si>
-  <si>
-    <t>ドドブランゴ3頭の狩猟</t>
-  </si>
-  <si>
-    <t>16200z</t>
-  </si>
-  <si>
-    <t>スリルとショックの氷海ツアー</t>
-  </si>
-  <si>
-    <t>17700z</t>
-  </si>
-  <si>
-    <t>クール！ザボアザギル！</t>
-  </si>
-  <si>
-    <t>ザボアザギルの頭部と背ビレ破壊</t>
-  </si>
-  <si>
-    <t>恐暴竜の根城</t>
-  </si>
-  <si>
-    <t>イビルジョーの頭部破壊</t>
-  </si>
-  <si>
-    <t>飛竜たちの乱舞</t>
-  </si>
-  <si>
-    <t>幻のハップル？</t>
-  </si>
-  <si>
-    <t>ハプルポッカの両前脚破壊</t>
-  </si>
-  <si>
-    <t>フルフルは黒き影と共に</t>
-  </si>
-  <si>
-    <t>フルフルの頭部と胴体破壊</t>
-  </si>
-  <si>
-    <t>攻究せよ、鎌持つショウグン</t>
-  </si>
-  <si>
-    <t>ショウグンギザミの両爪とヤド破壊</t>
-  </si>
-  <si>
-    <t>猿王伝説！</t>
-  </si>
-  <si>
-    <t>ラージャンの尻尾破壊</t>
-  </si>
-  <si>
-    <t>闇より生まれし者</t>
-  </si>
-  <si>
-    <t>ナルガクルガの頭部と刃翼破壊</t>
-  </si>
-  <si>
-    <t>燃えさかる大河</t>
-  </si>
-  <si>
-    <t>ヴォルガノス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>獰猛と化した鬼蛙</t>
-  </si>
-  <si>
-    <t>テツカブラの顎と後脚破壊</t>
-  </si>
-  <si>
-    <t>オーラ漂う陸の女王！</t>
-  </si>
-  <si>
-    <t>リオレイアの翼破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>子分・取り分・イイ気分♪</t>
-  </si>
-  <si>
-    <t>乗りによるダウン4回成功</t>
-  </si>
-  <si>
-    <t>砂漠の彼方から</t>
-  </si>
-  <si>
-    <t>ディノバルド1頭の狩猟</t>
-  </si>
-  <si>
-    <t>山紫水明の地</t>
-  </si>
-  <si>
-    <t>塔の秘境</t>
-  </si>
-  <si>
-    <t>心を燃やせ、燃石炭！</t>
-  </si>
-  <si>
-    <t>燃石炭30個の納品</t>
-  </si>
-  <si>
-    <t>凍てつく牙は獰猛に</t>
-  </si>
-  <si>
-    <t>ドドブランゴの牙と尻尾破壊</t>
-  </si>
-  <si>
-    <t>振り返ってもヤツがいる</t>
-  </si>
-  <si>
-    <t>獰猛個体・調査依頼</t>
-  </si>
-  <si>
-    <t>イャンクック1頭の狩猟狩猟</t>
-  </si>
-  <si>
-    <t>イャンクックの頭部破壊</t>
-  </si>
-  <si>
-    <t>不動の山神</t>
-  </si>
-  <si>
-    <t>ボボノタン5個の納品</t>
-  </si>
-  <si>
-    <t>地底火山の精算アイテム納品</t>
-  </si>
-  <si>
-    <t>ズアロボス15頭の討伐</t>
-  </si>
-  <si>
-    <t>重厚で重甲な晩餐？</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス1匹の捕獲</t>
-  </si>
-  <si>
-    <t>アルセルタス1匹の狩猟</t>
-  </si>
-  <si>
-    <t>夜鳥の会・危機一髪！</t>
-  </si>
-  <si>
-    <t>出陣！地底火山の果し合い！</t>
-  </si>
-  <si>
-    <t>ディノバルドの尻尾切断</t>
-  </si>
-  <si>
-    <t>リオレウス狩猟指令</t>
-  </si>
-  <si>
-    <t>ドスランポス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>黒狼鳥の獰猛警報！！</t>
-  </si>
-  <si>
-    <t>イャンガルルガの頭部と背中破壊</t>
-  </si>
-  <si>
-    <t>泡につつまれ狐につままれ</t>
-  </si>
-  <si>
-    <t>タマツミネの右爪と左爪破壊</t>
-  </si>
-  <si>
-    <t>原生林の曲者たち</t>
-  </si>
-  <si>
-    <t>アルセルタスを除く全ての大型モンスターの狩猟</t>
-  </si>
-  <si>
-    <t>20700z</t>
-  </si>
-  <si>
-    <t>奇猿狐の蛮行を止めろ！</t>
-  </si>
-  <si>
-    <t>ケチャワチャ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ケチャワチャの爪と耳破壊</t>
-  </si>
-  <si>
-    <t>鎚と刀の鍔迫り合い</t>
-  </si>
-  <si>
-    <t>집회소★7</t>
-  </si>
-  <si>
-    <t>ディノバルド1頭とウラガンキン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>15300z</t>
-  </si>
-  <si>
-    <t>住めば都の闘技場暮らし</t>
-  </si>
-  <si>
-    <t>熱気で熱狂！炎の軍勢！</t>
-  </si>
-  <si>
-    <t>3700z</t>
-  </si>
-  <si>
-    <t>36900z</t>
-  </si>
-  <si>
-    <t>蒼く渦巻く登竜門</t>
-  </si>
-  <si>
-    <t>ラギアクルスの頭部と背中破壊</t>
-  </si>
-  <si>
-    <t>灼熱砂上の荒ぶる刀剣</t>
-  </si>
-  <si>
-    <t>ディノバルドの頭部破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>月夜に出でし阿吽の雷撃</t>
-  </si>
-  <si>
-    <t>ラージャン2頭の狩猟</t>
-  </si>
-  <si>
-    <t>2600z</t>
-  </si>
-  <si>
-    <t>25200z</t>
-  </si>
-  <si>
-    <t>憤怒の雄叫び</t>
-  </si>
-  <si>
-    <t>怒り喰らうイビルジョー1頭の狩猟</t>
-  </si>
-  <si>
-    <t>18000z</t>
-  </si>
-  <si>
-    <t>金獅子の黒き覇気</t>
-  </si>
-  <si>
-    <t>荒れる山神、鎮める狩人</t>
-  </si>
-  <si>
-    <t>ガムート1頭の狩猟狩猟</t>
-  </si>
-  <si>
-    <t>ガムートの頭部と脚破壊</t>
-  </si>
-  <si>
-    <t>竜のコリーダ</t>
-  </si>
-  <si>
-    <t>イャンガルルガ1頭とティガレックス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>震天動地なグランドウイング</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを5回成功</t>
-  </si>
-  <si>
-    <t>29700z</t>
-  </si>
-  <si>
-    <t>クシャルダオラの討伐または撃退</t>
-  </si>
-  <si>
-    <t>クシャルダオラの尻尾切断</t>
-  </si>
-  <si>
-    <t>オオナズチの討伐または撃退</t>
-  </si>
-  <si>
-    <t>オオナズチの角破壊</t>
-  </si>
-  <si>
-    <t>竜王の系譜</t>
-  </si>
-  <si>
-    <t>リオレウス希少種1頭とリオレイア希少種1頭の狩猟</t>
-  </si>
-  <si>
-    <t>26700z</t>
-  </si>
-  <si>
-    <t>受付嬢オススメ！雷狼竜×２</t>
-  </si>
-  <si>
-    <t>ジンオウガ2頭の狩猟</t>
-  </si>
-  <si>
-    <t>超☆メモ帳～千刃竜捕獲編～</t>
-  </si>
-  <si>
-    <t>セルレギオス1頭の捕獲</t>
-  </si>
-  <si>
-    <t>セルレギオスの翼破壊</t>
-  </si>
-  <si>
-    <t>柔能く剛能く狩人を制す</t>
-  </si>
-  <si>
-    <t>タマミツネの頭部と背ビレ破壊</t>
-  </si>
-  <si>
-    <t>湯けむりと噴煙と</t>
-  </si>
-  <si>
-    <t>ブラキディオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ブラキディオスの頭部と前脚破壊</t>
-  </si>
-  <si>
-    <t>絶対零度</t>
-  </si>
-  <si>
-    <t>極圏</t>
-  </si>
-  <si>
-    <t>ウカムルバスの討伐</t>
-  </si>
-  <si>
-    <t>ウカムルパスの背中破壊</t>
-  </si>
-  <si>
-    <t>2000z</t>
-  </si>
-  <si>
-    <t>19200z</t>
-  </si>
-  <si>
-    <t>熱愛発覚！？竜達の密会！</t>
-  </si>
-  <si>
-    <t>ライゼクス1頭とリオレイア1頭の狩猟</t>
-  </si>
-  <si>
-    <t>黄金の月輪</t>
-  </si>
-  <si>
-    <t>リオレイア希少種1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレイア希少種の頭部破壊</t>
-  </si>
-  <si>
-    <t>山紫水明の破壊者</t>
-  </si>
-  <si>
-    <t>ドボルベルクの角とコブ破壊</t>
-  </si>
-  <si>
-    <t>電光煌めく飛竜の夜</t>
-  </si>
-  <si>
-    <t>ライゼクスのトサカと背中破壊</t>
-  </si>
-  <si>
-    <t>熱き闘魂、纏いし炎戈</t>
-  </si>
-  <si>
-    <t>アグナコトルの背中と脚破壊</t>
-  </si>
-  <si>
-    <t>戦々恐々、最恐コンビ</t>
-  </si>
-  <si>
-    <t>イビルジョー1頭とラージャン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>21000z</t>
-  </si>
-  <si>
-    <t>奈落の妖星</t>
-  </si>
-  <si>
-    <t>竜ノ墓場</t>
-  </si>
-  <si>
-    <t>オストガロアの討伐</t>
-  </si>
-  <si>
-    <t>轟虎馮海</t>
-  </si>
-  <si>
-    <t>ティガレックスの頭部と爪破壊</t>
-  </si>
-  <si>
-    <t>奇奇怪怪のハードビーク</t>
-  </si>
-  <si>
-    <t>17100z</t>
-  </si>
-  <si>
-    <t>破壊と滅亡の申し子</t>
-  </si>
-  <si>
-    <t>曇天毒雨</t>
-  </si>
-  <si>
-    <t>ガブラス20頭の討伐</t>
-  </si>
-  <si>
-    <t>ビリビリバリバリパニック！！</t>
-  </si>
-  <si>
-    <t>38700z</t>
-  </si>
-  <si>
-    <t>ユクモノ足湯と雷狼竜</t>
-  </si>
-  <si>
-    <t>ジンオウガの頭部と背中破壊</t>
-  </si>
-  <si>
-    <t>凶賊ゲリョス狩り</t>
-  </si>
-  <si>
-    <t>ゲリョス3頭の狩猟</t>
-  </si>
-  <si>
-    <t>昂ぶる千の刃</t>
-  </si>
-  <si>
-    <t>セルレギオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>セルレギオスの角と脚破壊</t>
-  </si>
-  <si>
-    <t>遺跡平原からの伝書</t>
-  </si>
-  <si>
-    <t>試練の帰結点</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを4回成功</t>
-  </si>
-  <si>
-    <t>21300z</t>
-  </si>
-  <si>
-    <t>容赦なき、金獅子相手に用心棒</t>
-  </si>
-  <si>
-    <t>ラージャン3頭の狩猟</t>
-  </si>
-  <si>
-    <t>2300z</t>
-  </si>
-  <si>
-    <t>22500z</t>
-  </si>
-  <si>
-    <t>吹き荒れる災厄の火</t>
-  </si>
-  <si>
-    <t>テオ・テスカトルの討伐または撃退</t>
-  </si>
-  <si>
-    <t>テオ・テスカトルの頭部破壊</t>
-  </si>
-  <si>
-    <t>白と瑠璃の輪舞曲</t>
-  </si>
-  <si>
-    <t>タマミツネ1頭とホロロホルル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>13500z</t>
-  </si>
-  <si>
-    <t>千刃竜セルレギオス</t>
-  </si>
-  <si>
-    <t>舞うは嵐、奏でるは災禍の調べ</t>
-  </si>
-  <si>
-    <t>霊峰</t>
-  </si>
-  <si>
-    <t>アマツマガツチの討伐</t>
-  </si>
-  <si>
-    <t>アマツマガツチの頭部破壊</t>
-  </si>
-  <si>
-    <t>いつか見た幻日</t>
-  </si>
-  <si>
-    <t>リオレウス希少種1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレウス希少種の頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>22800z</t>
-  </si>
-  <si>
-    <t>舞い降りる鋼龍</t>
-  </si>
-  <si>
-    <t>クシャルダオラの翼破壊</t>
-  </si>
-  <si>
-    <t>白銀の火輪</t>
-  </si>
-  <si>
-    <t>リオレウス希少種の頭部破壊</t>
-  </si>
-  <si>
-    <t>モンスターニャンター</t>
-  </si>
-  <si>
-    <t>天に吼えろ、大地を揺らせ</t>
-  </si>
-  <si>
-    <t>ジンオウガ1頭とティガレックス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>森丘の黒い霧</t>
-  </si>
-  <si>
-    <t>竜の大粒ナミダ2個の納品</t>
-  </si>
-  <si>
-    <t>17400z</t>
-  </si>
-  <si>
-    <t>顕現せし黒蝕竜</t>
-  </si>
-  <si>
-    <t>ゴア･マガラの触角と翼脚破壊</t>
-  </si>
-  <si>
-    <t>14100z</t>
-  </si>
-  <si>
-    <t>獰にして猛だが火でもある</t>
-  </si>
-  <si>
-    <t>リオレウスの翼破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>痺れる魔球</t>
-  </si>
-  <si>
-    <t>縦横無尽なフレックスフィン</t>
   </si>
   <si>
     <t>3100z</t>
@@ -3335,14 +3467,14 @@
   <dimension ref="A1:J340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D33:I67"/>
+      <pane ySplit="1" topLeftCell="F179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -7933,17 +8065,20 @@
       <c r="A144" t="s">
         <v>506</v>
       </c>
+      <c r="B144" t="s">
+        <v>507</v>
+      </c>
       <c r="C144" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D144" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G144" t="s">
         <v>24</v>
@@ -7962,20 +8097,23 @@
       <c r="A145" t="s">
         <v>146</v>
       </c>
+      <c r="B145" t="s">
+        <v>147</v>
+      </c>
       <c r="C145" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D145" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
       </c>
       <c r="F145" t="s">
+        <v>148</v>
+      </c>
+      <c r="G145" t="s">
         <v>511</v>
-      </c>
-      <c r="G145" t="s">
-        <v>512</v>
       </c>
       <c r="H145" t="s">
         <v>232</v>
@@ -7989,19 +8127,22 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
+        <v>512</v>
+      </c>
+      <c r="B146" t="s">
         <v>513</v>
       </c>
       <c r="C146" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D146" t="s">
-        <v>514</v>
+        <v>416</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>515</v>
+        <v>180</v>
       </c>
       <c r="G146" t="s">
         <v>24</v>
@@ -8018,28 +8159,31 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
+        <v>514</v>
+      </c>
+      <c r="B147" t="s">
+        <v>515</v>
+      </c>
+      <c r="C147" t="s">
+        <v>508</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" t="s">
         <v>516</v>
       </c>
-      <c r="C147" t="s">
-        <v>507</v>
-      </c>
-      <c r="D147" t="s">
-        <v>517</v>
-      </c>
-      <c r="E147" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" t="s">
-        <v>518</v>
-      </c>
       <c r="G147" t="s">
-        <v>519</v>
+        <v>16</v>
       </c>
       <c r="H147" t="s">
         <v>273</v>
       </c>
       <c r="I147" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J147" t="s">
         <v>48</v>
@@ -8047,22 +8191,25 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>521</v>
+        <v>518</v>
+      </c>
+      <c r="B148" t="s">
+        <v>519</v>
       </c>
       <c r="C148" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D148" t="s">
-        <v>522</v>
+        <v>299</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G148" t="s">
-        <v>524</v>
+        <v>198</v>
       </c>
       <c r="H148" t="s">
         <v>126</v>
@@ -8076,22 +8223,25 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>525</v>
+        <v>521</v>
+      </c>
+      <c r="B149" t="s">
+        <v>522</v>
       </c>
       <c r="C149" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D149" t="s">
-        <v>526</v>
+        <v>281</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G149" t="s">
-        <v>519</v>
+        <v>16</v>
       </c>
       <c r="H149" t="s">
         <v>232</v>
@@ -8105,19 +8255,22 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>528</v>
+        <v>524</v>
+      </c>
+      <c r="B150" t="s">
+        <v>525</v>
       </c>
       <c r="C150" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D150" t="s">
-        <v>522</v>
+        <v>299</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>529</v>
+        <v>287</v>
       </c>
       <c r="G150" t="s">
         <v>24</v>
@@ -8126,7 +8279,7 @@
         <v>48</v>
       </c>
       <c r="I150" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J150" t="s">
         <v>25</v>
@@ -8134,19 +8287,22 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>531</v>
+        <v>527</v>
+      </c>
+      <c r="B151" t="s">
+        <v>528</v>
       </c>
       <c r="C151" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D151" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G151" t="s">
         <v>24</v>
@@ -8163,19 +8319,22 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>534</v>
+        <v>531</v>
+      </c>
+      <c r="B152" t="s">
+        <v>532</v>
       </c>
       <c r="C152" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D152" t="s">
-        <v>535</v>
+        <v>64</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>536</v>
+        <v>89</v>
       </c>
       <c r="G152" t="s">
         <v>24</v>
@@ -8192,19 +8351,22 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>537</v>
+        <v>533</v>
+      </c>
+      <c r="B153" t="s">
+        <v>534</v>
       </c>
       <c r="C153" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D153" t="s">
-        <v>538</v>
+        <v>161</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
       </c>
       <c r="F153" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G153" t="s">
         <v>24</v>
@@ -8221,19 +8383,22 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>540</v>
+        <v>536</v>
+      </c>
+      <c r="B154" t="s">
+        <v>537</v>
       </c>
       <c r="C154" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D154" t="s">
+        <v>161</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" t="s">
         <v>538</v>
-      </c>
-      <c r="E154" t="s">
-        <v>14</v>
-      </c>
-      <c r="F154" t="s">
-        <v>541</v>
       </c>
       <c r="G154" t="s">
         <v>24</v>
@@ -8250,22 +8415,25 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B155" t="s">
+        <v>540</v>
       </c>
       <c r="C155" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D155" t="s">
-        <v>535</v>
+        <v>64</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
       </c>
       <c r="F155" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G155" t="s">
-        <v>544</v>
+        <v>430</v>
       </c>
       <c r="H155" t="s">
         <v>185</v>
@@ -8279,22 +8447,25 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
+        <v>542</v>
+      </c>
+      <c r="B156" t="s">
+        <v>543</v>
+      </c>
+      <c r="C156" t="s">
+        <v>508</v>
+      </c>
+      <c r="D156" t="s">
+        <v>429</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" t="s">
+        <v>544</v>
+      </c>
+      <c r="G156" t="s">
         <v>545</v>
-      </c>
-      <c r="C156" t="s">
-        <v>507</v>
-      </c>
-      <c r="D156" t="s">
-        <v>546</v>
-      </c>
-      <c r="E156" t="s">
-        <v>14</v>
-      </c>
-      <c r="F156" t="s">
-        <v>547</v>
-      </c>
-      <c r="G156" t="s">
-        <v>548</v>
       </c>
       <c r="H156" t="s">
         <v>232</v>
@@ -8308,28 +8479,31 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>549</v>
+        <v>546</v>
+      </c>
+      <c r="B157" t="s">
+        <v>547</v>
       </c>
       <c r="C157" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D157" t="s">
-        <v>550</v>
+        <v>502</v>
       </c>
       <c r="E157" t="s">
         <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>529</v>
+        <v>287</v>
       </c>
       <c r="G157" t="s">
         <v>24</v>
       </c>
       <c r="H157" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I157" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J157" t="s">
         <v>25</v>
@@ -8339,20 +8513,23 @@
       <c r="A158" t="s">
         <v>164</v>
       </c>
+      <c r="B158" t="s">
+        <v>165</v>
+      </c>
       <c r="C158" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D158" t="s">
-        <v>553</v>
+        <v>157</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
       </c>
       <c r="F158" t="s">
-        <v>554</v>
+        <v>166</v>
       </c>
       <c r="G158" t="s">
-        <v>555</v>
+        <v>167</v>
       </c>
       <c r="H158" t="s">
         <v>19</v>
@@ -8368,20 +8545,23 @@
       <c r="A159" t="s">
         <v>187</v>
       </c>
+      <c r="B159" t="s">
+        <v>188</v>
+      </c>
       <c r="C159" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D159" t="s">
-        <v>514</v>
+        <v>416</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>556</v>
+        <v>189</v>
       </c>
       <c r="G159" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H159" t="s">
         <v>39</v>
@@ -8397,17 +8577,20 @@
       <c r="A160" t="s">
         <v>263</v>
       </c>
+      <c r="B160" t="s">
+        <v>264</v>
+      </c>
       <c r="C160" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D160" t="s">
-        <v>538</v>
+        <v>161</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>558</v>
+        <v>23</v>
       </c>
       <c r="G160" t="s">
         <v>24</v>
@@ -8424,19 +8607,22 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>559</v>
+        <v>551</v>
+      </c>
+      <c r="B161" t="s">
+        <v>552</v>
       </c>
       <c r="C161" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D161" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>560</v>
+        <v>267</v>
       </c>
       <c r="G161" t="s">
         <v>24</v>
@@ -8453,22 +8639,25 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>561</v>
+        <v>553</v>
+      </c>
+      <c r="B162" t="s">
+        <v>554</v>
       </c>
       <c r="C162" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D162" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E162" t="s">
         <v>14</v>
       </c>
       <c r="F162" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G162" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="H162" t="s">
         <v>185</v>
@@ -8482,19 +8671,22 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>564</v>
+        <v>557</v>
+      </c>
+      <c r="B163" t="s">
+        <v>558</v>
       </c>
       <c r="C163" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D163" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E163" t="s">
         <v>14</v>
       </c>
       <c r="F163" t="s">
-        <v>558</v>
+        <v>23</v>
       </c>
       <c r="G163" t="s">
         <v>24</v>
@@ -8511,22 +8703,25 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>565</v>
+        <v>559</v>
+      </c>
+      <c r="B164" t="s">
+        <v>560</v>
       </c>
       <c r="C164" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D164" t="s">
-        <v>526</v>
+        <v>281</v>
       </c>
       <c r="E164" t="s">
         <v>14</v>
       </c>
       <c r="F164" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G164" t="s">
-        <v>544</v>
+        <v>430</v>
       </c>
       <c r="H164" t="s">
         <v>185</v>
@@ -8540,22 +8735,25 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>567</v>
+        <v>562</v>
+      </c>
+      <c r="B165" t="s">
+        <v>563</v>
       </c>
       <c r="C165" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D165" t="s">
-        <v>568</v>
+        <v>46</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
       </c>
       <c r="F165" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G165" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H165" t="s">
         <v>232</v>
@@ -8569,19 +8767,22 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>570</v>
+        <v>565</v>
+      </c>
+      <c r="B166" t="s">
+        <v>566</v>
       </c>
       <c r="C166" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D166" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E166" t="s">
         <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="G166" t="s">
         <v>24</v>
@@ -8598,22 +8799,25 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>571</v>
+        <v>567</v>
+      </c>
+      <c r="B167" t="s">
+        <v>568</v>
       </c>
       <c r="C167" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D167" t="s">
-        <v>546</v>
+        <v>429</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G167" t="s">
-        <v>573</v>
+        <v>468</v>
       </c>
       <c r="H167" t="s">
         <v>19</v>
@@ -8627,19 +8831,22 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>574</v>
+        <v>570</v>
+      </c>
+      <c r="B168" t="s">
+        <v>571</v>
       </c>
       <c r="C168" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D168" t="s">
-        <v>546</v>
+        <v>429</v>
       </c>
       <c r="E168" t="s">
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>575</v>
+        <v>447</v>
       </c>
       <c r="G168" t="s">
         <v>24</v>
@@ -8656,22 +8863,25 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>576</v>
+        <v>572</v>
+      </c>
+      <c r="B169" t="s">
+        <v>573</v>
       </c>
       <c r="C169" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D169" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E169" t="s">
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>577</v>
+        <v>183</v>
       </c>
       <c r="G169" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H169" t="s">
         <v>39</v>
@@ -8685,22 +8895,25 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>579</v>
+        <v>575</v>
+      </c>
+      <c r="B170" t="s">
+        <v>576</v>
       </c>
       <c r="C170" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D170" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E170" t="s">
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G170" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H170" t="s">
         <v>17</v>
@@ -8714,19 +8927,22 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>582</v>
+        <v>579</v>
+      </c>
+      <c r="B171" t="s">
+        <v>580</v>
       </c>
       <c r="C171" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D171" t="s">
-        <v>553</v>
+        <v>157</v>
       </c>
       <c r="E171" t="s">
         <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G171" t="s">
         <v>24</v>
@@ -8743,28 +8959,31 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>584</v>
+        <v>582</v>
+      </c>
+      <c r="B172" t="s">
+        <v>583</v>
       </c>
       <c r="C172" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D172" t="s">
-        <v>585</v>
+        <v>36</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>529</v>
+        <v>287</v>
       </c>
       <c r="G172" t="s">
-        <v>586</v>
+        <v>113</v>
       </c>
       <c r="H172" t="s">
         <v>48</v>
       </c>
       <c r="I172" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="J172" t="s">
         <v>18</v>
@@ -8772,22 +8991,25 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
+        <v>585</v>
+      </c>
+      <c r="B173" t="s">
+        <v>586</v>
+      </c>
+      <c r="C173" t="s">
+        <v>508</v>
+      </c>
+      <c r="D173" t="s">
+        <v>416</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>587</v>
+      </c>
+      <c r="G173" t="s">
         <v>588</v>
-      </c>
-      <c r="C173" t="s">
-        <v>507</v>
-      </c>
-      <c r="D173" t="s">
-        <v>514</v>
-      </c>
-      <c r="E173" t="s">
-        <v>14</v>
-      </c>
-      <c r="F173" t="s">
-        <v>589</v>
-      </c>
-      <c r="G173" t="s">
-        <v>590</v>
       </c>
       <c r="H173" t="s">
         <v>19</v>
@@ -8801,22 +9023,25 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
+        <v>589</v>
+      </c>
+      <c r="B174" t="s">
+        <v>590</v>
+      </c>
+      <c r="C174" t="s">
+        <v>508</v>
+      </c>
+      <c r="D174" t="s">
+        <v>416</v>
+      </c>
+      <c r="E174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s">
+        <v>569</v>
+      </c>
+      <c r="G174" t="s">
         <v>591</v>
-      </c>
-      <c r="C174" t="s">
-        <v>507</v>
-      </c>
-      <c r="D174" t="s">
-        <v>514</v>
-      </c>
-      <c r="E174" t="s">
-        <v>14</v>
-      </c>
-      <c r="F174" t="s">
-        <v>572</v>
-      </c>
-      <c r="G174" t="s">
-        <v>592</v>
       </c>
       <c r="H174" t="s">
         <v>19</v>
@@ -8830,22 +9055,25 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
+        <v>592</v>
+      </c>
+      <c r="B175" t="s">
         <v>593</v>
       </c>
       <c r="C175" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D175" t="s">
-        <v>514</v>
+        <v>416</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
       </c>
       <c r="F175" t="s">
+        <v>176</v>
+      </c>
+      <c r="G175" t="s">
         <v>594</v>
-      </c>
-      <c r="G175" t="s">
-        <v>595</v>
       </c>
       <c r="H175" t="s">
         <v>79</v>
@@ -8859,13 +9087,16 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
+        <v>595</v>
+      </c>
+      <c r="B176" t="s">
         <v>596</v>
       </c>
       <c r="C176" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D176" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
@@ -8874,7 +9105,7 @@
         <v>597</v>
       </c>
       <c r="G176" t="s">
-        <v>598</v>
+        <v>78</v>
       </c>
       <c r="H176" t="s">
         <v>79</v>
@@ -8888,13 +9119,16 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
+        <v>598</v>
+      </c>
+      <c r="B177" t="s">
         <v>599</v>
       </c>
       <c r="C177" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D177" t="s">
-        <v>585</v>
+        <v>36</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
@@ -8903,13 +9137,13 @@
         <v>600</v>
       </c>
       <c r="G177" t="s">
-        <v>544</v>
+        <v>430</v>
       </c>
       <c r="H177" t="s">
         <v>273</v>
       </c>
       <c r="I177" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J177" t="s">
         <v>67</v>
@@ -8919,17 +9153,20 @@
       <c r="A178" t="s">
         <v>601</v>
       </c>
+      <c r="B178" t="s">
+        <v>602</v>
+      </c>
       <c r="C178" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D178" t="s">
-        <v>514</v>
+        <v>416</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>602</v>
+        <v>244</v>
       </c>
       <c r="G178" t="s">
         <v>603</v>
@@ -8948,17 +9185,20 @@
       <c r="A179" t="s">
         <v>202</v>
       </c>
+      <c r="B179" t="s">
+        <v>604</v>
+      </c>
       <c r="C179" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D179" t="s">
-        <v>535</v>
+        <v>64</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>604</v>
+        <v>204</v>
       </c>
       <c r="G179" t="s">
         <v>605</v>
@@ -8977,17 +9217,20 @@
       <c r="A180" t="s">
         <v>606</v>
       </c>
+      <c r="B180" t="s">
+        <v>607</v>
+      </c>
       <c r="C180" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D180" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
       </c>
       <c r="F180" t="s">
-        <v>558</v>
+        <v>23</v>
       </c>
       <c r="G180" t="s">
         <v>24</v>
@@ -9004,19 +9247,22 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>607</v>
+        <v>608</v>
+      </c>
+      <c r="B181" t="s">
+        <v>609</v>
       </c>
       <c r="C181" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D181" t="s">
-        <v>517</v>
+        <v>13</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
       </c>
       <c r="F181" t="s">
-        <v>608</v>
+        <v>259</v>
       </c>
       <c r="G181" t="s">
         <v>24</v>
@@ -9033,22 +9279,25 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>609</v>
+        <v>610</v>
+      </c>
+      <c r="B182" t="s">
+        <v>611</v>
       </c>
       <c r="C182" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D182" t="s">
-        <v>514</v>
+        <v>416</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>610</v>
+        <v>248</v>
       </c>
       <c r="G182" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H182" t="s">
         <v>185</v>
@@ -9062,22 +9311,25 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>612</v>
+        <v>613</v>
+      </c>
+      <c r="B183" t="s">
+        <v>614</v>
       </c>
       <c r="C183" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D183" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>613</v>
+        <v>295</v>
       </c>
       <c r="G183" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H183" t="s">
         <v>79</v>
@@ -9091,28 +9343,31 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>615</v>
+        <v>616</v>
+      </c>
+      <c r="B184" t="s">
+        <v>617</v>
       </c>
       <c r="C184" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D184" t="s">
-        <v>535</v>
+        <v>64</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>529</v>
+        <v>287</v>
       </c>
       <c r="G184" t="s">
-        <v>586</v>
+        <v>113</v>
       </c>
       <c r="H184" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I184" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J184" t="s">
         <v>18</v>
@@ -9122,17 +9377,20 @@
       <c r="A185" t="s">
         <v>387</v>
       </c>
+      <c r="B185" t="s">
+        <v>388</v>
+      </c>
       <c r="C185" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D185" t="s">
-        <v>526</v>
+        <v>281</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>558</v>
+        <v>23</v>
       </c>
       <c r="G185" t="s">
         <v>24</v>
@@ -9149,22 +9407,25 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>618</v>
+        <v>620</v>
+      </c>
+      <c r="B186" t="s">
+        <v>621</v>
       </c>
       <c r="C186" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D186" t="s">
-        <v>553</v>
+        <v>157</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="G186" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="H186" t="s">
         <v>232</v>
@@ -9178,22 +9439,25 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>621</v>
+        <v>624</v>
+      </c>
+      <c r="B187" t="s">
+        <v>625</v>
       </c>
       <c r="C187" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D187" t="s">
-        <v>526</v>
+        <v>281</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>622</v>
+        <v>262</v>
       </c>
       <c r="G187" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="H187" t="s">
         <v>232</v>
@@ -9209,17 +9473,20 @@
       <c r="A188" t="s">
         <v>212</v>
       </c>
+      <c r="B188" t="s">
+        <v>213</v>
+      </c>
       <c r="C188" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D188" t="s">
-        <v>553</v>
+        <v>157</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>558</v>
+        <v>23</v>
       </c>
       <c r="G188" t="s">
         <v>24</v>
@@ -9238,26 +9505,29 @@
       <c r="A189" t="s">
         <v>279</v>
       </c>
+      <c r="B189" t="s">
+        <v>627</v>
+      </c>
       <c r="C189" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D189" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E189" t="s">
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>624</v>
+        <v>282</v>
       </c>
       <c r="G189" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="H189" t="s">
         <v>273</v>
       </c>
       <c r="I189" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
@@ -9265,19 +9535,22 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>627</v>
+        <v>630</v>
+      </c>
+      <c r="B190" t="s">
+        <v>631</v>
       </c>
       <c r="C190" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D190" t="s">
-        <v>535</v>
+        <v>64</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="G190" t="s">
         <v>24</v>
@@ -9296,20 +9569,23 @@
       <c r="A191" t="s">
         <v>171</v>
       </c>
+      <c r="B191" t="s">
+        <v>172</v>
+      </c>
       <c r="C191" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D191" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E191" t="s">
         <v>14</v>
       </c>
       <c r="F191" t="s">
-        <v>598</v>
+        <v>78</v>
       </c>
       <c r="G191" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H191" t="s">
         <v>19</v>
@@ -9323,22 +9599,25 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>630</v>
+        <v>634</v>
+      </c>
+      <c r="B192" t="s">
+        <v>635</v>
       </c>
       <c r="C192" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D192" t="s">
-        <v>585</v>
+        <v>36</v>
       </c>
       <c r="E192" t="s">
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>631</v>
+        <v>222</v>
       </c>
       <c r="G192" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H192" t="s">
         <v>39</v>
@@ -9352,22 +9631,25 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>633</v>
+        <v>637</v>
+      </c>
+      <c r="B193" t="s">
+        <v>638</v>
       </c>
       <c r="C193" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D193" t="s">
-        <v>526</v>
+        <v>281</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>524</v>
+        <v>198</v>
       </c>
       <c r="G193" t="s">
-        <v>634</v>
+        <v>296</v>
       </c>
       <c r="H193" t="s">
         <v>19</v>
@@ -9381,22 +9663,25 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>635</v>
+        <v>639</v>
+      </c>
+      <c r="B194" t="s">
+        <v>640</v>
       </c>
       <c r="C194" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D194" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="G194" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="H194" t="s">
         <v>19</v>
@@ -9410,28 +9695,28 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="C195" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D195" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G195" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="H195" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="I195" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="J195" t="s">
         <v>80</v>
@@ -9439,28 +9724,28 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="C196" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D196" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="G196" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H196" t="s">
         <v>323</v>
       </c>
       <c r="I196" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="J196" t="s">
         <v>67</v>
@@ -9468,19 +9753,19 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="C197" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D197" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="G197" t="s">
         <v>24</v>
@@ -9497,28 +9782,28 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="C198" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D198" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
       </c>
       <c r="F198" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="G198" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="H198" t="s">
         <v>333</v>
       </c>
       <c r="I198" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="J198" t="s">
         <v>53</v>
@@ -9526,22 +9811,22 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="C199" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D199" t="s">
-        <v>526</v>
+        <v>663</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>527</v>
+        <v>664</v>
       </c>
       <c r="G199" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="H199" t="s">
         <v>39</v>
@@ -9555,22 +9840,22 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="C200" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D200" t="s">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="G200" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="H200" t="s">
         <v>185</v>
@@ -9584,19 +9869,19 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="C201" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D201" t="s">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="E201" t="s">
         <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="G201" t="s">
         <v>24</v>
@@ -9605,7 +9890,7 @@
         <v>33</v>
       </c>
       <c r="I201" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="J201" t="s">
         <v>25</v>
@@ -9613,28 +9898,28 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="C202" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D202" t="s">
-        <v>517</v>
+        <v>674</v>
       </c>
       <c r="E202" t="s">
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="G202" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="H202" t="s">
         <v>33</v>
       </c>
       <c r="I202" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="J202" t="s">
         <v>53</v>
@@ -9642,28 +9927,28 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="C203" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D203" t="s">
-        <v>514</v>
+        <v>679</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="G203" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="H203" t="s">
         <v>323</v>
       </c>
       <c r="I203" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="J203" t="s">
         <v>53</v>
@@ -9671,28 +9956,28 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="C204" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D204" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="G204" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="H204" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="I204" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="J204" t="s">
         <v>53</v>
@@ -9700,22 +9985,22 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="C205" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D205" t="s">
-        <v>510</v>
+        <v>689</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="G205" t="s">
-        <v>519</v>
+        <v>691</v>
       </c>
       <c r="H205" t="s">
         <v>48</v>
@@ -9729,22 +10014,22 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="C206" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D206" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="G206" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H206" t="s">
         <v>33</v>
@@ -9758,28 +10043,28 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="C207" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D207" t="s">
-        <v>526</v>
+        <v>663</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G207" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="H207" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="I207" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="J207" t="s">
         <v>80</v>
@@ -9787,28 +10072,28 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="C208" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D208" t="s">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="G208" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="H208" t="s">
         <v>323</v>
       </c>
       <c r="I208" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="J208" t="s">
         <v>53</v>
@@ -9816,22 +10101,22 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="C209" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D209" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="G209" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="H209" t="s">
         <v>232</v>
@@ -9845,22 +10130,22 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="C210" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D210" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E210" t="s">
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>572</v>
+        <v>705</v>
       </c>
       <c r="G210" t="s">
-        <v>509</v>
+        <v>706</v>
       </c>
       <c r="H210" t="s">
         <v>39</v>
@@ -9874,28 +10159,28 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>686</v>
+        <v>707</v>
       </c>
       <c r="C211" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D211" t="s">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>687</v>
+        <v>708</v>
       </c>
       <c r="G211" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
       <c r="H211" t="s">
         <v>333</v>
       </c>
       <c r="I211" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="J211" t="s">
         <v>53</v>
@@ -9903,28 +10188,28 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
       <c r="C212" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D212" t="s">
-        <v>514</v>
+        <v>679</v>
       </c>
       <c r="E212" t="s">
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="G212" t="s">
-        <v>519</v>
+        <v>691</v>
       </c>
       <c r="H212" t="s">
         <v>33</v>
       </c>
       <c r="I212" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="J212" t="s">
         <v>53</v>
@@ -9932,22 +10217,22 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="C213" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D213" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="E213" t="s">
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="G213" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
       <c r="H213" t="s">
         <v>232</v>
@@ -9961,22 +10246,22 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="C214" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D214" t="s">
-        <v>526</v>
+        <v>663</v>
       </c>
       <c r="E214" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="F214" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
       <c r="G214" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="H214" t="s">
         <v>79</v>
@@ -9990,28 +10275,28 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>697</v>
+        <v>718</v>
       </c>
       <c r="C215" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D215" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>556</v>
+        <v>719</v>
       </c>
       <c r="G215" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="H215" t="s">
         <v>273</v>
       </c>
       <c r="I215" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J215" t="s">
         <v>91</v>
@@ -10022,19 +10307,19 @@
         <v>361</v>
       </c>
       <c r="C216" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D216" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
       <c r="G216" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="H216" t="s">
         <v>33</v>
@@ -10048,28 +10333,28 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="C217" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D217" t="s">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="G217" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H217" t="s">
         <v>33</v>
       </c>
       <c r="I217" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="J217" t="s">
         <v>67</v>
@@ -10077,22 +10362,22 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="C218" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D218" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E218" t="s">
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
       <c r="G218" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="H218" t="s">
         <v>33</v>
@@ -10106,28 +10391,28 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
       <c r="C219" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D219" t="s">
-        <v>526</v>
+        <v>663</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
       </c>
       <c r="F219" t="s">
-        <v>624</v>
+        <v>728</v>
       </c>
       <c r="G219" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
       <c r="H219" t="s">
         <v>33</v>
       </c>
       <c r="I219" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="J219" t="s">
         <v>91</v>
@@ -10135,28 +10420,28 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="C220" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D220" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G220" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="H220" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="I220" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
       <c r="J220" t="s">
         <v>80</v>
@@ -10164,22 +10449,22 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>709</v>
+        <v>732</v>
       </c>
       <c r="C221" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D221" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
       </c>
       <c r="F221" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="G221" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
       <c r="H221" t="s">
         <v>19</v>
@@ -10188,33 +10473,33 @@
         <v>154</v>
       </c>
       <c r="J221" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
       <c r="C222" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D222" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
       </c>
       <c r="F222" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G222" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="H222" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="I222" t="s">
-        <v>714</v>
+        <v>737</v>
       </c>
       <c r="J222" t="s">
         <v>80</v>
@@ -10225,25 +10510,25 @@
         <v>396</v>
       </c>
       <c r="C223" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D223" t="s">
-        <v>510</v>
+        <v>689</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
       </c>
       <c r="F223" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="G223" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="H223" t="s">
         <v>33</v>
       </c>
       <c r="I223" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="J223" t="s">
         <v>53</v>
@@ -10251,28 +10536,28 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="C224" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D224" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="E224" t="s">
         <v>14</v>
       </c>
       <c r="F224" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G224" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="H224" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I224" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="J224" t="s">
         <v>80</v>
@@ -10280,22 +10565,22 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="C225" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D225" t="s">
-        <v>526</v>
+        <v>663</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>720</v>
+        <v>743</v>
       </c>
       <c r="G225" t="s">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="H225" t="s">
         <v>48</v>
@@ -10312,25 +10597,25 @@
         <v>356</v>
       </c>
       <c r="C226" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D226" t="s">
-        <v>510</v>
+        <v>689</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
       </c>
       <c r="F226" t="s">
-        <v>722</v>
+        <v>745</v>
       </c>
       <c r="G226" t="s">
-        <v>723</v>
+        <v>746</v>
       </c>
       <c r="H226" t="s">
         <v>48</v>
       </c>
       <c r="I226" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J226" t="s">
         <v>53</v>
@@ -10338,19 +10623,19 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>724</v>
+        <v>747</v>
       </c>
       <c r="C227" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D227" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
       </c>
       <c r="F227" t="s">
-        <v>725</v>
+        <v>748</v>
       </c>
       <c r="G227" t="s">
         <v>24</v>
@@ -10367,22 +10652,22 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>726</v>
+        <v>749</v>
       </c>
       <c r="C228" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D228" t="s">
-        <v>568</v>
+        <v>750</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
       </c>
       <c r="F228" t="s">
-        <v>541</v>
+        <v>751</v>
       </c>
       <c r="G228" t="s">
-        <v>727</v>
+        <v>752</v>
       </c>
       <c r="H228" t="s">
         <v>39</v>
@@ -10396,28 +10681,28 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>728</v>
+        <v>753</v>
       </c>
       <c r="C229" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D229" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E229" t="s">
         <v>14</v>
       </c>
       <c r="F229" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="G229" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H229" t="s">
         <v>323</v>
       </c>
       <c r="I229" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="J229" t="s">
         <v>67</v>
@@ -10428,16 +10713,16 @@
         <v>383</v>
       </c>
       <c r="C230" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D230" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>722</v>
+        <v>745</v>
       </c>
       <c r="G230" t="s">
         <v>24</v>
@@ -10446,7 +10731,7 @@
         <v>48</v>
       </c>
       <c r="I230" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J230" t="s">
         <v>25</v>
@@ -10454,19 +10739,19 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="C231" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D231" t="s">
-        <v>535</v>
+        <v>757</v>
       </c>
       <c r="E231" t="s">
         <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>731</v>
+        <v>758</v>
       </c>
       <c r="G231" t="s">
         <v>24</v>
@@ -10483,28 +10768,28 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="C232" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D232" t="s">
-        <v>514</v>
+        <v>679</v>
       </c>
       <c r="E232" t="s">
         <v>14</v>
       </c>
       <c r="F232" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
       <c r="G232" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H232" t="s">
         <v>33</v>
       </c>
       <c r="I232" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="J232" t="s">
         <v>67</v>
@@ -10512,22 +10797,22 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="C233" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D233" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="E233" t="s">
         <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="G233" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="H233" t="s">
         <v>79</v>
@@ -10541,28 +10826,28 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>737</v>
+        <v>764</v>
       </c>
       <c r="C234" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D234" t="s">
-        <v>568</v>
+        <v>750</v>
       </c>
       <c r="E234" t="s">
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>738</v>
+        <v>765</v>
       </c>
       <c r="G234" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H234" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I234" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J234" t="s">
         <v>67</v>
@@ -10573,16 +10858,16 @@
         <v>269</v>
       </c>
       <c r="C235" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D235" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
       </c>
       <c r="F235" t="s">
-        <v>739</v>
+        <v>766</v>
       </c>
       <c r="G235" t="s">
         <v>24</v>
@@ -10591,7 +10876,7 @@
         <v>333</v>
       </c>
       <c r="I235" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="J235" t="s">
         <v>25</v>
@@ -10599,28 +10884,28 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="C236" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D236" t="s">
-        <v>510</v>
+        <v>689</v>
       </c>
       <c r="E236" t="s">
         <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="G236" t="s">
-        <v>590</v>
+        <v>769</v>
       </c>
       <c r="H236" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I236" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
       <c r="J236" t="s">
         <v>67</v>
@@ -10628,28 +10913,28 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="C237" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D237" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E237" t="s">
         <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G237" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="H237" t="s">
         <v>53</v>
       </c>
       <c r="I237" t="s">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="J237" t="s">
         <v>80</v>
@@ -10657,22 +10942,22 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="C238" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D238" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E238" t="s">
         <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>562</v>
+        <v>774</v>
       </c>
       <c r="G238" t="s">
-        <v>746</v>
+        <v>775</v>
       </c>
       <c r="H238" t="s">
         <v>39</v>
@@ -10686,22 +10971,22 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>747</v>
+        <v>776</v>
       </c>
       <c r="C239" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D239" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E239" t="s">
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="G239" t="s">
-        <v>748</v>
+        <v>777</v>
       </c>
       <c r="H239" t="s">
         <v>48</v>
@@ -10715,28 +11000,28 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>749</v>
+        <v>778</v>
       </c>
       <c r="C240" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D240" t="s">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="E240" t="s">
         <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G240" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="H240" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I240" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="J240" t="s">
         <v>80</v>
@@ -10744,22 +11029,22 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>750</v>
+        <v>779</v>
       </c>
       <c r="C241" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D241" t="s">
-        <v>535</v>
+        <v>757</v>
       </c>
       <c r="E241" t="s">
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>604</v>
+        <v>780</v>
       </c>
       <c r="G241" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="H241" t="s">
         <v>232</v>
@@ -10773,22 +11058,22 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>752</v>
+        <v>782</v>
       </c>
       <c r="C242" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D242" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>560</v>
+        <v>783</v>
       </c>
       <c r="G242" t="s">
-        <v>753</v>
+        <v>784</v>
       </c>
       <c r="H242" t="s">
         <v>232</v>
@@ -10802,22 +11087,22 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>754</v>
+        <v>785</v>
       </c>
       <c r="C243" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D243" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="E243" t="s">
         <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>622</v>
+        <v>786</v>
       </c>
       <c r="G243" t="s">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="H243" t="s">
         <v>39</v>
@@ -10831,22 +11116,22 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>756</v>
+        <v>788</v>
       </c>
       <c r="C244" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D244" t="s">
-        <v>535</v>
+        <v>757</v>
       </c>
       <c r="E244" t="s">
         <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="G244" t="s">
-        <v>757</v>
+        <v>789</v>
       </c>
       <c r="H244" t="s">
         <v>48</v>
@@ -10860,28 +11145,28 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>758</v>
+        <v>790</v>
       </c>
       <c r="C245" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D245" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E245" t="s">
         <v>14</v>
       </c>
       <c r="F245" t="s">
-        <v>631</v>
+        <v>791</v>
       </c>
       <c r="G245" t="s">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="H245" t="s">
         <v>273</v>
       </c>
       <c r="I245" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J245" t="s">
         <v>91</v>
@@ -10889,28 +11174,28 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>760</v>
+        <v>793</v>
       </c>
       <c r="C246" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D246" t="s">
-        <v>526</v>
+        <v>663</v>
       </c>
       <c r="E246" t="s">
         <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>761</v>
+        <v>794</v>
       </c>
       <c r="G246" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H246" t="s">
         <v>323</v>
       </c>
       <c r="I246" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="J246" t="s">
         <v>67</v>
@@ -10918,22 +11203,22 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>762</v>
+        <v>795</v>
       </c>
       <c r="C247" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D247" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E247" t="s">
         <v>14</v>
       </c>
       <c r="F247" t="s">
-        <v>598</v>
+        <v>796</v>
       </c>
       <c r="G247" t="s">
-        <v>763</v>
+        <v>797</v>
       </c>
       <c r="H247" t="s">
         <v>232</v>
@@ -10947,22 +11232,22 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>764</v>
+        <v>798</v>
       </c>
       <c r="C248" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D248" t="s">
-        <v>514</v>
+        <v>679</v>
       </c>
       <c r="E248" t="s">
         <v>14</v>
       </c>
       <c r="F248" t="s">
-        <v>602</v>
+        <v>799</v>
       </c>
       <c r="G248" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="H248" t="s">
         <v>39</v>
@@ -10976,28 +11261,28 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="C249" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D249" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
       </c>
       <c r="F249" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G249" t="s">
-        <v>767</v>
+        <v>802</v>
       </c>
       <c r="H249" t="s">
         <v>33</v>
       </c>
       <c r="I249" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="J249" t="s">
         <v>91</v>
@@ -11005,28 +11290,28 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="C250" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D250" t="s">
-        <v>535</v>
+        <v>757</v>
       </c>
       <c r="E250" t="s">
         <v>14</v>
       </c>
       <c r="F250" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
       <c r="G250" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H250" t="s">
         <v>33</v>
       </c>
       <c r="I250" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="J250" t="s">
         <v>67</v>
@@ -11034,19 +11319,19 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="C251" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D251" t="s">
-        <v>771</v>
+        <v>806</v>
       </c>
       <c r="E251" t="s">
         <v>14</v>
       </c>
       <c r="F251" t="s">
-        <v>722</v>
+        <v>745</v>
       </c>
       <c r="G251" t="s">
         <v>24</v>
@@ -11055,7 +11340,7 @@
         <v>48</v>
       </c>
       <c r="I251" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J251" t="s">
         <v>25</v>
@@ -11063,22 +11348,22 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>772</v>
+        <v>807</v>
       </c>
       <c r="C252" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D252" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E252" t="s">
         <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>773</v>
+        <v>808</v>
       </c>
       <c r="G252" t="s">
-        <v>624</v>
+        <v>728</v>
       </c>
       <c r="H252" t="s">
         <v>19</v>
@@ -11087,27 +11372,27 @@
         <v>154</v>
       </c>
       <c r="J252" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>774</v>
+        <v>809</v>
       </c>
       <c r="C253" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D253" t="s">
-        <v>510</v>
+        <v>689</v>
       </c>
       <c r="E253" t="s">
         <v>14</v>
       </c>
       <c r="F253" t="s">
-        <v>511</v>
+        <v>810</v>
       </c>
       <c r="G253" t="s">
-        <v>775</v>
+        <v>811</v>
       </c>
       <c r="H253" t="s">
         <v>39</v>
@@ -11121,19 +11406,19 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
-        <v>776</v>
+        <v>812</v>
       </c>
       <c r="C254" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D254" t="s">
-        <v>514</v>
+        <v>679</v>
       </c>
       <c r="E254" t="s">
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>583</v>
+        <v>813</v>
       </c>
       <c r="G254" t="s">
         <v>24</v>
@@ -11150,22 +11435,22 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" t="s">
-        <v>777</v>
+        <v>814</v>
       </c>
       <c r="C255" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D255" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="E255" t="s">
         <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>778</v>
+        <v>815</v>
       </c>
       <c r="G255" t="s">
-        <v>779</v>
+        <v>816</v>
       </c>
       <c r="H255" t="s">
         <v>19</v>
@@ -11179,28 +11464,28 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>780</v>
+        <v>817</v>
       </c>
       <c r="C256" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D256" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
       </c>
       <c r="F256" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="G256" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
       <c r="H256" t="s">
         <v>33</v>
       </c>
       <c r="I256" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="J256" t="s">
         <v>17</v>
@@ -11208,22 +11493,22 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>782</v>
+        <v>819</v>
       </c>
       <c r="C257" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D257" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E257" t="s">
         <v>14</v>
       </c>
       <c r="F257" t="s">
-        <v>572</v>
+        <v>705</v>
       </c>
       <c r="G257" t="s">
-        <v>783</v>
+        <v>820</v>
       </c>
       <c r="H257" t="s">
         <v>39</v>
@@ -11237,28 +11522,28 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
-        <v>784</v>
+        <v>821</v>
       </c>
       <c r="C258" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D258" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E258" t="s">
         <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>785</v>
+        <v>822</v>
       </c>
       <c r="G258" t="s">
-        <v>786</v>
+        <v>823</v>
       </c>
       <c r="H258" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I258" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J258" t="s">
         <v>18</v>
@@ -11266,22 +11551,22 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s">
-        <v>787</v>
+        <v>824</v>
       </c>
       <c r="C259" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D259" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E259" t="s">
         <v>14</v>
       </c>
       <c r="F259" t="s">
-        <v>610</v>
+        <v>825</v>
       </c>
       <c r="G259" t="s">
-        <v>611</v>
+        <v>826</v>
       </c>
       <c r="H259" t="s">
         <v>39</v>
@@ -11295,28 +11580,28 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="C260" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D260" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E260" t="s">
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
       <c r="G260" t="s">
-        <v>789</v>
+        <v>828</v>
       </c>
       <c r="H260" t="s">
         <v>33</v>
       </c>
       <c r="I260" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="J260" t="s">
         <v>53</v>
@@ -11324,28 +11609,28 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>790</v>
+        <v>829</v>
       </c>
       <c r="C261" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D261" t="s">
-        <v>517</v>
+        <v>674</v>
       </c>
       <c r="E261" t="s">
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="G261" t="s">
-        <v>791</v>
+        <v>830</v>
       </c>
       <c r="H261" t="s">
         <v>323</v>
       </c>
       <c r="I261" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="J261" t="s">
         <v>67</v>
@@ -11353,22 +11638,22 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" t="s">
-        <v>792</v>
+        <v>831</v>
       </c>
       <c r="C262" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D262" t="s">
-        <v>517</v>
+        <v>674</v>
       </c>
       <c r="E262" t="s">
         <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>577</v>
+        <v>832</v>
       </c>
       <c r="G262" t="s">
-        <v>793</v>
+        <v>833</v>
       </c>
       <c r="H262" t="s">
         <v>323</v>
@@ -11382,28 +11667,28 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" t="s">
-        <v>794</v>
+        <v>834</v>
       </c>
       <c r="C263" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D263" t="s">
-        <v>568</v>
+        <v>750</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
       <c r="G263" t="s">
-        <v>795</v>
+        <v>835</v>
       </c>
       <c r="H263" t="s">
         <v>33</v>
       </c>
       <c r="I263" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="J263" t="s">
         <v>53</v>
@@ -11411,28 +11696,28 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>796</v>
+        <v>836</v>
       </c>
       <c r="C264" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D264" t="s">
-        <v>514</v>
+        <v>679</v>
       </c>
       <c r="E264" t="s">
         <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>797</v>
+        <v>837</v>
       </c>
       <c r="G264" t="s">
-        <v>586</v>
+        <v>647</v>
       </c>
       <c r="H264" t="s">
         <v>91</v>
       </c>
       <c r="I264" t="s">
-        <v>798</v>
+        <v>838</v>
       </c>
       <c r="J264" t="s">
         <v>80</v>
@@ -11440,22 +11725,22 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>799</v>
+        <v>839</v>
       </c>
       <c r="C265" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D265" t="s">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="E265" t="s">
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="G265" t="s">
-        <v>801</v>
+        <v>841</v>
       </c>
       <c r="H265" t="s">
         <v>185</v>
@@ -11469,28 +11754,28 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>802</v>
+        <v>842</v>
       </c>
       <c r="C266" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D266" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E266" t="s">
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>804</v>
+        <v>844</v>
       </c>
       <c r="G266" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H266" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="I266" t="s">
-        <v>805</v>
+        <v>845</v>
       </c>
       <c r="J266" t="s">
         <v>67</v>
@@ -11498,28 +11783,28 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>806</v>
+        <v>846</v>
       </c>
       <c r="C267" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D267" t="s">
-        <v>522</v>
+        <v>847</v>
       </c>
       <c r="E267" t="s">
         <v>14</v>
       </c>
       <c r="F267" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G267" t="s">
         <v>24</v>
       </c>
       <c r="H267" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="I267" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="J267" t="s">
         <v>25</v>
@@ -11527,28 +11812,28 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>807</v>
+        <v>848</v>
       </c>
       <c r="C268" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D268" t="s">
-        <v>522</v>
+        <v>847</v>
       </c>
       <c r="E268" t="s">
         <v>14</v>
       </c>
       <c r="F268" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G268" t="s">
         <v>24</v>
       </c>
       <c r="H268" t="s">
-        <v>808</v>
+        <v>849</v>
       </c>
       <c r="I268" t="s">
-        <v>809</v>
+        <v>850</v>
       </c>
       <c r="J268" t="s">
         <v>25</v>
@@ -11556,28 +11841,28 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>810</v>
+        <v>851</v>
       </c>
       <c r="C269" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D269" t="s">
-        <v>568</v>
+        <v>750</v>
       </c>
       <c r="E269" t="s">
         <v>14</v>
       </c>
       <c r="F269" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="G269" t="s">
-        <v>811</v>
+        <v>852</v>
       </c>
       <c r="H269" t="s">
         <v>333</v>
       </c>
       <c r="I269" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="J269" t="s">
         <v>75</v>
@@ -11585,28 +11870,28 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>812</v>
+        <v>853</v>
       </c>
       <c r="C270" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D270" t="s">
-        <v>535</v>
+        <v>757</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
       </c>
       <c r="F270" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
       <c r="G270" t="s">
-        <v>813</v>
+        <v>854</v>
       </c>
       <c r="H270" t="s">
         <v>48</v>
       </c>
       <c r="I270" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J270" t="s">
         <v>75</v>
@@ -11614,28 +11899,28 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>814</v>
+        <v>855</v>
       </c>
       <c r="C271" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D271" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E271" t="s">
         <v>14</v>
       </c>
       <c r="F271" t="s">
-        <v>815</v>
+        <v>856</v>
       </c>
       <c r="G271" t="s">
         <v>24</v>
       </c>
       <c r="H271" t="s">
-        <v>816</v>
+        <v>857</v>
       </c>
       <c r="I271" t="s">
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="J271" t="s">
         <v>25</v>
@@ -11643,19 +11928,19 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>818</v>
+        <v>859</v>
       </c>
       <c r="C272" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D272" t="s">
-        <v>535</v>
+        <v>757</v>
       </c>
       <c r="E272" t="s">
         <v>14</v>
       </c>
       <c r="F272" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="G272" t="s">
         <v>24</v>
@@ -11664,7 +11949,7 @@
         <v>53</v>
       </c>
       <c r="I272" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="J272" t="s">
         <v>25</v>
@@ -11672,28 +11957,28 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>821</v>
+        <v>862</v>
       </c>
       <c r="C273" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D273" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E273" t="s">
         <v>14</v>
       </c>
       <c r="F273" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="G273" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="H273" t="s">
         <v>53</v>
       </c>
       <c r="I273" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="J273" t="s">
         <v>75</v>
@@ -11701,28 +11986,28 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>822</v>
+        <v>863</v>
       </c>
       <c r="C274" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D274" t="s">
-        <v>510</v>
+        <v>689</v>
       </c>
       <c r="E274" t="s">
         <v>14</v>
       </c>
       <c r="F274" t="s">
-        <v>823</v>
+        <v>864</v>
       </c>
       <c r="G274" t="s">
-        <v>824</v>
+        <v>865</v>
       </c>
       <c r="H274" t="s">
         <v>48</v>
       </c>
       <c r="I274" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J274" t="s">
         <v>75</v>
@@ -11730,28 +12015,28 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>825</v>
+        <v>866</v>
       </c>
       <c r="C275" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D275" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="E275" t="s">
         <v>14</v>
       </c>
       <c r="F275" t="s">
-        <v>826</v>
+        <v>867</v>
       </c>
       <c r="G275" t="s">
         <v>24</v>
       </c>
       <c r="H275" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="I275" t="s">
-        <v>805</v>
+        <v>845</v>
       </c>
       <c r="J275" t="s">
         <v>25</v>
@@ -11759,28 +12044,28 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>827</v>
+        <v>868</v>
       </c>
       <c r="C276" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D276" t="s">
-        <v>522</v>
+        <v>847</v>
       </c>
       <c r="E276" t="s">
         <v>14</v>
       </c>
       <c r="F276" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G276" t="s">
-        <v>828</v>
+        <v>869</v>
       </c>
       <c r="H276" t="s">
         <v>18</v>
       </c>
       <c r="I276" t="s">
-        <v>829</v>
+        <v>870</v>
       </c>
       <c r="J276" t="s">
         <v>75</v>
@@ -11791,25 +12076,25 @@
         <v>328</v>
       </c>
       <c r="C277" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D277" t="s">
-        <v>510</v>
+        <v>689</v>
       </c>
       <c r="E277" t="s">
         <v>330</v>
       </c>
       <c r="F277" t="s">
-        <v>830</v>
+        <v>871</v>
       </c>
       <c r="G277" t="s">
-        <v>831</v>
+        <v>872</v>
       </c>
       <c r="H277" t="s">
         <v>53</v>
       </c>
       <c r="I277" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="J277" t="s">
         <v>91</v>
@@ -11820,25 +12105,25 @@
         <v>352</v>
       </c>
       <c r="C278" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D278" t="s">
-        <v>517</v>
+        <v>674</v>
       </c>
       <c r="E278" t="s">
         <v>330</v>
       </c>
       <c r="F278" t="s">
-        <v>832</v>
+        <v>873</v>
       </c>
       <c r="G278" t="s">
-        <v>833</v>
+        <v>874</v>
       </c>
       <c r="H278" t="s">
         <v>53</v>
       </c>
       <c r="I278" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="J278" t="s">
         <v>91</v>
@@ -11846,28 +12131,28 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>834</v>
+        <v>875</v>
       </c>
       <c r="C279" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D279" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E279" t="s">
         <v>14</v>
       </c>
       <c r="F279" t="s">
-        <v>835</v>
+        <v>876</v>
       </c>
       <c r="G279" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H279" t="s">
         <v>67</v>
       </c>
       <c r="I279" t="s">
-        <v>836</v>
+        <v>877</v>
       </c>
       <c r="J279" t="s">
         <v>67</v>
@@ -11875,28 +12160,28 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>837</v>
+        <v>878</v>
       </c>
       <c r="C280" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D280" t="s">
-        <v>568</v>
+        <v>750</v>
       </c>
       <c r="E280" t="s">
         <v>14</v>
       </c>
       <c r="F280" t="s">
-        <v>838</v>
+        <v>879</v>
       </c>
       <c r="G280" t="s">
         <v>24</v>
       </c>
       <c r="H280" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I280" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
       <c r="J280" t="s">
         <v>25</v>
@@ -11904,28 +12189,28 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
-        <v>839</v>
+        <v>880</v>
       </c>
       <c r="C281" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D281" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E281" t="s">
         <v>14</v>
       </c>
       <c r="F281" t="s">
-        <v>840</v>
+        <v>881</v>
       </c>
       <c r="G281" t="s">
-        <v>841</v>
+        <v>882</v>
       </c>
       <c r="H281" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I281" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J281" t="s">
         <v>91</v>
@@ -11933,28 +12218,28 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>842</v>
+        <v>883</v>
       </c>
       <c r="C282" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D282" t="s">
-        <v>568</v>
+        <v>750</v>
       </c>
       <c r="E282" t="s">
         <v>14</v>
       </c>
       <c r="F282" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
       <c r="G282" t="s">
-        <v>843</v>
+        <v>884</v>
       </c>
       <c r="H282" t="s">
         <v>48</v>
       </c>
       <c r="I282" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J282" t="s">
         <v>75</v>
@@ -11962,28 +12247,28 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" t="s">
-        <v>844</v>
+        <v>885</v>
       </c>
       <c r="C283" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D283" t="s">
-        <v>526</v>
+        <v>663</v>
       </c>
       <c r="E283" t="s">
         <v>14</v>
       </c>
       <c r="F283" t="s">
+        <v>886</v>
+      </c>
+      <c r="G283" t="s">
+        <v>887</v>
+      </c>
+      <c r="H283" t="s">
+        <v>686</v>
+      </c>
+      <c r="I283" t="s">
         <v>845</v>
-      </c>
-      <c r="G283" t="s">
-        <v>846</v>
-      </c>
-      <c r="H283" t="s">
-        <v>670</v>
-      </c>
-      <c r="I283" t="s">
-        <v>805</v>
       </c>
       <c r="J283" t="s">
         <v>75</v>
@@ -11991,28 +12276,28 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>847</v>
+        <v>888</v>
       </c>
       <c r="C284" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D284" t="s">
-        <v>848</v>
+        <v>889</v>
       </c>
       <c r="E284" t="s">
         <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>849</v>
+        <v>890</v>
       </c>
       <c r="G284" t="s">
-        <v>850</v>
+        <v>891</v>
       </c>
       <c r="H284" t="s">
-        <v>851</v>
+        <v>892</v>
       </c>
       <c r="I284" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="J284" t="s">
         <v>91</v>
@@ -12020,28 +12305,28 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>853</v>
+        <v>894</v>
       </c>
       <c r="C285" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D285" t="s">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="E285" t="s">
         <v>14</v>
       </c>
       <c r="F285" t="s">
-        <v>854</v>
+        <v>895</v>
       </c>
       <c r="G285" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H285" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I285" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J285" t="s">
         <v>67</v>
@@ -12049,28 +12334,28 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>855</v>
+        <v>896</v>
       </c>
       <c r="C286" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D286" t="s">
-        <v>568</v>
+        <v>750</v>
       </c>
       <c r="E286" t="s">
         <v>14</v>
       </c>
       <c r="F286" t="s">
-        <v>856</v>
+        <v>897</v>
       </c>
       <c r="G286" t="s">
-        <v>857</v>
+        <v>898</v>
       </c>
       <c r="H286" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="I286" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
       <c r="J286" t="s">
         <v>91</v>
@@ -12078,28 +12363,28 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>858</v>
+        <v>899</v>
       </c>
       <c r="C287" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D287" t="s">
-        <v>568</v>
+        <v>750</v>
       </c>
       <c r="E287" t="s">
         <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="G287" t="s">
-        <v>859</v>
+        <v>900</v>
       </c>
       <c r="H287" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="I287" t="s">
-        <v>805</v>
+        <v>845</v>
       </c>
       <c r="J287" t="s">
         <v>75</v>
@@ -12107,28 +12392,28 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>860</v>
+        <v>901</v>
       </c>
       <c r="C288" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D288" t="s">
-        <v>517</v>
+        <v>674</v>
       </c>
       <c r="E288" t="s">
         <v>14</v>
       </c>
       <c r="F288" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="G288" t="s">
-        <v>861</v>
+        <v>902</v>
       </c>
       <c r="H288" t="s">
         <v>48</v>
       </c>
       <c r="I288" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J288" t="s">
         <v>75</v>
@@ -12136,28 +12421,28 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>862</v>
+        <v>903</v>
       </c>
       <c r="C289" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D289" t="s">
-        <v>526</v>
+        <v>663</v>
       </c>
       <c r="E289" t="s">
         <v>14</v>
       </c>
       <c r="F289" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
       <c r="G289" t="s">
-        <v>863</v>
+        <v>904</v>
       </c>
       <c r="H289" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I289" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J289" t="s">
         <v>75</v>
@@ -12165,19 +12450,19 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>864</v>
+        <v>905</v>
       </c>
       <c r="C290" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D290" t="s">
-        <v>526</v>
+        <v>663</v>
       </c>
       <c r="E290" t="s">
         <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>865</v>
+        <v>906</v>
       </c>
       <c r="G290" t="s">
         <v>24</v>
@@ -12186,7 +12471,7 @@
         <v>91</v>
       </c>
       <c r="I290" t="s">
-        <v>866</v>
+        <v>907</v>
       </c>
       <c r="J290" t="s">
         <v>25</v>
@@ -12194,19 +12479,19 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>867</v>
+        <v>908</v>
       </c>
       <c r="C291" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D291" t="s">
-        <v>868</v>
+        <v>909</v>
       </c>
       <c r="E291" t="s">
         <v>14</v>
       </c>
       <c r="F291" t="s">
-        <v>869</v>
+        <v>910</v>
       </c>
       <c r="G291" t="s">
         <v>24</v>
@@ -12215,7 +12500,7 @@
         <v>91</v>
       </c>
       <c r="I291" t="s">
-        <v>866</v>
+        <v>907</v>
       </c>
       <c r="J291" t="s">
         <v>25</v>
@@ -12223,28 +12508,28 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>870</v>
+        <v>911</v>
       </c>
       <c r="C292" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D292" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E292" t="s">
         <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>687</v>
+        <v>708</v>
       </c>
       <c r="G292" t="s">
-        <v>871</v>
+        <v>912</v>
       </c>
       <c r="H292" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="I292" t="s">
-        <v>805</v>
+        <v>845</v>
       </c>
       <c r="J292" t="s">
         <v>75</v>
@@ -12252,28 +12537,28 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>872</v>
+        <v>913</v>
       </c>
       <c r="C293" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D293" t="s">
-        <v>522</v>
+        <v>847</v>
       </c>
       <c r="E293" t="s">
         <v>14</v>
       </c>
       <c r="F293" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G293" t="s">
-        <v>828</v>
+        <v>869</v>
       </c>
       <c r="H293" t="s">
         <v>53</v>
       </c>
       <c r="I293" t="s">
-        <v>873</v>
+        <v>914</v>
       </c>
       <c r="J293" t="s">
         <v>75</v>
@@ -12281,28 +12566,28 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
-        <v>874</v>
+        <v>915</v>
       </c>
       <c r="C294" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D294" t="s">
-        <v>526</v>
+        <v>663</v>
       </c>
       <c r="E294" t="s">
         <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="G294" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="H294" t="s">
         <v>53</v>
       </c>
       <c r="I294" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="J294" t="s">
         <v>91</v>
@@ -12310,19 +12595,19 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>875</v>
+        <v>916</v>
       </c>
       <c r="C295" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D295" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E295" t="s">
         <v>14</v>
       </c>
       <c r="F295" t="s">
-        <v>876</v>
+        <v>917</v>
       </c>
       <c r="G295" t="s">
         <v>24</v>
@@ -12339,19 +12624,19 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>877</v>
+        <v>918</v>
       </c>
       <c r="C296" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D296" t="s">
-        <v>522</v>
+        <v>847</v>
       </c>
       <c r="E296" t="s">
         <v>14</v>
       </c>
       <c r="F296" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G296" t="s">
         <v>24</v>
@@ -12360,7 +12645,7 @@
         <v>451</v>
       </c>
       <c r="I296" t="s">
-        <v>878</v>
+        <v>919</v>
       </c>
       <c r="J296" t="s">
         <v>25</v>
@@ -12368,28 +12653,28 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>879</v>
+        <v>920</v>
       </c>
       <c r="C297" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D297" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="E297" t="s">
         <v>14</v>
       </c>
       <c r="F297" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
       <c r="G297" t="s">
-        <v>880</v>
+        <v>921</v>
       </c>
       <c r="H297" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I297" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J297" t="s">
         <v>75</v>
@@ -12397,28 +12682,28 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>881</v>
+        <v>922</v>
       </c>
       <c r="C298" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D298" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="E298" t="s">
         <v>14</v>
       </c>
       <c r="F298" t="s">
-        <v>882</v>
+        <v>923</v>
       </c>
       <c r="G298" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H298" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I298" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="J298" t="s">
         <v>67</v>
@@ -12426,28 +12711,28 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>883</v>
+        <v>924</v>
       </c>
       <c r="C299" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D299" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E299" t="s">
         <v>14</v>
       </c>
       <c r="F299" t="s">
-        <v>884</v>
+        <v>925</v>
       </c>
       <c r="G299" t="s">
-        <v>885</v>
+        <v>926</v>
       </c>
       <c r="H299" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="I299" t="s">
-        <v>805</v>
+        <v>845</v>
       </c>
       <c r="J299" t="s">
         <v>75</v>
@@ -12455,28 +12740,28 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>886</v>
+        <v>927</v>
       </c>
       <c r="C300" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D300" t="s">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="E300" t="s">
         <v>14</v>
       </c>
       <c r="F300" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="G300" t="s">
-        <v>748</v>
+        <v>777</v>
       </c>
       <c r="H300" t="s">
         <v>53</v>
       </c>
       <c r="I300" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="J300" t="s">
         <v>75</v>
@@ -12484,28 +12769,28 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>887</v>
+        <v>928</v>
       </c>
       <c r="C301" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D301" t="s">
-        <v>535</v>
+        <v>757</v>
       </c>
       <c r="E301" t="s">
         <v>14</v>
       </c>
       <c r="F301" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G301" t="s">
-        <v>888</v>
+        <v>929</v>
       </c>
       <c r="H301" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="I301" t="s">
-        <v>889</v>
+        <v>930</v>
       </c>
       <c r="J301" t="s">
         <v>75</v>
@@ -12513,28 +12798,28 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>890</v>
+        <v>931</v>
       </c>
       <c r="C302" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D302" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E302" t="s">
         <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>891</v>
+        <v>932</v>
       </c>
       <c r="G302" t="s">
-        <v>548</v>
+        <v>933</v>
       </c>
       <c r="H302" t="s">
-        <v>892</v>
+        <v>934</v>
       </c>
       <c r="I302" t="s">
-        <v>893</v>
+        <v>935</v>
       </c>
       <c r="J302" t="s">
         <v>53</v>
@@ -12542,28 +12827,28 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>894</v>
+        <v>936</v>
       </c>
       <c r="C303" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D303" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E303" t="s">
         <v>330</v>
       </c>
       <c r="F303" t="s">
-        <v>895</v>
+        <v>937</v>
       </c>
       <c r="G303" t="s">
-        <v>896</v>
+        <v>938</v>
       </c>
       <c r="H303" t="s">
         <v>53</v>
       </c>
       <c r="I303" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="J303" t="s">
         <v>91</v>
@@ -12571,28 +12856,28 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>897</v>
+        <v>939</v>
       </c>
       <c r="C304" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D304" t="s">
-        <v>514</v>
+        <v>679</v>
       </c>
       <c r="E304" t="s">
         <v>14</v>
       </c>
       <c r="F304" t="s">
-        <v>898</v>
+        <v>940</v>
       </c>
       <c r="G304" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H304" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I304" t="s">
-        <v>899</v>
+        <v>941</v>
       </c>
       <c r="J304" t="s">
         <v>67</v>
@@ -12600,28 +12885,28 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>900</v>
+        <v>942</v>
       </c>
       <c r="C305" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D305" t="s">
-        <v>535</v>
+        <v>757</v>
       </c>
       <c r="E305" t="s">
         <v>14</v>
       </c>
       <c r="F305" t="s">
-        <v>884</v>
+        <v>925</v>
       </c>
       <c r="G305" t="s">
-        <v>519</v>
+        <v>691</v>
       </c>
       <c r="H305" t="s">
         <v>333</v>
       </c>
       <c r="I305" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="J305" t="s">
         <v>91</v>
@@ -12629,28 +12914,28 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>901</v>
+        <v>943</v>
       </c>
       <c r="C306" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D306" t="s">
-        <v>902</v>
+        <v>944</v>
       </c>
       <c r="E306" t="s">
         <v>14</v>
       </c>
       <c r="F306" t="s">
-        <v>903</v>
+        <v>945</v>
       </c>
       <c r="G306" t="s">
-        <v>904</v>
+        <v>946</v>
       </c>
       <c r="H306" t="s">
-        <v>851</v>
+        <v>892</v>
       </c>
       <c r="I306" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="J306" t="s">
         <v>91</v>
@@ -12658,28 +12943,28 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>905</v>
+        <v>947</v>
       </c>
       <c r="C307" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D307" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E307" t="s">
         <v>14</v>
       </c>
       <c r="F307" t="s">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="G307" t="s">
-        <v>907</v>
+        <v>949</v>
       </c>
       <c r="H307" t="s">
-        <v>892</v>
+        <v>934</v>
       </c>
       <c r="I307" t="s">
-        <v>908</v>
+        <v>950</v>
       </c>
       <c r="J307" t="s">
         <v>75</v>
@@ -12687,28 +12972,28 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>909</v>
+        <v>951</v>
       </c>
       <c r="C308" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D308" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E308" t="s">
         <v>330</v>
       </c>
       <c r="F308" t="s">
-        <v>830</v>
+        <v>871</v>
       </c>
       <c r="G308" t="s">
-        <v>910</v>
+        <v>952</v>
       </c>
       <c r="H308" t="s">
         <v>53</v>
       </c>
       <c r="I308" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="J308" t="s">
         <v>91</v>
@@ -12716,28 +13001,28 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>911</v>
+        <v>953</v>
       </c>
       <c r="C309" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D309" t="s">
-        <v>517</v>
+        <v>674</v>
       </c>
       <c r="E309" t="s">
         <v>14</v>
       </c>
       <c r="F309" t="s">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="G309" t="s">
-        <v>912</v>
+        <v>954</v>
       </c>
       <c r="H309" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="I309" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
       <c r="J309" t="s">
         <v>91</v>
@@ -12745,19 +13030,19 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>913</v>
+        <v>955</v>
       </c>
       <c r="C310" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D310" t="s">
-        <v>522</v>
+        <v>847</v>
       </c>
       <c r="E310" t="s">
         <v>14</v>
       </c>
       <c r="F310" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G310" t="s">
         <v>24</v>
@@ -12774,28 +13059,28 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>914</v>
+        <v>956</v>
       </c>
       <c r="C311" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D311" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E311" t="s">
         <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>915</v>
+        <v>957</v>
       </c>
       <c r="G311" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H311" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I311" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="J311" t="s">
         <v>67</v>
@@ -12803,28 +13088,28 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>916</v>
+        <v>958</v>
       </c>
       <c r="C312" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D312" t="s">
-        <v>517</v>
+        <v>674</v>
       </c>
       <c r="E312" t="s">
         <v>14</v>
       </c>
       <c r="F312" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G312" t="s">
-        <v>917</v>
+        <v>959</v>
       </c>
       <c r="H312" t="s">
         <v>53</v>
       </c>
       <c r="I312" t="s">
-        <v>918</v>
+        <v>960</v>
       </c>
       <c r="J312" t="s">
         <v>369</v>
@@ -12832,28 +13117,28 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>919</v>
+        <v>961</v>
       </c>
       <c r="C313" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D313" t="s">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="E313" t="s">
         <v>14</v>
       </c>
       <c r="F313" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="G313" t="s">
-        <v>920</v>
+        <v>962</v>
       </c>
       <c r="H313" t="s">
         <v>48</v>
       </c>
       <c r="I313" t="s">
-        <v>921</v>
+        <v>963</v>
       </c>
       <c r="J313" t="s">
         <v>75</v>
@@ -12861,28 +13146,28 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>922</v>
+        <v>964</v>
       </c>
       <c r="C314" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D314" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E314" t="s">
         <v>14</v>
       </c>
       <c r="F314" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="G314" t="s">
-        <v>923</v>
+        <v>965</v>
       </c>
       <c r="H314" t="s">
         <v>333</v>
       </c>
       <c r="I314" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="J314" t="s">
         <v>75</v>
@@ -12890,19 +13175,19 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
       <c r="C315" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D315" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E315" t="s">
         <v>14</v>
       </c>
       <c r="F315" t="s">
-        <v>524</v>
+        <v>967</v>
       </c>
       <c r="G315" t="s">
         <v>24</v>
@@ -12919,28 +13204,28 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
       <c r="C316" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D316" t="s">
-        <v>550</v>
+        <v>969</v>
       </c>
       <c r="E316" t="s">
         <v>14</v>
       </c>
       <c r="F316" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G316" t="s">
-        <v>828</v>
+        <v>869</v>
       </c>
       <c r="H316" t="s">
-        <v>926</v>
+        <v>970</v>
       </c>
       <c r="I316" t="s">
-        <v>927</v>
+        <v>971</v>
       </c>
       <c r="J316" t="s">
         <v>75</v>
@@ -12948,28 +13233,28 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>928</v>
+        <v>972</v>
       </c>
       <c r="C317" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D317" t="s">
-        <v>550</v>
+        <v>969</v>
       </c>
       <c r="E317" t="s">
         <v>14</v>
       </c>
       <c r="F317" t="s">
-        <v>797</v>
+        <v>837</v>
       </c>
       <c r="G317" t="s">
         <v>24</v>
       </c>
       <c r="H317" t="s">
-        <v>816</v>
+        <v>857</v>
       </c>
       <c r="I317" t="s">
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="J317" t="s">
         <v>25</v>
@@ -12977,28 +13262,28 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>929</v>
+        <v>973</v>
       </c>
       <c r="C318" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D318" t="s">
-        <v>514</v>
+        <v>679</v>
       </c>
       <c r="E318" t="s">
         <v>14</v>
       </c>
       <c r="F318" t="s">
-        <v>797</v>
+        <v>837</v>
       </c>
       <c r="G318" t="s">
-        <v>828</v>
+        <v>869</v>
       </c>
       <c r="H318" t="s">
         <v>91</v>
       </c>
       <c r="I318" t="s">
-        <v>930</v>
+        <v>974</v>
       </c>
       <c r="J318" t="s">
         <v>75</v>
@@ -13006,28 +13291,28 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>931</v>
+        <v>975</v>
       </c>
       <c r="C319" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D319" t="s">
-        <v>522</v>
+        <v>847</v>
       </c>
       <c r="E319" t="s">
         <v>14</v>
       </c>
       <c r="F319" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G319" t="s">
-        <v>828</v>
+        <v>869</v>
       </c>
       <c r="H319" t="s">
         <v>91</v>
       </c>
       <c r="I319" t="s">
-        <v>798</v>
+        <v>838</v>
       </c>
       <c r="J319" t="s">
         <v>75</v>
@@ -13035,28 +13320,28 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>932</v>
+        <v>976</v>
       </c>
       <c r="C320" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D320" t="s">
-        <v>585</v>
+        <v>755</v>
       </c>
       <c r="E320" t="s">
         <v>14</v>
       </c>
       <c r="F320" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="G320" t="s">
-        <v>933</v>
+        <v>977</v>
       </c>
       <c r="H320" t="s">
         <v>333</v>
       </c>
       <c r="I320" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="J320" t="s">
         <v>75</v>
@@ -13064,28 +13349,28 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>934</v>
+        <v>978</v>
       </c>
       <c r="C321" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D321" t="s">
-        <v>522</v>
+        <v>847</v>
       </c>
       <c r="E321" t="s">
         <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G321" t="s">
-        <v>828</v>
+        <v>869</v>
       </c>
       <c r="H321" t="s">
-        <v>935</v>
+        <v>979</v>
       </c>
       <c r="I321" t="s">
-        <v>936</v>
+        <v>980</v>
       </c>
       <c r="J321" t="s">
         <v>75</v>
@@ -13096,25 +13381,25 @@
         <v>389</v>
       </c>
       <c r="C322" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D322" t="s">
-        <v>526</v>
+        <v>663</v>
       </c>
       <c r="E322" t="s">
         <v>330</v>
       </c>
       <c r="F322" t="s">
-        <v>895</v>
+        <v>937</v>
       </c>
       <c r="G322" t="s">
-        <v>937</v>
+        <v>981</v>
       </c>
       <c r="H322" t="s">
         <v>53</v>
       </c>
       <c r="I322" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="J322" t="s">
         <v>91</v>
@@ -13122,28 +13407,28 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>938</v>
+        <v>982</v>
       </c>
       <c r="C323" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D323" t="s">
-        <v>508</v>
+        <v>704</v>
       </c>
       <c r="E323" t="s">
         <v>14</v>
       </c>
       <c r="F323" t="s">
-        <v>939</v>
+        <v>983</v>
       </c>
       <c r="G323" t="s">
-        <v>940</v>
+        <v>984</v>
       </c>
       <c r="H323" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I323" t="s">
-        <v>899</v>
+        <v>941</v>
       </c>
       <c r="J323" t="s">
         <v>53</v>
@@ -13151,19 +13436,19 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>941</v>
+        <v>985</v>
       </c>
       <c r="C324" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D324" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E324" t="s">
         <v>14</v>
       </c>
       <c r="F324" t="s">
-        <v>845</v>
+        <v>886</v>
       </c>
       <c r="G324" t="s">
         <v>24</v>
@@ -13172,7 +13457,7 @@
         <v>333</v>
       </c>
       <c r="I324" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="J324" t="s">
         <v>25</v>
@@ -13180,28 +13465,28 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>942</v>
+        <v>986</v>
       </c>
       <c r="C325" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D325" t="s">
-        <v>943</v>
+        <v>987</v>
       </c>
       <c r="E325" t="s">
         <v>14</v>
       </c>
       <c r="F325" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G325" t="s">
         <v>24</v>
       </c>
       <c r="H325" t="s">
-        <v>944</v>
+        <v>988</v>
       </c>
       <c r="I325" t="s">
-        <v>945</v>
+        <v>989</v>
       </c>
       <c r="J325" t="s">
         <v>25</v>
@@ -13209,19 +13494,19 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>946</v>
+        <v>990</v>
       </c>
       <c r="C326" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D326" t="s">
-        <v>535</v>
+        <v>757</v>
       </c>
       <c r="E326" t="s">
         <v>14</v>
       </c>
       <c r="F326" t="s">
-        <v>947</v>
+        <v>991</v>
       </c>
       <c r="G326" t="s">
         <v>24</v>
@@ -13230,7 +13515,7 @@
         <v>333</v>
       </c>
       <c r="I326" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="J326" t="s">
         <v>25</v>
@@ -13238,28 +13523,28 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>948</v>
+        <v>992</v>
       </c>
       <c r="C327" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D327" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="E327" t="s">
         <v>330</v>
       </c>
       <c r="F327" t="s">
-        <v>832</v>
+        <v>873</v>
       </c>
       <c r="G327" t="s">
-        <v>949</v>
+        <v>993</v>
       </c>
       <c r="H327" t="s">
         <v>53</v>
       </c>
       <c r="I327" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="J327" t="s">
         <v>91</v>
@@ -13267,28 +13552,28 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>950</v>
+        <v>994</v>
       </c>
       <c r="C328" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D328" t="s">
-        <v>771</v>
+        <v>806</v>
       </c>
       <c r="E328" t="s">
         <v>14</v>
       </c>
       <c r="F328" t="s">
-        <v>951</v>
+        <v>995</v>
       </c>
       <c r="G328" t="s">
         <v>24</v>
       </c>
       <c r="H328" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I328" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="J328" t="s">
         <v>25</v>
@@ -13296,28 +13581,28 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>952</v>
+        <v>996</v>
       </c>
       <c r="C329" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D329" t="s">
-        <v>953</v>
+        <v>997</v>
       </c>
       <c r="E329" t="s">
         <v>14</v>
       </c>
       <c r="F329" t="s">
-        <v>954</v>
+        <v>998</v>
       </c>
       <c r="G329" t="s">
-        <v>955</v>
+        <v>999</v>
       </c>
       <c r="H329" t="s">
         <v>91</v>
       </c>
       <c r="I329" t="s">
-        <v>866</v>
+        <v>907</v>
       </c>
       <c r="J329" t="s">
         <v>91</v>
@@ -13325,19 +13610,19 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>956</v>
+        <v>1000</v>
       </c>
       <c r="C330" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D330" t="s">
-        <v>532</v>
+        <v>683</v>
       </c>
       <c r="E330" t="s">
         <v>14</v>
       </c>
       <c r="F330" t="s">
-        <v>957</v>
+        <v>1001</v>
       </c>
       <c r="G330" t="s">
         <v>24</v>
@@ -13354,28 +13639,28 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>958</v>
+        <v>1002</v>
       </c>
       <c r="C331" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D331" t="s">
-        <v>522</v>
+        <v>847</v>
       </c>
       <c r="E331" t="s">
         <v>14</v>
       </c>
       <c r="F331" t="s">
-        <v>835</v>
+        <v>876</v>
       </c>
       <c r="G331" t="s">
-        <v>959</v>
+        <v>1003</v>
       </c>
       <c r="H331" t="s">
-        <v>944</v>
+        <v>988</v>
       </c>
       <c r="I331" t="s">
-        <v>960</v>
+        <v>1004</v>
       </c>
       <c r="J331" t="s">
         <v>75</v>
@@ -13383,28 +13668,28 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>961</v>
+        <v>1005</v>
       </c>
       <c r="C332" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D332" t="s">
-        <v>568</v>
+        <v>750</v>
       </c>
       <c r="E332" t="s">
         <v>14</v>
       </c>
       <c r="F332" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G332" t="s">
-        <v>962</v>
+        <v>1006</v>
       </c>
       <c r="H332" t="s">
-        <v>816</v>
+        <v>857</v>
       </c>
       <c r="I332" t="s">
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="J332" t="s">
         <v>75</v>
@@ -13412,28 +13697,28 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>963</v>
+        <v>1007</v>
       </c>
       <c r="C333" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D333" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="E333" t="s">
         <v>14</v>
       </c>
       <c r="F333" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G333" t="s">
-        <v>828</v>
+        <v>869</v>
       </c>
       <c r="H333" t="s">
-        <v>964</v>
+        <v>1008</v>
       </c>
       <c r="I333" t="s">
-        <v>965</v>
+        <v>1009</v>
       </c>
       <c r="J333" t="s">
         <v>75</v>
@@ -13441,28 +13726,28 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>966</v>
+        <v>1010</v>
       </c>
       <c r="C334" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D334" t="s">
-        <v>568</v>
+        <v>750</v>
       </c>
       <c r="E334" t="s">
         <v>14</v>
       </c>
       <c r="F334" t="s">
-        <v>856</v>
+        <v>897</v>
       </c>
       <c r="G334" t="s">
-        <v>967</v>
+        <v>1011</v>
       </c>
       <c r="H334" t="s">
-        <v>892</v>
+        <v>934</v>
       </c>
       <c r="I334" t="s">
-        <v>908</v>
+        <v>950</v>
       </c>
       <c r="J334" t="s">
         <v>75</v>
@@ -13470,28 +13755,28 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>968</v>
+        <v>1012</v>
       </c>
       <c r="C335" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D335" t="s">
-        <v>771</v>
+        <v>806</v>
       </c>
       <c r="E335" t="s">
         <v>14</v>
       </c>
       <c r="F335" t="s">
-        <v>969</v>
+        <v>1013</v>
       </c>
       <c r="G335" t="s">
         <v>24</v>
       </c>
       <c r="H335" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I335" t="s">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="J335" t="s">
         <v>25</v>
@@ -13499,28 +13784,28 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>970</v>
+        <v>1014</v>
       </c>
       <c r="C336" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D336" t="s">
-        <v>517</v>
+        <v>674</v>
       </c>
       <c r="E336" t="s">
         <v>14</v>
       </c>
       <c r="F336" t="s">
-        <v>739</v>
+        <v>766</v>
       </c>
       <c r="G336" t="s">
-        <v>544</v>
+        <v>653</v>
       </c>
       <c r="H336" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="I336" t="s">
-        <v>805</v>
+        <v>845</v>
       </c>
       <c r="J336" t="s">
         <v>67</v>
@@ -13528,28 +13813,28 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" t="s">
-        <v>971</v>
+        <v>1015</v>
       </c>
       <c r="C337" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D337" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
       <c r="E337" t="s">
         <v>14</v>
       </c>
       <c r="F337" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="G337" t="s">
-        <v>828</v>
+        <v>869</v>
       </c>
       <c r="H337" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="I337" t="s">
-        <v>972</v>
+        <v>1016</v>
       </c>
       <c r="J337" t="s">
         <v>75</v>
@@ -13560,25 +13845,25 @@
         <v>305</v>
       </c>
       <c r="C338" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D338" t="s">
-        <v>943</v>
+        <v>987</v>
       </c>
       <c r="E338" t="s">
         <v>14</v>
       </c>
       <c r="F338" t="s">
-        <v>973</v>
+        <v>1017</v>
       </c>
       <c r="G338" t="s">
-        <v>519</v>
+        <v>691</v>
       </c>
       <c r="H338" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="I338" t="s">
-        <v>974</v>
+        <v>1018</v>
       </c>
       <c r="J338" t="s">
         <v>91</v>
@@ -13586,28 +13871,28 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" t="s">
-        <v>975</v>
+        <v>1019</v>
       </c>
       <c r="C339" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D339" t="s">
-        <v>953</v>
+        <v>997</v>
       </c>
       <c r="E339" t="s">
         <v>14</v>
       </c>
       <c r="F339" t="s">
-        <v>976</v>
+        <v>1020</v>
       </c>
       <c r="G339" t="s">
-        <v>977</v>
+        <v>1021</v>
       </c>
       <c r="H339" t="s">
-        <v>851</v>
+        <v>892</v>
       </c>
       <c r="I339" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="J339" t="s">
         <v>91</v>
@@ -13615,28 +13900,28 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
-        <v>978</v>
+        <v>1022</v>
       </c>
       <c r="C340" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="D340" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="E340" t="s">
         <v>14</v>
       </c>
       <c r="F340" t="s">
-        <v>845</v>
+        <v>886</v>
       </c>
       <c r="G340" t="s">
-        <v>979</v>
+        <v>1023</v>
       </c>
       <c r="H340" t="s">
         <v>333</v>
       </c>
       <c r="I340" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="J340" t="s">
         <v>91</v>

--- a/data_M.xlsx
+++ b/data_M.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="1073">
   <si>
     <t>questName</t>
   </si>
@@ -1951,1117 +1951,1264 @@
     <t>狂乱の立体闘技場</t>
   </si>
   <si>
+    <t>광란의 입체투기장</t>
+  </si>
+  <si>
     <t>집회소★6</t>
   </si>
   <si>
+    <t>입체투기장(立体闘技場)</t>
+  </si>
+  <si>
+    <t>2200z</t>
+  </si>
+  <si>
+    <t>21600z</t>
+  </si>
+  <si>
+    <t>大海の王・ラギアクルス！</t>
+  </si>
+  <si>
+    <t>대해의 왕・라기아크루스!</t>
+  </si>
+  <si>
+    <t>10500z</t>
+  </si>
+  <si>
+    <t>夜鳥の頭部破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>야조의 머리 파괴에 도전!</t>
+  </si>
+  <si>
+    <t>호로로호루루(ホロロホルル)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>ドボルがために銅鑼は鳴る</t>
+  </si>
+  <si>
+    <t>도볼을 위하여 종은 울리나</t>
+  </si>
+  <si>
+    <t>도볼베르크(ドボルベルク) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>도볼베르트(ドボルベルク)의 혹 파괴</t>
+  </si>
+  <si>
+    <t>12600z</t>
+  </si>
+  <si>
+    <t>極秘依頼！獰猛なる溶岩竜！</t>
+  </si>
+  <si>
+    <t>극비의뢰!  영맹한 용암룡!</t>
+  </si>
+  <si>
+    <t>볼가노스(ヴォルガノス)의 머리와 등지느러미 파괴</t>
+  </si>
+  <si>
+    <t>どくどくパニック・毒怪鳥！！</t>
+  </si>
+  <si>
+    <t>독 독 패닉・독괴조!!</t>
+  </si>
+  <si>
+    <t>게료스(ゲリョス)의 볏 파괴</t>
+  </si>
+  <si>
+    <t>遺跡平原の黒蝕竜調査</t>
+  </si>
+  <si>
+    <t>유적평원의 흑식룡조사</t>
+  </si>
+  <si>
+    <t>11700z</t>
+  </si>
+  <si>
+    <t>ライゼクスの支配圏</t>
+  </si>
+  <si>
+    <t>라이젝스의 지배권</t>
+  </si>
+  <si>
+    <t>라이젝스(ライゼクス)의 등 파괴</t>
+  </si>
+  <si>
+    <t>12000z</t>
+  </si>
+  <si>
+    <t>最も危険な晩餐</t>
+  </si>
+  <si>
+    <t>가장 위험한 만찬</t>
+  </si>
+  <si>
+    <t>게넬・셀타스(ゲネル・セルタス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>게넬・셀타스(ゲネル・セルタス)의 꼬리 파괴</t>
+  </si>
+  <si>
+    <t>３頭寄れば獰猛蛙</t>
+  </si>
+  <si>
+    <t>3마리 모이면 영맹와</t>
+  </si>
+  <si>
+    <t>테츠카브라(テツカブラ) 3마리 수렵</t>
+  </si>
+  <si>
+    <t>두꺼비의 굵은 눈물(ガマの大粒ナミダ) 1개 납품</t>
+  </si>
+  <si>
+    <t>1600z</t>
+  </si>
+  <si>
+    <t>15900z</t>
+  </si>
+  <si>
+    <t>吹雪に立つ金獅子</t>
+  </si>
+  <si>
+    <t>눈보라에 선 금사자</t>
+  </si>
+  <si>
+    <t>라쟌(ラージャン) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>意気地なしには鎧竜で喝！</t>
+  </si>
+  <si>
+    <t>겁쟁이에게는 개룡으로 갈!</t>
+  </si>
+  <si>
+    <t>그라비모스(グラビモス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>燃えたぎれ！火山の熱闘！！</t>
+  </si>
+  <si>
+    <t>타버려라! 화산의 열투!!</t>
+  </si>
+  <si>
+    <t>1900z</t>
+  </si>
+  <si>
+    <t>18600z</t>
+  </si>
+  <si>
+    <t>空の王者・リオレウス</t>
+  </si>
+  <si>
+    <t>하늘의 왕・리오레우스</t>
+  </si>
+  <si>
+    <t>리오레우스(リオレウス)의 머리와 날개 파괴</t>
+  </si>
+  <si>
+    <t>孤島の暴君、ダイミョウザザミ</t>
+  </si>
+  <si>
+    <t>고도의 폭군, 다이묘자자미</t>
+  </si>
+  <si>
+    <t>다이묘자자미(ダイミョウザザミ)의 양발톱과 등껍질 파괴</t>
+  </si>
+  <si>
+    <t>氷海の精算アイテム納品</t>
+  </si>
+  <si>
+    <t>빙해의 정산 아이템 납품</t>
+  </si>
+  <si>
+    <t>轟竜狩猟は妹のため</t>
+  </si>
+  <si>
+    <t>굉룡 수렵은 여동생을 위해</t>
+  </si>
+  <si>
+    <t>티가렉스(ティガレックス)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>跳梁し意思を用いず悪成さば</t>
+  </si>
+  <si>
+    <t>함부로 날뛰어 의지를 이용하지 않고 악을 이루면</t>
+  </si>
+  <si>
+    <t>獰猛なタテガミを求めて</t>
+  </si>
+  <si>
+    <t>영맹한 갈기를 찾아서</t>
+  </si>
+  <si>
+    <t>로아루도로스(ロアルドロス)의 갈기 파괴와 꼬리 절단</t>
+  </si>
+  <si>
+    <t>たんと掘れ燃石炭</t>
+  </si>
+  <si>
+    <t>잔뜩 파라 연석탄</t>
+  </si>
+  <si>
+    <t>30分</t>
+  </si>
+  <si>
+    <t>燃石炭10個以上納品もしくはネコタクチケットの納品</t>
+  </si>
+  <si>
+    <t>라쟌(ラージャン)의 뿔 파괴</t>
+  </si>
+  <si>
+    <t>絞蛇竜は不気味に嗤う</t>
+  </si>
+  <si>
+    <t>교사룡은 섬뜩하게 비웃는다</t>
+  </si>
+  <si>
+    <t>가라라아자라(ガララアジャラ)의 머리와 꼬리 파괴</t>
+  </si>
+  <si>
+    <t>진오우가(ジンオウガ)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>素敵な素敵な電竜頭</t>
+  </si>
+  <si>
+    <t>멋진 멋진 전룡두</t>
+  </si>
+  <si>
+    <t>火の海に棲む竜！</t>
+  </si>
+  <si>
+    <t>불의 바다에 사는 용!</t>
+  </si>
+  <si>
+    <t>아그나코토루(アグナコトル) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>우로코토루(ウロコトル) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>竜の大鎚・火山の化身</t>
+  </si>
+  <si>
+    <t>용의 거대한 망치・화산의 화신</t>
+  </si>
+  <si>
+    <t>우라간킨(ウラガンキン)의 턱 파괴와 꼬리 절단</t>
+  </si>
+  <si>
+    <t>地底火山に響く侵略の足音</t>
+  </si>
+  <si>
+    <t>지저화산에 울려퍼지는 침략의 발소리</t>
+  </si>
+  <si>
+    <t>18900z</t>
+  </si>
+  <si>
+    <t>奥様は白水晶がお好き</t>
+  </si>
+  <si>
+    <t>사모님은 백수정이 좋아</t>
+  </si>
+  <si>
+    <t>백수정 원석(白水晶の原石) 2個の納品</t>
+  </si>
+  <si>
+    <t>가미자미(ガミザミ) 12마리 토벌</t>
+  </si>
+  <si>
+    <t>3300z</t>
+  </si>
+  <si>
+    <t>ワイルドバレット</t>
+  </si>
+  <si>
+    <t>와일드 배럿</t>
+  </si>
+  <si>
+    <t>18300z</t>
+  </si>
+  <si>
+    <t>분격하는 거수</t>
+  </si>
+  <si>
+    <t>가무토(ガムート)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>沼地の狂騒楽団</t>
+  </si>
+  <si>
+    <t>늪지의 광조악단</t>
+  </si>
+  <si>
+    <t>16800z</t>
+  </si>
+  <si>
+    <t>熱願の穴掘り</t>
+  </si>
+  <si>
+    <t>열망의 구멍파기</t>
+  </si>
+  <si>
+    <t>아그나코토루(アグナコトル) 1마리 포획</t>
+  </si>
+  <si>
+    <t>아그나코토루(アグナコトル)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>スノードロップをあなたに</t>
+  </si>
+  <si>
+    <t>스노우 드롭을 당신에게</t>
+  </si>
+  <si>
+    <t>우루크스스(ウルクスス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>ガノトトス冒険記</t>
+  </si>
+  <si>
+    <t>가노토토스 모험기</t>
+  </si>
+  <si>
+    <t>가노토토스(ガノトトス)의 머리와 등지느러미 파괴</t>
+  </si>
+  <si>
+    <t>ベリオロスの狩猟</t>
+  </si>
+  <si>
+    <t>베리오로스의 수렵</t>
+  </si>
+  <si>
+    <t>베리오로스(ベリオロス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>メデタイお仕事</t>
+  </si>
+  <si>
+    <t>경사스러운 일</t>
+  </si>
+  <si>
+    <t>큰 운석 덩어리(隕石の大塊) 2개 납품</t>
+  </si>
+  <si>
+    <t>妖艶なる舞</t>
+  </si>
+  <si>
+    <t>요염한 춤</t>
+  </si>
+  <si>
+    <t>ジャギィノス掃討作戦</t>
+  </si>
+  <si>
+    <t>쟈기노스 소탕작전</t>
+  </si>
+  <si>
+    <t>쟈기노스(ジャギィノス) 25마리 토벌</t>
+  </si>
+  <si>
+    <t>이빌죠(イビルジョー) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>動くこと、山の如し！</t>
+  </si>
+  <si>
+    <t>움직임은, 산과 같다!</t>
+  </si>
+  <si>
+    <t>도볼베르크(ドボルベルク) 1마리 포획</t>
+  </si>
+  <si>
+    <t>ドドドドブランゴ！</t>
+  </si>
+  <si>
+    <t>도도도도블랑고!</t>
+  </si>
+  <si>
+    <t>도도블랑고(ドドブランゴ) 3마리 수렵</t>
+  </si>
+  <si>
+    <t>영역의 큰 똥(なわばりの大フン) 1개 납품</t>
+  </si>
+  <si>
+    <t>16200z</t>
+  </si>
+  <si>
+    <t>スリルとショックの氷海ツアー</t>
+  </si>
+  <si>
+    <t>스릴과 쇼크의 빙해 투어</t>
+  </si>
+  <si>
+    <t>17700z</t>
+  </si>
+  <si>
+    <t>クール！ザボアザギル！</t>
+  </si>
+  <si>
+    <t>쿨! 자보아자길!</t>
+  </si>
+  <si>
+    <t>자보아자길(ザボアザギル)의 머리와 등지느러미 파괴</t>
+  </si>
+  <si>
+    <t>恐暴竜の根城</t>
+  </si>
+  <si>
+    <t>공폭룡의 본거지</t>
+  </si>
+  <si>
+    <t>이빌죠(イビルジョー)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>飛竜たちの乱舞</t>
+  </si>
+  <si>
+    <t>비룡들의 난무</t>
+  </si>
+  <si>
+    <t>幻のハップル？</t>
+  </si>
+  <si>
+    <t>환상의 핫플?</t>
+  </si>
+  <si>
+    <t>하플봇카(ハプルポッカ)의 양 앞다리 파괴</t>
+  </si>
+  <si>
+    <t>フルフルは黒き影と共に</t>
+  </si>
+  <si>
+    <t>푸르푸르는 검은 그림자와 함께</t>
+  </si>
+  <si>
+    <t>푸르푸르(フルフル)의 머리와 몸통 파괴</t>
+  </si>
+  <si>
+    <t>攻究せよ、鎌持つショウグン</t>
+  </si>
+  <si>
+    <t>공구해라, 낫을 든 쇼군</t>
+  </si>
+  <si>
+    <t>쇼군기자미(ショウグンギザミ)의 양발톱과 등껍질 파괴</t>
+  </si>
+  <si>
+    <t>猿王伝説！</t>
+  </si>
+  <si>
+    <t>원왕전설!</t>
+  </si>
+  <si>
+    <t>라쟌(ラージャン)의 꼬리 파괴</t>
+  </si>
+  <si>
+    <t>闇より生まれし者</t>
+  </si>
+  <si>
+    <t>어둠에서 태어난 자</t>
+  </si>
+  <si>
+    <t>나르가쿠르가(ナルガクルガ)의 머리와 칼날날개 파괴</t>
+  </si>
+  <si>
+    <t>燃えさかる大河</t>
+  </si>
+  <si>
+    <t>활활 타는 거대한 강</t>
+  </si>
+  <si>
+    <t>볼가노스(ヴォルガノス) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>獰猛と化した鬼蛙</t>
+  </si>
+  <si>
+    <t>영맹화한 귀와</t>
+  </si>
+  <si>
+    <t>테츠카브라(テツカブラ)의 턱과 뒷다리 파괴</t>
+  </si>
+  <si>
+    <t>オーラ漂う陸の女王！</t>
+  </si>
+  <si>
+    <t>영기가 감도는 육지의 여왕!</t>
+  </si>
+  <si>
+    <t>리오레이아(リオレイア)의 날개 파괴와 꼬리 절단</t>
+  </si>
+  <si>
+    <t>子分・取り分・イイ気分♪</t>
+  </si>
+  <si>
+    <t>부하・몫・좋은기분♪</t>
+  </si>
+  <si>
+    <t>단차에 의한 다운을 4회 성공</t>
+  </si>
+  <si>
+    <t>砂漠の彼方から</t>
+  </si>
+  <si>
+    <t>사막의 저편에서</t>
+  </si>
+  <si>
+    <t>山紫水明の地</t>
+  </si>
+  <si>
+    <t>산자수명한 땅</t>
+  </si>
+  <si>
+    <t>탑의 비경(塔の秘境)</t>
+  </si>
+  <si>
+    <t>心を燃やせ、燃石炭！</t>
+  </si>
+  <si>
+    <t>마음을 불태워라, 연석탄!</t>
+  </si>
+  <si>
+    <t>연석탄(燃石炭) 30개 납품</t>
+  </si>
+  <si>
+    <t>凍てつく牙は獰猛に</t>
+  </si>
+  <si>
+    <t>얼어붙는 어금니는 영맹하게</t>
+  </si>
+  <si>
+    <t>도도블랑고(ドドブランゴ)의 이빨과 꼬리 파괴</t>
+  </si>
+  <si>
+    <t>振り返ってもヤツがいる</t>
+  </si>
+  <si>
+    <t>돌아보아도 녀석이 있어</t>
+  </si>
+  <si>
+    <t>獰猛個体・調査依頼</t>
+  </si>
+  <si>
+    <t>영맹개체・조사의뢰</t>
+  </si>
+  <si>
+    <t>얀쿡(イャンクック)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>不動の山神</t>
+  </si>
+  <si>
+    <t>부동의 산신</t>
+  </si>
+  <si>
+    <t>포포노탄(ボボノタン) 5개 납품</t>
+  </si>
+  <si>
+    <t>地底火山の精算アイテム納品</t>
+  </si>
+  <si>
+    <t>지저화산의 정산 아이템 납품</t>
+  </si>
+  <si>
+    <t>용역원(龍歴院)포인트 4000pts입수</t>
+  </si>
+  <si>
+    <t>즈아로보스(ズアロボス) 15마리 토벌</t>
+  </si>
+  <si>
+    <t>重厚で重甲な晩餐？</t>
+  </si>
+  <si>
+    <t>중후하고 중갑한 만찬?</t>
+  </si>
+  <si>
+    <t>게넬・셀타스(ゲネル・セルタス) 1마리 포획</t>
+  </si>
+  <si>
+    <t>夜鳥の会・危機一髪！</t>
+  </si>
+  <si>
+    <t>야조의 모임・위기일발!</t>
+  </si>
+  <si>
+    <t>出陣！地底火山の果し合い！</t>
+  </si>
+  <si>
+    <t>출진! 지저화산의 결투!</t>
+  </si>
+  <si>
+    <t>디노발드(ディノバルド)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>リオレウス狩猟指令</t>
+  </si>
+  <si>
+    <t>리오레우스 수렵 지령</t>
+  </si>
+  <si>
+    <t>黒狼鳥の獰猛警報！！</t>
+  </si>
+  <si>
+    <t>독괴조의 영맹경보!!</t>
+  </si>
+  <si>
+    <t>얀가루루가(イャンガルルガ)의 머리와 등 파괴</t>
+  </si>
+  <si>
+    <t>泡につつまれ狐につままれ</t>
+  </si>
+  <si>
+    <t>거품에 둘러쌓여 여우에게 둘러쌓여</t>
+  </si>
+  <si>
+    <t>타마미츠네(タマツミネ)의 오른발톱과 왼발톱 파괴</t>
+  </si>
+  <si>
+    <t>原生林の曲者たち</t>
+  </si>
+  <si>
+    <t>원시림의 보통내기가 아닌 자들</t>
+  </si>
+  <si>
+    <t>아르셀타스(アルセルタス)를 제외한 모든 대형몬스터 수렵</t>
+  </si>
+  <si>
+    <t>20700z</t>
+  </si>
+  <si>
+    <t>奇猿狐の蛮行を止めろ！</t>
+  </si>
+  <si>
+    <t>기원호의 만행을 멈춰라!</t>
+  </si>
+  <si>
+    <t>케챠와챠(ケチャワチャ)의 발톱과 귀 파괴</t>
+  </si>
+  <si>
+    <t>鎚と刀の鍔迫り合い</t>
+  </si>
+  <si>
+    <t>집회소★7</t>
+  </si>
+  <si>
+    <t>地底火山</t>
+  </si>
+  <si>
+    <t>ディノバルド1頭とウラガンキン1頭の狩猟</t>
+  </si>
+  <si>
+    <t>竜の大粒ナミダ1個の納品</t>
+  </si>
+  <si>
+    <t>15300z</t>
+  </si>
+  <si>
+    <t>住めば都の闘技場暮らし</t>
+  </si>
+  <si>
+    <t>闘技場</t>
+  </si>
+  <si>
+    <t>全ての大型モンスターの狩猟</t>
+  </si>
+  <si>
+    <t>熱気で熱狂！炎の軍勢！</t>
+  </si>
+  <si>
+    <t>3700z</t>
+  </si>
+  <si>
+    <t>36900z</t>
+  </si>
+  <si>
+    <t>蒼く渦巻く登竜門</t>
+  </si>
+  <si>
+    <t>渓流</t>
+  </si>
+  <si>
+    <t>ラギアクルス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ラギアクルスの頭部と背中破壊</t>
+  </si>
+  <si>
+    <t>灼熱砂上の荒ぶる刀剣</t>
+  </si>
+  <si>
+    <t>旧砂漠</t>
+  </si>
+  <si>
+    <t>ディノバルド1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ディノバルドの頭部破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>月夜に出でし阿吽の雷撃</t>
+  </si>
+  <si>
+    <t>古代林</t>
+  </si>
+  <si>
+    <t>ラージャン2頭の狩猟</t>
+  </si>
+  <si>
+    <t>2600z</t>
+  </si>
+  <si>
+    <t>25200z</t>
+  </si>
+  <si>
+    <t>憤怒の雄叫び</t>
+  </si>
+  <si>
+    <t>怒り喰らうイビルジョー1頭の狩猟</t>
+  </si>
+  <si>
+    <t>18000z</t>
+  </si>
+  <si>
+    <t>金獅子の黒き覇気</t>
+  </si>
+  <si>
+    <t>ラージャン1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ラージャンの角破壊</t>
+  </si>
+  <si>
+    <t>荒れる山神、鎮める狩人</t>
+  </si>
+  <si>
+    <t>雪山</t>
+  </si>
+  <si>
+    <t>ガムート1頭の狩猟狩猟</t>
+  </si>
+  <si>
+    <t>ガムートの頭部と脚破壊</t>
+  </si>
+  <si>
+    <t>竜のコリーダ</t>
+  </si>
+  <si>
     <t>立体闘技場</t>
   </si>
   <si>
-    <t>全ての大型モンスターの狩猟</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント1500pts入手</t>
-  </si>
-  <si>
-    <t>2200z</t>
-  </si>
-  <si>
-    <t>21600z</t>
-  </si>
-  <si>
-    <t>大海の王・ラギアクルス！</t>
+    <t>イャンガルルガ1頭とティガレックス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>震天動地なグランドウイング</t>
+  </si>
+  <si>
+    <t>乗りによるダウンを5回成功</t>
+  </si>
+  <si>
+    <t>29700z</t>
+  </si>
+  <si>
+    <t>クシャルダオラの討伐または撃退</t>
+  </si>
+  <si>
+    <t>クシャルダオラの尻尾切断</t>
+  </si>
+  <si>
+    <t>森丘</t>
+  </si>
+  <si>
+    <t>オオナズチの討伐または撃退</t>
+  </si>
+  <si>
+    <t>オオナズチの角破壊</t>
+  </si>
+  <si>
+    <t>竜王の系譜</t>
+  </si>
+  <si>
+    <t>リオレウス希少種1頭とリオレイア希少種1頭の狩猟</t>
+  </si>
+  <si>
+    <t>26700z</t>
+  </si>
+  <si>
+    <t>受付嬢オススメ！雷狼竜×２</t>
+  </si>
+  <si>
+    <t>ジンオウガ2頭の狩猟</t>
+  </si>
+  <si>
+    <t>超☆メモ帳～千刃竜捕獲編～</t>
+  </si>
+  <si>
+    <t>セルレギオス1頭の捕獲</t>
+  </si>
+  <si>
+    <t>セルレギオスの翼破壊</t>
+  </si>
+  <si>
+    <t>柔能く剛能く狩人を制す</t>
+  </si>
+  <si>
+    <t>タマミツネ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>タマミツネの頭部と背ビレ破壊</t>
+  </si>
+  <si>
+    <t>湯けむりと噴煙と</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>ブラキディオス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ブラキディオスの頭部と前脚破壊</t>
+  </si>
+  <si>
+    <t>絶対零度</t>
+  </si>
+  <si>
+    <t>極圏</t>
+  </si>
+  <si>
+    <t>ウカムルバスの討伐</t>
+  </si>
+  <si>
+    <t>ウカムルパスの背中破壊</t>
+  </si>
+  <si>
+    <t>2000z</t>
+  </si>
+  <si>
+    <t>19200z</t>
+  </si>
+  <si>
+    <t>熱愛発覚！？竜達の密会！</t>
+  </si>
+  <si>
+    <t>遺跡平原</t>
+  </si>
+  <si>
+    <t>ライゼクス1頭とリオレイア1頭の狩猟</t>
+  </si>
+  <si>
+    <t>黄金の月輪</t>
+  </si>
+  <si>
+    <t>リオレイア希少種1頭の狩猟</t>
+  </si>
+  <si>
+    <t>リオレイア希少種の頭部破壊</t>
+  </si>
+  <si>
+    <t>山紫水明の破壊者</t>
+  </si>
+  <si>
+    <t>ドボルベルク1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ドボルベルクの角とコブ破壊</t>
+  </si>
+  <si>
+    <t>電光煌めく飛竜の夜</t>
+  </si>
+  <si>
+    <t>ライゼクス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ライゼクスのトサカと背中破壊</t>
+  </si>
+  <si>
+    <t>熱き闘魂、纏いし炎戈</t>
+  </si>
+  <si>
+    <t>アグナコトル1頭の狩猟</t>
+  </si>
+  <si>
+    <t>アグナコトルの背中と脚破壊</t>
+  </si>
+  <si>
+    <t>戦々恐々、最恐コンビ</t>
+  </si>
+  <si>
+    <t>イビルジョー1頭とラージャン1頭の狩猟</t>
+  </si>
+  <si>
+    <t>21000z</t>
+  </si>
+  <si>
+    <t>奈落の妖星</t>
+  </si>
+  <si>
+    <t>竜ノ墓場</t>
+  </si>
+  <si>
+    <t>オストガロアの討伐</t>
+  </si>
+  <si>
+    <t>轟虎馮海</t>
+  </si>
+  <si>
+    <t>氷海</t>
+  </si>
+  <si>
+    <t>ティガレックス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ティガレックスの頭部と爪破壊</t>
+  </si>
+  <si>
+    <t>奇奇怪怪のハードビーク</t>
+  </si>
+  <si>
+    <t>17100z</t>
+  </si>
+  <si>
+    <t>破壊と滅亡の申し子</t>
+  </si>
+  <si>
+    <t>曇天毒雨</t>
+  </si>
+  <si>
+    <t>ガブラス20頭の討伐</t>
+  </si>
+  <si>
+    <t>ビリビリバリバリパニック！！</t>
+  </si>
+  <si>
+    <t>38700z</t>
+  </si>
+  <si>
+    <t>ユクモノ足湯と雷狼竜</t>
   </si>
   <si>
     <t>孤島</t>
   </si>
   <si>
-    <t>ラギアクルス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>竜の大粒ナミダ1個の納品</t>
-  </si>
-  <si>
-    <t>10500z</t>
-  </si>
-  <si>
-    <t>夜鳥の頭部破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>ホロロホルルの頭部破壊</t>
-  </si>
-  <si>
-    <t>ドボルがために銅鑼は鳴る</t>
+    <t>ジンオウガ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>ジンオウガの頭部と背中破壊</t>
+  </si>
+  <si>
+    <t>凶賊ゲリョス狩り</t>
   </si>
   <si>
     <t>沼地</t>
   </si>
   <si>
-    <t>ドボルベルク1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドボルベルクのコブ破壊</t>
-  </si>
-  <si>
-    <t>12600z</t>
-  </si>
-  <si>
-    <t>極秘依頼！獰猛なる溶岩竜！</t>
-  </si>
-  <si>
-    <t>火山</t>
-  </si>
-  <si>
-    <t>ヴォルガノス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ヴォルガノスの頭部と背ビレ破壊</t>
-  </si>
-  <si>
-    <t>どくどくパニック・毒怪鳥！！</t>
-  </si>
-  <si>
-    <t>遺跡平原</t>
-  </si>
-  <si>
-    <t>ゲリョス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ゲリョスのトサカ破壊</t>
-  </si>
-  <si>
-    <t>遺跡平原の黒蝕竜調査</t>
+    <t>ゲリョス3頭の狩猟</t>
+  </si>
+  <si>
+    <t>昂ぶる千の刃</t>
+  </si>
+  <si>
+    <t>セルレギオス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>セルレギオスの角と脚破壊</t>
+  </si>
+  <si>
+    <t>遺跡平原からの伝書</t>
+  </si>
+  <si>
+    <t>イビルジョー1頭の狩猟</t>
+  </si>
+  <si>
+    <t>イビルジョーの頭部破壊</t>
+  </si>
+  <si>
+    <t>試練の帰結点</t>
+  </si>
+  <si>
+    <t>乗りによるダウンを4回成功</t>
+  </si>
+  <si>
+    <t>21300z</t>
+  </si>
+  <si>
+    <t>容赦なき、金獅子相手に用心棒</t>
+  </si>
+  <si>
+    <t>ラージャン3頭の狩猟</t>
+  </si>
+  <si>
+    <t>牙獣の大粒ナミダ1個の納品</t>
+  </si>
+  <si>
+    <t>2300z</t>
+  </si>
+  <si>
+    <t>22500z</t>
+  </si>
+  <si>
+    <t>吹き荒れる災厄の火</t>
+  </si>
+  <si>
+    <t>テオ・テスカトルの討伐または撃退</t>
+  </si>
+  <si>
+    <t>テオ・テスカトルの頭部破壊</t>
+  </si>
+  <si>
+    <t>白と瑠璃の輪舞曲</t>
+  </si>
+  <si>
+    <t>原生林</t>
+  </si>
+  <si>
+    <t>タマミツネ1頭とホロロホルル1頭の狩猟</t>
+  </si>
+  <si>
+    <t>13500z</t>
+  </si>
+  <si>
+    <t>千刃竜セルレギオス</t>
+  </si>
+  <si>
+    <t>乗りよるダウンを2回成功</t>
+  </si>
+  <si>
+    <t>舞うは嵐、奏でるは災禍の調べ</t>
+  </si>
+  <si>
+    <t>霊峰</t>
+  </si>
+  <si>
+    <t>アマツマガツチの討伐</t>
+  </si>
+  <si>
+    <t>アマツマガツチの頭部破壊</t>
+  </si>
+  <si>
+    <t>いつか見た幻日</t>
+  </si>
+  <si>
+    <t>リオレウス希少種1頭の狩猟</t>
+  </si>
+  <si>
+    <t>リオレウス希少種の頭部と翼破壊</t>
+  </si>
+  <si>
+    <t>22800z</t>
+  </si>
+  <si>
+    <t>舞い降りる鋼龍</t>
+  </si>
+  <si>
+    <t>クシャルダオラの翼破壊</t>
+  </si>
+  <si>
+    <t>白銀の火輪</t>
+  </si>
+  <si>
+    <t>リオレウス希少種の頭部破壊</t>
+  </si>
+  <si>
+    <t>モンスターニャンター</t>
+  </si>
+  <si>
+    <t>天に吼えろ、大地を揺らせ</t>
+  </si>
+  <si>
+    <t>ジンオウガ1頭とティガレックス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>森丘の黒い霧</t>
+  </si>
+  <si>
+    <t>竜の大粒ナミダ2個の納品</t>
+  </si>
+  <si>
+    <t>17400z</t>
+  </si>
+  <si>
+    <t>顕現せし黒蝕竜</t>
   </si>
   <si>
     <t>ゴア・マガラ1頭の狩猟</t>
   </si>
   <si>
-    <t>11700z</t>
-  </si>
-  <si>
-    <t>ライゼクスの支配圏</t>
-  </si>
-  <si>
-    <t>森丘</t>
-  </si>
-  <si>
-    <t>ライゼクス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ライゼクスの背中破壊</t>
-  </si>
-  <si>
-    <t>12000z</t>
-  </si>
-  <si>
-    <t>最も危険な晩餐</t>
-  </si>
-  <si>
-    <t>原生林</t>
+    <t>ゴア･マガラの触角と翼脚破壊</t>
+  </si>
+  <si>
+    <t>14100z</t>
+  </si>
+  <si>
+    <t>獰にして猛だが火でもある</t>
+  </si>
+  <si>
+    <t>リオレウス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>リオレウスの翼破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>痺れる魔球</t>
+  </si>
+  <si>
+    <t>ラングロトラ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>縦横無尽なフレックスフィン</t>
+  </si>
+  <si>
+    <t>水上闘技場</t>
+  </si>
+  <si>
+    <t>3100z</t>
+  </si>
+  <si>
+    <t>30600z</t>
+  </si>
+  <si>
+    <t>グランド・ハンター・ゲーム</t>
+  </si>
+  <si>
+    <t>アルセルタスを除く全ての大型モンスターの狩猟</t>
+  </si>
+  <si>
+    <t>原生林の平和を守れ</t>
+  </si>
+  <si>
+    <t>20100z</t>
+  </si>
+  <si>
+    <t>勇猛果敢なブレイブタスク</t>
+  </si>
+  <si>
+    <t>難攻不落の重甲虫</t>
   </si>
   <si>
     <t>ゲネル・セルタス1匹の狩猟</t>
   </si>
   <si>
-    <t>ゲネル・セルタスの尻尾破壊</t>
-  </si>
-  <si>
-    <t>３頭寄れば獰猛蛙</t>
-  </si>
-  <si>
-    <t>地底火山</t>
-  </si>
-  <si>
-    <t>テツカブラ3頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガマの大粒ナミダ1個の納品</t>
-  </si>
-  <si>
-    <t>1600z</t>
-  </si>
-  <si>
-    <t>15900z</t>
-  </si>
-  <si>
-    <t>吹雪に立つ金獅子</t>
-  </si>
-  <si>
-    <t>雪山</t>
-  </si>
-  <si>
-    <t>ラージャン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>乗りよるダウンを2回成功</t>
-  </si>
-  <si>
-    <t>意気地없음には鎧竜で喝！</t>
-  </si>
-  <si>
-    <t>グラビモス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>燃えたぎれ！火山の熱闘！！</t>
-  </si>
-  <si>
-    <t>1900z</t>
-  </si>
-  <si>
-    <t>18600z</t>
-  </si>
-  <si>
-    <t>空の王者・リオレウス</t>
-  </si>
-  <si>
-    <t>リオレウス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレウスの頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>孤島の暴君、ダイミョウザザミ</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミ1匹の狩猟</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミの両爪とヤド破壊</t>
-  </si>
-  <si>
-    <t>氷海の精算アイテム納品</t>
-  </si>
-  <si>
-    <t>氷海</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント4000pts入手</t>
-  </si>
-  <si>
-    <t>スクアギル15頭の討伐</t>
-  </si>
-  <si>
-    <t>轟竜狩猟は妹のため</t>
-  </si>
-  <si>
-    <t>ティガレックス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ティガレックスの尻尾切断</t>
-  </si>
-  <si>
-    <t>跳梁し意思を用いず悪成さば</t>
-  </si>
-  <si>
-    <t>獰猛なタテガミを求めて</t>
-  </si>
-  <si>
-    <t>ロアルドロス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ロアルドロスのタテガミ破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>たんと掘れ燃石炭</t>
-  </si>
-  <si>
-    <t>30分</t>
-  </si>
-  <si>
-    <t>燃石炭10個以上納品もしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>ラージャンの角破壊</t>
-  </si>
-  <si>
-    <t>絞蛇竜は不気味に嗤う</t>
-  </si>
-  <si>
-    <t>ガララアジャラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガララアジャラの頭部と尻尾破壊</t>
-  </si>
-  <si>
-    <t>ジンオウガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ジンオウガの尻尾切断</t>
-  </si>
-  <si>
-    <t>素敵な素敵な電竜頭</t>
-  </si>
-  <si>
-    <t>火の海に棲む竜！</t>
-  </si>
-  <si>
-    <t>アグナコトル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ウロコトル10頭の討伐</t>
-  </si>
-  <si>
-    <t>竜の大鎚・火山の化身</t>
-  </si>
-  <si>
-    <t>ウラガンキン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ウラガンキンの顎破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>地底火山に響く侵略の足音</t>
-  </si>
-  <si>
-    <t>18900z</t>
-  </si>
-  <si>
-    <t>奥様は白水晶がお好き</t>
-  </si>
-  <si>
-    <t>白水晶の原石2個の納品</t>
-  </si>
-  <si>
-    <t>ガミザミ12匹の討伐</t>
-  </si>
-  <si>
-    <t>3300z</t>
-  </si>
-  <si>
-    <t>ワイルドバレット</t>
-  </si>
-  <si>
-    <t>18300z</t>
-  </si>
-  <si>
-    <t>ガムート1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガムートの頭部破壊</t>
-  </si>
-  <si>
-    <t>沼地の狂騒楽団</t>
-  </si>
-  <si>
-    <t>16800z</t>
-  </si>
-  <si>
-    <t>熱願の穴掘り</t>
-  </si>
-  <si>
-    <t>アグナコトル1頭の捕獲</t>
-  </si>
-  <si>
-    <t>アグナコトルの頭部破壊</t>
-  </si>
-  <si>
-    <t>キリンの討伐</t>
-  </si>
-  <si>
-    <t>ギルドフラッグを山頂に設置</t>
-  </si>
-  <si>
-    <t>スノードロップをあなたに</t>
-  </si>
-  <si>
-    <t>ウルクスス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガノトトス冒険記</t>
-  </si>
-  <si>
-    <t>渓流</t>
-  </si>
-  <si>
-    <t>ガノトトス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガノトトスの頭部と背ビレ破壊</t>
-  </si>
-  <si>
-    <t>ベリオロスの狩猟</t>
-  </si>
-  <si>
-    <t>ベリオロス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>古代林</t>
-  </si>
-  <si>
-    <t>メデタイお仕事</t>
-  </si>
-  <si>
-    <t>旧砂漠</t>
-  </si>
-  <si>
-    <t>隕石の大塊2個の納品</t>
-  </si>
-  <si>
-    <t>妖艶なる舞</t>
-  </si>
-  <si>
-    <t>タマミツネ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ジャギィノス掃討作戦</t>
-  </si>
-  <si>
-    <t>ジャギィノス25頭の討伐</t>
-  </si>
-  <si>
-    <t>イビルジョー1頭の狩猟</t>
-  </si>
-  <si>
-    <t>動くこと、山の如し！</t>
-  </si>
-  <si>
-    <t>ドボルベルク1頭の捕獲</t>
+    <t>ゲネル・セルタスの頭部と脚破壊</t>
+  </si>
+  <si>
+    <t>鎧袖一触のパワフルアームズ</t>
+  </si>
+  <si>
+    <t>4000z</t>
+  </si>
+  <si>
+    <t>39600z</t>
+  </si>
+  <si>
+    <t>テオ・テスカトルの尻尾切断</t>
+  </si>
+  <si>
+    <t>冷たき甲冑</t>
+  </si>
+  <si>
+    <t>ガムート1頭とザボアザギル1頭の狩猟</t>
+  </si>
+  <si>
+    <t>龍歴院ポイント500pts入手</t>
+  </si>
+  <si>
+    <t>炸裂！爆砕拳！</t>
+  </si>
+  <si>
+    <t>彼の地に集いし破滅の禍難</t>
+  </si>
+  <si>
+    <t>禁足地</t>
+  </si>
+  <si>
+    <t>3200z</t>
+  </si>
+  <si>
+    <t>31500z</t>
+  </si>
+  <si>
+    <t>その腕前、噂通りかしら…？</t>
+  </si>
+  <si>
+    <t>ディアブロス1頭の狩猟</t>
+  </si>
+  <si>
+    <t>しじまの向こう</t>
+  </si>
+  <si>
+    <t>オオナズチの尻尾切断</t>
+  </si>
+  <si>
+    <t>灼熱と妖艶</t>
+  </si>
+  <si>
+    <t>塔の秘境</t>
+  </si>
+  <si>
+    <t>ディノバルド1頭とタマミツネ1頭の狩猟</t>
+  </si>
+  <si>
+    <t>煌黒龍アルバトリオン</t>
+  </si>
+  <si>
+    <t>溶岩島</t>
+  </si>
+  <si>
+    <t>アルバトリオンの討伐</t>
+  </si>
+  <si>
+    <t>アルバトリオンの角破壊</t>
+  </si>
+  <si>
+    <t>爆鎚竜の顎破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>ウラガンキンの顎破壊</t>
+  </si>
+  <si>
+    <t>金と銀の煌き</t>
+  </si>
+  <si>
+    <t>乗りによるダウンを3回成功</t>
+  </si>
+  <si>
+    <t>31800z</t>
+  </si>
+  <si>
+    <t>まだ見ぬ秘湯をもとめて</t>
+  </si>
+  <si>
+    <t>ジンオウガの頭部と前脚破壊</t>
+  </si>
+  <si>
+    <t>汝ノチカラヲ、見セテミヨ</t>
+  </si>
+  <si>
+    <t>2800z</t>
+  </si>
+  <si>
+    <t>27300z</t>
+  </si>
+  <si>
+    <t>渓流からの救援要請</t>
+  </si>
+  <si>
+    <t>リオレイア希少種の頭部と翼破壊</t>
+  </si>
+  <si>
+    <t>山神と電影</t>
+  </si>
+  <si>
+    <t>ライゼクス1頭とガムート1頭の狩猟</t>
+  </si>
+  <si>
+    <t>空の飛竜と陸の飛竜</t>
   </si>
   <si>
     <t>リオレウス1頭とリオレイア1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドドドドブランゴ！</t>
-  </si>
-  <si>
-    <t>ドドブランゴ3頭の狩猟</t>
-  </si>
-  <si>
-    <t>なわばりの大フン1個の納品</t>
-  </si>
-  <si>
-    <t>16200z</t>
-  </si>
-  <si>
-    <t>スリルとショックの氷海ツアー</t>
-  </si>
-  <si>
-    <t>17700z</t>
-  </si>
-  <si>
-    <t>クール！ザボアザギル！</t>
-  </si>
-  <si>
-    <t>ザボアザギル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ザボアザギルの頭部と背ビレ破壊</t>
-  </si>
-  <si>
-    <t>恐暴竜の根城</t>
-  </si>
-  <si>
-    <t>イビルジョーの頭部破壊</t>
-  </si>
-  <si>
-    <t>飛竜たちの乱舞</t>
-  </si>
-  <si>
-    <t>幻のハップル？</t>
-  </si>
-  <si>
-    <t>ハプルボッカ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ハプルポッカの両前脚破壊</t>
-  </si>
-  <si>
-    <t>フルフルは黒き影と共に</t>
-  </si>
-  <si>
-    <t>フルフル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>フルフルの頭部と胴体破壊</t>
-  </si>
-  <si>
-    <t>攻究せよ、鎌持つショウグン</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ1匹の狩猟</t>
-  </si>
-  <si>
-    <t>ショウグンギザミの両爪とヤド破壊</t>
-  </si>
-  <si>
-    <t>猿王伝説！</t>
-  </si>
-  <si>
-    <t>ラージャンの尻尾破壊</t>
-  </si>
-  <si>
-    <t>闇より生まれし者</t>
-  </si>
-  <si>
-    <t>ナルガクルガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ナルガクルガの頭部と刃翼破壊</t>
-  </si>
-  <si>
-    <t>燃えさかる大河</t>
-  </si>
-  <si>
-    <t>ヴォルガノス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>獰猛と化した鬼蛙</t>
-  </si>
-  <si>
-    <t>テツカブラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>テツカブラの顎と後脚破壊</t>
-  </si>
-  <si>
-    <t>オーラ漂う陸の女王！</t>
-  </si>
-  <si>
-    <t>リオレイア1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレイアの翼破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>子分・取り分・イイ気分♪</t>
-  </si>
-  <si>
-    <t>乗りによるダウン4回成功</t>
-  </si>
-  <si>
-    <t>砂漠の彼方から</t>
-  </si>
-  <si>
-    <t>ディノバルド1頭の狩猟</t>
-  </si>
-  <si>
-    <t>山紫水明の地</t>
-  </si>
-  <si>
-    <t>塔の秘境</t>
-  </si>
-  <si>
-    <t>心を燃やせ、燃石炭！</t>
-  </si>
-  <si>
-    <t>燃石炭30個の納品</t>
-  </si>
-  <si>
-    <t>凍てつく牙は獰猛に</t>
-  </si>
-  <si>
-    <t>ドドブランゴ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドドブランゴの牙と尻尾破壊</t>
-  </si>
-  <si>
-    <t>振り返ってもヤツがいる</t>
-  </si>
-  <si>
-    <t>ドスイーオス2頭の狩猟</t>
-  </si>
-  <si>
-    <t>獰猛個体・調査依頼</t>
-  </si>
-  <si>
-    <t>イャンクック1頭の狩猟狩猟</t>
-  </si>
-  <si>
-    <t>イャンクックの頭部破壊</t>
-  </si>
-  <si>
-    <t>不動の山神</t>
-  </si>
-  <si>
-    <t>ボボノタン5個の納品</t>
-  </si>
-  <si>
-    <t>地底火山の精算アイテム納品</t>
-  </si>
-  <si>
-    <t>ズアロボス15頭の討伐</t>
-  </si>
-  <si>
-    <t>重厚で重甲な晩餐？</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス1匹の捕獲</t>
-  </si>
-  <si>
-    <t>アルセルタス1匹の狩猟</t>
-  </si>
-  <si>
-    <t>夜鳥の会・危機一髪！</t>
-  </si>
-  <si>
-    <t>ホロロホルル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ホロロホルルの頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>出陣！地底火山の果し合い！</t>
-  </si>
-  <si>
-    <t>ディノバルドの尻尾切断</t>
-  </si>
-  <si>
-    <t>リオレウス狩猟指令</t>
-  </si>
-  <si>
-    <t>ドスランポス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>黒狼鳥の獰猛警報！！</t>
-  </si>
-  <si>
-    <t>イャンガルルガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>イャンガルルガの頭部と背中破壊</t>
-  </si>
-  <si>
-    <t>泡につつまれ狐につままれ</t>
-  </si>
-  <si>
-    <t>タマツミネの右爪と左爪破壊</t>
-  </si>
-  <si>
-    <t>原生林の曲者たち</t>
-  </si>
-  <si>
-    <t>アルセルタスを除く全ての大型モンスターの狩猟</t>
-  </si>
-  <si>
-    <t>20700z</t>
-  </si>
-  <si>
-    <t>奇猿狐の蛮行を止めろ！</t>
-  </si>
-  <si>
-    <t>ケチャワチャ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ケチャワチャの爪と耳破壊</t>
-  </si>
-  <si>
-    <t>鎚と刀の鍔迫り合い</t>
-  </si>
-  <si>
-    <t>집회소★7</t>
-  </si>
-  <si>
-    <t>ディノバルド1頭とウラガンキン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>15300z</t>
-  </si>
-  <si>
-    <t>住めば都の闘技場暮らし</t>
-  </si>
-  <si>
-    <t>闘技場</t>
-  </si>
-  <si>
-    <t>熱気で熱狂！炎の軍勢！</t>
-  </si>
-  <si>
-    <t>3700z</t>
-  </si>
-  <si>
-    <t>36900z</t>
-  </si>
-  <si>
-    <t>蒼く渦巻く登竜門</t>
-  </si>
-  <si>
-    <t>ラギアクルスの頭部と背中破壊</t>
-  </si>
-  <si>
-    <t>灼熱砂上の荒ぶる刀剣</t>
-  </si>
-  <si>
-    <t>ディノバルドの頭部破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>月夜に出でし阿吽の雷撃</t>
-  </si>
-  <si>
-    <t>ラージャン2頭の狩猟</t>
-  </si>
-  <si>
-    <t>2600z</t>
-  </si>
-  <si>
-    <t>25200z</t>
-  </si>
-  <si>
-    <t>憤怒の雄叫び</t>
-  </si>
-  <si>
-    <t>怒り喰らうイビルジョー1頭の狩猟</t>
-  </si>
-  <si>
-    <t>18000z</t>
-  </si>
-  <si>
-    <t>金獅子の黒き覇気</t>
-  </si>
-  <si>
-    <t>荒れる山神、鎮める狩人</t>
-  </si>
-  <si>
-    <t>ガムート1頭の狩猟狩猟</t>
-  </si>
-  <si>
-    <t>ガムートの頭部と脚破壊</t>
-  </si>
-  <si>
-    <t>竜のコリーダ</t>
-  </si>
-  <si>
-    <t>イャンガルルガ1頭とティガレックス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>震天動地なグランドウイング</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを5回成功</t>
-  </si>
-  <si>
-    <t>29700z</t>
-  </si>
-  <si>
-    <t>クシャルダオラの討伐または撃退</t>
-  </si>
-  <si>
-    <t>クシャルダオラの尻尾切断</t>
-  </si>
-  <si>
-    <t>オオナズチの討伐または撃退</t>
-  </si>
-  <si>
-    <t>オオナズチの角破壊</t>
-  </si>
-  <si>
-    <t>竜王の系譜</t>
-  </si>
-  <si>
-    <t>リオレウス希少種1頭とリオレイア希少種1頭の狩猟</t>
-  </si>
-  <si>
-    <t>26700z</t>
-  </si>
-  <si>
-    <t>受付嬢オススメ！雷狼竜×２</t>
-  </si>
-  <si>
-    <t>ジンオウガ2頭の狩猟</t>
-  </si>
-  <si>
-    <t>超☆メモ帳～千刃竜捕獲編～</t>
-  </si>
-  <si>
-    <t>セルレギオス1頭の捕獲</t>
-  </si>
-  <si>
-    <t>セルレギオスの翼破壊</t>
-  </si>
-  <si>
-    <t>柔能く剛能く狩人を制す</t>
-  </si>
-  <si>
-    <t>タマミツネの頭部と背ビレ破壊</t>
-  </si>
-  <si>
-    <t>湯けむりと噴煙と</t>
-  </si>
-  <si>
-    <t>ブラキディオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ブラキディオスの頭部と前脚破壊</t>
-  </si>
-  <si>
-    <t>絶対零度</t>
-  </si>
-  <si>
-    <t>極圏</t>
-  </si>
-  <si>
-    <t>ウカムルバスの討伐</t>
-  </si>
-  <si>
-    <t>ウカムルパスの背中破壊</t>
-  </si>
-  <si>
-    <t>2000z</t>
-  </si>
-  <si>
-    <t>19200z</t>
-  </si>
-  <si>
-    <t>熱愛発覚！？竜達の密会！</t>
-  </si>
-  <si>
-    <t>ライゼクス1頭とリオレイア1頭の狩猟</t>
-  </si>
-  <si>
-    <t>黄金の月輪</t>
-  </si>
-  <si>
-    <t>リオレイア希少種1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレイア希少種の頭部破壊</t>
-  </si>
-  <si>
-    <t>山紫水明の破壊者</t>
-  </si>
-  <si>
-    <t>ドボルベルクの角とコブ破壊</t>
-  </si>
-  <si>
-    <t>電光煌めく飛竜の夜</t>
-  </si>
-  <si>
-    <t>ライゼクスのトサカと背中破壊</t>
-  </si>
-  <si>
-    <t>熱き闘魂、纏いし炎戈</t>
-  </si>
-  <si>
-    <t>アグナコトルの背中と脚破壊</t>
-  </si>
-  <si>
-    <t>戦々恐々、最恐コンビ</t>
-  </si>
-  <si>
-    <t>イビルジョー1頭とラージャン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>21000z</t>
-  </si>
-  <si>
-    <t>奈落の妖星</t>
-  </si>
-  <si>
-    <t>竜ノ墓場</t>
-  </si>
-  <si>
-    <t>オストガロアの討伐</t>
-  </si>
-  <si>
-    <t>轟虎馮海</t>
-  </si>
-  <si>
-    <t>ティガレックスの頭部と爪破壊</t>
-  </si>
-  <si>
-    <t>奇奇怪怪のハードビーク</t>
-  </si>
-  <si>
-    <t>17100z</t>
-  </si>
-  <si>
-    <t>破壊と滅亡の申し子</t>
-  </si>
-  <si>
-    <t>曇天毒雨</t>
-  </si>
-  <si>
-    <t>ガブラス20頭の討伐</t>
-  </si>
-  <si>
-    <t>ビリビリバリバリパニック！！</t>
-  </si>
-  <si>
-    <t>38700z</t>
-  </si>
-  <si>
-    <t>ユクモノ足湯と雷狼竜</t>
-  </si>
-  <si>
-    <t>ジンオウガの頭部と背中破壊</t>
-  </si>
-  <si>
-    <t>凶賊ゲリョス狩り</t>
-  </si>
-  <si>
-    <t>ゲリョス3頭の狩猟</t>
-  </si>
-  <si>
-    <t>昂ぶる千の刃</t>
-  </si>
-  <si>
-    <t>セルレギオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>セルレギオスの角と脚破壊</t>
-  </si>
-  <si>
-    <t>遺跡平原からの伝書</t>
-  </si>
-  <si>
-    <t>試練の帰結点</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを4回成功</t>
-  </si>
-  <si>
-    <t>21300z</t>
-  </si>
-  <si>
-    <t>容赦なき、金獅子相手に用心棒</t>
-  </si>
-  <si>
-    <t>ラージャン3頭の狩猟</t>
-  </si>
-  <si>
-    <t>牙獣の大粒ナミダ1個の納品</t>
-  </si>
-  <si>
-    <t>2300z</t>
-  </si>
-  <si>
-    <t>22500z</t>
-  </si>
-  <si>
-    <t>吹き荒れる災厄の火</t>
-  </si>
-  <si>
-    <t>テオ・テスカトルの討伐または撃退</t>
-  </si>
-  <si>
-    <t>テオ・テスカトルの頭部破壊</t>
-  </si>
-  <si>
-    <t>白と瑠璃の輪舞曲</t>
-  </si>
-  <si>
-    <t>タマミツネ1頭とホロロホルル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>13500z</t>
-  </si>
-  <si>
-    <t>千刃竜セルレギオス</t>
-  </si>
-  <si>
-    <t>舞うは嵐、奏でるは災禍の調べ</t>
-  </si>
-  <si>
-    <t>霊峰</t>
-  </si>
-  <si>
-    <t>アマツマガツチの討伐</t>
-  </si>
-  <si>
-    <t>アマツマガツチの頭部破壊</t>
-  </si>
-  <si>
-    <t>いつか見た幻日</t>
-  </si>
-  <si>
-    <t>リオレウス希少種1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレウス希少種の頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>22800z</t>
-  </si>
-  <si>
-    <t>舞い降りる鋼龍</t>
-  </si>
-  <si>
-    <t>クシャルダオラの翼破壊</t>
-  </si>
-  <si>
-    <t>白銀の火輪</t>
-  </si>
-  <si>
-    <t>リオレウス希少種の頭部破壊</t>
-  </si>
-  <si>
-    <t>モンスターニャンター</t>
-  </si>
-  <si>
-    <t>天に吼えろ、大地を揺らせ</t>
-  </si>
-  <si>
-    <t>ジンオウガ1頭とティガレックス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>森丘の黒い霧</t>
-  </si>
-  <si>
-    <t>竜の大粒ナミダ2個の納品</t>
-  </si>
-  <si>
-    <t>17400z</t>
-  </si>
-  <si>
-    <t>顕現せし黒蝕竜</t>
-  </si>
-  <si>
-    <t>ゴア･マガラの触角と翼脚破壊</t>
-  </si>
-  <si>
-    <t>14100z</t>
-  </si>
-  <si>
-    <t>獰にして猛だが火でもある</t>
-  </si>
-  <si>
-    <t>リオレウスの翼破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>痺れる魔球</t>
-  </si>
-  <si>
-    <t>ラングロトラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>縦横無尽なフレックスフィン</t>
-  </si>
-  <si>
-    <t>水上闘技場</t>
-  </si>
-  <si>
-    <t>3100z</t>
-  </si>
-  <si>
-    <t>30600z</t>
-  </si>
-  <si>
-    <t>グランド・ハンター・ゲーム</t>
-  </si>
-  <si>
-    <t>原生林の平和を守れ</t>
-  </si>
-  <si>
-    <t>20100z</t>
-  </si>
-  <si>
-    <t>勇猛果敢なブレイブタスク</t>
-  </si>
-  <si>
-    <t>難攻不落の重甲虫</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタスの頭部と脚破壊</t>
-  </si>
-  <si>
-    <t>鎧袖一触のパワフルアームズ</t>
-  </si>
-  <si>
-    <t>4000z</t>
-  </si>
-  <si>
-    <t>39600z</t>
-  </si>
-  <si>
-    <t>テオ・テスカトルの尻尾切断</t>
-  </si>
-  <si>
-    <t>冷たき甲冑</t>
-  </si>
-  <si>
-    <t>ガムート1頭とザボアザギル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント500pts入手</t>
-  </si>
-  <si>
-    <t>炸裂！爆砕拳！</t>
-  </si>
-  <si>
-    <t>彼の地に集いし破滅の禍難</t>
-  </si>
-  <si>
-    <t>禁足地</t>
-  </si>
-  <si>
-    <t>3200z</t>
-  </si>
-  <si>
-    <t>31500z</t>
-  </si>
-  <si>
-    <t>その腕前、噂通りかしら…？</t>
-  </si>
-  <si>
-    <t>ディアブロス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>しじまの向こう</t>
-  </si>
-  <si>
-    <t>オオナズチの尻尾切断</t>
-  </si>
-  <si>
-    <t>灼熱と妖艶</t>
-  </si>
-  <si>
-    <t>ディノバルド1頭とタマミツネ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>煌黒龍アルバトリオン</t>
-  </si>
-  <si>
-    <t>溶岩島</t>
-  </si>
-  <si>
-    <t>アルバトリオンの討伐</t>
-  </si>
-  <si>
-    <t>アルバトリオンの角破壊</t>
-  </si>
-  <si>
-    <t>爆鎚竜の顎破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>ウラガンキンの顎破壊</t>
-  </si>
-  <si>
-    <t>金と銀の煌き</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを3回成功</t>
-  </si>
-  <si>
-    <t>31800z</t>
-  </si>
-  <si>
-    <t>まだ見ぬ秘湯をもとめて</t>
-  </si>
-  <si>
-    <t>ジンオウガの頭部と前脚破壊</t>
-  </si>
-  <si>
-    <t>汝ノチカラヲ、見セテミヨ</t>
-  </si>
-  <si>
-    <t>2800z</t>
-  </si>
-  <si>
-    <t>27300z</t>
-  </si>
-  <si>
-    <t>渓流からの救援要請</t>
-  </si>
-  <si>
-    <t>リオレイア希少種の頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>山神と電影</t>
-  </si>
-  <si>
-    <t>ライゼクス1頭とガムート1頭の狩猟</t>
-  </si>
-  <si>
-    <t>空の飛竜と陸の飛竜</t>
   </si>
   <si>
     <t>沼地酔夢譚</t>
@@ -3467,14 +3614,14 @@
   <dimension ref="A1:J340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="F179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G194" sqref="G194"/>
+      <pane ySplit="1" topLeftCell="C248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G264" sqref="G264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -9697,26 +9844,29 @@
       <c r="A195" t="s">
         <v>643</v>
       </c>
+      <c r="B195" t="s">
+        <v>644</v>
+      </c>
       <c r="C195" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D195" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>646</v>
+        <v>287</v>
       </c>
       <c r="G195" t="s">
+        <v>113</v>
+      </c>
+      <c r="H195" t="s">
         <v>647</v>
       </c>
-      <c r="H195" t="s">
+      <c r="I195" t="s">
         <v>648</v>
-      </c>
-      <c r="I195" t="s">
-        <v>649</v>
       </c>
       <c r="J195" t="s">
         <v>80</v>
@@ -9724,28 +9874,31 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
+        <v>649</v>
+      </c>
+      <c r="B196" t="s">
         <v>650</v>
       </c>
       <c r="C196" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D196" t="s">
-        <v>651</v>
+        <v>161</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>652</v>
+        <v>351</v>
       </c>
       <c r="G196" t="s">
-        <v>653</v>
+        <v>430</v>
       </c>
       <c r="H196" t="s">
         <v>323</v>
       </c>
       <c r="I196" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J196" t="s">
         <v>67</v>
@@ -9753,19 +9906,22 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>655</v>
+        <v>652</v>
+      </c>
+      <c r="B197" t="s">
+        <v>653</v>
       </c>
       <c r="C197" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D197" t="s">
-        <v>651</v>
+        <v>161</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G197" t="s">
         <v>24</v>
@@ -9782,28 +9938,31 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
+        <v>655</v>
+      </c>
+      <c r="B198" t="s">
+        <v>656</v>
+      </c>
+      <c r="C198" t="s">
+        <v>645</v>
+      </c>
+      <c r="D198" t="s">
+        <v>157</v>
+      </c>
+      <c r="E198" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" t="s">
         <v>657</v>
       </c>
-      <c r="C198" t="s">
-        <v>644</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="G198" t="s">
         <v>658</v>
-      </c>
-      <c r="E198" t="s">
-        <v>14</v>
-      </c>
-      <c r="F198" t="s">
-        <v>659</v>
-      </c>
-      <c r="G198" t="s">
-        <v>660</v>
       </c>
       <c r="H198" t="s">
         <v>333</v>
       </c>
       <c r="I198" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J198" t="s">
         <v>53</v>
@@ -9811,22 +9970,25 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
+        <v>660</v>
+      </c>
+      <c r="B199" t="s">
+        <v>661</v>
+      </c>
+      <c r="C199" t="s">
+        <v>645</v>
+      </c>
+      <c r="D199" t="s">
+        <v>281</v>
+      </c>
+      <c r="E199" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" t="s">
+        <v>523</v>
+      </c>
+      <c r="G199" t="s">
         <v>662</v>
-      </c>
-      <c r="C199" t="s">
-        <v>644</v>
-      </c>
-      <c r="D199" t="s">
-        <v>663</v>
-      </c>
-      <c r="E199" t="s">
-        <v>14</v>
-      </c>
-      <c r="F199" t="s">
-        <v>664</v>
-      </c>
-      <c r="G199" t="s">
-        <v>665</v>
       </c>
       <c r="H199" t="s">
         <v>39</v>
@@ -9840,22 +10002,25 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>666</v>
+        <v>663</v>
+      </c>
+      <c r="B200" t="s">
+        <v>664</v>
       </c>
       <c r="C200" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D200" t="s">
-        <v>667</v>
+        <v>429</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>668</v>
+        <v>124</v>
       </c>
       <c r="G200" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H200" t="s">
         <v>185</v>
@@ -9869,19 +10034,22 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>670</v>
+        <v>666</v>
+      </c>
+      <c r="B201" t="s">
+        <v>667</v>
       </c>
       <c r="C201" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D201" t="s">
-        <v>667</v>
+        <v>429</v>
       </c>
       <c r="E201" t="s">
         <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>671</v>
+        <v>372</v>
       </c>
       <c r="G201" t="s">
         <v>24</v>
@@ -9890,7 +10058,7 @@
         <v>33</v>
       </c>
       <c r="I201" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="J201" t="s">
         <v>25</v>
@@ -9898,28 +10066,31 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>673</v>
+        <v>669</v>
+      </c>
+      <c r="B202" t="s">
+        <v>670</v>
       </c>
       <c r="C202" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D202" t="s">
-        <v>674</v>
+        <v>13</v>
       </c>
       <c r="E202" t="s">
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>675</v>
+        <v>277</v>
       </c>
       <c r="G202" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H202" t="s">
         <v>33</v>
       </c>
       <c r="I202" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J202" t="s">
         <v>53</v>
@@ -9927,28 +10098,31 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>678</v>
+        <v>673</v>
+      </c>
+      <c r="B203" t="s">
+        <v>674</v>
       </c>
       <c r="C203" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D203" t="s">
-        <v>679</v>
+        <v>416</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G203" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H203" t="s">
         <v>323</v>
       </c>
       <c r="I203" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J203" t="s">
         <v>53</v>
@@ -9956,28 +10130,31 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
+        <v>677</v>
+      </c>
+      <c r="B204" t="s">
+        <v>678</v>
+      </c>
+      <c r="C204" t="s">
+        <v>645</v>
+      </c>
+      <c r="D204" t="s">
+        <v>529</v>
+      </c>
+      <c r="E204" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204" t="s">
+        <v>679</v>
+      </c>
+      <c r="G204" t="s">
+        <v>680</v>
+      </c>
+      <c r="H204" t="s">
+        <v>681</v>
+      </c>
+      <c r="I204" t="s">
         <v>682</v>
-      </c>
-      <c r="C204" t="s">
-        <v>644</v>
-      </c>
-      <c r="D204" t="s">
-        <v>683</v>
-      </c>
-      <c r="E204" t="s">
-        <v>14</v>
-      </c>
-      <c r="F204" t="s">
-        <v>684</v>
-      </c>
-      <c r="G204" t="s">
-        <v>685</v>
-      </c>
-      <c r="H204" t="s">
-        <v>686</v>
-      </c>
-      <c r="I204" t="s">
-        <v>687</v>
       </c>
       <c r="J204" t="s">
         <v>53</v>
@@ -9985,22 +10162,25 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>688</v>
+        <v>683</v>
+      </c>
+      <c r="B205" t="s">
+        <v>684</v>
       </c>
       <c r="C205" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D205" t="s">
-        <v>689</v>
+        <v>29</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G205" t="s">
-        <v>691</v>
+        <v>16</v>
       </c>
       <c r="H205" t="s">
         <v>48</v>
@@ -10014,22 +10194,25 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>692</v>
+        <v>686</v>
+      </c>
+      <c r="B206" t="s">
+        <v>687</v>
       </c>
       <c r="C206" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D206" t="s">
-        <v>683</v>
+        <v>529</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="G206" t="s">
-        <v>653</v>
+        <v>430</v>
       </c>
       <c r="H206" t="s">
         <v>33</v>
@@ -10043,28 +10226,31 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>694</v>
+        <v>689</v>
+      </c>
+      <c r="B207" t="s">
+        <v>690</v>
       </c>
       <c r="C207" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D207" t="s">
-        <v>663</v>
+        <v>281</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>646</v>
+        <v>287</v>
       </c>
       <c r="G207" t="s">
-        <v>647</v>
+        <v>113</v>
       </c>
       <c r="H207" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="I207" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J207" t="s">
         <v>80</v>
@@ -10072,28 +10258,31 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>697</v>
+        <v>693</v>
+      </c>
+      <c r="B208" t="s">
+        <v>694</v>
       </c>
       <c r="C208" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D208" t="s">
-        <v>667</v>
+        <v>429</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>698</v>
+        <v>327</v>
       </c>
       <c r="G208" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H208" t="s">
         <v>323</v>
       </c>
       <c r="I208" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J208" t="s">
         <v>53</v>
@@ -10101,22 +10290,25 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>700</v>
+        <v>696</v>
+      </c>
+      <c r="B209" t="s">
+        <v>697</v>
       </c>
       <c r="C209" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D209" t="s">
-        <v>651</v>
+        <v>161</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>701</v>
+        <v>94</v>
       </c>
       <c r="G209" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H209" t="s">
         <v>232</v>
@@ -10130,22 +10322,25 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>703</v>
+        <v>699</v>
+      </c>
+      <c r="B210" t="s">
+        <v>700</v>
       </c>
       <c r="C210" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D210" t="s">
-        <v>704</v>
+        <v>509</v>
       </c>
       <c r="E210" t="s">
         <v>14</v>
       </c>
       <c r="F210" t="s">
-        <v>705</v>
+        <v>569</v>
       </c>
       <c r="G210" t="s">
-        <v>706</v>
+        <v>510</v>
       </c>
       <c r="H210" t="s">
         <v>39</v>
@@ -10159,28 +10354,31 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>707</v>
+        <v>701</v>
+      </c>
+      <c r="B211" t="s">
+        <v>702</v>
       </c>
       <c r="C211" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D211" t="s">
-        <v>667</v>
+        <v>429</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>708</v>
+        <v>395</v>
       </c>
       <c r="G211" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="H211" t="s">
         <v>333</v>
       </c>
       <c r="I211" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J211" t="s">
         <v>53</v>
@@ -10188,28 +10386,31 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>710</v>
+        <v>704</v>
+      </c>
+      <c r="B212" t="s">
+        <v>705</v>
       </c>
       <c r="C212" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D212" t="s">
-        <v>679</v>
+        <v>416</v>
       </c>
       <c r="E212" t="s">
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>671</v>
+        <v>372</v>
       </c>
       <c r="G212" t="s">
-        <v>691</v>
+        <v>16</v>
       </c>
       <c r="H212" t="s">
         <v>33</v>
       </c>
       <c r="I212" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="J212" t="s">
         <v>53</v>
@@ -10217,22 +10418,25 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>711</v>
+        <v>706</v>
+      </c>
+      <c r="B213" t="s">
+        <v>707</v>
       </c>
       <c r="C213" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D213" t="s">
-        <v>651</v>
+        <v>161</v>
       </c>
       <c r="E213" t="s">
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>712</v>
+        <v>141</v>
       </c>
       <c r="G213" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H213" t="s">
         <v>232</v>
@@ -10246,22 +10450,25 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>714</v>
+        <v>709</v>
+      </c>
+      <c r="B214" t="s">
+        <v>710</v>
       </c>
       <c r="C214" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D214" t="s">
-        <v>663</v>
+        <v>281</v>
       </c>
       <c r="E214" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F214" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G214" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="H214" t="s">
         <v>79</v>
@@ -10275,22 +10482,25 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>718</v>
+        <v>714</v>
+      </c>
+      <c r="B215" t="s">
+        <v>715</v>
       </c>
       <c r="C215" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D215" t="s">
-        <v>658</v>
+        <v>157</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>719</v>
+        <v>189</v>
       </c>
       <c r="G215" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H215" t="s">
         <v>273</v>
@@ -10306,20 +10516,23 @@
       <c r="A216" t="s">
         <v>361</v>
       </c>
+      <c r="B216" t="s">
+        <v>362</v>
+      </c>
       <c r="C216" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D216" t="s">
-        <v>704</v>
+        <v>509</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>721</v>
+        <v>363</v>
       </c>
       <c r="G216" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="H216" t="s">
         <v>33</v>
@@ -10333,28 +10546,31 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>723</v>
+        <v>718</v>
+      </c>
+      <c r="B217" t="s">
+        <v>719</v>
       </c>
       <c r="C217" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D217" t="s">
-        <v>667</v>
+        <v>429</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>675</v>
+        <v>277</v>
       </c>
       <c r="G217" t="s">
-        <v>653</v>
+        <v>430</v>
       </c>
       <c r="H217" t="s">
         <v>33</v>
       </c>
       <c r="I217" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J217" t="s">
         <v>67</v>
@@ -10362,22 +10578,25 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>724</v>
+        <v>720</v>
+      </c>
+      <c r="B218" t="s">
+        <v>721</v>
       </c>
       <c r="C218" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D218" t="s">
-        <v>683</v>
+        <v>529</v>
       </c>
       <c r="E218" t="s">
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G218" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H218" t="s">
         <v>33</v>
@@ -10391,28 +10610,31 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>727</v>
+        <v>724</v>
+      </c>
+      <c r="B219" t="s">
+        <v>725</v>
       </c>
       <c r="C219" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D219" t="s">
-        <v>663</v>
+        <v>281</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
       </c>
       <c r="F219" t="s">
-        <v>728</v>
+        <v>282</v>
       </c>
       <c r="G219" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H219" t="s">
         <v>33</v>
       </c>
       <c r="I219" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="J219" t="s">
         <v>91</v>
@@ -10420,28 +10642,31 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>730</v>
+        <v>727</v>
+      </c>
+      <c r="B220" t="s">
+        <v>728</v>
       </c>
       <c r="C220" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D220" t="s">
-        <v>683</v>
+        <v>529</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>646</v>
+        <v>287</v>
       </c>
       <c r="G220" t="s">
-        <v>647</v>
+        <v>113</v>
       </c>
       <c r="H220" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="I220" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J220" t="s">
         <v>80</v>
@@ -10449,22 +10674,25 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
+        <v>730</v>
+      </c>
+      <c r="B221" t="s">
+        <v>731</v>
+      </c>
+      <c r="C221" t="s">
+        <v>645</v>
+      </c>
+      <c r="D221" t="s">
+        <v>157</v>
+      </c>
+      <c r="E221" t="s">
+        <v>14</v>
+      </c>
+      <c r="F221" t="s">
         <v>732</v>
       </c>
-      <c r="C221" t="s">
-        <v>644</v>
-      </c>
-      <c r="D221" t="s">
-        <v>658</v>
-      </c>
-      <c r="E221" t="s">
-        <v>14</v>
-      </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>733</v>
-      </c>
-      <c r="G221" t="s">
-        <v>734</v>
       </c>
       <c r="H221" t="s">
         <v>19</v>
@@ -10473,30 +10701,33 @@
         <v>154</v>
       </c>
       <c r="J221" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
+        <v>735</v>
+      </c>
+      <c r="B222" t="s">
         <v>736</v>
       </c>
       <c r="C222" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D222" t="s">
-        <v>651</v>
+        <v>161</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
       </c>
       <c r="F222" t="s">
-        <v>646</v>
+        <v>287</v>
       </c>
       <c r="G222" t="s">
-        <v>647</v>
+        <v>113</v>
       </c>
       <c r="H222" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="I222" t="s">
         <v>737</v>
@@ -10509,17 +10740,20 @@
       <c r="A223" t="s">
         <v>396</v>
       </c>
+      <c r="B223" t="s">
+        <v>738</v>
+      </c>
       <c r="C223" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D223" t="s">
-        <v>689</v>
+        <v>29</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
       </c>
       <c r="F223" t="s">
-        <v>738</v>
+        <v>398</v>
       </c>
       <c r="G223" t="s">
         <v>739</v>
@@ -10528,7 +10762,7 @@
         <v>33</v>
       </c>
       <c r="I223" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J223" t="s">
         <v>53</v>
@@ -10538,26 +10772,29 @@
       <c r="A224" t="s">
         <v>740</v>
       </c>
+      <c r="B224" t="s">
+        <v>741</v>
+      </c>
       <c r="C224" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D224" t="s">
-        <v>658</v>
+        <v>157</v>
       </c>
       <c r="E224" t="s">
         <v>14</v>
       </c>
       <c r="F224" t="s">
-        <v>646</v>
+        <v>287</v>
       </c>
       <c r="G224" t="s">
-        <v>647</v>
+        <v>113</v>
       </c>
       <c r="H224" t="s">
         <v>548</v>
       </c>
       <c r="I224" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J224" t="s">
         <v>80</v>
@@ -10565,22 +10802,25 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>742</v>
+        <v>743</v>
+      </c>
+      <c r="B225" t="s">
+        <v>744</v>
       </c>
       <c r="C225" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D225" t="s">
-        <v>663</v>
+        <v>281</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G225" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H225" t="s">
         <v>48</v>
@@ -10596,20 +10836,23 @@
       <c r="A226" t="s">
         <v>356</v>
       </c>
+      <c r="B226" t="s">
+        <v>357</v>
+      </c>
       <c r="C226" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D226" t="s">
-        <v>689</v>
+        <v>29</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
       </c>
       <c r="F226" t="s">
-        <v>745</v>
+        <v>358</v>
       </c>
       <c r="G226" t="s">
-        <v>746</v>
+        <v>359</v>
       </c>
       <c r="H226" t="s">
         <v>48</v>
@@ -10625,17 +10868,20 @@
       <c r="A227" t="s">
         <v>747</v>
       </c>
+      <c r="B227" t="s">
+        <v>748</v>
+      </c>
       <c r="C227" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D227" t="s">
-        <v>704</v>
+        <v>509</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
       </c>
       <c r="F227" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G227" t="s">
         <v>24</v>
@@ -10652,19 +10898,22 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>749</v>
+        <v>750</v>
+      </c>
+      <c r="B228" t="s">
+        <v>751</v>
       </c>
       <c r="C228" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D228" t="s">
-        <v>750</v>
+        <v>46</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
       </c>
       <c r="F228" t="s">
-        <v>751</v>
+        <v>538</v>
       </c>
       <c r="G228" t="s">
         <v>752</v>
@@ -10683,26 +10932,29 @@
       <c r="A229" t="s">
         <v>753</v>
       </c>
+      <c r="B229" t="s">
+        <v>754</v>
+      </c>
       <c r="C229" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D229" t="s">
-        <v>704</v>
+        <v>509</v>
       </c>
       <c r="E229" t="s">
         <v>14</v>
       </c>
       <c r="F229" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G229" t="s">
-        <v>653</v>
+        <v>430</v>
       </c>
       <c r="H229" t="s">
         <v>323</v>
       </c>
       <c r="I229" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J229" t="s">
         <v>67</v>
@@ -10712,17 +10964,20 @@
       <c r="A230" t="s">
         <v>383</v>
       </c>
+      <c r="B230" t="s">
+        <v>384</v>
+      </c>
       <c r="C230" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D230" t="s">
-        <v>755</v>
+        <v>36</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
       </c>
       <c r="F230" t="s">
-        <v>745</v>
+        <v>358</v>
       </c>
       <c r="G230" t="s">
         <v>24</v>
@@ -10741,11 +10996,14 @@
       <c r="A231" t="s">
         <v>756</v>
       </c>
+      <c r="B231" t="s">
+        <v>757</v>
+      </c>
       <c r="C231" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D231" t="s">
-        <v>757</v>
+        <v>64</v>
       </c>
       <c r="E231" t="s">
         <v>14</v>
@@ -10770,26 +11028,29 @@
       <c r="A232" t="s">
         <v>759</v>
       </c>
+      <c r="B232" t="s">
+        <v>760</v>
+      </c>
       <c r="C232" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D232" t="s">
-        <v>679</v>
+        <v>416</v>
       </c>
       <c r="E232" t="s">
         <v>14</v>
       </c>
       <c r="F232" t="s">
-        <v>760</v>
+        <v>337</v>
       </c>
       <c r="G232" t="s">
-        <v>653</v>
+        <v>430</v>
       </c>
       <c r="H232" t="s">
         <v>33</v>
       </c>
       <c r="I232" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J232" t="s">
         <v>67</v>
@@ -10799,20 +11060,23 @@
       <c r="A233" t="s">
         <v>761</v>
       </c>
+      <c r="B233" t="s">
+        <v>762</v>
+      </c>
       <c r="C233" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D233" t="s">
-        <v>651</v>
+        <v>161</v>
       </c>
       <c r="E233" t="s">
         <v>14</v>
       </c>
       <c r="F233" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G233" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H233" t="s">
         <v>79</v>
@@ -10826,22 +11090,25 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>764</v>
+        <v>765</v>
+      </c>
+      <c r="B234" t="s">
+        <v>766</v>
       </c>
       <c r="C234" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D234" t="s">
-        <v>750</v>
+        <v>46</v>
       </c>
       <c r="E234" t="s">
         <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G234" t="s">
-        <v>653</v>
+        <v>430</v>
       </c>
       <c r="H234" t="s">
         <v>548</v>
@@ -10857,17 +11124,20 @@
       <c r="A235" t="s">
         <v>269</v>
       </c>
+      <c r="B235" t="s">
+        <v>270</v>
+      </c>
       <c r="C235" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D235" t="s">
-        <v>755</v>
+        <v>36</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
       </c>
       <c r="F235" t="s">
-        <v>766</v>
+        <v>272</v>
       </c>
       <c r="G235" t="s">
         <v>24</v>
@@ -10876,7 +11146,7 @@
         <v>333</v>
       </c>
       <c r="I235" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J235" t="s">
         <v>25</v>
@@ -10884,28 +11154,31 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="B236" t="s">
+        <v>769</v>
       </c>
       <c r="C236" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D236" t="s">
-        <v>689</v>
+        <v>29</v>
       </c>
       <c r="E236" t="s">
         <v>14</v>
       </c>
       <c r="F236" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G236" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H236" t="s">
         <v>548</v>
       </c>
       <c r="I236" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="J236" t="s">
         <v>67</v>
@@ -10913,28 +11186,31 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>771</v>
+        <v>773</v>
+      </c>
+      <c r="B237" t="s">
+        <v>774</v>
       </c>
       <c r="C237" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D237" t="s">
-        <v>704</v>
+        <v>509</v>
       </c>
       <c r="E237" t="s">
         <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>646</v>
+        <v>287</v>
       </c>
       <c r="G237" t="s">
-        <v>647</v>
+        <v>113</v>
       </c>
       <c r="H237" t="s">
         <v>53</v>
       </c>
       <c r="I237" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="J237" t="s">
         <v>80</v>
@@ -10942,22 +11218,25 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>773</v>
+        <v>776</v>
+      </c>
+      <c r="B238" t="s">
+        <v>777</v>
       </c>
       <c r="C238" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D238" t="s">
-        <v>704</v>
+        <v>509</v>
       </c>
       <c r="E238" t="s">
         <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>774</v>
+        <v>555</v>
       </c>
       <c r="G238" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="H238" t="s">
         <v>39</v>
@@ -10971,22 +11250,25 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>776</v>
+        <v>779</v>
+      </c>
+      <c r="B239" t="s">
+        <v>780</v>
       </c>
       <c r="C239" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D239" t="s">
-        <v>704</v>
+        <v>509</v>
       </c>
       <c r="E239" t="s">
         <v>14</v>
       </c>
       <c r="F239" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G239" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="H239" t="s">
         <v>48</v>
@@ -11000,28 +11282,31 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>778</v>
+        <v>782</v>
+      </c>
+      <c r="B240" t="s">
+        <v>783</v>
       </c>
       <c r="C240" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D240" t="s">
-        <v>667</v>
+        <v>429</v>
       </c>
       <c r="E240" t="s">
         <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>646</v>
+        <v>287</v>
       </c>
       <c r="G240" t="s">
-        <v>647</v>
+        <v>113</v>
       </c>
       <c r="H240" t="s">
         <v>548</v>
       </c>
       <c r="I240" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J240" t="s">
         <v>80</v>
@@ -11029,22 +11314,25 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>779</v>
+        <v>784</v>
+      </c>
+      <c r="B241" t="s">
+        <v>785</v>
       </c>
       <c r="C241" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D241" t="s">
-        <v>757</v>
+        <v>64</v>
       </c>
       <c r="E241" t="s">
         <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>780</v>
+        <v>204</v>
       </c>
       <c r="G241" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="H241" t="s">
         <v>232</v>
@@ -11058,22 +11346,25 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>782</v>
+        <v>787</v>
+      </c>
+      <c r="B242" t="s">
+        <v>788</v>
       </c>
       <c r="C242" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D242" t="s">
-        <v>658</v>
+        <v>157</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>783</v>
+        <v>267</v>
       </c>
       <c r="G242" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="H242" t="s">
         <v>232</v>
@@ -11087,22 +11378,25 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>785</v>
+        <v>790</v>
+      </c>
+      <c r="B243" t="s">
+        <v>791</v>
       </c>
       <c r="C243" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D243" t="s">
-        <v>658</v>
+        <v>157</v>
       </c>
       <c r="E243" t="s">
         <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>786</v>
+        <v>262</v>
       </c>
       <c r="G243" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="H243" t="s">
         <v>39</v>
@@ -11116,22 +11410,25 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>788</v>
+        <v>793</v>
+      </c>
+      <c r="B244" t="s">
+        <v>794</v>
       </c>
       <c r="C244" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D244" t="s">
-        <v>757</v>
+        <v>64</v>
       </c>
       <c r="E244" t="s">
         <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G244" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="H244" t="s">
         <v>48</v>
@@ -11145,22 +11442,25 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>790</v>
+        <v>796</v>
+      </c>
+      <c r="B245" t="s">
+        <v>797</v>
       </c>
       <c r="C245" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D245" t="s">
-        <v>755</v>
+        <v>36</v>
       </c>
       <c r="E245" t="s">
         <v>14</v>
       </c>
       <c r="F245" t="s">
-        <v>791</v>
+        <v>222</v>
       </c>
       <c r="G245" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="H245" t="s">
         <v>273</v>
@@ -11174,28 +11474,31 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>793</v>
+        <v>799</v>
+      </c>
+      <c r="B246" t="s">
+        <v>800</v>
       </c>
       <c r="C246" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D246" t="s">
-        <v>663</v>
+        <v>281</v>
       </c>
       <c r="E246" t="s">
         <v>14</v>
       </c>
       <c r="F246" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="G246" t="s">
-        <v>653</v>
+        <v>430</v>
       </c>
       <c r="H246" t="s">
         <v>323</v>
       </c>
       <c r="I246" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J246" t="s">
         <v>67</v>
@@ -11203,22 +11506,25 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>795</v>
+        <v>802</v>
+      </c>
+      <c r="B247" t="s">
+        <v>803</v>
       </c>
       <c r="C247" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D247" t="s">
-        <v>683</v>
+        <v>529</v>
       </c>
       <c r="E247" t="s">
         <v>14</v>
       </c>
       <c r="F247" t="s">
-        <v>796</v>
+        <v>78</v>
       </c>
       <c r="G247" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="H247" t="s">
         <v>232</v>
@@ -11232,22 +11538,25 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>798</v>
+        <v>805</v>
+      </c>
+      <c r="B248" t="s">
+        <v>806</v>
       </c>
       <c r="C248" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D248" t="s">
-        <v>679</v>
+        <v>416</v>
       </c>
       <c r="E248" t="s">
         <v>14</v>
       </c>
       <c r="F248" t="s">
-        <v>799</v>
+        <v>244</v>
       </c>
       <c r="G248" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="H248" t="s">
         <v>39</v>
@@ -11261,28 +11570,31 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>801</v>
+        <v>808</v>
+      </c>
+      <c r="B249" t="s">
+        <v>809</v>
       </c>
       <c r="C249" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D249" t="s">
-        <v>658</v>
+        <v>157</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
       </c>
       <c r="F249" t="s">
-        <v>646</v>
+        <v>287</v>
       </c>
       <c r="G249" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="H249" t="s">
         <v>33</v>
       </c>
       <c r="I249" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J249" t="s">
         <v>91</v>
@@ -11290,28 +11602,31 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>803</v>
+        <v>811</v>
+      </c>
+      <c r="B250" t="s">
+        <v>812</v>
       </c>
       <c r="C250" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D250" t="s">
-        <v>757</v>
+        <v>64</v>
       </c>
       <c r="E250" t="s">
         <v>14</v>
       </c>
       <c r="F250" t="s">
-        <v>804</v>
+        <v>381</v>
       </c>
       <c r="G250" t="s">
-        <v>653</v>
+        <v>430</v>
       </c>
       <c r="H250" t="s">
         <v>33</v>
       </c>
       <c r="I250" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J250" t="s">
         <v>67</v>
@@ -11319,19 +11634,22 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>805</v>
+        <v>813</v>
+      </c>
+      <c r="B251" t="s">
+        <v>814</v>
       </c>
       <c r="C251" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D251" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="E251" t="s">
         <v>14</v>
       </c>
       <c r="F251" t="s">
-        <v>745</v>
+        <v>358</v>
       </c>
       <c r="G251" t="s">
         <v>24</v>
@@ -11348,22 +11666,25 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>807</v>
+        <v>816</v>
+      </c>
+      <c r="B252" t="s">
+        <v>817</v>
       </c>
       <c r="C252" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D252" t="s">
-        <v>683</v>
+        <v>529</v>
       </c>
       <c r="E252" t="s">
         <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="G252" t="s">
-        <v>728</v>
+        <v>282</v>
       </c>
       <c r="H252" t="s">
         <v>19</v>
@@ -11372,27 +11693,30 @@
         <v>154</v>
       </c>
       <c r="J252" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>809</v>
+        <v>819</v>
+      </c>
+      <c r="B253" t="s">
+        <v>820</v>
       </c>
       <c r="C253" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D253" t="s">
-        <v>689</v>
+        <v>29</v>
       </c>
       <c r="E253" t="s">
         <v>14</v>
       </c>
       <c r="F253" t="s">
-        <v>810</v>
+        <v>148</v>
       </c>
       <c r="G253" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="H253" t="s">
         <v>39</v>
@@ -11406,19 +11730,22 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
-        <v>812</v>
+        <v>822</v>
+      </c>
+      <c r="B254" t="s">
+        <v>823</v>
       </c>
       <c r="C254" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D254" t="s">
-        <v>679</v>
+        <v>416</v>
       </c>
       <c r="E254" t="s">
         <v>14</v>
       </c>
       <c r="F254" t="s">
-        <v>813</v>
+        <v>581</v>
       </c>
       <c r="G254" t="s">
         <v>24</v>
@@ -11435,22 +11762,25 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" t="s">
-        <v>814</v>
+        <v>824</v>
+      </c>
+      <c r="B255" t="s">
+        <v>825</v>
       </c>
       <c r="C255" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D255" t="s">
-        <v>658</v>
+        <v>157</v>
       </c>
       <c r="E255" t="s">
         <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>815</v>
+        <v>15</v>
       </c>
       <c r="G255" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="H255" t="s">
         <v>19</v>
@@ -11464,28 +11794,31 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>817</v>
+        <v>827</v>
+      </c>
+      <c r="B256" t="s">
+        <v>828</v>
       </c>
       <c r="C256" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D256" t="s">
-        <v>704</v>
+        <v>509</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
       </c>
       <c r="F256" t="s">
-        <v>738</v>
+        <v>398</v>
       </c>
       <c r="G256" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="H256" t="s">
         <v>33</v>
       </c>
       <c r="I256" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J256" t="s">
         <v>17</v>
@@ -11493,22 +11826,25 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>819</v>
+        <v>830</v>
+      </c>
+      <c r="B257" t="s">
+        <v>831</v>
       </c>
       <c r="C257" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D257" t="s">
-        <v>683</v>
+        <v>529</v>
       </c>
       <c r="E257" t="s">
         <v>14</v>
       </c>
       <c r="F257" t="s">
-        <v>705</v>
+        <v>832</v>
       </c>
       <c r="G257" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="H257" t="s">
         <v>39</v>
@@ -11522,22 +11858,25 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
-        <v>821</v>
+        <v>834</v>
+      </c>
+      <c r="B258" t="s">
+        <v>835</v>
       </c>
       <c r="C258" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D258" t="s">
-        <v>755</v>
+        <v>36</v>
       </c>
       <c r="E258" t="s">
         <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
       <c r="G258" t="s">
-        <v>823</v>
+        <v>421</v>
       </c>
       <c r="H258" t="s">
         <v>618</v>
@@ -11551,22 +11890,25 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s">
-        <v>824</v>
+        <v>837</v>
+      </c>
+      <c r="B259" t="s">
+        <v>838</v>
       </c>
       <c r="C259" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D259" t="s">
-        <v>755</v>
+        <v>36</v>
       </c>
       <c r="E259" t="s">
         <v>14</v>
       </c>
       <c r="F259" t="s">
-        <v>825</v>
+        <v>248</v>
       </c>
       <c r="G259" t="s">
-        <v>826</v>
+        <v>612</v>
       </c>
       <c r="H259" t="s">
         <v>39</v>
@@ -11580,28 +11922,31 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>827</v>
+        <v>839</v>
+      </c>
+      <c r="B260" t="s">
+        <v>840</v>
       </c>
       <c r="C260" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D260" t="s">
-        <v>683</v>
+        <v>529</v>
       </c>
       <c r="E260" t="s">
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>804</v>
+        <v>381</v>
       </c>
       <c r="G260" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="H260" t="s">
         <v>33</v>
       </c>
       <c r="I260" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J260" t="s">
         <v>53</v>
@@ -11609,28 +11954,31 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>829</v>
+        <v>842</v>
+      </c>
+      <c r="B261" t="s">
+        <v>843</v>
       </c>
       <c r="C261" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D261" t="s">
-        <v>674</v>
+        <v>13</v>
       </c>
       <c r="E261" t="s">
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>698</v>
+        <v>327</v>
       </c>
       <c r="G261" t="s">
-        <v>830</v>
+        <v>51</v>
       </c>
       <c r="H261" t="s">
         <v>323</v>
       </c>
       <c r="I261" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J261" t="s">
         <v>67</v>
@@ -11638,22 +11986,25 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" t="s">
-        <v>831</v>
+        <v>844</v>
+      </c>
+      <c r="B262" t="s">
+        <v>845</v>
       </c>
       <c r="C262" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D262" t="s">
-        <v>674</v>
+        <v>13</v>
       </c>
       <c r="E262" t="s">
         <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>832</v>
+        <v>183</v>
       </c>
       <c r="G262" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="H262" t="s">
         <v>323</v>
@@ -11667,28 +12018,31 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" t="s">
-        <v>834</v>
+        <v>847</v>
+      </c>
+      <c r="B263" t="s">
+        <v>848</v>
       </c>
       <c r="C263" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D263" t="s">
-        <v>750</v>
+        <v>46</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
       </c>
       <c r="F263" t="s">
-        <v>760</v>
+        <v>337</v>
       </c>
       <c r="G263" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="H263" t="s">
         <v>33</v>
       </c>
       <c r="I263" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="J263" t="s">
         <v>53</v>
@@ -11696,28 +12050,31 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
-        <v>836</v>
+        <v>850</v>
+      </c>
+      <c r="B264" t="s">
+        <v>851</v>
       </c>
       <c r="C264" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D264" t="s">
-        <v>679</v>
+        <v>416</v>
       </c>
       <c r="E264" t="s">
         <v>14</v>
       </c>
       <c r="F264" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="G264" t="s">
-        <v>647</v>
+        <v>113</v>
       </c>
       <c r="H264" t="s">
         <v>91</v>
       </c>
       <c r="I264" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="J264" t="s">
         <v>80</v>
@@ -11725,22 +12082,25 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>839</v>
+        <v>854</v>
+      </c>
+      <c r="B265" t="s">
+        <v>855</v>
       </c>
       <c r="C265" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D265" t="s">
-        <v>667</v>
+        <v>429</v>
       </c>
       <c r="E265" t="s">
         <v>14</v>
       </c>
       <c r="F265" t="s">
-        <v>840</v>
+        <v>475</v>
       </c>
       <c r="G265" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="H265" t="s">
         <v>185</v>
@@ -11754,28 +12114,28 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="C266" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D266" t="s">
-        <v>683</v>
+        <v>859</v>
       </c>
       <c r="E266" t="s">
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="G266" t="s">
-        <v>653</v>
+        <v>861</v>
       </c>
       <c r="H266" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I266" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="J266" t="s">
         <v>67</v>
@@ -11783,28 +12143,28 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="C267" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D267" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E267" t="s">
         <v>14</v>
       </c>
       <c r="F267" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G267" t="s">
         <v>24</v>
       </c>
       <c r="H267" t="s">
+        <v>647</v>
+      </c>
+      <c r="I267" t="s">
         <v>648</v>
-      </c>
-      <c r="I267" t="s">
-        <v>649</v>
       </c>
       <c r="J267" t="s">
         <v>25</v>
@@ -11812,28 +12172,28 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="C268" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D268" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E268" t="s">
         <v>14</v>
       </c>
       <c r="F268" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G268" t="s">
         <v>24</v>
       </c>
       <c r="H268" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="I268" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="J268" t="s">
         <v>25</v>
@@ -11841,28 +12201,28 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="C269" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D269" t="s">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="E269" t="s">
         <v>14</v>
       </c>
       <c r="F269" t="s">
-        <v>652</v>
+        <v>871</v>
       </c>
       <c r="G269" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
       <c r="H269" t="s">
         <v>333</v>
       </c>
       <c r="I269" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J269" t="s">
         <v>75</v>
@@ -11870,22 +12230,22 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="C270" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D270" t="s">
-        <v>757</v>
+        <v>874</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
       </c>
       <c r="F270" t="s">
-        <v>804</v>
+        <v>875</v>
       </c>
       <c r="G270" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
       <c r="H270" t="s">
         <v>48</v>
@@ -11899,28 +12259,28 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
       <c r="C271" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D271" t="s">
-        <v>755</v>
+        <v>878</v>
       </c>
       <c r="E271" t="s">
         <v>14</v>
       </c>
       <c r="F271" t="s">
-        <v>856</v>
+        <v>879</v>
       </c>
       <c r="G271" t="s">
         <v>24</v>
       </c>
       <c r="H271" t="s">
-        <v>857</v>
+        <v>880</v>
       </c>
       <c r="I271" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
       <c r="J271" t="s">
         <v>25</v>
@@ -11928,19 +12288,19 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>859</v>
+        <v>882</v>
       </c>
       <c r="C272" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D272" t="s">
-        <v>757</v>
+        <v>874</v>
       </c>
       <c r="E272" t="s">
         <v>14</v>
       </c>
       <c r="F272" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
       <c r="G272" t="s">
         <v>24</v>
@@ -11949,7 +12309,7 @@
         <v>53</v>
       </c>
       <c r="I272" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="J272" t="s">
         <v>25</v>
@@ -11957,28 +12317,28 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="C273" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D273" t="s">
-        <v>755</v>
+        <v>878</v>
       </c>
       <c r="E273" t="s">
         <v>14</v>
       </c>
       <c r="F273" t="s">
-        <v>690</v>
+        <v>886</v>
       </c>
       <c r="G273" t="s">
-        <v>717</v>
+        <v>887</v>
       </c>
       <c r="H273" t="s">
         <v>53</v>
       </c>
       <c r="I273" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="J273" t="s">
         <v>75</v>
@@ -11986,22 +12346,22 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>863</v>
+        <v>888</v>
       </c>
       <c r="C274" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D274" t="s">
-        <v>689</v>
+        <v>889</v>
       </c>
       <c r="E274" t="s">
         <v>14</v>
       </c>
       <c r="F274" t="s">
-        <v>864</v>
+        <v>890</v>
       </c>
       <c r="G274" t="s">
-        <v>865</v>
+        <v>891</v>
       </c>
       <c r="H274" t="s">
         <v>48</v>
@@ -12015,28 +12375,28 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>866</v>
+        <v>892</v>
       </c>
       <c r="C275" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D275" t="s">
-        <v>645</v>
+        <v>893</v>
       </c>
       <c r="E275" t="s">
         <v>14</v>
       </c>
       <c r="F275" t="s">
-        <v>867</v>
+        <v>894</v>
       </c>
       <c r="G275" t="s">
         <v>24</v>
       </c>
       <c r="H275" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I275" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="J275" t="s">
         <v>25</v>
@@ -12044,28 +12404,28 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>868</v>
+        <v>895</v>
       </c>
       <c r="C276" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D276" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E276" t="s">
         <v>14</v>
       </c>
       <c r="F276" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G276" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="H276" t="s">
         <v>18</v>
       </c>
       <c r="I276" t="s">
-        <v>870</v>
+        <v>897</v>
       </c>
       <c r="J276" t="s">
         <v>75</v>
@@ -12076,25 +12436,25 @@
         <v>328</v>
       </c>
       <c r="C277" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D277" t="s">
-        <v>689</v>
+        <v>889</v>
       </c>
       <c r="E277" t="s">
         <v>330</v>
       </c>
       <c r="F277" t="s">
-        <v>871</v>
+        <v>898</v>
       </c>
       <c r="G277" t="s">
-        <v>872</v>
+        <v>899</v>
       </c>
       <c r="H277" t="s">
         <v>53</v>
       </c>
       <c r="I277" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="J277" t="s">
         <v>91</v>
@@ -12105,25 +12465,25 @@
         <v>352</v>
       </c>
       <c r="C278" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D278" t="s">
-        <v>674</v>
+        <v>900</v>
       </c>
       <c r="E278" t="s">
         <v>330</v>
       </c>
       <c r="F278" t="s">
-        <v>873</v>
+        <v>901</v>
       </c>
       <c r="G278" t="s">
-        <v>874</v>
+        <v>902</v>
       </c>
       <c r="H278" t="s">
         <v>53</v>
       </c>
       <c r="I278" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="J278" t="s">
         <v>91</v>
@@ -12131,28 +12491,28 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>875</v>
+        <v>903</v>
       </c>
       <c r="C279" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D279" t="s">
-        <v>755</v>
+        <v>878</v>
       </c>
       <c r="E279" t="s">
         <v>14</v>
       </c>
       <c r="F279" t="s">
-        <v>876</v>
+        <v>904</v>
       </c>
       <c r="G279" t="s">
-        <v>653</v>
+        <v>861</v>
       </c>
       <c r="H279" t="s">
         <v>67</v>
       </c>
       <c r="I279" t="s">
-        <v>877</v>
+        <v>905</v>
       </c>
       <c r="J279" t="s">
         <v>67</v>
@@ -12160,19 +12520,19 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>878</v>
+        <v>906</v>
       </c>
       <c r="C280" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D280" t="s">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="E280" t="s">
         <v>14</v>
       </c>
       <c r="F280" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="G280" t="s">
         <v>24</v>
@@ -12181,7 +12541,7 @@
         <v>548</v>
       </c>
       <c r="I280" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="J280" t="s">
         <v>25</v>
@@ -12189,22 +12549,22 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
       <c r="C281" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D281" t="s">
-        <v>683</v>
+        <v>859</v>
       </c>
       <c r="E281" t="s">
         <v>14</v>
       </c>
       <c r="F281" t="s">
-        <v>881</v>
+        <v>909</v>
       </c>
       <c r="G281" t="s">
-        <v>882</v>
+        <v>910</v>
       </c>
       <c r="H281" t="s">
         <v>548</v>
@@ -12218,22 +12578,22 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="C282" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D282" t="s">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="E282" t="s">
         <v>14</v>
       </c>
       <c r="F282" t="s">
-        <v>760</v>
+        <v>912</v>
       </c>
       <c r="G282" t="s">
-        <v>884</v>
+        <v>913</v>
       </c>
       <c r="H282" t="s">
         <v>48</v>
@@ -12247,28 +12607,28 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" t="s">
-        <v>885</v>
+        <v>914</v>
       </c>
       <c r="C283" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D283" t="s">
-        <v>663</v>
+        <v>915</v>
       </c>
       <c r="E283" t="s">
         <v>14</v>
       </c>
       <c r="F283" t="s">
-        <v>886</v>
+        <v>916</v>
       </c>
       <c r="G283" t="s">
-        <v>887</v>
+        <v>917</v>
       </c>
       <c r="H283" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I283" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="J283" t="s">
         <v>75</v>
@@ -12276,28 +12636,28 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>888</v>
+        <v>918</v>
       </c>
       <c r="C284" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D284" t="s">
-        <v>889</v>
+        <v>919</v>
       </c>
       <c r="E284" t="s">
         <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="G284" t="s">
-        <v>891</v>
+        <v>921</v>
       </c>
       <c r="H284" t="s">
-        <v>892</v>
+        <v>922</v>
       </c>
       <c r="I284" t="s">
-        <v>893</v>
+        <v>923</v>
       </c>
       <c r="J284" t="s">
         <v>91</v>
@@ -12305,22 +12665,22 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>894</v>
+        <v>924</v>
       </c>
       <c r="C285" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D285" t="s">
-        <v>667</v>
+        <v>925</v>
       </c>
       <c r="E285" t="s">
         <v>14</v>
       </c>
       <c r="F285" t="s">
-        <v>895</v>
+        <v>926</v>
       </c>
       <c r="G285" t="s">
-        <v>653</v>
+        <v>861</v>
       </c>
       <c r="H285" t="s">
         <v>618</v>
@@ -12334,28 +12694,28 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>896</v>
+        <v>927</v>
       </c>
       <c r="C286" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D286" t="s">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="E286" t="s">
         <v>14</v>
       </c>
       <c r="F286" t="s">
-        <v>897</v>
+        <v>928</v>
       </c>
       <c r="G286" t="s">
-        <v>898</v>
+        <v>929</v>
       </c>
       <c r="H286" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="I286" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J286" t="s">
         <v>91</v>
@@ -12363,28 +12723,28 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>899</v>
+        <v>930</v>
       </c>
       <c r="C287" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D287" t="s">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="E287" t="s">
         <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>659</v>
+        <v>931</v>
       </c>
       <c r="G287" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="H287" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I287" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="J287" t="s">
         <v>75</v>
@@ -12392,22 +12752,22 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>901</v>
+        <v>933</v>
       </c>
       <c r="C288" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D288" t="s">
-        <v>674</v>
+        <v>900</v>
       </c>
       <c r="E288" t="s">
         <v>14</v>
       </c>
       <c r="F288" t="s">
-        <v>675</v>
+        <v>934</v>
       </c>
       <c r="G288" t="s">
-        <v>902</v>
+        <v>935</v>
       </c>
       <c r="H288" t="s">
         <v>48</v>
@@ -12421,22 +12781,22 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>903</v>
+        <v>936</v>
       </c>
       <c r="C289" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D289" t="s">
-        <v>663</v>
+        <v>915</v>
       </c>
       <c r="E289" t="s">
         <v>14</v>
       </c>
       <c r="F289" t="s">
-        <v>725</v>
+        <v>937</v>
       </c>
       <c r="G289" t="s">
-        <v>904</v>
+        <v>938</v>
       </c>
       <c r="H289" t="s">
         <v>618</v>
@@ -12450,19 +12810,19 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>905</v>
+        <v>939</v>
       </c>
       <c r="C290" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D290" t="s">
-        <v>663</v>
+        <v>915</v>
       </c>
       <c r="E290" t="s">
         <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>906</v>
+        <v>940</v>
       </c>
       <c r="G290" t="s">
         <v>24</v>
@@ -12471,7 +12831,7 @@
         <v>91</v>
       </c>
       <c r="I290" t="s">
-        <v>907</v>
+        <v>941</v>
       </c>
       <c r="J290" t="s">
         <v>25</v>
@@ -12479,19 +12839,19 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>908</v>
+        <v>942</v>
       </c>
       <c r="C291" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D291" t="s">
-        <v>909</v>
+        <v>943</v>
       </c>
       <c r="E291" t="s">
         <v>14</v>
       </c>
       <c r="F291" t="s">
-        <v>910</v>
+        <v>944</v>
       </c>
       <c r="G291" t="s">
         <v>24</v>
@@ -12500,7 +12860,7 @@
         <v>91</v>
       </c>
       <c r="I291" t="s">
-        <v>907</v>
+        <v>941</v>
       </c>
       <c r="J291" t="s">
         <v>25</v>
@@ -12508,28 +12868,28 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>911</v>
+        <v>945</v>
       </c>
       <c r="C292" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D292" t="s">
-        <v>704</v>
+        <v>946</v>
       </c>
       <c r="E292" t="s">
         <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>708</v>
+        <v>947</v>
       </c>
       <c r="G292" t="s">
-        <v>912</v>
+        <v>948</v>
       </c>
       <c r="H292" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I292" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="J292" t="s">
         <v>75</v>
@@ -12537,28 +12897,28 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>913</v>
+        <v>949</v>
       </c>
       <c r="C293" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D293" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E293" t="s">
         <v>14</v>
       </c>
       <c r="F293" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G293" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="H293" t="s">
         <v>53</v>
       </c>
       <c r="I293" t="s">
-        <v>914</v>
+        <v>950</v>
       </c>
       <c r="J293" t="s">
         <v>75</v>
@@ -12566,28 +12926,28 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
+        <v>951</v>
+      </c>
+      <c r="C294" t="s">
+        <v>858</v>
+      </c>
+      <c r="D294" t="s">
         <v>915</v>
       </c>
-      <c r="C294" t="s">
-        <v>843</v>
-      </c>
-      <c r="D294" t="s">
-        <v>663</v>
-      </c>
       <c r="E294" t="s">
         <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>690</v>
+        <v>886</v>
       </c>
       <c r="G294" t="s">
-        <v>717</v>
+        <v>887</v>
       </c>
       <c r="H294" t="s">
         <v>53</v>
       </c>
       <c r="I294" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="J294" t="s">
         <v>91</v>
@@ -12595,19 +12955,19 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>916</v>
+        <v>952</v>
       </c>
       <c r="C295" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D295" t="s">
-        <v>704</v>
+        <v>946</v>
       </c>
       <c r="E295" t="s">
         <v>14</v>
       </c>
       <c r="F295" t="s">
-        <v>917</v>
+        <v>953</v>
       </c>
       <c r="G295" t="s">
         <v>24</v>
@@ -12624,19 +12984,19 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>918</v>
+        <v>954</v>
       </c>
       <c r="C296" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D296" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E296" t="s">
         <v>14</v>
       </c>
       <c r="F296" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G296" t="s">
         <v>24</v>
@@ -12645,7 +13005,7 @@
         <v>451</v>
       </c>
       <c r="I296" t="s">
-        <v>919</v>
+        <v>955</v>
       </c>
       <c r="J296" t="s">
         <v>25</v>
@@ -12653,22 +13013,22 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>920</v>
+        <v>956</v>
       </c>
       <c r="C297" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D297" t="s">
-        <v>651</v>
+        <v>957</v>
       </c>
       <c r="E297" t="s">
         <v>14</v>
       </c>
       <c r="F297" t="s">
-        <v>721</v>
+        <v>958</v>
       </c>
       <c r="G297" t="s">
-        <v>921</v>
+        <v>959</v>
       </c>
       <c r="H297" t="s">
         <v>618</v>
@@ -12682,28 +13042,28 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>922</v>
+        <v>960</v>
       </c>
       <c r="C298" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D298" t="s">
-        <v>658</v>
+        <v>961</v>
       </c>
       <c r="E298" t="s">
         <v>14</v>
       </c>
       <c r="F298" t="s">
-        <v>923</v>
+        <v>962</v>
       </c>
       <c r="G298" t="s">
-        <v>653</v>
+        <v>861</v>
       </c>
       <c r="H298" t="s">
         <v>548</v>
       </c>
       <c r="I298" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J298" t="s">
         <v>67</v>
@@ -12711,28 +13071,28 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>924</v>
+        <v>963</v>
       </c>
       <c r="C299" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D299" t="s">
-        <v>683</v>
+        <v>859</v>
       </c>
       <c r="E299" t="s">
         <v>14</v>
       </c>
       <c r="F299" t="s">
-        <v>925</v>
+        <v>964</v>
       </c>
       <c r="G299" t="s">
-        <v>926</v>
+        <v>965</v>
       </c>
       <c r="H299" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I299" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="J299" t="s">
         <v>75</v>
@@ -12740,28 +13100,28 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>927</v>
+        <v>966</v>
       </c>
       <c r="C300" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D300" t="s">
-        <v>667</v>
+        <v>925</v>
       </c>
       <c r="E300" t="s">
         <v>14</v>
       </c>
       <c r="F300" t="s">
-        <v>763</v>
+        <v>967</v>
       </c>
       <c r="G300" t="s">
-        <v>777</v>
+        <v>968</v>
       </c>
       <c r="H300" t="s">
         <v>53</v>
       </c>
       <c r="I300" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="J300" t="s">
         <v>75</v>
@@ -12769,28 +13129,28 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>928</v>
+        <v>969</v>
       </c>
       <c r="C301" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D301" t="s">
-        <v>757</v>
+        <v>874</v>
       </c>
       <c r="E301" t="s">
         <v>14</v>
       </c>
       <c r="F301" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G301" t="s">
-        <v>929</v>
+        <v>970</v>
       </c>
       <c r="H301" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I301" t="s">
-        <v>930</v>
+        <v>971</v>
       </c>
       <c r="J301" t="s">
         <v>75</v>
@@ -12798,28 +13158,28 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>931</v>
+        <v>972</v>
       </c>
       <c r="C302" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D302" t="s">
-        <v>755</v>
+        <v>878</v>
       </c>
       <c r="E302" t="s">
         <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>932</v>
+        <v>973</v>
       </c>
       <c r="G302" t="s">
-        <v>933</v>
+        <v>974</v>
       </c>
       <c r="H302" t="s">
-        <v>934</v>
+        <v>975</v>
       </c>
       <c r="I302" t="s">
-        <v>935</v>
+        <v>976</v>
       </c>
       <c r="J302" t="s">
         <v>53</v>
@@ -12827,28 +13187,28 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>936</v>
+        <v>977</v>
       </c>
       <c r="C303" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D303" t="s">
-        <v>683</v>
+        <v>859</v>
       </c>
       <c r="E303" t="s">
         <v>330</v>
       </c>
       <c r="F303" t="s">
-        <v>937</v>
+        <v>978</v>
       </c>
       <c r="G303" t="s">
-        <v>938</v>
+        <v>979</v>
       </c>
       <c r="H303" t="s">
         <v>53</v>
       </c>
       <c r="I303" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="J303" t="s">
         <v>91</v>
@@ -12856,28 +13216,28 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>939</v>
+        <v>980</v>
       </c>
       <c r="C304" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D304" t="s">
-        <v>679</v>
+        <v>981</v>
       </c>
       <c r="E304" t="s">
         <v>14</v>
       </c>
       <c r="F304" t="s">
-        <v>940</v>
+        <v>982</v>
       </c>
       <c r="G304" t="s">
-        <v>653</v>
+        <v>861</v>
       </c>
       <c r="H304" t="s">
         <v>618</v>
       </c>
       <c r="I304" t="s">
-        <v>941</v>
+        <v>983</v>
       </c>
       <c r="J304" t="s">
         <v>67</v>
@@ -12885,28 +13245,28 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>942</v>
+        <v>984</v>
       </c>
       <c r="C305" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D305" t="s">
-        <v>757</v>
+        <v>874</v>
       </c>
       <c r="E305" t="s">
         <v>14</v>
       </c>
       <c r="F305" t="s">
-        <v>925</v>
+        <v>964</v>
       </c>
       <c r="G305" t="s">
-        <v>691</v>
+        <v>985</v>
       </c>
       <c r="H305" t="s">
         <v>333</v>
       </c>
       <c r="I305" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J305" t="s">
         <v>91</v>
@@ -12914,28 +13274,28 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>943</v>
+        <v>986</v>
       </c>
       <c r="C306" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D306" t="s">
-        <v>944</v>
+        <v>987</v>
       </c>
       <c r="E306" t="s">
         <v>14</v>
       </c>
       <c r="F306" t="s">
-        <v>945</v>
+        <v>988</v>
       </c>
       <c r="G306" t="s">
-        <v>946</v>
+        <v>989</v>
       </c>
       <c r="H306" t="s">
-        <v>892</v>
+        <v>922</v>
       </c>
       <c r="I306" t="s">
-        <v>893</v>
+        <v>923</v>
       </c>
       <c r="J306" t="s">
         <v>91</v>
@@ -12943,28 +13303,28 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>947</v>
+        <v>990</v>
       </c>
       <c r="C307" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D307" t="s">
-        <v>755</v>
+        <v>878</v>
       </c>
       <c r="E307" t="s">
         <v>14</v>
       </c>
       <c r="F307" t="s">
-        <v>948</v>
+        <v>991</v>
       </c>
       <c r="G307" t="s">
-        <v>949</v>
+        <v>992</v>
       </c>
       <c r="H307" t="s">
-        <v>934</v>
+        <v>975</v>
       </c>
       <c r="I307" t="s">
-        <v>950</v>
+        <v>993</v>
       </c>
       <c r="J307" t="s">
         <v>75</v>
@@ -12972,28 +13332,28 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>951</v>
+        <v>994</v>
       </c>
       <c r="C308" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D308" t="s">
-        <v>704</v>
+        <v>946</v>
       </c>
       <c r="E308" t="s">
         <v>330</v>
       </c>
       <c r="F308" t="s">
-        <v>871</v>
+        <v>898</v>
       </c>
       <c r="G308" t="s">
-        <v>952</v>
+        <v>995</v>
       </c>
       <c r="H308" t="s">
         <v>53</v>
       </c>
       <c r="I308" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="J308" t="s">
         <v>91</v>
@@ -13001,28 +13361,28 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>953</v>
+        <v>996</v>
       </c>
       <c r="C309" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D309" t="s">
-        <v>674</v>
+        <v>900</v>
       </c>
       <c r="E309" t="s">
         <v>14</v>
       </c>
       <c r="F309" t="s">
-        <v>948</v>
+        <v>991</v>
       </c>
       <c r="G309" t="s">
-        <v>954</v>
+        <v>997</v>
       </c>
       <c r="H309" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="I309" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J309" t="s">
         <v>91</v>
@@ -13030,19 +13390,19 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>955</v>
+        <v>998</v>
       </c>
       <c r="C310" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D310" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E310" t="s">
         <v>14</v>
       </c>
       <c r="F310" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G310" t="s">
         <v>24</v>
@@ -13059,28 +13419,28 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>956</v>
+        <v>999</v>
       </c>
       <c r="C311" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D311" t="s">
-        <v>755</v>
+        <v>878</v>
       </c>
       <c r="E311" t="s">
         <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>957</v>
+        <v>1000</v>
       </c>
       <c r="G311" t="s">
-        <v>653</v>
+        <v>861</v>
       </c>
       <c r="H311" t="s">
         <v>548</v>
       </c>
       <c r="I311" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J311" t="s">
         <v>67</v>
@@ -13088,28 +13448,28 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>958</v>
+        <v>1001</v>
       </c>
       <c r="C312" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D312" t="s">
-        <v>674</v>
+        <v>900</v>
       </c>
       <c r="E312" t="s">
         <v>14</v>
       </c>
       <c r="F312" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G312" t="s">
-        <v>959</v>
+        <v>1002</v>
       </c>
       <c r="H312" t="s">
         <v>53</v>
       </c>
       <c r="I312" t="s">
-        <v>960</v>
+        <v>1003</v>
       </c>
       <c r="J312" t="s">
         <v>369</v>
@@ -13117,28 +13477,28 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>961</v>
+        <v>1004</v>
       </c>
       <c r="C313" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D313" t="s">
-        <v>667</v>
+        <v>925</v>
       </c>
       <c r="E313" t="s">
         <v>14</v>
       </c>
       <c r="F313" t="s">
-        <v>671</v>
+        <v>1005</v>
       </c>
       <c r="G313" t="s">
-        <v>962</v>
+        <v>1006</v>
       </c>
       <c r="H313" t="s">
         <v>48</v>
       </c>
       <c r="I313" t="s">
-        <v>963</v>
+        <v>1007</v>
       </c>
       <c r="J313" t="s">
         <v>75</v>
@@ -13146,28 +13506,28 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>964</v>
+        <v>1008</v>
       </c>
       <c r="C314" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D314" t="s">
-        <v>683</v>
+        <v>859</v>
       </c>
       <c r="E314" t="s">
         <v>14</v>
       </c>
       <c r="F314" t="s">
-        <v>698</v>
+        <v>1009</v>
       </c>
       <c r="G314" t="s">
-        <v>965</v>
+        <v>1010</v>
       </c>
       <c r="H314" t="s">
         <v>333</v>
       </c>
       <c r="I314" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J314" t="s">
         <v>75</v>
@@ -13175,19 +13535,19 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>966</v>
+        <v>1011</v>
       </c>
       <c r="C315" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D315" t="s">
-        <v>755</v>
+        <v>878</v>
       </c>
       <c r="E315" t="s">
         <v>14</v>
       </c>
       <c r="F315" t="s">
-        <v>967</v>
+        <v>1012</v>
       </c>
       <c r="G315" t="s">
         <v>24</v>
@@ -13204,28 +13564,28 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>968</v>
+        <v>1013</v>
       </c>
       <c r="C316" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D316" t="s">
-        <v>969</v>
+        <v>1014</v>
       </c>
       <c r="E316" t="s">
         <v>14</v>
       </c>
       <c r="F316" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G316" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="H316" t="s">
-        <v>970</v>
+        <v>1015</v>
       </c>
       <c r="I316" t="s">
-        <v>971</v>
+        <v>1016</v>
       </c>
       <c r="J316" t="s">
         <v>75</v>
@@ -13233,28 +13593,28 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>972</v>
+        <v>1017</v>
       </c>
       <c r="C317" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D317" t="s">
-        <v>969</v>
+        <v>1014</v>
       </c>
       <c r="E317" t="s">
         <v>14</v>
       </c>
       <c r="F317" t="s">
-        <v>837</v>
+        <v>1018</v>
       </c>
       <c r="G317" t="s">
         <v>24</v>
       </c>
       <c r="H317" t="s">
-        <v>857</v>
+        <v>880</v>
       </c>
       <c r="I317" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
       <c r="J317" t="s">
         <v>25</v>
@@ -13262,28 +13622,28 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>973</v>
+        <v>1019</v>
       </c>
       <c r="C318" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D318" t="s">
-        <v>679</v>
+        <v>981</v>
       </c>
       <c r="E318" t="s">
         <v>14</v>
       </c>
       <c r="F318" t="s">
-        <v>837</v>
+        <v>1018</v>
       </c>
       <c r="G318" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="H318" t="s">
         <v>91</v>
       </c>
       <c r="I318" t="s">
-        <v>974</v>
+        <v>1020</v>
       </c>
       <c r="J318" t="s">
         <v>75</v>
@@ -13291,28 +13651,28 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>975</v>
+        <v>1021</v>
       </c>
       <c r="C319" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D319" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E319" t="s">
         <v>14</v>
       </c>
       <c r="F319" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G319" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="H319" t="s">
         <v>91</v>
       </c>
       <c r="I319" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="J319" t="s">
         <v>75</v>
@@ -13320,28 +13680,28 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>976</v>
+        <v>1022</v>
       </c>
       <c r="C320" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D320" t="s">
-        <v>755</v>
+        <v>878</v>
       </c>
       <c r="E320" t="s">
         <v>14</v>
       </c>
       <c r="F320" t="s">
-        <v>680</v>
+        <v>1023</v>
       </c>
       <c r="G320" t="s">
-        <v>977</v>
+        <v>1024</v>
       </c>
       <c r="H320" t="s">
         <v>333</v>
       </c>
       <c r="I320" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J320" t="s">
         <v>75</v>
@@ -13349,28 +13709,28 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>978</v>
+        <v>1025</v>
       </c>
       <c r="C321" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D321" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E321" t="s">
         <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G321" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="H321" t="s">
-        <v>979</v>
+        <v>1026</v>
       </c>
       <c r="I321" t="s">
-        <v>980</v>
+        <v>1027</v>
       </c>
       <c r="J321" t="s">
         <v>75</v>
@@ -13381,25 +13741,25 @@
         <v>389</v>
       </c>
       <c r="C322" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D322" t="s">
-        <v>663</v>
+        <v>915</v>
       </c>
       <c r="E322" t="s">
         <v>330</v>
       </c>
       <c r="F322" t="s">
-        <v>937</v>
+        <v>978</v>
       </c>
       <c r="G322" t="s">
-        <v>981</v>
+        <v>1028</v>
       </c>
       <c r="H322" t="s">
         <v>53</v>
       </c>
       <c r="I322" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="J322" t="s">
         <v>91</v>
@@ -13407,28 +13767,28 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>982</v>
+        <v>1029</v>
       </c>
       <c r="C323" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D323" t="s">
-        <v>704</v>
+        <v>946</v>
       </c>
       <c r="E323" t="s">
         <v>14</v>
       </c>
       <c r="F323" t="s">
-        <v>983</v>
+        <v>1030</v>
       </c>
       <c r="G323" t="s">
-        <v>984</v>
+        <v>1031</v>
       </c>
       <c r="H323" t="s">
         <v>618</v>
       </c>
       <c r="I323" t="s">
-        <v>941</v>
+        <v>983</v>
       </c>
       <c r="J323" t="s">
         <v>53</v>
@@ -13436,19 +13796,19 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>985</v>
+        <v>1032</v>
       </c>
       <c r="C324" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D324" t="s">
-        <v>683</v>
+        <v>859</v>
       </c>
       <c r="E324" t="s">
         <v>14</v>
       </c>
       <c r="F324" t="s">
-        <v>886</v>
+        <v>916</v>
       </c>
       <c r="G324" t="s">
         <v>24</v>
@@ -13457,7 +13817,7 @@
         <v>333</v>
       </c>
       <c r="I324" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J324" t="s">
         <v>25</v>
@@ -13465,28 +13825,28 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>986</v>
+        <v>1033</v>
       </c>
       <c r="C325" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D325" t="s">
-        <v>987</v>
+        <v>1034</v>
       </c>
       <c r="E325" t="s">
         <v>14</v>
       </c>
       <c r="F325" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G325" t="s">
         <v>24</v>
       </c>
       <c r="H325" t="s">
-        <v>988</v>
+        <v>1035</v>
       </c>
       <c r="I325" t="s">
-        <v>989</v>
+        <v>1036</v>
       </c>
       <c r="J325" t="s">
         <v>25</v>
@@ -13494,19 +13854,19 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>990</v>
+        <v>1037</v>
       </c>
       <c r="C326" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D326" t="s">
-        <v>757</v>
+        <v>874</v>
       </c>
       <c r="E326" t="s">
         <v>14</v>
       </c>
       <c r="F326" t="s">
-        <v>991</v>
+        <v>1038</v>
       </c>
       <c r="G326" t="s">
         <v>24</v>
@@ -13515,7 +13875,7 @@
         <v>333</v>
       </c>
       <c r="I326" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J326" t="s">
         <v>25</v>
@@ -13523,28 +13883,28 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>992</v>
+        <v>1039</v>
       </c>
       <c r="C327" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D327" t="s">
-        <v>658</v>
+        <v>961</v>
       </c>
       <c r="E327" t="s">
         <v>330</v>
       </c>
       <c r="F327" t="s">
-        <v>873</v>
+        <v>901</v>
       </c>
       <c r="G327" t="s">
-        <v>993</v>
+        <v>1040</v>
       </c>
       <c r="H327" t="s">
         <v>53</v>
       </c>
       <c r="I327" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="J327" t="s">
         <v>91</v>
@@ -13552,19 +13912,19 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>994</v>
+        <v>1041</v>
       </c>
       <c r="C328" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D328" t="s">
-        <v>806</v>
+        <v>1042</v>
       </c>
       <c r="E328" t="s">
         <v>14</v>
       </c>
       <c r="F328" t="s">
-        <v>995</v>
+        <v>1043</v>
       </c>
       <c r="G328" t="s">
         <v>24</v>
@@ -13573,7 +13933,7 @@
         <v>548</v>
       </c>
       <c r="I328" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J328" t="s">
         <v>25</v>
@@ -13581,28 +13941,28 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>996</v>
+        <v>1044</v>
       </c>
       <c r="C329" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D329" t="s">
-        <v>997</v>
+        <v>1045</v>
       </c>
       <c r="E329" t="s">
         <v>14</v>
       </c>
       <c r="F329" t="s">
-        <v>998</v>
+        <v>1046</v>
       </c>
       <c r="G329" t="s">
-        <v>999</v>
+        <v>1047</v>
       </c>
       <c r="H329" t="s">
         <v>91</v>
       </c>
       <c r="I329" t="s">
-        <v>907</v>
+        <v>941</v>
       </c>
       <c r="J329" t="s">
         <v>91</v>
@@ -13610,19 +13970,19 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>1000</v>
+        <v>1048</v>
       </c>
       <c r="C330" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D330" t="s">
-        <v>683</v>
+        <v>859</v>
       </c>
       <c r="E330" t="s">
         <v>14</v>
       </c>
       <c r="F330" t="s">
-        <v>1001</v>
+        <v>1049</v>
       </c>
       <c r="G330" t="s">
         <v>24</v>
@@ -13639,28 +13999,28 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>1002</v>
+        <v>1050</v>
       </c>
       <c r="C331" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D331" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="E331" t="s">
         <v>14</v>
       </c>
       <c r="F331" t="s">
-        <v>876</v>
+        <v>904</v>
       </c>
       <c r="G331" t="s">
-        <v>1003</v>
+        <v>1051</v>
       </c>
       <c r="H331" t="s">
-        <v>988</v>
+        <v>1035</v>
       </c>
       <c r="I331" t="s">
-        <v>1004</v>
+        <v>1052</v>
       </c>
       <c r="J331" t="s">
         <v>75</v>
@@ -13668,28 +14028,28 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>1005</v>
+        <v>1053</v>
       </c>
       <c r="C332" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D332" t="s">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="E332" t="s">
         <v>14</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G332" t="s">
-        <v>1006</v>
+        <v>1054</v>
       </c>
       <c r="H332" t="s">
-        <v>857</v>
+        <v>880</v>
       </c>
       <c r="I332" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
       <c r="J332" t="s">
         <v>75</v>
@@ -13697,28 +14057,28 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>1007</v>
+        <v>1055</v>
       </c>
       <c r="C333" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D333" t="s">
-        <v>651</v>
+        <v>957</v>
       </c>
       <c r="E333" t="s">
         <v>14</v>
       </c>
       <c r="F333" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G333" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="H333" t="s">
-        <v>1008</v>
+        <v>1056</v>
       </c>
       <c r="I333" t="s">
-        <v>1009</v>
+        <v>1057</v>
       </c>
       <c r="J333" t="s">
         <v>75</v>
@@ -13726,28 +14086,28 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>1010</v>
+        <v>1058</v>
       </c>
       <c r="C334" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D334" t="s">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="E334" t="s">
         <v>14</v>
       </c>
       <c r="F334" t="s">
-        <v>897</v>
+        <v>928</v>
       </c>
       <c r="G334" t="s">
-        <v>1011</v>
+        <v>1059</v>
       </c>
       <c r="H334" t="s">
-        <v>934</v>
+        <v>975</v>
       </c>
       <c r="I334" t="s">
-        <v>950</v>
+        <v>993</v>
       </c>
       <c r="J334" t="s">
         <v>75</v>
@@ -13755,19 +14115,19 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>1012</v>
+        <v>1060</v>
       </c>
       <c r="C335" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D335" t="s">
-        <v>806</v>
+        <v>1042</v>
       </c>
       <c r="E335" t="s">
         <v>14</v>
       </c>
       <c r="F335" t="s">
-        <v>1013</v>
+        <v>1061</v>
       </c>
       <c r="G335" t="s">
         <v>24</v>
@@ -13776,7 +14136,7 @@
         <v>548</v>
       </c>
       <c r="I335" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J335" t="s">
         <v>25</v>
@@ -13784,28 +14144,28 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>1014</v>
+        <v>1062</v>
       </c>
       <c r="C336" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D336" t="s">
-        <v>674</v>
+        <v>900</v>
       </c>
       <c r="E336" t="s">
         <v>14</v>
       </c>
       <c r="F336" t="s">
-        <v>766</v>
+        <v>1063</v>
       </c>
       <c r="G336" t="s">
-        <v>653</v>
+        <v>861</v>
       </c>
       <c r="H336" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I336" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="J336" t="s">
         <v>67</v>
@@ -13813,28 +14173,28 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" t="s">
-        <v>1015</v>
+        <v>1064</v>
       </c>
       <c r="C337" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D337" t="s">
-        <v>658</v>
+        <v>961</v>
       </c>
       <c r="E337" t="s">
         <v>14</v>
       </c>
       <c r="F337" t="s">
-        <v>646</v>
+        <v>865</v>
       </c>
       <c r="G337" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
       <c r="H337" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I337" t="s">
-        <v>1016</v>
+        <v>1065</v>
       </c>
       <c r="J337" t="s">
         <v>75</v>
@@ -13845,25 +14205,25 @@
         <v>305</v>
       </c>
       <c r="C338" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D338" t="s">
-        <v>987</v>
+        <v>1034</v>
       </c>
       <c r="E338" t="s">
         <v>14</v>
       </c>
       <c r="F338" t="s">
-        <v>1017</v>
+        <v>1066</v>
       </c>
       <c r="G338" t="s">
-        <v>691</v>
+        <v>985</v>
       </c>
       <c r="H338" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I338" t="s">
-        <v>1018</v>
+        <v>1067</v>
       </c>
       <c r="J338" t="s">
         <v>91</v>
@@ -13871,28 +14231,28 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" t="s">
-        <v>1019</v>
+        <v>1068</v>
       </c>
       <c r="C339" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D339" t="s">
-        <v>997</v>
+        <v>1045</v>
       </c>
       <c r="E339" t="s">
         <v>14</v>
       </c>
       <c r="F339" t="s">
-        <v>1020</v>
+        <v>1069</v>
       </c>
       <c r="G339" t="s">
-        <v>1021</v>
+        <v>1070</v>
       </c>
       <c r="H339" t="s">
-        <v>892</v>
+        <v>922</v>
       </c>
       <c r="I339" t="s">
-        <v>893</v>
+        <v>923</v>
       </c>
       <c r="J339" t="s">
         <v>91</v>
@@ -13900,28 +14260,28 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
-        <v>1022</v>
+        <v>1071</v>
       </c>
       <c r="C340" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="D340" t="s">
-        <v>651</v>
+        <v>957</v>
       </c>
       <c r="E340" t="s">
         <v>14</v>
       </c>
       <c r="F340" t="s">
-        <v>886</v>
+        <v>916</v>
       </c>
       <c r="G340" t="s">
-        <v>1023</v>
+        <v>1072</v>
       </c>
       <c r="H340" t="s">
         <v>333</v>
       </c>
       <c r="I340" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J340" t="s">
         <v>91</v>

--- a/data_M.xlsx
+++ b/data_M.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="1145">
   <si>
     <t>questName</t>
   </si>
@@ -2593,6 +2593,9 @@
     <t>鎚と刀の鍔迫り合い</t>
   </si>
   <si>
+    <t>철퇴와 칼의 치열한 접전</t>
+  </si>
+  <si>
     <t>집회소★7</t>
   </si>
   <si>
@@ -2611,6 +2614,9 @@
     <t>住めば都の闘技場暮らし</t>
   </si>
   <si>
+    <t>정들면 고향인 투기장 생활</t>
+  </si>
+  <si>
     <t>闘技場</t>
   </si>
   <si>
@@ -2620,6 +2626,9 @@
     <t>熱気で熱狂！炎の軍勢！</t>
   </si>
   <si>
+    <t>열기로 열광! 불꽃의 군세!</t>
+  </si>
+  <si>
     <t>3700z</t>
   </si>
   <si>
@@ -2629,6 +2638,9 @@
     <t>蒼く渦巻く登竜門</t>
   </si>
   <si>
+    <t>파랗게 소용돌이치는 등용문</t>
+  </si>
+  <si>
     <t>渓流</t>
   </si>
   <si>
@@ -2641,6 +2653,9 @@
     <t>灼熱砂上の荒ぶる刀剣</t>
   </si>
   <si>
+    <t>작열의 모래 위의 난폭한 도검</t>
+  </si>
+  <si>
     <t>旧砂漠</t>
   </si>
   <si>
@@ -2653,6 +2668,9 @@
     <t>月夜に出でし阿吽の雷撃</t>
   </si>
   <si>
+    <t>달밤에 나타난 아훔의 뇌격</t>
+  </si>
+  <si>
     <t>古代林</t>
   </si>
   <si>
@@ -2668,6 +2686,9 @@
     <t>憤怒の雄叫び</t>
   </si>
   <si>
+    <t>분노의 포효</t>
+  </si>
+  <si>
     <t>怒り喰らうイビルジョー1頭の狩猟</t>
   </si>
   <si>
@@ -2677,6 +2698,9 @@
     <t>金獅子の黒き覇気</t>
   </si>
   <si>
+    <t>금사자의 검은 패기</t>
+  </si>
+  <si>
     <t>ラージャン1頭の狩猟</t>
   </si>
   <si>
@@ -2686,6 +2710,9 @@
     <t>荒れる山神、鎮める狩人</t>
   </si>
   <si>
+    <t>날뛰는 산신, 진정시키는 사냥꾼</t>
+  </si>
+  <si>
     <t>雪山</t>
   </si>
   <si>
@@ -2698,6 +2725,9 @@
     <t>竜のコリーダ</t>
   </si>
   <si>
+    <t>용의 투우</t>
+  </si>
+  <si>
     <t>立体闘技場</t>
   </si>
   <si>
@@ -2707,6 +2737,9 @@
     <t>震天動地なグランドウイング</t>
   </si>
   <si>
+    <t>경천동지할 그랜드 윙</t>
+  </si>
+  <si>
     <t>乗りによるダウンを5回成功</t>
   </si>
   <si>
@@ -2731,6 +2764,9 @@
     <t>竜王の系譜</t>
   </si>
   <si>
+    <t>용왕의 계보</t>
+  </si>
+  <si>
     <t>リオレウス希少種1頭とリオレイア希少種1頭の狩猟</t>
   </si>
   <si>
@@ -2740,12 +2776,18 @@
     <t>受付嬢オススメ！雷狼竜×２</t>
   </si>
   <si>
+    <t>여성 접수원의 추천! 뇌랑룡×2</t>
+  </si>
+  <si>
     <t>ジンオウガ2頭の狩猟</t>
   </si>
   <si>
     <t>超☆メモ帳～千刃竜捕獲編～</t>
   </si>
   <si>
+    <t>초☆메모장 ~천인룡포획편~</t>
+  </si>
+  <si>
     <t>セルレギオス1頭の捕獲</t>
   </si>
   <si>
@@ -2755,6 +2797,9 @@
     <t>柔能く剛能く狩人を制す</t>
   </si>
   <si>
+    <t>부드럽고 유연하고 강한자야 말로 사냥꾼을 제압할 수 있다. (유능제강의 언어유희)</t>
+  </si>
+  <si>
     <t>タマミツネ1頭の狩猟</t>
   </si>
   <si>
@@ -2764,6 +2809,9 @@
     <t>湯けむりと噴煙と</t>
   </si>
   <si>
+    <t>수증기와 분연과</t>
+  </si>
+  <si>
     <t>火山</t>
   </si>
   <si>
@@ -2776,6 +2824,9 @@
     <t>絶対零度</t>
   </si>
   <si>
+    <t>절대영도</t>
+  </si>
+  <si>
     <t>極圏</t>
   </si>
   <si>
@@ -2794,6 +2845,9 @@
     <t>熱愛発覚！？竜達の密会！</t>
   </si>
   <si>
+    <t>열애발각!? 용들의 밀회!</t>
+  </si>
+  <si>
     <t>遺跡平原</t>
   </si>
   <si>
@@ -2803,6 +2857,9 @@
     <t>黄金の月輪</t>
   </si>
   <si>
+    <t>황금의 월륜</t>
+  </si>
+  <si>
     <t>リオレイア希少種1頭の狩猟</t>
   </si>
   <si>
@@ -2812,6 +2869,9 @@
     <t>山紫水明の破壊者</t>
   </si>
   <si>
+    <t>산자수명한 파괴자</t>
+  </si>
+  <si>
     <t>ドボルベルク1頭の狩猟</t>
   </si>
   <si>
@@ -2821,6 +2881,9 @@
     <t>電光煌めく飛竜の夜</t>
   </si>
   <si>
+    <t>전광이 빛나는 비룡의 밤</t>
+  </si>
+  <si>
     <t>ライゼクス1頭の狩猟</t>
   </si>
   <si>
@@ -2830,6 +2893,9 @@
     <t>熱き闘魂、纏いし炎戈</t>
   </si>
   <si>
+    <t>뜨거운 투혼, 휘감은 염과</t>
+  </si>
+  <si>
     <t>アグナコトル1頭の狩猟</t>
   </si>
   <si>
@@ -2839,6 +2905,9 @@
     <t>戦々恐々、最恐コンビ</t>
   </si>
   <si>
+    <t>전전긍긍, 가장 두려운 콤비</t>
+  </si>
+  <si>
     <t>イビルジョー1頭とラージャン1頭の狩猟</t>
   </si>
   <si>
@@ -2848,6 +2917,9 @@
     <t>奈落の妖星</t>
   </si>
   <si>
+    <t>나락의 요성</t>
+  </si>
+  <si>
     <t>竜ノ墓場</t>
   </si>
   <si>
@@ -2857,6 +2929,9 @@
     <t>轟虎馮海</t>
   </si>
   <si>
+    <t>굉호풍해</t>
+  </si>
+  <si>
     <t>氷海</t>
   </si>
   <si>
@@ -2869,27 +2944,42 @@
     <t>奇奇怪怪のハードビーク</t>
   </si>
   <si>
+    <t>기기괴괴의 하드비크</t>
+  </si>
+  <si>
     <t>17100z</t>
   </si>
   <si>
     <t>破壊と滅亡の申し子</t>
   </si>
   <si>
+    <t>파괴와 멸망의 산물</t>
+  </si>
+  <si>
     <t>曇天毒雨</t>
   </si>
   <si>
+    <t>담천독우</t>
+  </si>
+  <si>
     <t>ガブラス20頭の討伐</t>
   </si>
   <si>
     <t>ビリビリバリバリパニック！！</t>
   </si>
   <si>
+    <t>비리비리바리바리패닉!!</t>
+  </si>
+  <si>
     <t>38700z</t>
   </si>
   <si>
     <t>ユクモノ足湯と雷狼竜</t>
   </si>
   <si>
+    <t>유쿠모의 족욕과 뇌랑룡</t>
+  </si>
+  <si>
     <t>孤島</t>
   </si>
   <si>
@@ -2902,6 +2992,9 @@
     <t>凶賊ゲリョス狩り</t>
   </si>
   <si>
+    <t>흉적 게료스 사냥</t>
+  </si>
+  <si>
     <t>沼地</t>
   </si>
   <si>
@@ -2911,6 +3004,9 @@
     <t>昂ぶる千の刃</t>
   </si>
   <si>
+    <t>고조되는 천의 칼날</t>
+  </si>
+  <si>
     <t>セルレギオス1頭の狩猟</t>
   </si>
   <si>
@@ -2920,6 +3016,9 @@
     <t>遺跡平原からの伝書</t>
   </si>
   <si>
+    <t>유적평원으로부터의 전서</t>
+  </si>
+  <si>
     <t>イビルジョー1頭の狩猟</t>
   </si>
   <si>
@@ -2929,6 +3028,9 @@
     <t>試練の帰結点</t>
   </si>
   <si>
+    <t>시련의 귀결점</t>
+  </si>
+  <si>
     <t>乗りによるダウンを4回成功</t>
   </si>
   <si>
@@ -2938,6 +3040,9 @@
     <t>容赦なき、金獅子相手に用心棒</t>
   </si>
   <si>
+    <t>용서없는, 금사자 상대로 경호원</t>
+  </si>
+  <si>
     <t>ラージャン3頭の狩猟</t>
   </si>
   <si>
@@ -2953,6 +3058,9 @@
     <t>吹き荒れる災厄の火</t>
   </si>
   <si>
+    <t>휘몰아치는 재액의 불</t>
+  </si>
+  <si>
     <t>テオ・テスカトルの討伐または撃退</t>
   </si>
   <si>
@@ -2962,6 +3070,9 @@
     <t>白と瑠璃の輪舞曲</t>
   </si>
   <si>
+    <t>백과 유리의 윤무곡</t>
+  </si>
+  <si>
     <t>原生林</t>
   </si>
   <si>
@@ -2974,12 +3085,18 @@
     <t>千刃竜セルレギオス</t>
   </si>
   <si>
+    <t>천인룡 셀레기오스</t>
+  </si>
+  <si>
     <t>乗りよるダウンを2回成功</t>
   </si>
   <si>
     <t>舞うは嵐、奏でるは災禍の調べ</t>
   </si>
   <si>
+    <t>춤추면 태풍, 연주하면 재화의 조사</t>
+  </si>
+  <si>
     <t>霊峰</t>
   </si>
   <si>
@@ -2992,6 +3109,9 @@
     <t>いつか見た幻日</t>
   </si>
   <si>
+    <t>언젠가 보았던 환일</t>
+  </si>
+  <si>
     <t>リオレウス希少種1頭の狩猟</t>
   </si>
   <si>
@@ -3004,27 +3124,42 @@
     <t>舞い降りる鋼龍</t>
   </si>
   <si>
+    <t>훨훨 내려앉은 강룡</t>
+  </si>
+  <si>
     <t>クシャルダオラの翼破壊</t>
   </si>
   <si>
     <t>白銀の火輪</t>
   </si>
   <si>
+    <t>백은의 화륜</t>
+  </si>
+  <si>
     <t>リオレウス希少種の頭部破壊</t>
   </si>
   <si>
     <t>モンスターニャンター</t>
   </si>
   <si>
+    <t>몬스터 냥타</t>
+  </si>
+  <si>
     <t>天に吼えろ、大地を揺らせ</t>
   </si>
   <si>
+    <t>하늘에 짖고, 대지를 울려라</t>
+  </si>
+  <si>
     <t>ジンオウガ1頭とティガレックス1頭の狩猟</t>
   </si>
   <si>
     <t>森丘の黒い霧</t>
   </si>
   <si>
+    <t>숲과언덕의 검은 안개</t>
+  </si>
+  <si>
     <t>竜の大粒ナミダ2個の納品</t>
   </si>
   <si>
@@ -3034,6 +3169,9 @@
     <t>顕現せし黒蝕竜</t>
   </si>
   <si>
+    <t>현현한 흑식룡</t>
+  </si>
+  <si>
     <t>ゴア・マガラ1頭の狩猟</t>
   </si>
   <si>
@@ -3046,6 +3184,9 @@
     <t>獰にして猛だが火でもある</t>
   </si>
   <si>
+    <t>영에 맹이지만 불이기도 하다</t>
+  </si>
+  <si>
     <t>リオレウス1頭の狩猟</t>
   </si>
   <si>
@@ -3055,12 +3196,18 @@
     <t>痺れる魔球</t>
   </si>
   <si>
+    <t>저리는 마구</t>
+  </si>
+  <si>
     <t>ラングロトラ1頭の狩猟</t>
   </si>
   <si>
     <t>縦横無尽なフレックスフィン</t>
   </si>
   <si>
+    <t>종횡무진한 플렉스핀</t>
+  </si>
+  <si>
     <t>水上闘技場</t>
   </si>
   <si>
@@ -3073,21 +3220,33 @@
     <t>グランド・ハンター・ゲーム</t>
   </si>
   <si>
+    <t>그랜드・헌터・게임</t>
+  </si>
+  <si>
     <t>アルセルタスを除く全ての大型モンスターの狩猟</t>
   </si>
   <si>
     <t>原生林の平和を守れ</t>
   </si>
   <si>
+    <t>원시림의 평화를 지켜라</t>
+  </si>
+  <si>
     <t>20100z</t>
   </si>
   <si>
     <t>勇猛果敢なブレイブタスク</t>
   </si>
   <si>
+    <t>용맹과감한 브레이브 태스크</t>
+  </si>
+  <si>
     <t>難攻不落の重甲虫</t>
   </si>
   <si>
+    <t>난공불략의 중갑충</t>
+  </si>
+  <si>
     <t>ゲネル・セルタス1匹の狩猟</t>
   </si>
   <si>
@@ -3097,6 +3256,9 @@
     <t>鎧袖一触のパワフルアームズ</t>
   </si>
   <si>
+    <t>개수일촉의 파워풀 암즈</t>
+  </si>
+  <si>
     <t>4000z</t>
   </si>
   <si>
@@ -3109,6 +3271,9 @@
     <t>冷たき甲冑</t>
   </si>
   <si>
+    <t>차가운 갑주</t>
+  </si>
+  <si>
     <t>ガムート1頭とザボアザギル1頭の狩猟</t>
   </si>
   <si>
@@ -3118,9 +3283,15 @@
     <t>炸裂！爆砕拳！</t>
   </si>
   <si>
+    <t>작렬! 폭쇄권!</t>
+  </si>
+  <si>
     <t>彼の地に集いし破滅の禍難</t>
   </si>
   <si>
+    <t>그의 땅에 모여든 파멸의 재난</t>
+  </si>
+  <si>
     <t>禁足地</t>
   </si>
   <si>
@@ -3133,18 +3304,27 @@
     <t>その腕前、噂通りかしら…？</t>
   </si>
   <si>
+    <t>그 솜씨, 소문대로일까나...?</t>
+  </si>
+  <si>
     <t>ディアブロス1頭の狩猟</t>
   </si>
   <si>
     <t>しじまの向こう</t>
   </si>
   <si>
+    <t>침묵의 저편</t>
+  </si>
+  <si>
     <t>オオナズチの尻尾切断</t>
   </si>
   <si>
     <t>灼熱と妖艶</t>
   </si>
   <si>
+    <t>작열과 요염</t>
+  </si>
+  <si>
     <t>塔の秘境</t>
   </si>
   <si>
@@ -3154,6 +3334,9 @@
     <t>煌黒龍アルバトリオン</t>
   </si>
   <si>
+    <t>황흑룡 알바트리온</t>
+  </si>
+  <si>
     <t>溶岩島</t>
   </si>
   <si>
@@ -3166,12 +3349,18 @@
     <t>爆鎚竜の顎破壊に挑戦！</t>
   </si>
   <si>
+    <t>폭추룡의 턱 파괴에 도전!</t>
+  </si>
+  <si>
     <t>ウラガンキンの顎破壊</t>
   </si>
   <si>
     <t>金と銀の煌き</t>
   </si>
   <si>
+    <t>금과 은의 번쩍임</t>
+  </si>
+  <si>
     <t>乗りによるダウンを3回成功</t>
   </si>
   <si>
@@ -3181,12 +3370,18 @@
     <t>まだ見ぬ秘湯をもとめて</t>
   </si>
   <si>
+    <t>아직 보지 못한 비탕을 찾아서</t>
+  </si>
+  <si>
     <t>ジンオウガの頭部と前脚破壊</t>
   </si>
   <si>
     <t>汝ノチカラヲ、見セテミヨ</t>
   </si>
   <si>
+    <t>그대의 힘을, 보여주어보아라</t>
+  </si>
+  <si>
     <t>2800z</t>
   </si>
   <si>
@@ -3196,27 +3391,42 @@
     <t>渓流からの救援要請</t>
   </si>
   <si>
+    <t>계류로부터의 구원요청</t>
+  </si>
+  <si>
     <t>リオレイア希少種の頭部と翼破壊</t>
   </si>
   <si>
     <t>山神と電影</t>
   </si>
   <si>
+    <t>산신과 전영</t>
+  </si>
+  <si>
     <t>ライゼクス1頭とガムート1頭の狩猟</t>
   </si>
   <si>
     <t>空の飛竜と陸の飛竜</t>
   </si>
   <si>
+    <t>하늘의 비룡과 육지의 비룡</t>
+  </si>
+  <si>
     <t>リオレウス1頭とリオレイア1頭の狩猟</t>
   </si>
   <si>
     <t>沼地酔夢譚</t>
   </si>
   <si>
+    <t>늪지취몽담</t>
+  </si>
+  <si>
     <t>21900z</t>
   </si>
   <si>
+    <t>돌고 모여서 회귀하리라</t>
+  </si>
+  <si>
     <t>シャガルマガラの討伐</t>
   </si>
   <si>
@@ -3226,6 +3436,9 @@
     <t>獄炎に座す、覇たる者</t>
   </si>
   <si>
+    <t>옥염에 앉은, 패자되는 자</t>
+  </si>
+  <si>
     <t>アカムトルムの討伐</t>
   </si>
   <si>
@@ -3233,6 +3446,9 @@
   </si>
   <si>
     <t>無理した弟子の、後始末</t>
+  </si>
+  <si>
+    <t>무리해버린 제자의, 뒤처리</t>
   </si>
   <si>
     <t>ブラキディオスの頭部破壊</t>
@@ -3614,14 +3830,14 @@
   <dimension ref="A1:J340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="C248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G264" sqref="G264"/>
+      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B340" sqref="B340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -12116,26 +12332,29 @@
       <c r="A266" t="s">
         <v>857</v>
       </c>
+      <c r="B266" t="s">
+        <v>858</v>
+      </c>
       <c r="C266" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D266" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E266" t="s">
         <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G266" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H266" t="s">
         <v>681</v>
       </c>
       <c r="I266" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J266" t="s">
         <v>67</v>
@@ -12143,19 +12362,22 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>863</v>
+        <v>864</v>
+      </c>
+      <c r="B267" t="s">
+        <v>865</v>
       </c>
       <c r="C267" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D267" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E267" t="s">
         <v>14</v>
       </c>
       <c r="F267" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G267" t="s">
         <v>24</v>
@@ -12172,28 +12394,31 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
+        <v>868</v>
+      </c>
+      <c r="B268" t="s">
+        <v>869</v>
+      </c>
+      <c r="C268" t="s">
+        <v>859</v>
+      </c>
+      <c r="D268" t="s">
         <v>866</v>
       </c>
-      <c r="C268" t="s">
-        <v>858</v>
-      </c>
-      <c r="D268" t="s">
-        <v>864</v>
-      </c>
       <c r="E268" t="s">
         <v>14</v>
       </c>
       <c r="F268" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G268" t="s">
         <v>24</v>
       </c>
       <c r="H268" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="I268" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="J268" t="s">
         <v>25</v>
@@ -12201,22 +12426,25 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>869</v>
+        <v>872</v>
+      </c>
+      <c r="B269" t="s">
+        <v>873</v>
       </c>
       <c r="C269" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D269" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E269" t="s">
         <v>14</v>
       </c>
       <c r="F269" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="G269" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H269" t="s">
         <v>333</v>
@@ -12230,22 +12458,25 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>873</v>
+        <v>877</v>
+      </c>
+      <c r="B270" t="s">
+        <v>878</v>
       </c>
       <c r="C270" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D270" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
       </c>
       <c r="F270" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="G270" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="H270" t="s">
         <v>48</v>
@@ -12259,28 +12490,31 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>877</v>
+        <v>882</v>
+      </c>
+      <c r="B271" t="s">
+        <v>883</v>
       </c>
       <c r="C271" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D271" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E271" t="s">
         <v>14</v>
       </c>
       <c r="F271" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="G271" t="s">
         <v>24</v>
       </c>
       <c r="H271" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="I271" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="J271" t="s">
         <v>25</v>
@@ -12288,19 +12522,22 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>882</v>
+        <v>888</v>
+      </c>
+      <c r="B272" t="s">
+        <v>889</v>
       </c>
       <c r="C272" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D272" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="E272" t="s">
         <v>14</v>
       </c>
       <c r="F272" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="G272" t="s">
         <v>24</v>
@@ -12309,7 +12546,7 @@
         <v>53</v>
       </c>
       <c r="I272" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="J272" t="s">
         <v>25</v>
@@ -12317,28 +12554,31 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>885</v>
+        <v>892</v>
+      </c>
+      <c r="B273" t="s">
+        <v>893</v>
       </c>
       <c r="C273" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D273" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E273" t="s">
         <v>14</v>
       </c>
       <c r="F273" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="G273" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="H273" t="s">
         <v>53</v>
       </c>
       <c r="I273" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="J273" t="s">
         <v>75</v>
@@ -12346,22 +12586,25 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>888</v>
+        <v>896</v>
+      </c>
+      <c r="B274" t="s">
+        <v>897</v>
       </c>
       <c r="C274" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D274" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="E274" t="s">
         <v>14</v>
       </c>
       <c r="F274" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="G274" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="H274" t="s">
         <v>48</v>
@@ -12375,19 +12618,22 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>892</v>
+        <v>901</v>
+      </c>
+      <c r="B275" t="s">
+        <v>902</v>
       </c>
       <c r="C275" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D275" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="E275" t="s">
         <v>14</v>
       </c>
       <c r="F275" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="G275" t="s">
         <v>24</v>
@@ -12396,7 +12642,7 @@
         <v>681</v>
       </c>
       <c r="I275" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J275" t="s">
         <v>25</v>
@@ -12404,28 +12650,31 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>895</v>
+        <v>905</v>
+      </c>
+      <c r="B276" t="s">
+        <v>906</v>
       </c>
       <c r="C276" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D276" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E276" t="s">
         <v>14</v>
       </c>
       <c r="F276" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G276" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="H276" t="s">
         <v>18</v>
       </c>
       <c r="I276" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="J276" t="s">
         <v>75</v>
@@ -12435,26 +12684,29 @@
       <c r="A277" t="s">
         <v>328</v>
       </c>
+      <c r="B277" t="s">
+        <v>329</v>
+      </c>
       <c r="C277" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D277" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="E277" t="s">
         <v>330</v>
       </c>
       <c r="F277" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="G277" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="H277" t="s">
         <v>53</v>
       </c>
       <c r="I277" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="J277" t="s">
         <v>91</v>
@@ -12464,26 +12716,29 @@
       <c r="A278" t="s">
         <v>352</v>
       </c>
+      <c r="B278" t="s">
+        <v>353</v>
+      </c>
       <c r="C278" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D278" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="E278" t="s">
         <v>330</v>
       </c>
       <c r="F278" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="G278" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
       <c r="H278" t="s">
         <v>53</v>
       </c>
       <c r="I278" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="J278" t="s">
         <v>91</v>
@@ -12491,28 +12746,31 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>903</v>
+        <v>914</v>
+      </c>
+      <c r="B279" t="s">
+        <v>915</v>
       </c>
       <c r="C279" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D279" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E279" t="s">
         <v>14</v>
       </c>
       <c r="F279" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="G279" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H279" t="s">
         <v>67</v>
       </c>
       <c r="I279" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="J279" t="s">
         <v>67</v>
@@ -12520,19 +12778,22 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>906</v>
+        <v>918</v>
+      </c>
+      <c r="B280" t="s">
+        <v>919</v>
       </c>
       <c r="C280" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D280" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E280" t="s">
         <v>14</v>
       </c>
       <c r="F280" t="s">
-        <v>907</v>
+        <v>920</v>
       </c>
       <c r="G280" t="s">
         <v>24</v>
@@ -12549,22 +12810,25 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
-        <v>908</v>
+        <v>921</v>
+      </c>
+      <c r="B281" t="s">
+        <v>922</v>
       </c>
       <c r="C281" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D281" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E281" t="s">
         <v>14</v>
       </c>
       <c r="F281" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="G281" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
       <c r="H281" t="s">
         <v>548</v>
@@ -12578,22 +12842,25 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>911</v>
+        <v>925</v>
+      </c>
+      <c r="B282" t="s">
+        <v>926</v>
       </c>
       <c r="C282" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D282" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E282" t="s">
         <v>14</v>
       </c>
       <c r="F282" t="s">
-        <v>912</v>
+        <v>927</v>
       </c>
       <c r="G282" t="s">
-        <v>913</v>
+        <v>928</v>
       </c>
       <c r="H282" t="s">
         <v>48</v>
@@ -12607,28 +12874,31 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" t="s">
-        <v>914</v>
+        <v>929</v>
+      </c>
+      <c r="B283" t="s">
+        <v>930</v>
       </c>
       <c r="C283" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D283" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="E283" t="s">
         <v>14</v>
       </c>
       <c r="F283" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
       <c r="G283" t="s">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="H283" t="s">
         <v>681</v>
       </c>
       <c r="I283" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J283" t="s">
         <v>75</v>
@@ -12636,28 +12906,31 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>918</v>
+        <v>934</v>
+      </c>
+      <c r="B284" t="s">
+        <v>935</v>
       </c>
       <c r="C284" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D284" t="s">
-        <v>919</v>
+        <v>936</v>
       </c>
       <c r="E284" t="s">
         <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>920</v>
+        <v>937</v>
       </c>
       <c r="G284" t="s">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="H284" t="s">
-        <v>922</v>
+        <v>939</v>
       </c>
       <c r="I284" t="s">
-        <v>923</v>
+        <v>940</v>
       </c>
       <c r="J284" t="s">
         <v>91</v>
@@ -12665,22 +12938,25 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>924</v>
+        <v>941</v>
+      </c>
+      <c r="B285" t="s">
+        <v>942</v>
       </c>
       <c r="C285" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D285" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="E285" t="s">
         <v>14</v>
       </c>
       <c r="F285" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
       <c r="G285" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H285" t="s">
         <v>618</v>
@@ -12694,22 +12970,25 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>927</v>
+        <v>945</v>
+      </c>
+      <c r="B286" t="s">
+        <v>946</v>
       </c>
       <c r="C286" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D286" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E286" t="s">
         <v>14</v>
       </c>
       <c r="F286" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="G286" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
       <c r="H286" t="s">
         <v>691</v>
@@ -12723,28 +13002,31 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>930</v>
+        <v>949</v>
+      </c>
+      <c r="B287" t="s">
+        <v>950</v>
       </c>
       <c r="C287" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D287" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E287" t="s">
         <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>931</v>
+        <v>951</v>
       </c>
       <c r="G287" t="s">
-        <v>932</v>
+        <v>952</v>
       </c>
       <c r="H287" t="s">
         <v>681</v>
       </c>
       <c r="I287" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J287" t="s">
         <v>75</v>
@@ -12752,22 +13034,25 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>933</v>
+        <v>953</v>
+      </c>
+      <c r="B288" t="s">
+        <v>954</v>
       </c>
       <c r="C288" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D288" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="E288" t="s">
         <v>14</v>
       </c>
       <c r="F288" t="s">
-        <v>934</v>
+        <v>955</v>
       </c>
       <c r="G288" t="s">
-        <v>935</v>
+        <v>956</v>
       </c>
       <c r="H288" t="s">
         <v>48</v>
@@ -12781,22 +13066,25 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>936</v>
+        <v>957</v>
+      </c>
+      <c r="B289" t="s">
+        <v>958</v>
       </c>
       <c r="C289" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D289" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="E289" t="s">
         <v>14</v>
       </c>
       <c r="F289" t="s">
-        <v>937</v>
+        <v>959</v>
       </c>
       <c r="G289" t="s">
-        <v>938</v>
+        <v>960</v>
       </c>
       <c r="H289" t="s">
         <v>618</v>
@@ -12810,19 +13098,22 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>939</v>
+        <v>961</v>
+      </c>
+      <c r="B290" t="s">
+        <v>962</v>
       </c>
       <c r="C290" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D290" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="E290" t="s">
         <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>940</v>
+        <v>963</v>
       </c>
       <c r="G290" t="s">
         <v>24</v>
@@ -12831,7 +13122,7 @@
         <v>91</v>
       </c>
       <c r="I290" t="s">
-        <v>941</v>
+        <v>964</v>
       </c>
       <c r="J290" t="s">
         <v>25</v>
@@ -12839,19 +13130,22 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>942</v>
+        <v>965</v>
+      </c>
+      <c r="B291" t="s">
+        <v>966</v>
       </c>
       <c r="C291" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D291" t="s">
-        <v>943</v>
+        <v>967</v>
       </c>
       <c r="E291" t="s">
         <v>14</v>
       </c>
       <c r="F291" t="s">
-        <v>944</v>
+        <v>968</v>
       </c>
       <c r="G291" t="s">
         <v>24</v>
@@ -12860,7 +13154,7 @@
         <v>91</v>
       </c>
       <c r="I291" t="s">
-        <v>941</v>
+        <v>964</v>
       </c>
       <c r="J291" t="s">
         <v>25</v>
@@ -12868,28 +13162,31 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>945</v>
+        <v>969</v>
+      </c>
+      <c r="B292" t="s">
+        <v>970</v>
       </c>
       <c r="C292" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D292" t="s">
-        <v>946</v>
+        <v>971</v>
       </c>
       <c r="E292" t="s">
         <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>947</v>
+        <v>972</v>
       </c>
       <c r="G292" t="s">
-        <v>948</v>
+        <v>973</v>
       </c>
       <c r="H292" t="s">
         <v>681</v>
       </c>
       <c r="I292" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J292" t="s">
         <v>75</v>
@@ -12897,28 +13194,31 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>949</v>
+        <v>974</v>
+      </c>
+      <c r="B293" t="s">
+        <v>975</v>
       </c>
       <c r="C293" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D293" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E293" t="s">
         <v>14</v>
       </c>
       <c r="F293" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G293" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="H293" t="s">
         <v>53</v>
       </c>
       <c r="I293" t="s">
-        <v>950</v>
+        <v>976</v>
       </c>
       <c r="J293" t="s">
         <v>75</v>
@@ -12926,28 +13226,31 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
-        <v>951</v>
+        <v>977</v>
+      </c>
+      <c r="B294" t="s">
+        <v>978</v>
       </c>
       <c r="C294" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D294" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="E294" t="s">
         <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="G294" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="H294" t="s">
         <v>53</v>
       </c>
       <c r="I294" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="J294" t="s">
         <v>91</v>
@@ -12955,19 +13258,22 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>952</v>
+        <v>979</v>
+      </c>
+      <c r="B295" t="s">
+        <v>980</v>
       </c>
       <c r="C295" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D295" t="s">
-        <v>946</v>
+        <v>971</v>
       </c>
       <c r="E295" t="s">
         <v>14</v>
       </c>
       <c r="F295" t="s">
-        <v>953</v>
+        <v>981</v>
       </c>
       <c r="G295" t="s">
         <v>24</v>
@@ -12984,19 +13290,22 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>954</v>
+        <v>982</v>
+      </c>
+      <c r="B296" t="s">
+        <v>983</v>
       </c>
       <c r="C296" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D296" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E296" t="s">
         <v>14</v>
       </c>
       <c r="F296" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G296" t="s">
         <v>24</v>
@@ -13005,7 +13314,7 @@
         <v>451</v>
       </c>
       <c r="I296" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="J296" t="s">
         <v>25</v>
@@ -13013,22 +13322,25 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>956</v>
+        <v>985</v>
+      </c>
+      <c r="B297" t="s">
+        <v>986</v>
       </c>
       <c r="C297" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D297" t="s">
-        <v>957</v>
+        <v>987</v>
       </c>
       <c r="E297" t="s">
         <v>14</v>
       </c>
       <c r="F297" t="s">
-        <v>958</v>
+        <v>988</v>
       </c>
       <c r="G297" t="s">
-        <v>959</v>
+        <v>989</v>
       </c>
       <c r="H297" t="s">
         <v>618</v>
@@ -13042,22 +13354,25 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>960</v>
+        <v>990</v>
+      </c>
+      <c r="B298" t="s">
+        <v>991</v>
       </c>
       <c r="C298" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D298" t="s">
-        <v>961</v>
+        <v>992</v>
       </c>
       <c r="E298" t="s">
         <v>14</v>
       </c>
       <c r="F298" t="s">
-        <v>962</v>
+        <v>993</v>
       </c>
       <c r="G298" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H298" t="s">
         <v>548</v>
@@ -13071,28 +13386,31 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>963</v>
+        <v>994</v>
+      </c>
+      <c r="B299" t="s">
+        <v>995</v>
       </c>
       <c r="C299" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D299" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E299" t="s">
         <v>14</v>
       </c>
       <c r="F299" t="s">
-        <v>964</v>
+        <v>996</v>
       </c>
       <c r="G299" t="s">
-        <v>965</v>
+        <v>997</v>
       </c>
       <c r="H299" t="s">
         <v>681</v>
       </c>
       <c r="I299" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J299" t="s">
         <v>75</v>
@@ -13100,28 +13418,31 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>966</v>
+        <v>998</v>
+      </c>
+      <c r="B300" t="s">
+        <v>999</v>
       </c>
       <c r="C300" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D300" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="E300" t="s">
         <v>14</v>
       </c>
       <c r="F300" t="s">
-        <v>967</v>
+        <v>1000</v>
       </c>
       <c r="G300" t="s">
-        <v>968</v>
+        <v>1001</v>
       </c>
       <c r="H300" t="s">
         <v>53</v>
       </c>
       <c r="I300" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="J300" t="s">
         <v>75</v>
@@ -13129,28 +13450,31 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>969</v>
+        <v>1002</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1003</v>
       </c>
       <c r="C301" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D301" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="E301" t="s">
         <v>14</v>
       </c>
       <c r="F301" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G301" t="s">
-        <v>970</v>
+        <v>1004</v>
       </c>
       <c r="H301" t="s">
         <v>647</v>
       </c>
       <c r="I301" t="s">
-        <v>971</v>
+        <v>1005</v>
       </c>
       <c r="J301" t="s">
         <v>75</v>
@@ -13158,28 +13482,31 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>972</v>
+        <v>1006</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1007</v>
       </c>
       <c r="C302" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D302" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E302" t="s">
         <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>973</v>
+        <v>1008</v>
       </c>
       <c r="G302" t="s">
-        <v>974</v>
+        <v>1009</v>
       </c>
       <c r="H302" t="s">
-        <v>975</v>
+        <v>1010</v>
       </c>
       <c r="I302" t="s">
-        <v>976</v>
+        <v>1011</v>
       </c>
       <c r="J302" t="s">
         <v>53</v>
@@ -13187,28 +13514,31 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>977</v>
+        <v>1012</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1013</v>
       </c>
       <c r="C303" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D303" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E303" t="s">
         <v>330</v>
       </c>
       <c r="F303" t="s">
-        <v>978</v>
+        <v>1014</v>
       </c>
       <c r="G303" t="s">
-        <v>979</v>
+        <v>1015</v>
       </c>
       <c r="H303" t="s">
         <v>53</v>
       </c>
       <c r="I303" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="J303" t="s">
         <v>91</v>
@@ -13216,28 +13546,31 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>980</v>
+        <v>1016</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1017</v>
       </c>
       <c r="C304" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D304" t="s">
-        <v>981</v>
+        <v>1018</v>
       </c>
       <c r="E304" t="s">
         <v>14</v>
       </c>
       <c r="F304" t="s">
-        <v>982</v>
+        <v>1019</v>
       </c>
       <c r="G304" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H304" t="s">
         <v>618</v>
       </c>
       <c r="I304" t="s">
-        <v>983</v>
+        <v>1020</v>
       </c>
       <c r="J304" t="s">
         <v>67</v>
@@ -13245,22 +13578,25 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>984</v>
+        <v>1021</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1022</v>
       </c>
       <c r="C305" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D305" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="E305" t="s">
         <v>14</v>
       </c>
       <c r="F305" t="s">
-        <v>964</v>
+        <v>996</v>
       </c>
       <c r="G305" t="s">
-        <v>985</v>
+        <v>1023</v>
       </c>
       <c r="H305" t="s">
         <v>333</v>
@@ -13274,28 +13610,31 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>986</v>
+        <v>1024</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1025</v>
       </c>
       <c r="C306" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D306" t="s">
-        <v>987</v>
+        <v>1026</v>
       </c>
       <c r="E306" t="s">
         <v>14</v>
       </c>
       <c r="F306" t="s">
-        <v>988</v>
+        <v>1027</v>
       </c>
       <c r="G306" t="s">
-        <v>989</v>
+        <v>1028</v>
       </c>
       <c r="H306" t="s">
-        <v>922</v>
+        <v>939</v>
       </c>
       <c r="I306" t="s">
-        <v>923</v>
+        <v>940</v>
       </c>
       <c r="J306" t="s">
         <v>91</v>
@@ -13303,28 +13642,31 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>990</v>
+        <v>1029</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1030</v>
       </c>
       <c r="C307" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D307" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E307" t="s">
         <v>14</v>
       </c>
       <c r="F307" t="s">
-        <v>991</v>
+        <v>1031</v>
       </c>
       <c r="G307" t="s">
-        <v>992</v>
+        <v>1032</v>
       </c>
       <c r="H307" t="s">
-        <v>975</v>
+        <v>1010</v>
       </c>
       <c r="I307" t="s">
-        <v>993</v>
+        <v>1033</v>
       </c>
       <c r="J307" t="s">
         <v>75</v>
@@ -13332,28 +13674,31 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>994</v>
+        <v>1034</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1035</v>
       </c>
       <c r="C308" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D308" t="s">
-        <v>946</v>
+        <v>971</v>
       </c>
       <c r="E308" t="s">
         <v>330</v>
       </c>
       <c r="F308" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="G308" t="s">
-        <v>995</v>
+        <v>1036</v>
       </c>
       <c r="H308" t="s">
         <v>53</v>
       </c>
       <c r="I308" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="J308" t="s">
         <v>91</v>
@@ -13361,22 +13706,25 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>996</v>
+        <v>1037</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1038</v>
       </c>
       <c r="C309" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D309" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="E309" t="s">
         <v>14</v>
       </c>
       <c r="F309" t="s">
-        <v>991</v>
+        <v>1031</v>
       </c>
       <c r="G309" t="s">
-        <v>997</v>
+        <v>1039</v>
       </c>
       <c r="H309" t="s">
         <v>691</v>
@@ -13390,19 +13738,22 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>998</v>
+        <v>1040</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1041</v>
       </c>
       <c r="C310" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D310" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E310" t="s">
         <v>14</v>
       </c>
       <c r="F310" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G310" t="s">
         <v>24</v>
@@ -13419,22 +13770,25 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>999</v>
+        <v>1042</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1043</v>
       </c>
       <c r="C311" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D311" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E311" t="s">
         <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>1000</v>
+        <v>1044</v>
       </c>
       <c r="G311" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H311" t="s">
         <v>548</v>
@@ -13448,28 +13802,31 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>1001</v>
+        <v>1045</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1046</v>
       </c>
       <c r="C312" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D312" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="E312" t="s">
         <v>14</v>
       </c>
       <c r="F312" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G312" t="s">
-        <v>1002</v>
+        <v>1047</v>
       </c>
       <c r="H312" t="s">
         <v>53</v>
       </c>
       <c r="I312" t="s">
-        <v>1003</v>
+        <v>1048</v>
       </c>
       <c r="J312" t="s">
         <v>369</v>
@@ -13477,28 +13834,31 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>1004</v>
+        <v>1049</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1050</v>
       </c>
       <c r="C313" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D313" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="E313" t="s">
         <v>14</v>
       </c>
       <c r="F313" t="s">
-        <v>1005</v>
+        <v>1051</v>
       </c>
       <c r="G313" t="s">
-        <v>1006</v>
+        <v>1052</v>
       </c>
       <c r="H313" t="s">
         <v>48</v>
       </c>
       <c r="I313" t="s">
-        <v>1007</v>
+        <v>1053</v>
       </c>
       <c r="J313" t="s">
         <v>75</v>
@@ -13506,22 +13866,25 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>1008</v>
+        <v>1054</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1055</v>
       </c>
       <c r="C314" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D314" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E314" t="s">
         <v>14</v>
       </c>
       <c r="F314" t="s">
-        <v>1009</v>
+        <v>1056</v>
       </c>
       <c r="G314" t="s">
-        <v>1010</v>
+        <v>1057</v>
       </c>
       <c r="H314" t="s">
         <v>333</v>
@@ -13535,19 +13898,22 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>1011</v>
+        <v>1058</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1059</v>
       </c>
       <c r="C315" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D315" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E315" t="s">
         <v>14</v>
       </c>
       <c r="F315" t="s">
-        <v>1012</v>
+        <v>1060</v>
       </c>
       <c r="G315" t="s">
         <v>24</v>
@@ -13564,28 +13930,31 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>1013</v>
+        <v>1061</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1062</v>
       </c>
       <c r="C316" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D316" t="s">
-        <v>1014</v>
+        <v>1063</v>
       </c>
       <c r="E316" t="s">
         <v>14</v>
       </c>
       <c r="F316" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G316" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="H316" t="s">
-        <v>1015</v>
+        <v>1064</v>
       </c>
       <c r="I316" t="s">
-        <v>1016</v>
+        <v>1065</v>
       </c>
       <c r="J316" t="s">
         <v>75</v>
@@ -13593,28 +13962,31 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>1017</v>
+        <v>1066</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1067</v>
       </c>
       <c r="C317" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D317" t="s">
-        <v>1014</v>
+        <v>1063</v>
       </c>
       <c r="E317" t="s">
         <v>14</v>
       </c>
       <c r="F317" t="s">
-        <v>1018</v>
+        <v>1068</v>
       </c>
       <c r="G317" t="s">
         <v>24</v>
       </c>
       <c r="H317" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="I317" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="J317" t="s">
         <v>25</v>
@@ -13622,28 +13994,31 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>1019</v>
+        <v>1069</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1070</v>
       </c>
       <c r="C318" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D318" t="s">
-        <v>981</v>
+        <v>1018</v>
       </c>
       <c r="E318" t="s">
         <v>14</v>
       </c>
       <c r="F318" t="s">
-        <v>1018</v>
+        <v>1068</v>
       </c>
       <c r="G318" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="H318" t="s">
         <v>91</v>
       </c>
       <c r="I318" t="s">
-        <v>1020</v>
+        <v>1071</v>
       </c>
       <c r="J318" t="s">
         <v>75</v>
@@ -13651,22 +14026,25 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>1021</v>
+        <v>1072</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1073</v>
       </c>
       <c r="C319" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D319" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E319" t="s">
         <v>14</v>
       </c>
       <c r="F319" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G319" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="H319" t="s">
         <v>91</v>
@@ -13680,22 +14058,25 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>1022</v>
+        <v>1074</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1075</v>
       </c>
       <c r="C320" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D320" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="E320" t="s">
         <v>14</v>
       </c>
       <c r="F320" t="s">
-        <v>1023</v>
+        <v>1076</v>
       </c>
       <c r="G320" t="s">
-        <v>1024</v>
+        <v>1077</v>
       </c>
       <c r="H320" t="s">
         <v>333</v>
@@ -13709,28 +14090,31 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>1025</v>
+        <v>1078</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1079</v>
       </c>
       <c r="C321" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D321" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E321" t="s">
         <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G321" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="H321" t="s">
-        <v>1026</v>
+        <v>1080</v>
       </c>
       <c r="I321" t="s">
-        <v>1027</v>
+        <v>1081</v>
       </c>
       <c r="J321" t="s">
         <v>75</v>
@@ -13740,26 +14124,29 @@
       <c r="A322" t="s">
         <v>389</v>
       </c>
+      <c r="B322" t="s">
+        <v>390</v>
+      </c>
       <c r="C322" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D322" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="E322" t="s">
         <v>330</v>
       </c>
       <c r="F322" t="s">
-        <v>978</v>
+        <v>1014</v>
       </c>
       <c r="G322" t="s">
-        <v>1028</v>
+        <v>1082</v>
       </c>
       <c r="H322" t="s">
         <v>53</v>
       </c>
       <c r="I322" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="J322" t="s">
         <v>91</v>
@@ -13767,28 +14154,31 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>1029</v>
+        <v>1083</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1084</v>
       </c>
       <c r="C323" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D323" t="s">
-        <v>946</v>
+        <v>971</v>
       </c>
       <c r="E323" t="s">
         <v>14</v>
       </c>
       <c r="F323" t="s">
-        <v>1030</v>
+        <v>1085</v>
       </c>
       <c r="G323" t="s">
-        <v>1031</v>
+        <v>1086</v>
       </c>
       <c r="H323" t="s">
         <v>618</v>
       </c>
       <c r="I323" t="s">
-        <v>983</v>
+        <v>1020</v>
       </c>
       <c r="J323" t="s">
         <v>53</v>
@@ -13796,19 +14186,22 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>1032</v>
+        <v>1087</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1088</v>
       </c>
       <c r="C324" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D324" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E324" t="s">
         <v>14</v>
       </c>
       <c r="F324" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
       <c r="G324" t="s">
         <v>24</v>
@@ -13825,28 +14218,31 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>1033</v>
+        <v>1089</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1090</v>
       </c>
       <c r="C325" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D325" t="s">
-        <v>1034</v>
+        <v>1091</v>
       </c>
       <c r="E325" t="s">
         <v>14</v>
       </c>
       <c r="F325" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G325" t="s">
         <v>24</v>
       </c>
       <c r="H325" t="s">
-        <v>1035</v>
+        <v>1092</v>
       </c>
       <c r="I325" t="s">
-        <v>1036</v>
+        <v>1093</v>
       </c>
       <c r="J325" t="s">
         <v>25</v>
@@ -13854,19 +14250,22 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>1037</v>
+        <v>1094</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1095</v>
       </c>
       <c r="C326" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D326" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="E326" t="s">
         <v>14</v>
       </c>
       <c r="F326" t="s">
-        <v>1038</v>
+        <v>1096</v>
       </c>
       <c r="G326" t="s">
         <v>24</v>
@@ -13883,28 +14282,31 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>1039</v>
+        <v>1097</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1098</v>
       </c>
       <c r="C327" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D327" t="s">
-        <v>961</v>
+        <v>992</v>
       </c>
       <c r="E327" t="s">
         <v>330</v>
       </c>
       <c r="F327" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="G327" t="s">
-        <v>1040</v>
+        <v>1099</v>
       </c>
       <c r="H327" t="s">
         <v>53</v>
       </c>
       <c r="I327" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="J327" t="s">
         <v>91</v>
@@ -13912,19 +14314,22 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>1041</v>
+        <v>1100</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1101</v>
       </c>
       <c r="C328" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D328" t="s">
-        <v>1042</v>
+        <v>1102</v>
       </c>
       <c r="E328" t="s">
         <v>14</v>
       </c>
       <c r="F328" t="s">
-        <v>1043</v>
+        <v>1103</v>
       </c>
       <c r="G328" t="s">
         <v>24</v>
@@ -13941,28 +14346,31 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>1044</v>
+        <v>1104</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1105</v>
       </c>
       <c r="C329" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D329" t="s">
-        <v>1045</v>
+        <v>1106</v>
       </c>
       <c r="E329" t="s">
         <v>14</v>
       </c>
       <c r="F329" t="s">
-        <v>1046</v>
+        <v>1107</v>
       </c>
       <c r="G329" t="s">
-        <v>1047</v>
+        <v>1108</v>
       </c>
       <c r="H329" t="s">
         <v>91</v>
       </c>
       <c r="I329" t="s">
-        <v>941</v>
+        <v>964</v>
       </c>
       <c r="J329" t="s">
         <v>91</v>
@@ -13970,19 +14378,22 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>1048</v>
+        <v>1109</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1110</v>
       </c>
       <c r="C330" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D330" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E330" t="s">
         <v>14</v>
       </c>
       <c r="F330" t="s">
-        <v>1049</v>
+        <v>1111</v>
       </c>
       <c r="G330" t="s">
         <v>24</v>
@@ -13999,28 +14410,31 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>1050</v>
+        <v>1112</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1113</v>
       </c>
       <c r="C331" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D331" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E331" t="s">
         <v>14</v>
       </c>
       <c r="F331" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="G331" t="s">
-        <v>1051</v>
+        <v>1114</v>
       </c>
       <c r="H331" t="s">
-        <v>1035</v>
+        <v>1092</v>
       </c>
       <c r="I331" t="s">
-        <v>1052</v>
+        <v>1115</v>
       </c>
       <c r="J331" t="s">
         <v>75</v>
@@ -14028,28 +14442,31 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>1053</v>
+        <v>1116</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1117</v>
       </c>
       <c r="C332" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D332" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E332" t="s">
         <v>14</v>
       </c>
       <c r="F332" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G332" t="s">
-        <v>1054</v>
+        <v>1118</v>
       </c>
       <c r="H332" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="I332" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="J332" t="s">
         <v>75</v>
@@ -14057,28 +14474,31 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>1055</v>
+        <v>1119</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1120</v>
       </c>
       <c r="C333" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D333" t="s">
-        <v>957</v>
+        <v>987</v>
       </c>
       <c r="E333" t="s">
         <v>14</v>
       </c>
       <c r="F333" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G333" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="H333" t="s">
-        <v>1056</v>
+        <v>1121</v>
       </c>
       <c r="I333" t="s">
-        <v>1057</v>
+        <v>1122</v>
       </c>
       <c r="J333" t="s">
         <v>75</v>
@@ -14086,28 +14506,31 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>1058</v>
+        <v>1123</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1124</v>
       </c>
       <c r="C334" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D334" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E334" t="s">
         <v>14</v>
       </c>
       <c r="F334" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="G334" t="s">
-        <v>1059</v>
+        <v>1125</v>
       </c>
       <c r="H334" t="s">
-        <v>975</v>
+        <v>1010</v>
       </c>
       <c r="I334" t="s">
-        <v>993</v>
+        <v>1033</v>
       </c>
       <c r="J334" t="s">
         <v>75</v>
@@ -14115,19 +14538,22 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>1060</v>
+        <v>1126</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1127</v>
       </c>
       <c r="C335" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D335" t="s">
-        <v>1042</v>
+        <v>1102</v>
       </c>
       <c r="E335" t="s">
         <v>14</v>
       </c>
       <c r="F335" t="s">
-        <v>1061</v>
+        <v>1128</v>
       </c>
       <c r="G335" t="s">
         <v>24</v>
@@ -14144,28 +14570,31 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>1062</v>
+        <v>1129</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1130</v>
       </c>
       <c r="C336" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D336" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="E336" t="s">
         <v>14</v>
       </c>
       <c r="F336" t="s">
-        <v>1063</v>
+        <v>1131</v>
       </c>
       <c r="G336" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H336" t="s">
         <v>681</v>
       </c>
       <c r="I336" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J336" t="s">
         <v>67</v>
@@ -14173,28 +14602,31 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" t="s">
-        <v>1064</v>
+        <v>1132</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1133</v>
       </c>
       <c r="C337" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D337" t="s">
-        <v>961</v>
+        <v>992</v>
       </c>
       <c r="E337" t="s">
         <v>14</v>
       </c>
       <c r="F337" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G337" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="H337" t="s">
         <v>647</v>
       </c>
       <c r="I337" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="J337" t="s">
         <v>75</v>
@@ -14204,26 +14636,29 @@
       <c r="A338" t="s">
         <v>305</v>
       </c>
+      <c r="B338" t="s">
+        <v>1135</v>
+      </c>
       <c r="C338" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D338" t="s">
-        <v>1034</v>
+        <v>1091</v>
       </c>
       <c r="E338" t="s">
         <v>14</v>
       </c>
       <c r="F338" t="s">
-        <v>1066</v>
+        <v>1136</v>
       </c>
       <c r="G338" t="s">
-        <v>985</v>
+        <v>1023</v>
       </c>
       <c r="H338" t="s">
         <v>681</v>
       </c>
       <c r="I338" t="s">
-        <v>1067</v>
+        <v>1137</v>
       </c>
       <c r="J338" t="s">
         <v>91</v>
@@ -14231,28 +14666,31 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" t="s">
-        <v>1068</v>
+        <v>1138</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1139</v>
       </c>
       <c r="C339" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D339" t="s">
-        <v>1045</v>
+        <v>1106</v>
       </c>
       <c r="E339" t="s">
         <v>14</v>
       </c>
       <c r="F339" t="s">
-        <v>1069</v>
+        <v>1140</v>
       </c>
       <c r="G339" t="s">
-        <v>1070</v>
+        <v>1141</v>
       </c>
       <c r="H339" t="s">
-        <v>922</v>
+        <v>939</v>
       </c>
       <c r="I339" t="s">
-        <v>923</v>
+        <v>940</v>
       </c>
       <c r="J339" t="s">
         <v>91</v>
@@ -14260,22 +14698,25 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
-        <v>1071</v>
+        <v>1142</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1143</v>
       </c>
       <c r="C340" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D340" t="s">
-        <v>957</v>
+        <v>987</v>
       </c>
       <c r="E340" t="s">
         <v>14</v>
       </c>
       <c r="F340" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
       <c r="G340" t="s">
-        <v>1072</v>
+        <v>1144</v>
       </c>
       <c r="H340" t="s">
         <v>333</v>

--- a/data_M.xlsx
+++ b/data_M.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="1094">
   <si>
     <t>questName</t>
   </si>
@@ -1192,10 +1192,10 @@
     <t>연옥의 왕, 분개한 염제</t>
   </si>
   <si>
-    <t>테오・카스카토르(テオ・テスカトル) 토벌 혹은 격퇴</t>
-  </si>
-  <si>
-    <t>테오・카스카토르(テオ・テスカトル)의 머리 파괴</t>
+    <t>테오・테스카토르(テオ・テスカトル) 토벌 혹은 격퇴</t>
+  </si>
+  <si>
+    <t>테오・테스카토르(テオ・テスカトル)의 머리 파괴</t>
   </si>
   <si>
     <t>轟竜ティガレックス</t>
@@ -2599,13 +2599,7 @@
     <t>집회소★7</t>
   </si>
   <si>
-    <t>地底火山</t>
-  </si>
-  <si>
-    <t>ディノバルド1頭とウラガンキン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>竜の大粒ナミダ1個の納品</t>
+    <t>디노발드(ディノバルド) 1마리와 우라간킨(ウラガンキン) 1마리 수렵</t>
   </si>
   <si>
     <t>15300z</t>
@@ -2617,12 +2611,6 @@
     <t>정들면 고향인 투기장 생활</t>
   </si>
   <si>
-    <t>闘技場</t>
-  </si>
-  <si>
-    <t>全ての大型モンスターの狩猟</t>
-  </si>
-  <si>
     <t>熱気で熱狂！炎の軍勢！</t>
   </si>
   <si>
@@ -2641,13 +2629,7 @@
     <t>파랗게 소용돌이치는 등용문</t>
   </si>
   <si>
-    <t>渓流</t>
-  </si>
-  <si>
-    <t>ラギアクルス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ラギアクルスの頭部と背中破壊</t>
+    <t>라기아크루스(ラギアクルス)의 머리와 등 파괴</t>
   </si>
   <si>
     <t>灼熱砂上の荒ぶる刀剣</t>
@@ -2656,13 +2638,7 @@
     <t>작열의 모래 위의 난폭한 도검</t>
   </si>
   <si>
-    <t>旧砂漠</t>
-  </si>
-  <si>
-    <t>ディノバルド1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ディノバルドの頭部破壊と尻尾切断</t>
+    <t>디노발드(ディノバルド)의 머리 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>月夜に出でし阿吽の雷撃</t>
@@ -2671,10 +2647,7 @@
     <t>달밤에 나타난 아훔의 뇌격</t>
   </si>
   <si>
-    <t>古代林</t>
-  </si>
-  <si>
-    <t>ラージャン2頭の狩猟</t>
+    <t>라쟌(ラージャン) 2마리 수렵</t>
   </si>
   <si>
     <t>2600z</t>
@@ -2689,7 +2662,7 @@
     <t>분노의 포효</t>
   </si>
   <si>
-    <t>怒り喰らうイビルジョー1頭の狩猟</t>
+    <t>분노를 머금은 이빌죠(怒り喰らうイビルジョー) 1마리 수렵</t>
   </si>
   <si>
     <t>18000z</t>
@@ -2701,25 +2674,13 @@
     <t>금사자의 검은 패기</t>
   </si>
   <si>
-    <t>ラージャン1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ラージャンの角破壊</t>
-  </si>
-  <si>
     <t>荒れる山神、鎮める狩人</t>
   </si>
   <si>
     <t>날뛰는 산신, 진정시키는 사냥꾼</t>
   </si>
   <si>
-    <t>雪山</t>
-  </si>
-  <si>
-    <t>ガムート1頭の狩猟狩猟</t>
-  </si>
-  <si>
-    <t>ガムートの頭部と脚破壊</t>
+    <t>가무토(ガムート)의 머리와 다리 파괴</t>
   </si>
   <si>
     <t>竜のコリーダ</t>
@@ -2728,10 +2689,7 @@
     <t>용의 투우</t>
   </si>
   <si>
-    <t>立体闘技場</t>
-  </si>
-  <si>
-    <t>イャンガルルガ1頭とティガレックス1頭の狩猟</t>
+    <t>얀가루루가(イャンガルルガ) 1마리와 티가렉스(ティガレックス) 1마리 수렵</t>
   </si>
   <si>
     <t>震天動地なグランドウイング</t>
@@ -2740,25 +2698,16 @@
     <t>경천동지할 그랜드 윙</t>
   </si>
   <si>
-    <t>乗りによるダウンを5回成功</t>
+    <t>단차에 의한 다운을 5회 성공</t>
   </si>
   <si>
     <t>29700z</t>
   </si>
   <si>
-    <t>クシャルダオラの討伐または撃退</t>
-  </si>
-  <si>
-    <t>クシャルダオラの尻尾切断</t>
-  </si>
-  <si>
-    <t>森丘</t>
-  </si>
-  <si>
-    <t>オオナズチの討伐または撃退</t>
-  </si>
-  <si>
-    <t>オオナズチの角破壊</t>
+    <t>쿠살다오라(クシャルダオラ)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>오나즈치(オオナズチ)의 뿔 파괴</t>
   </si>
   <si>
     <t>竜王の系譜</t>
@@ -2767,7 +2716,7 @@
     <t>용왕의 계보</t>
   </si>
   <si>
-    <t>リオレウス希少種1頭とリオレイア希少種1頭の狩猟</t>
+    <t>리오레우스 희소종(リオレウス希少種) 1마리와 리오레이아 희소종(リオレイア希少種) 1마리 수렵</t>
   </si>
   <si>
     <t>26700z</t>
@@ -2779,7 +2728,7 @@
     <t>여성 접수원의 추천! 뇌랑룡×2</t>
   </si>
   <si>
-    <t>ジンオウガ2頭の狩猟</t>
+    <t>진오우가(ジンオウガ) 2마리 수렵</t>
   </si>
   <si>
     <t>超☆メモ帳～千刃竜捕獲編～</t>
@@ -2788,10 +2737,10 @@
     <t>초☆메모장 ~천인룡포획편~</t>
   </si>
   <si>
-    <t>セルレギオス1頭の捕獲</t>
-  </si>
-  <si>
-    <t>セルレギオスの翼破壊</t>
+    <t>셀레기오스(セルレギオス) 1마리 포획</t>
+  </si>
+  <si>
+    <t>셀레기오스(セルレギオス)의 날개 파괴</t>
   </si>
   <si>
     <t>柔能く剛能く狩人を制す</t>
@@ -2800,10 +2749,7 @@
     <t>부드럽고 유연하고 강한자야 말로 사냥꾼을 제압할 수 있다. (유능제강의 언어유희)</t>
   </si>
   <si>
-    <t>タマミツネ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>タマミツネの頭部と背ビレ破壊</t>
+    <t>타마미츠네(タマミツネ)의 머리와 등지느러미 파괴</t>
   </si>
   <si>
     <t>湯けむりと噴煙と</t>
@@ -2812,13 +2758,7 @@
     <t>수증기와 분연과</t>
   </si>
   <si>
-    <t>火山</t>
-  </si>
-  <si>
-    <t>ブラキディオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ブラキディオスの頭部と前脚破壊</t>
+    <t>브라키디오스(ブラキディオス)의 머리와 앞다리 파괴</t>
   </si>
   <si>
     <t>絶対零度</t>
@@ -2827,13 +2767,13 @@
     <t>절대영도</t>
   </si>
   <si>
-    <t>極圏</t>
-  </si>
-  <si>
-    <t>ウカムルバスの討伐</t>
-  </si>
-  <si>
-    <t>ウカムルパスの背中破壊</t>
+    <t>극권(極圏)</t>
+  </si>
+  <si>
+    <t>우캄룸바스(ウカムルバス) 토벌</t>
+  </si>
+  <si>
+    <t>우캄룸바스(ウカムルバス)의 등 파괴</t>
   </si>
   <si>
     <t>2000z</t>
@@ -2848,10 +2788,7 @@
     <t>열애발각!? 용들의 밀회!</t>
   </si>
   <si>
-    <t>遺跡平原</t>
-  </si>
-  <si>
-    <t>ライゼクス1頭とリオレイア1頭の狩猟</t>
+    <t>라이젝스(ライゼクス) 1마리와 리오레이아(リオレイア) 1마리 수렵</t>
   </si>
   <si>
     <t>黄金の月輪</t>
@@ -2860,10 +2797,10 @@
     <t>황금의 월륜</t>
   </si>
   <si>
-    <t>リオレイア希少種1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレイア希少種の頭部破壊</t>
+    <t>리오레이아 희소종(リオレイア希少種) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>리오레이아 희소종(リオレイア希少種)의 머리 파괴</t>
   </si>
   <si>
     <t>山紫水明の破壊者</t>
@@ -2872,10 +2809,7 @@
     <t>산자수명한 파괴자</t>
   </si>
   <si>
-    <t>ドボルベルク1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドボルベルクの角とコブ破壊</t>
+    <t>도볼베르크(ドボルベルク)의 뿔과 혹 파괴</t>
   </si>
   <si>
     <t>電光煌めく飛竜の夜</t>
@@ -2884,10 +2818,7 @@
     <t>전광이 빛나는 비룡의 밤</t>
   </si>
   <si>
-    <t>ライゼクス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ライゼクスのトサカと背中破壊</t>
+    <t>라이젝스(ライゼクス)의 볏과 등 파괴</t>
   </si>
   <si>
     <t>熱き闘魂、纏いし炎戈</t>
@@ -2896,10 +2827,7 @@
     <t>뜨거운 투혼, 휘감은 염과</t>
   </si>
   <si>
-    <t>アグナコトル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>アグナコトルの背中と脚破壊</t>
+    <t>아그나코토루(アグナコトル)의 등과 다리 파괴</t>
   </si>
   <si>
     <t>戦々恐々、最恐コンビ</t>
@@ -2908,7 +2836,7 @@
     <t>전전긍긍, 가장 두려운 콤비</t>
   </si>
   <si>
-    <t>イビルジョー1頭とラージャン1頭の狩猟</t>
+    <t>이빌죠(イビルジョー) 1마리와 라쟌(ラージャン) 1마리 수렵</t>
   </si>
   <si>
     <t>21000z</t>
@@ -2920,10 +2848,10 @@
     <t>나락의 요성</t>
   </si>
   <si>
-    <t>竜ノ墓場</t>
-  </si>
-  <si>
-    <t>オストガロアの討伐</t>
+    <t>용의 무덤(竜ノ墓場)</t>
+  </si>
+  <si>
+    <t>오스트가로아(オストガロア) 토벌</t>
   </si>
   <si>
     <t>轟虎馮海</t>
@@ -2932,13 +2860,7 @@
     <t>굉호풍해</t>
   </si>
   <si>
-    <t>氷海</t>
-  </si>
-  <si>
-    <t>ティガレックス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ティガレックスの頭部と爪破壊</t>
+    <t>티가렉스(ティガレックス)의 머리와 발톱 파괴</t>
   </si>
   <si>
     <t>奇奇怪怪のハードビーク</t>
@@ -2962,7 +2884,7 @@
     <t>담천독우</t>
   </si>
   <si>
-    <t>ガブラス20頭の討伐</t>
+    <t>가브라스(ガブラス) 20마리 토벌</t>
   </si>
   <si>
     <t>ビリビリバリバリパニック！！</t>
@@ -2980,13 +2902,7 @@
     <t>유쿠모의 족욕과 뇌랑룡</t>
   </si>
   <si>
-    <t>孤島</t>
-  </si>
-  <si>
-    <t>ジンオウガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ジンオウガの頭部と背中破壊</t>
+    <t>진오우가(ジンオウガ)의 머리와 등 파괴</t>
   </si>
   <si>
     <t>凶賊ゲリョス狩り</t>
@@ -2995,10 +2911,7 @@
     <t>흉적 게료스 사냥</t>
   </si>
   <si>
-    <t>沼地</t>
-  </si>
-  <si>
-    <t>ゲリョス3頭の狩猟</t>
+    <t>게료스(ゲリョス) 3마리 수렵</t>
   </si>
   <si>
     <t>昂ぶる千の刃</t>
@@ -3007,10 +2920,7 @@
     <t>고조되는 천의 칼날</t>
   </si>
   <si>
-    <t>セルレギオス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>セルレギオスの角と脚破壊</t>
+    <t>셀레기오스(セルレギオス)의 뿔과 다리 파괴</t>
   </si>
   <si>
     <t>遺跡平原からの伝書</t>
@@ -3019,21 +2929,12 @@
     <t>유적평원으로부터의 전서</t>
   </si>
   <si>
-    <t>イビルジョー1頭の狩猟</t>
-  </si>
-  <si>
-    <t>イビルジョーの頭部破壊</t>
-  </si>
-  <si>
     <t>試練の帰結点</t>
   </si>
   <si>
     <t>시련의 귀결점</t>
   </si>
   <si>
-    <t>乗りによるダウンを4回成功</t>
-  </si>
-  <si>
     <t>21300z</t>
   </si>
   <si>
@@ -3043,10 +2944,7 @@
     <t>용서없는, 금사자 상대로 경호원</t>
   </si>
   <si>
-    <t>ラージャン3頭の狩猟</t>
-  </si>
-  <si>
-    <t>牙獣の大粒ナミダ1個の納品</t>
+    <t>라쟌(ラージャン) 3마리 수렵</t>
   </si>
   <si>
     <t>2300z</t>
@@ -3061,22 +2959,13 @@
     <t>휘몰아치는 재액의 불</t>
   </si>
   <si>
-    <t>テオ・テスカトルの討伐または撃退</t>
-  </si>
-  <si>
-    <t>テオ・テスカトルの頭部破壊</t>
-  </si>
-  <si>
     <t>白と瑠璃の輪舞曲</t>
   </si>
   <si>
     <t>백과 유리의 윤무곡</t>
   </si>
   <si>
-    <t>原生林</t>
-  </si>
-  <si>
-    <t>タマミツネ1頭とホロロホルル1頭の狩猟</t>
+    <t>타마미츠네(タマミツネ) 1마리와 호로로호루루(ホロロホルル) 1마리 수렵</t>
   </si>
   <si>
     <t>13500z</t>
@@ -3088,22 +2977,19 @@
     <t>천인룡 셀레기오스</t>
   </si>
   <si>
-    <t>乗りよるダウンを2回成功</t>
-  </si>
-  <si>
     <t>舞うは嵐、奏でるは災禍の調べ</t>
   </si>
   <si>
     <t>춤추면 태풍, 연주하면 재화의 조사</t>
   </si>
   <si>
-    <t>霊峰</t>
-  </si>
-  <si>
-    <t>アマツマガツチの討伐</t>
-  </si>
-  <si>
-    <t>アマツマガツチの頭部破壊</t>
+    <t>영봉(霊峰)</t>
+  </si>
+  <si>
+    <t>아마츠마가츠치(アマツマガツチ) 토벌</t>
+  </si>
+  <si>
+    <t>아마츠마가츠치(アマツマガツチ)의 머리 파괴</t>
   </si>
   <si>
     <t>いつか見た幻日</t>
@@ -3112,10 +2998,10 @@
     <t>언젠가 보았던 환일</t>
   </si>
   <si>
-    <t>リオレウス希少種1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレウス希少種の頭部と翼破壊</t>
+    <t>리오레우스 희소종(リオレウス希少種) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>리오레우스 희소종(リオレウス希少種)의 머리와 날개 파괴</t>
   </si>
   <si>
     <t>22800z</t>
@@ -3127,16 +3013,13 @@
     <t>훨훨 내려앉은 강룡</t>
   </si>
   <si>
-    <t>クシャルダオラの翼破壊</t>
-  </si>
-  <si>
     <t>白銀の火輪</t>
   </si>
   <si>
     <t>백은의 화륜</t>
   </si>
   <si>
-    <t>リオレウス希少種の頭部破壊</t>
+    <t>리오레우스 희소종(リオレウス希少種)의 머리 파괴</t>
   </si>
   <si>
     <t>モンスターニャンター</t>
@@ -3151,7 +3034,7 @@
     <t>하늘에 짖고, 대지를 울려라</t>
   </si>
   <si>
-    <t>ジンオウガ1頭とティガレックス1頭の狩猟</t>
+    <t>진오우가(ジンオウガ) 1마리와 티가렉스(ティガレックス) 1마리 수렵</t>
   </si>
   <si>
     <t>森丘の黒い霧</t>
@@ -3160,7 +3043,7 @@
     <t>숲과언덕의 검은 안개</t>
   </si>
   <si>
-    <t>竜の大粒ナミダ2個の納品</t>
+    <t>용의 굵은 눈물(竜の大粒ナミダ) 2개 납품</t>
   </si>
   <si>
     <t>17400z</t>
@@ -3172,10 +3055,7 @@
     <t>현현한 흑식룡</t>
   </si>
   <si>
-    <t>ゴア・マガラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ゴア･マガラの触角と翼脚破壊</t>
+    <t>고어･마가라(ゴア･マガラ)의 촉각과 날개다리 파괴</t>
   </si>
   <si>
     <t>14100z</t>
@@ -3187,10 +3067,7 @@
     <t>영에 맹이지만 불이기도 하다</t>
   </si>
   <si>
-    <t>リオレウス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレウスの翼破壊と尻尾切断</t>
+    <t>리오레우스(リオレウス)의 날개 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>痺れる魔球</t>
@@ -3199,18 +3076,12 @@
     <t>저리는 마구</t>
   </si>
   <si>
-    <t>ラングロトラ1頭の狩猟</t>
-  </si>
-  <si>
     <t>縦横無尽なフレックスフィン</t>
   </si>
   <si>
     <t>종횡무진한 플렉스핀</t>
   </si>
   <si>
-    <t>水上闘技場</t>
-  </si>
-  <si>
     <t>3100z</t>
   </si>
   <si>
@@ -3223,9 +3094,6 @@
     <t>그랜드・헌터・게임</t>
   </si>
   <si>
-    <t>アルセルタスを除く全ての大型モンスターの狩猟</t>
-  </si>
-  <si>
     <t>原生林の平和を守れ</t>
   </si>
   <si>
@@ -3247,10 +3115,7 @@
     <t>난공불략의 중갑충</t>
   </si>
   <si>
-    <t>ゲネル・セルタス1匹の狩猟</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタスの頭部と脚破壊</t>
+    <t>게넬・셀타스(ゲネル・セルタス)의 머리와 다리 파괴</t>
   </si>
   <si>
     <t>鎧袖一触のパワフルアームズ</t>
@@ -3265,7 +3130,7 @@
     <t>39600z</t>
   </si>
   <si>
-    <t>テオ・テスカトルの尻尾切断</t>
+    <t>테오・테스카토르(テオ・テスカトル)의 꼬리 절단</t>
   </si>
   <si>
     <t>冷たき甲冑</t>
@@ -3274,10 +3139,10 @@
     <t>차가운 갑주</t>
   </si>
   <si>
-    <t>ガムート1頭とザボアザギル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント500pts入手</t>
+    <t>가무토(ガムート) 1마리와 자보아자길(ザボアザギル) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>용역원(龍歴院)포인트 500pts 입수</t>
   </si>
   <si>
     <t>炸裂！爆砕拳！</t>
@@ -3292,9 +3157,6 @@
     <t>그의 땅에 모여든 파멸의 재난</t>
   </si>
   <si>
-    <t>禁足地</t>
-  </si>
-  <si>
     <t>3200z</t>
   </si>
   <si>
@@ -3307,7 +3169,7 @@
     <t>그 솜씨, 소문대로일까나...?</t>
   </si>
   <si>
-    <t>ディアブロス1頭の狩猟</t>
+    <t>디아블로스(ディアブロス) 1마리 수렵</t>
   </si>
   <si>
     <t>しじまの向こう</t>
@@ -3316,19 +3178,13 @@
     <t>침묵의 저편</t>
   </si>
   <si>
-    <t>オオナズチの尻尾切断</t>
-  </si>
-  <si>
     <t>灼熱と妖艶</t>
   </si>
   <si>
     <t>작열과 요염</t>
   </si>
   <si>
-    <t>塔の秘境</t>
-  </si>
-  <si>
-    <t>ディノバルド1頭とタマミツネ1頭の狩猟</t>
+    <t>디노발드(ディノバルド) 1마리와 타마미츠네(タマミツネ) 1마리 수렵</t>
   </si>
   <si>
     <t>煌黒龍アルバトリオン</t>
@@ -3337,13 +3193,13 @@
     <t>황흑룡 알바트리온</t>
   </si>
   <si>
-    <t>溶岩島</t>
-  </si>
-  <si>
-    <t>アルバトリオンの討伐</t>
-  </si>
-  <si>
-    <t>アルバトリオンの角破壊</t>
+    <t>용암도(溶岩島)</t>
+  </si>
+  <si>
+    <t>알바트리온(アルバトリオン) 토벌</t>
+  </si>
+  <si>
+    <t>알바트리온(アルバトリオン)의 뿔 파괴</t>
   </si>
   <si>
     <t>爆鎚竜の顎破壊に挑戦！</t>
@@ -3352,16 +3208,13 @@
     <t>폭추룡의 턱 파괴에 도전!</t>
   </si>
   <si>
-    <t>ウラガンキンの顎破壊</t>
-  </si>
-  <si>
     <t>金と銀の煌き</t>
   </si>
   <si>
     <t>금과 은의 번쩍임</t>
   </si>
   <si>
-    <t>乗りによるダウンを3回成功</t>
+    <t>단차에 의한 다운을 3회 성공</t>
   </si>
   <si>
     <t>31800z</t>
@@ -3373,7 +3226,7 @@
     <t>아직 보지 못한 비탕을 찾아서</t>
   </si>
   <si>
-    <t>ジンオウガの頭部と前脚破壊</t>
+    <t>진오우가(ジンオウガ)의 머리와 앞다리 파괴</t>
   </si>
   <si>
     <t>汝ノチカラヲ、見セテミヨ</t>
@@ -3394,7 +3247,7 @@
     <t>계류로부터의 구원요청</t>
   </si>
   <si>
-    <t>リオレイア希少種の頭部と翼破壊</t>
+    <t>리오레이아 희소종(リオレイア希少種)의 머리와 날개 파괴</t>
   </si>
   <si>
     <t>山神と電影</t>
@@ -3403,7 +3256,7 @@
     <t>산신과 전영</t>
   </si>
   <si>
-    <t>ライゼクス1頭とガムート1頭の狩猟</t>
+    <t>라이젝스(ライゼクス) 1마리와 가무토(ガムート) 1마리 수렵</t>
   </si>
   <si>
     <t>空の飛竜と陸の飛竜</t>
@@ -3412,9 +3265,6 @@
     <t>하늘의 비룡과 육지의 비룡</t>
   </si>
   <si>
-    <t>リオレウス1頭とリオレイア1頭の狩猟</t>
-  </si>
-  <si>
     <t>沼地酔夢譚</t>
   </si>
   <si>
@@ -3427,9 +3277,6 @@
     <t>돌고 모여서 회귀하리라</t>
   </si>
   <si>
-    <t>シャガルマガラの討伐</t>
-  </si>
-  <si>
     <t>15600z</t>
   </si>
   <si>
@@ -3439,10 +3286,10 @@
     <t>옥염에 앉은, 패자되는 자</t>
   </si>
   <si>
-    <t>アカムトルムの討伐</t>
-  </si>
-  <si>
-    <t>アカムトルムの背中破壊</t>
+    <t>아캄토룸(アカムトルム) 토벌</t>
+  </si>
+  <si>
+    <t>아캄토룸(アカムトルム)의 등 파괴</t>
   </si>
   <si>
     <t>無理した弟子の、後始末</t>
@@ -3451,7 +3298,7 @@
     <t>무리해버린 제자의, 뒤처리</t>
   </si>
   <si>
-    <t>ブラキディオスの頭部破壊</t>
+    <t>브라키디오스(ブラキディオス)의 머리 파괴</t>
   </si>
 </sst>
 </file>
@@ -3830,8 +3677,8 @@
   <dimension ref="A1:J340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B340" sqref="B340"/>
+      <pane ySplit="1" topLeftCell="E323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G341" sqref="G341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12339,22 +12186,22 @@
         <v>859</v>
       </c>
       <c r="D266" t="s">
+        <v>529</v>
+      </c>
+      <c r="E266" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" t="s">
         <v>860</v>
       </c>
-      <c r="E266" t="s">
-        <v>14</v>
-      </c>
-      <c r="F266" t="s">
-        <v>861</v>
-      </c>
       <c r="G266" t="s">
-        <v>862</v>
+        <v>430</v>
       </c>
       <c r="H266" t="s">
         <v>681</v>
       </c>
       <c r="I266" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J266" t="s">
         <v>67</v>
@@ -12362,22 +12209,22 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B267" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C267" t="s">
         <v>859</v>
       </c>
       <c r="D267" t="s">
-        <v>866</v>
+        <v>299</v>
       </c>
       <c r="E267" t="s">
         <v>14</v>
       </c>
       <c r="F267" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G267" t="s">
         <v>24</v>
@@ -12394,31 +12241,31 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="B268" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C268" t="s">
         <v>859</v>
       </c>
       <c r="D268" t="s">
-        <v>866</v>
+        <v>299</v>
       </c>
       <c r="E268" t="s">
         <v>14</v>
       </c>
       <c r="F268" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G268" t="s">
         <v>24</v>
       </c>
       <c r="H268" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="I268" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="J268" t="s">
         <v>25</v>
@@ -12426,25 +12273,25 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B269" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C269" t="s">
         <v>859</v>
       </c>
       <c r="D269" t="s">
-        <v>874</v>
+        <v>46</v>
       </c>
       <c r="E269" t="s">
         <v>14</v>
       </c>
       <c r="F269" t="s">
-        <v>875</v>
+        <v>351</v>
       </c>
       <c r="G269" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="H269" t="s">
         <v>333</v>
@@ -12458,25 +12305,25 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B270" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="C270" t="s">
         <v>859</v>
       </c>
       <c r="D270" t="s">
-        <v>879</v>
+        <v>64</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
       </c>
       <c r="F270" t="s">
-        <v>880</v>
+        <v>381</v>
       </c>
       <c r="G270" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="H270" t="s">
         <v>48</v>
@@ -12490,31 +12337,31 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="B271" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="C271" t="s">
         <v>859</v>
       </c>
       <c r="D271" t="s">
-        <v>884</v>
+        <v>36</v>
       </c>
       <c r="E271" t="s">
         <v>14</v>
       </c>
       <c r="F271" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="G271" t="s">
         <v>24</v>
       </c>
       <c r="H271" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="I271" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="J271" t="s">
         <v>25</v>
@@ -12522,22 +12369,22 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="B272" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C272" t="s">
         <v>859</v>
       </c>
       <c r="D272" t="s">
-        <v>879</v>
+        <v>64</v>
       </c>
       <c r="E272" t="s">
         <v>14</v>
       </c>
       <c r="F272" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="G272" t="s">
         <v>24</v>
@@ -12546,7 +12393,7 @@
         <v>53</v>
       </c>
       <c r="I272" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="J272" t="s">
         <v>25</v>
@@ -12554,31 +12401,31 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="B273" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="C273" t="s">
         <v>859</v>
       </c>
       <c r="D273" t="s">
-        <v>884</v>
+        <v>36</v>
       </c>
       <c r="E273" t="s">
         <v>14</v>
       </c>
       <c r="F273" t="s">
-        <v>894</v>
+        <v>685</v>
       </c>
       <c r="G273" t="s">
-        <v>895</v>
+        <v>713</v>
       </c>
       <c r="H273" t="s">
         <v>53</v>
       </c>
       <c r="I273" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="J273" t="s">
         <v>75</v>
@@ -12586,25 +12433,25 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="B274" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="C274" t="s">
         <v>859</v>
       </c>
       <c r="D274" t="s">
-        <v>898</v>
+        <v>29</v>
       </c>
       <c r="E274" t="s">
         <v>14</v>
       </c>
       <c r="F274" t="s">
-        <v>899</v>
+        <v>398</v>
       </c>
       <c r="G274" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="H274" t="s">
         <v>48</v>
@@ -12618,22 +12465,22 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="B275" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="C275" t="s">
         <v>859</v>
       </c>
       <c r="D275" t="s">
-        <v>903</v>
+        <v>646</v>
       </c>
       <c r="E275" t="s">
         <v>14</v>
       </c>
       <c r="F275" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="G275" t="s">
         <v>24</v>
@@ -12642,7 +12489,7 @@
         <v>681</v>
       </c>
       <c r="I275" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J275" t="s">
         <v>25</v>
@@ -12650,31 +12497,31 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="B276" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="C276" t="s">
         <v>859</v>
       </c>
       <c r="D276" t="s">
-        <v>866</v>
+        <v>299</v>
       </c>
       <c r="E276" t="s">
         <v>14</v>
       </c>
       <c r="F276" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G276" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="H276" t="s">
         <v>18</v>
       </c>
       <c r="I276" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="J276" t="s">
         <v>75</v>
@@ -12691,22 +12538,22 @@
         <v>859</v>
       </c>
       <c r="D277" t="s">
-        <v>898</v>
+        <v>29</v>
       </c>
       <c r="E277" t="s">
         <v>330</v>
       </c>
       <c r="F277" t="s">
-        <v>909</v>
+        <v>331</v>
       </c>
       <c r="G277" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="H277" t="s">
         <v>53</v>
       </c>
       <c r="I277" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="J277" t="s">
         <v>91</v>
@@ -12723,22 +12570,22 @@
         <v>859</v>
       </c>
       <c r="D278" t="s">
-        <v>911</v>
+        <v>13</v>
       </c>
       <c r="E278" t="s">
         <v>330</v>
       </c>
       <c r="F278" t="s">
-        <v>912</v>
+        <v>354</v>
       </c>
       <c r="G278" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="H278" t="s">
         <v>53</v>
       </c>
       <c r="I278" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="J278" t="s">
         <v>91</v>
@@ -12746,31 +12593,31 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="B279" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="C279" t="s">
         <v>859</v>
       </c>
       <c r="D279" t="s">
-        <v>884</v>
+        <v>36</v>
       </c>
       <c r="E279" t="s">
         <v>14</v>
       </c>
       <c r="F279" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="G279" t="s">
-        <v>862</v>
+        <v>430</v>
       </c>
       <c r="H279" t="s">
         <v>67</v>
       </c>
       <c r="I279" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="J279" t="s">
         <v>67</v>
@@ -12778,22 +12625,22 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="B280" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="C280" t="s">
         <v>859</v>
       </c>
       <c r="D280" t="s">
-        <v>874</v>
+        <v>46</v>
       </c>
       <c r="E280" t="s">
         <v>14</v>
       </c>
       <c r="F280" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="G280" t="s">
         <v>24</v>
@@ -12810,25 +12657,25 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="B281" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="C281" t="s">
         <v>859</v>
       </c>
       <c r="D281" t="s">
-        <v>860</v>
+        <v>529</v>
       </c>
       <c r="E281" t="s">
         <v>14</v>
       </c>
       <c r="F281" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="G281" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="H281" t="s">
         <v>548</v>
@@ -12842,25 +12689,25 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="B282" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="C282" t="s">
         <v>859</v>
       </c>
       <c r="D282" t="s">
-        <v>874</v>
+        <v>46</v>
       </c>
       <c r="E282" t="s">
         <v>14</v>
       </c>
       <c r="F282" t="s">
-        <v>927</v>
+        <v>337</v>
       </c>
       <c r="G282" t="s">
-        <v>928</v>
+        <v>910</v>
       </c>
       <c r="H282" t="s">
         <v>48</v>
@@ -12874,31 +12721,31 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="B283" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
       <c r="C283" t="s">
         <v>859</v>
       </c>
       <c r="D283" t="s">
-        <v>931</v>
+        <v>281</v>
       </c>
       <c r="E283" t="s">
         <v>14</v>
       </c>
       <c r="F283" t="s">
-        <v>932</v>
+        <v>378</v>
       </c>
       <c r="G283" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="H283" t="s">
         <v>681</v>
       </c>
       <c r="I283" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J283" t="s">
         <v>75</v>
@@ -12906,31 +12753,31 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>934</v>
+        <v>914</v>
       </c>
       <c r="B284" t="s">
-        <v>935</v>
+        <v>915</v>
       </c>
       <c r="C284" t="s">
         <v>859</v>
       </c>
       <c r="D284" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
       <c r="E284" t="s">
         <v>14</v>
       </c>
       <c r="F284" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
       <c r="G284" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
       <c r="H284" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
       <c r="I284" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="J284" t="s">
         <v>91</v>
@@ -12938,25 +12785,25 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>941</v>
+        <v>921</v>
       </c>
       <c r="B285" t="s">
-        <v>942</v>
+        <v>922</v>
       </c>
       <c r="C285" t="s">
         <v>859</v>
       </c>
       <c r="D285" t="s">
-        <v>943</v>
+        <v>429</v>
       </c>
       <c r="E285" t="s">
         <v>14</v>
       </c>
       <c r="F285" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="G285" t="s">
-        <v>862</v>
+        <v>430</v>
       </c>
       <c r="H285" t="s">
         <v>618</v>
@@ -12970,25 +12817,25 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="B286" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="C286" t="s">
         <v>859</v>
       </c>
       <c r="D286" t="s">
-        <v>874</v>
+        <v>46</v>
       </c>
       <c r="E286" t="s">
         <v>14</v>
       </c>
       <c r="F286" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="G286" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="H286" t="s">
         <v>691</v>
@@ -13002,31 +12849,31 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="B287" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="C287" t="s">
         <v>859</v>
       </c>
       <c r="D287" t="s">
-        <v>874</v>
+        <v>46</v>
       </c>
       <c r="E287" t="s">
         <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>951</v>
+        <v>657</v>
       </c>
       <c r="G287" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="H287" t="s">
         <v>681</v>
       </c>
       <c r="I287" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J287" t="s">
         <v>75</v>
@@ -13034,25 +12881,25 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="B288" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="C288" t="s">
         <v>859</v>
       </c>
       <c r="D288" t="s">
-        <v>911</v>
+        <v>13</v>
       </c>
       <c r="E288" t="s">
         <v>14</v>
       </c>
       <c r="F288" t="s">
-        <v>955</v>
+        <v>277</v>
       </c>
       <c r="G288" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="H288" t="s">
         <v>48</v>
@@ -13066,25 +12913,25 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
       <c r="B289" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
       <c r="C289" t="s">
         <v>859</v>
       </c>
       <c r="D289" t="s">
-        <v>931</v>
+        <v>281</v>
       </c>
       <c r="E289" t="s">
         <v>14</v>
       </c>
       <c r="F289" t="s">
-        <v>959</v>
+        <v>722</v>
       </c>
       <c r="G289" t="s">
-        <v>960</v>
+        <v>936</v>
       </c>
       <c r="H289" t="s">
         <v>618</v>
@@ -13098,22 +12945,22 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>961</v>
+        <v>937</v>
       </c>
       <c r="B290" t="s">
-        <v>962</v>
+        <v>938</v>
       </c>
       <c r="C290" t="s">
         <v>859</v>
       </c>
       <c r="D290" t="s">
-        <v>931</v>
+        <v>281</v>
       </c>
       <c r="E290" t="s">
         <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="G290" t="s">
         <v>24</v>
@@ -13122,7 +12969,7 @@
         <v>91</v>
       </c>
       <c r="I290" t="s">
-        <v>964</v>
+        <v>940</v>
       </c>
       <c r="J290" t="s">
         <v>25</v>
@@ -13130,22 +12977,22 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
-        <v>965</v>
+        <v>941</v>
       </c>
       <c r="B291" t="s">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="C291" t="s">
         <v>859</v>
       </c>
       <c r="D291" t="s">
-        <v>967</v>
+        <v>943</v>
       </c>
       <c r="E291" t="s">
         <v>14</v>
       </c>
       <c r="F291" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="G291" t="s">
         <v>24</v>
@@ -13154,7 +13001,7 @@
         <v>91</v>
       </c>
       <c r="I291" t="s">
-        <v>964</v>
+        <v>940</v>
       </c>
       <c r="J291" t="s">
         <v>25</v>
@@ -13162,31 +13009,31 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
       <c r="B292" t="s">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="C292" t="s">
         <v>859</v>
       </c>
       <c r="D292" t="s">
-        <v>971</v>
+        <v>509</v>
       </c>
       <c r="E292" t="s">
         <v>14</v>
       </c>
       <c r="F292" t="s">
-        <v>972</v>
+        <v>395</v>
       </c>
       <c r="G292" t="s">
-        <v>973</v>
+        <v>947</v>
       </c>
       <c r="H292" t="s">
         <v>681</v>
       </c>
       <c r="I292" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J292" t="s">
         <v>75</v>
@@ -13194,31 +13041,31 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>974</v>
+        <v>948</v>
       </c>
       <c r="B293" t="s">
-        <v>975</v>
+        <v>949</v>
       </c>
       <c r="C293" t="s">
         <v>859</v>
       </c>
       <c r="D293" t="s">
-        <v>866</v>
+        <v>299</v>
       </c>
       <c r="E293" t="s">
         <v>14</v>
       </c>
       <c r="F293" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G293" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="H293" t="s">
         <v>53</v>
       </c>
       <c r="I293" t="s">
-        <v>976</v>
+        <v>950</v>
       </c>
       <c r="J293" t="s">
         <v>75</v>
@@ -13226,31 +13073,31 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
-        <v>977</v>
+        <v>951</v>
       </c>
       <c r="B294" t="s">
-        <v>978</v>
+        <v>952</v>
       </c>
       <c r="C294" t="s">
         <v>859</v>
       </c>
       <c r="D294" t="s">
-        <v>931</v>
+        <v>281</v>
       </c>
       <c r="E294" t="s">
         <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>894</v>
+        <v>685</v>
       </c>
       <c r="G294" t="s">
-        <v>895</v>
+        <v>713</v>
       </c>
       <c r="H294" t="s">
         <v>53</v>
       </c>
       <c r="I294" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="J294" t="s">
         <v>91</v>
@@ -13258,22 +13105,22 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>979</v>
+        <v>953</v>
       </c>
       <c r="B295" t="s">
-        <v>980</v>
+        <v>954</v>
       </c>
       <c r="C295" t="s">
         <v>859</v>
       </c>
       <c r="D295" t="s">
-        <v>971</v>
+        <v>509</v>
       </c>
       <c r="E295" t="s">
         <v>14</v>
       </c>
       <c r="F295" t="s">
-        <v>981</v>
+        <v>955</v>
       </c>
       <c r="G295" t="s">
         <v>24</v>
@@ -13290,22 +13137,22 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>982</v>
+        <v>956</v>
       </c>
       <c r="B296" t="s">
-        <v>983</v>
+        <v>957</v>
       </c>
       <c r="C296" t="s">
         <v>859</v>
       </c>
       <c r="D296" t="s">
-        <v>866</v>
+        <v>299</v>
       </c>
       <c r="E296" t="s">
         <v>14</v>
       </c>
       <c r="F296" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G296" t="s">
         <v>24</v>
@@ -13314,7 +13161,7 @@
         <v>451</v>
       </c>
       <c r="I296" t="s">
-        <v>984</v>
+        <v>958</v>
       </c>
       <c r="J296" t="s">
         <v>25</v>
@@ -13322,25 +13169,25 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>985</v>
+        <v>959</v>
       </c>
       <c r="B297" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="C297" t="s">
         <v>859</v>
       </c>
       <c r="D297" t="s">
-        <v>987</v>
+        <v>161</v>
       </c>
       <c r="E297" t="s">
         <v>14</v>
       </c>
       <c r="F297" t="s">
-        <v>988</v>
+        <v>363</v>
       </c>
       <c r="G297" t="s">
-        <v>989</v>
+        <v>961</v>
       </c>
       <c r="H297" t="s">
         <v>618</v>
@@ -13354,25 +13201,25 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>990</v>
+        <v>962</v>
       </c>
       <c r="B298" t="s">
-        <v>991</v>
+        <v>963</v>
       </c>
       <c r="C298" t="s">
         <v>859</v>
       </c>
       <c r="D298" t="s">
-        <v>992</v>
+        <v>157</v>
       </c>
       <c r="E298" t="s">
         <v>14</v>
       </c>
       <c r="F298" t="s">
-        <v>993</v>
+        <v>964</v>
       </c>
       <c r="G298" t="s">
-        <v>862</v>
+        <v>430</v>
       </c>
       <c r="H298" t="s">
         <v>548</v>
@@ -13386,31 +13233,31 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>994</v>
+        <v>965</v>
       </c>
       <c r="B299" t="s">
-        <v>995</v>
+        <v>966</v>
       </c>
       <c r="C299" t="s">
         <v>859</v>
       </c>
       <c r="D299" t="s">
-        <v>860</v>
+        <v>529</v>
       </c>
       <c r="E299" t="s">
         <v>14</v>
       </c>
       <c r="F299" t="s">
-        <v>996</v>
+        <v>411</v>
       </c>
       <c r="G299" t="s">
-        <v>997</v>
+        <v>967</v>
       </c>
       <c r="H299" t="s">
         <v>681</v>
       </c>
       <c r="I299" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J299" t="s">
         <v>75</v>
@@ -13418,31 +13265,31 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>998</v>
+        <v>968</v>
       </c>
       <c r="B300" t="s">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="C300" t="s">
         <v>859</v>
       </c>
       <c r="D300" t="s">
-        <v>943</v>
+        <v>429</v>
       </c>
       <c r="E300" t="s">
         <v>14</v>
       </c>
       <c r="F300" t="s">
-        <v>1000</v>
+        <v>764</v>
       </c>
       <c r="G300" t="s">
-        <v>1001</v>
+        <v>781</v>
       </c>
       <c r="H300" t="s">
         <v>53</v>
       </c>
       <c r="I300" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="J300" t="s">
         <v>75</v>
@@ -13450,31 +13297,31 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="B301" t="s">
-        <v>1003</v>
+        <v>971</v>
       </c>
       <c r="C301" t="s">
         <v>859</v>
       </c>
       <c r="D301" t="s">
-        <v>879</v>
+        <v>64</v>
       </c>
       <c r="E301" t="s">
         <v>14</v>
       </c>
       <c r="F301" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G301" t="s">
-        <v>1004</v>
+        <v>810</v>
       </c>
       <c r="H301" t="s">
         <v>647</v>
       </c>
       <c r="I301" t="s">
-        <v>1005</v>
+        <v>972</v>
       </c>
       <c r="J301" t="s">
         <v>75</v>
@@ -13482,31 +13329,31 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
       <c r="B302" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="C302" t="s">
         <v>859</v>
       </c>
       <c r="D302" t="s">
-        <v>884</v>
+        <v>36</v>
       </c>
       <c r="E302" t="s">
         <v>14</v>
       </c>
       <c r="F302" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="G302" t="s">
-        <v>1009</v>
+        <v>545</v>
       </c>
       <c r="H302" t="s">
-        <v>1010</v>
+        <v>976</v>
       </c>
       <c r="I302" t="s">
-        <v>1011</v>
+        <v>977</v>
       </c>
       <c r="J302" t="s">
         <v>53</v>
@@ -13514,31 +13361,31 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>1012</v>
+        <v>978</v>
       </c>
       <c r="B303" t="s">
-        <v>1013</v>
+        <v>979</v>
       </c>
       <c r="C303" t="s">
         <v>859</v>
       </c>
       <c r="D303" t="s">
-        <v>860</v>
+        <v>529</v>
       </c>
       <c r="E303" t="s">
         <v>330</v>
       </c>
       <c r="F303" t="s">
-        <v>1014</v>
+        <v>391</v>
       </c>
       <c r="G303" t="s">
-        <v>1015</v>
+        <v>392</v>
       </c>
       <c r="H303" t="s">
         <v>53</v>
       </c>
       <c r="I303" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="J303" t="s">
         <v>91</v>
@@ -13546,31 +13393,31 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>1016</v>
+        <v>980</v>
       </c>
       <c r="B304" t="s">
-        <v>1017</v>
+        <v>981</v>
       </c>
       <c r="C304" t="s">
         <v>859</v>
       </c>
       <c r="D304" t="s">
-        <v>1018</v>
+        <v>416</v>
       </c>
       <c r="E304" t="s">
         <v>14</v>
       </c>
       <c r="F304" t="s">
-        <v>1019</v>
+        <v>982</v>
       </c>
       <c r="G304" t="s">
-        <v>862</v>
+        <v>430</v>
       </c>
       <c r="H304" t="s">
         <v>618</v>
       </c>
       <c r="I304" t="s">
-        <v>1020</v>
+        <v>983</v>
       </c>
       <c r="J304" t="s">
         <v>67</v>
@@ -13578,25 +13425,25 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
-        <v>1021</v>
+        <v>984</v>
       </c>
       <c r="B305" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="C305" t="s">
         <v>859</v>
       </c>
       <c r="D305" t="s">
-        <v>879</v>
+        <v>64</v>
       </c>
       <c r="E305" t="s">
         <v>14</v>
       </c>
       <c r="F305" t="s">
-        <v>996</v>
+        <v>411</v>
       </c>
       <c r="G305" t="s">
-        <v>1023</v>
+        <v>16</v>
       </c>
       <c r="H305" t="s">
         <v>333</v>
@@ -13610,31 +13457,31 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>1024</v>
+        <v>986</v>
       </c>
       <c r="B306" t="s">
-        <v>1025</v>
+        <v>987</v>
       </c>
       <c r="C306" t="s">
         <v>859</v>
       </c>
       <c r="D306" t="s">
-        <v>1026</v>
+        <v>988</v>
       </c>
       <c r="E306" t="s">
         <v>14</v>
       </c>
       <c r="F306" t="s">
-        <v>1027</v>
+        <v>989</v>
       </c>
       <c r="G306" t="s">
-        <v>1028</v>
+        <v>990</v>
       </c>
       <c r="H306" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
       <c r="I306" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="J306" t="s">
         <v>91</v>
@@ -13642,31 +13489,31 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>1029</v>
+        <v>991</v>
       </c>
       <c r="B307" t="s">
-        <v>1030</v>
+        <v>992</v>
       </c>
       <c r="C307" t="s">
         <v>859</v>
       </c>
       <c r="D307" t="s">
-        <v>884</v>
+        <v>36</v>
       </c>
       <c r="E307" t="s">
         <v>14</v>
       </c>
       <c r="F307" t="s">
-        <v>1031</v>
+        <v>993</v>
       </c>
       <c r="G307" t="s">
-        <v>1032</v>
+        <v>994</v>
       </c>
       <c r="H307" t="s">
-        <v>1010</v>
+        <v>976</v>
       </c>
       <c r="I307" t="s">
-        <v>1033</v>
+        <v>995</v>
       </c>
       <c r="J307" t="s">
         <v>75</v>
@@ -13674,31 +13521,31 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>1034</v>
+        <v>996</v>
       </c>
       <c r="B308" t="s">
-        <v>1035</v>
+        <v>997</v>
       </c>
       <c r="C308" t="s">
         <v>859</v>
       </c>
       <c r="D308" t="s">
-        <v>971</v>
+        <v>509</v>
       </c>
       <c r="E308" t="s">
         <v>330</v>
       </c>
       <c r="F308" t="s">
-        <v>909</v>
+        <v>331</v>
       </c>
       <c r="G308" t="s">
-        <v>1036</v>
+        <v>332</v>
       </c>
       <c r="H308" t="s">
         <v>53</v>
       </c>
       <c r="I308" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="J308" t="s">
         <v>91</v>
@@ -13706,25 +13553,25 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>1037</v>
+        <v>998</v>
       </c>
       <c r="B309" t="s">
-        <v>1038</v>
+        <v>999</v>
       </c>
       <c r="C309" t="s">
         <v>859</v>
       </c>
       <c r="D309" t="s">
-        <v>911</v>
+        <v>13</v>
       </c>
       <c r="E309" t="s">
         <v>14</v>
       </c>
       <c r="F309" t="s">
-        <v>1031</v>
+        <v>993</v>
       </c>
       <c r="G309" t="s">
-        <v>1039</v>
+        <v>1000</v>
       </c>
       <c r="H309" t="s">
         <v>691</v>
@@ -13738,22 +13585,22 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
-        <v>1040</v>
+        <v>1001</v>
       </c>
       <c r="B310" t="s">
-        <v>1041</v>
+        <v>1002</v>
       </c>
       <c r="C310" t="s">
         <v>859</v>
       </c>
       <c r="D310" t="s">
-        <v>866</v>
+        <v>299</v>
       </c>
       <c r="E310" t="s">
         <v>14</v>
       </c>
       <c r="F310" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G310" t="s">
         <v>24</v>
@@ -13770,25 +13617,25 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>1042</v>
+        <v>1003</v>
       </c>
       <c r="B311" t="s">
-        <v>1043</v>
+        <v>1004</v>
       </c>
       <c r="C311" t="s">
         <v>859</v>
       </c>
       <c r="D311" t="s">
-        <v>884</v>
+        <v>36</v>
       </c>
       <c r="E311" t="s">
         <v>14</v>
       </c>
       <c r="F311" t="s">
-        <v>1044</v>
+        <v>1005</v>
       </c>
       <c r="G311" t="s">
-        <v>862</v>
+        <v>430</v>
       </c>
       <c r="H311" t="s">
         <v>548</v>
@@ -13802,31 +13649,31 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>1045</v>
+        <v>1006</v>
       </c>
       <c r="B312" t="s">
-        <v>1046</v>
+        <v>1007</v>
       </c>
       <c r="C312" t="s">
         <v>859</v>
       </c>
       <c r="D312" t="s">
-        <v>911</v>
+        <v>13</v>
       </c>
       <c r="E312" t="s">
         <v>14</v>
       </c>
       <c r="F312" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G312" t="s">
-        <v>1047</v>
+        <v>1008</v>
       </c>
       <c r="H312" t="s">
         <v>53</v>
       </c>
       <c r="I312" t="s">
-        <v>1048</v>
+        <v>1009</v>
       </c>
       <c r="J312" t="s">
         <v>369</v>
@@ -13834,31 +13681,31 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>1049</v>
+        <v>1010</v>
       </c>
       <c r="B313" t="s">
-        <v>1050</v>
+        <v>1011</v>
       </c>
       <c r="C313" t="s">
         <v>859</v>
       </c>
       <c r="D313" t="s">
-        <v>943</v>
+        <v>429</v>
       </c>
       <c r="E313" t="s">
         <v>14</v>
       </c>
       <c r="F313" t="s">
-        <v>1051</v>
+        <v>372</v>
       </c>
       <c r="G313" t="s">
-        <v>1052</v>
+        <v>1012</v>
       </c>
       <c r="H313" t="s">
         <v>48</v>
       </c>
       <c r="I313" t="s">
-        <v>1053</v>
+        <v>1013</v>
       </c>
       <c r="J313" t="s">
         <v>75</v>
@@ -13866,25 +13713,25 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>1054</v>
+        <v>1014</v>
       </c>
       <c r="B314" t="s">
-        <v>1055</v>
+        <v>1015</v>
       </c>
       <c r="C314" t="s">
         <v>859</v>
       </c>
       <c r="D314" t="s">
-        <v>860</v>
+        <v>529</v>
       </c>
       <c r="E314" t="s">
         <v>14</v>
       </c>
       <c r="F314" t="s">
-        <v>1056</v>
+        <v>327</v>
       </c>
       <c r="G314" t="s">
-        <v>1057</v>
+        <v>1016</v>
       </c>
       <c r="H314" t="s">
         <v>333</v>
@@ -13898,22 +13745,22 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>1058</v>
+        <v>1017</v>
       </c>
       <c r="B315" t="s">
-        <v>1059</v>
+        <v>1018</v>
       </c>
       <c r="C315" t="s">
         <v>859</v>
       </c>
       <c r="D315" t="s">
-        <v>884</v>
+        <v>36</v>
       </c>
       <c r="E315" t="s">
         <v>14</v>
       </c>
       <c r="F315" t="s">
-        <v>1060</v>
+        <v>198</v>
       </c>
       <c r="G315" t="s">
         <v>24</v>
@@ -13930,31 +13777,31 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>1061</v>
+        <v>1019</v>
       </c>
       <c r="B316" t="s">
-        <v>1062</v>
+        <v>1020</v>
       </c>
       <c r="C316" t="s">
         <v>859</v>
       </c>
       <c r="D316" t="s">
-        <v>1063</v>
+        <v>502</v>
       </c>
       <c r="E316" t="s">
         <v>14</v>
       </c>
       <c r="F316" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G316" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="H316" t="s">
-        <v>1064</v>
+        <v>1021</v>
       </c>
       <c r="I316" t="s">
-        <v>1065</v>
+        <v>1022</v>
       </c>
       <c r="J316" t="s">
         <v>75</v>
@@ -13962,31 +13809,31 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>1066</v>
+        <v>1023</v>
       </c>
       <c r="B317" t="s">
-        <v>1067</v>
+        <v>1024</v>
       </c>
       <c r="C317" t="s">
         <v>859</v>
       </c>
       <c r="D317" t="s">
-        <v>1063</v>
+        <v>502</v>
       </c>
       <c r="E317" t="s">
         <v>14</v>
       </c>
       <c r="F317" t="s">
-        <v>1068</v>
+        <v>852</v>
       </c>
       <c r="G317" t="s">
         <v>24</v>
       </c>
       <c r="H317" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="I317" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="J317" t="s">
         <v>25</v>
@@ -13994,31 +13841,31 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
-        <v>1069</v>
+        <v>1025</v>
       </c>
       <c r="B318" t="s">
-        <v>1070</v>
+        <v>1026</v>
       </c>
       <c r="C318" t="s">
         <v>859</v>
       </c>
       <c r="D318" t="s">
-        <v>1018</v>
+        <v>416</v>
       </c>
       <c r="E318" t="s">
         <v>14</v>
       </c>
       <c r="F318" t="s">
-        <v>1068</v>
+        <v>852</v>
       </c>
       <c r="G318" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="H318" t="s">
         <v>91</v>
       </c>
       <c r="I318" t="s">
-        <v>1071</v>
+        <v>1027</v>
       </c>
       <c r="J318" t="s">
         <v>75</v>
@@ -14026,25 +13873,25 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>1072</v>
+        <v>1028</v>
       </c>
       <c r="B319" t="s">
-        <v>1073</v>
+        <v>1029</v>
       </c>
       <c r="C319" t="s">
         <v>859</v>
       </c>
       <c r="D319" t="s">
-        <v>866</v>
+        <v>299</v>
       </c>
       <c r="E319" t="s">
         <v>14</v>
       </c>
       <c r="F319" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G319" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="H319" t="s">
         <v>91</v>
@@ -14058,25 +13905,25 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>1074</v>
+        <v>1030</v>
       </c>
       <c r="B320" t="s">
-        <v>1075</v>
+        <v>1031</v>
       </c>
       <c r="C320" t="s">
         <v>859</v>
       </c>
       <c r="D320" t="s">
-        <v>884</v>
+        <v>36</v>
       </c>
       <c r="E320" t="s">
         <v>14</v>
       </c>
       <c r="F320" t="s">
-        <v>1076</v>
+        <v>675</v>
       </c>
       <c r="G320" t="s">
-        <v>1077</v>
+        <v>1032</v>
       </c>
       <c r="H320" t="s">
         <v>333</v>
@@ -14090,31 +13937,31 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>1078</v>
+        <v>1033</v>
       </c>
       <c r="B321" t="s">
-        <v>1079</v>
+        <v>1034</v>
       </c>
       <c r="C321" t="s">
         <v>859</v>
       </c>
       <c r="D321" t="s">
-        <v>866</v>
+        <v>299</v>
       </c>
       <c r="E321" t="s">
         <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G321" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="H321" t="s">
-        <v>1080</v>
+        <v>1035</v>
       </c>
       <c r="I321" t="s">
-        <v>1081</v>
+        <v>1036</v>
       </c>
       <c r="J321" t="s">
         <v>75</v>
@@ -14131,22 +13978,22 @@
         <v>859</v>
       </c>
       <c r="D322" t="s">
-        <v>931</v>
+        <v>281</v>
       </c>
       <c r="E322" t="s">
         <v>330</v>
       </c>
       <c r="F322" t="s">
-        <v>1014</v>
+        <v>391</v>
       </c>
       <c r="G322" t="s">
-        <v>1082</v>
+        <v>1037</v>
       </c>
       <c r="H322" t="s">
         <v>53</v>
       </c>
       <c r="I322" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="J322" t="s">
         <v>91</v>
@@ -14154,31 +14001,31 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>1083</v>
+        <v>1038</v>
       </c>
       <c r="B323" t="s">
-        <v>1084</v>
+        <v>1039</v>
       </c>
       <c r="C323" t="s">
         <v>859</v>
       </c>
       <c r="D323" t="s">
-        <v>971</v>
+        <v>509</v>
       </c>
       <c r="E323" t="s">
         <v>14</v>
       </c>
       <c r="F323" t="s">
-        <v>1085</v>
+        <v>1040</v>
       </c>
       <c r="G323" t="s">
-        <v>1086</v>
+        <v>1041</v>
       </c>
       <c r="H323" t="s">
         <v>618</v>
       </c>
       <c r="I323" t="s">
-        <v>1020</v>
+        <v>983</v>
       </c>
       <c r="J323" t="s">
         <v>53</v>
@@ -14186,22 +14033,22 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
-        <v>1087</v>
+        <v>1042</v>
       </c>
       <c r="B324" t="s">
-        <v>1088</v>
+        <v>1043</v>
       </c>
       <c r="C324" t="s">
         <v>859</v>
       </c>
       <c r="D324" t="s">
-        <v>860</v>
+        <v>529</v>
       </c>
       <c r="E324" t="s">
         <v>14</v>
       </c>
       <c r="F324" t="s">
-        <v>932</v>
+        <v>378</v>
       </c>
       <c r="G324" t="s">
         <v>24</v>
@@ -14218,31 +14065,31 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>1089</v>
+        <v>1044</v>
       </c>
       <c r="B325" t="s">
-        <v>1090</v>
+        <v>1045</v>
       </c>
       <c r="C325" t="s">
         <v>859</v>
       </c>
       <c r="D325" t="s">
-        <v>1091</v>
+        <v>307</v>
       </c>
       <c r="E325" t="s">
         <v>14</v>
       </c>
       <c r="F325" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G325" t="s">
         <v>24</v>
       </c>
       <c r="H325" t="s">
-        <v>1092</v>
+        <v>1046</v>
       </c>
       <c r="I325" t="s">
-        <v>1093</v>
+        <v>1047</v>
       </c>
       <c r="J325" t="s">
         <v>25</v>
@@ -14250,22 +14097,22 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>1094</v>
+        <v>1048</v>
       </c>
       <c r="B326" t="s">
-        <v>1095</v>
+        <v>1049</v>
       </c>
       <c r="C326" t="s">
         <v>859</v>
       </c>
       <c r="D326" t="s">
-        <v>879</v>
+        <v>64</v>
       </c>
       <c r="E326" t="s">
         <v>14</v>
       </c>
       <c r="F326" t="s">
-        <v>1096</v>
+        <v>1050</v>
       </c>
       <c r="G326" t="s">
         <v>24</v>
@@ -14282,31 +14129,31 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>1097</v>
+        <v>1051</v>
       </c>
       <c r="B327" t="s">
-        <v>1098</v>
+        <v>1052</v>
       </c>
       <c r="C327" t="s">
         <v>859</v>
       </c>
       <c r="D327" t="s">
-        <v>992</v>
+        <v>157</v>
       </c>
       <c r="E327" t="s">
         <v>330</v>
       </c>
       <c r="F327" t="s">
-        <v>912</v>
+        <v>354</v>
       </c>
       <c r="G327" t="s">
-        <v>1099</v>
+        <v>355</v>
       </c>
       <c r="H327" t="s">
         <v>53</v>
       </c>
       <c r="I327" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="J327" t="s">
         <v>91</v>
@@ -14314,22 +14161,22 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>1100</v>
+        <v>1053</v>
       </c>
       <c r="B328" t="s">
-        <v>1101</v>
+        <v>1054</v>
       </c>
       <c r="C328" t="s">
         <v>859</v>
       </c>
       <c r="D328" t="s">
-        <v>1102</v>
+        <v>815</v>
       </c>
       <c r="E328" t="s">
         <v>14</v>
       </c>
       <c r="F328" t="s">
-        <v>1103</v>
+        <v>1055</v>
       </c>
       <c r="G328" t="s">
         <v>24</v>
@@ -14346,31 +14193,31 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>1104</v>
+        <v>1056</v>
       </c>
       <c r="B329" t="s">
-        <v>1105</v>
+        <v>1057</v>
       </c>
       <c r="C329" t="s">
         <v>859</v>
       </c>
       <c r="D329" t="s">
-        <v>1106</v>
+        <v>1058</v>
       </c>
       <c r="E329" t="s">
         <v>14</v>
       </c>
       <c r="F329" t="s">
-        <v>1107</v>
+        <v>1059</v>
       </c>
       <c r="G329" t="s">
-        <v>1108</v>
+        <v>1060</v>
       </c>
       <c r="H329" t="s">
         <v>91</v>
       </c>
       <c r="I329" t="s">
-        <v>964</v>
+        <v>940</v>
       </c>
       <c r="J329" t="s">
         <v>91</v>
@@ -14378,22 +14225,22 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
-        <v>1109</v>
+        <v>1061</v>
       </c>
       <c r="B330" t="s">
-        <v>1110</v>
+        <v>1062</v>
       </c>
       <c r="C330" t="s">
         <v>859</v>
       </c>
       <c r="D330" t="s">
-        <v>860</v>
+        <v>529</v>
       </c>
       <c r="E330" t="s">
         <v>14</v>
       </c>
       <c r="F330" t="s">
-        <v>1111</v>
+        <v>304</v>
       </c>
       <c r="G330" t="s">
         <v>24</v>
@@ -14410,31 +14257,31 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>1112</v>
+        <v>1063</v>
       </c>
       <c r="B331" t="s">
-        <v>1113</v>
+        <v>1064</v>
       </c>
       <c r="C331" t="s">
         <v>859</v>
       </c>
       <c r="D331" t="s">
-        <v>866</v>
+        <v>299</v>
       </c>
       <c r="E331" t="s">
         <v>14</v>
       </c>
       <c r="F331" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="G331" t="s">
-        <v>1114</v>
+        <v>1065</v>
       </c>
       <c r="H331" t="s">
-        <v>1092</v>
+        <v>1046</v>
       </c>
       <c r="I331" t="s">
-        <v>1115</v>
+        <v>1066</v>
       </c>
       <c r="J331" t="s">
         <v>75</v>
@@ -14442,31 +14289,31 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>1116</v>
+        <v>1067</v>
       </c>
       <c r="B332" t="s">
-        <v>1117</v>
+        <v>1068</v>
       </c>
       <c r="C332" t="s">
         <v>859</v>
       </c>
       <c r="D332" t="s">
-        <v>874</v>
+        <v>46</v>
       </c>
       <c r="E332" t="s">
         <v>14</v>
       </c>
       <c r="F332" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G332" t="s">
-        <v>1118</v>
+        <v>1069</v>
       </c>
       <c r="H332" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="I332" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="J332" t="s">
         <v>75</v>
@@ -14474,31 +14321,31 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>1119</v>
+        <v>1070</v>
       </c>
       <c r="B333" t="s">
-        <v>1120</v>
+        <v>1071</v>
       </c>
       <c r="C333" t="s">
         <v>859</v>
       </c>
       <c r="D333" t="s">
-        <v>987</v>
+        <v>161</v>
       </c>
       <c r="E333" t="s">
         <v>14</v>
       </c>
       <c r="F333" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G333" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="H333" t="s">
-        <v>1121</v>
+        <v>1072</v>
       </c>
       <c r="I333" t="s">
-        <v>1122</v>
+        <v>1073</v>
       </c>
       <c r="J333" t="s">
         <v>75</v>
@@ -14506,31 +14353,31 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>1123</v>
+        <v>1074</v>
       </c>
       <c r="B334" t="s">
-        <v>1124</v>
+        <v>1075</v>
       </c>
       <c r="C334" t="s">
         <v>859</v>
       </c>
       <c r="D334" t="s">
-        <v>874</v>
+        <v>46</v>
       </c>
       <c r="E334" t="s">
         <v>14</v>
       </c>
       <c r="F334" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="G334" t="s">
-        <v>1125</v>
+        <v>1076</v>
       </c>
       <c r="H334" t="s">
-        <v>1010</v>
+        <v>976</v>
       </c>
       <c r="I334" t="s">
-        <v>1033</v>
+        <v>995</v>
       </c>
       <c r="J334" t="s">
         <v>75</v>
@@ -14538,22 +14385,22 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>1126</v>
+        <v>1077</v>
       </c>
       <c r="B335" t="s">
-        <v>1127</v>
+        <v>1078</v>
       </c>
       <c r="C335" t="s">
         <v>859</v>
       </c>
       <c r="D335" t="s">
-        <v>1102</v>
+        <v>815</v>
       </c>
       <c r="E335" t="s">
         <v>14</v>
       </c>
       <c r="F335" t="s">
-        <v>1128</v>
+        <v>1079</v>
       </c>
       <c r="G335" t="s">
         <v>24</v>
@@ -14570,31 +14417,31 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>1129</v>
+        <v>1080</v>
       </c>
       <c r="B336" t="s">
-        <v>1130</v>
+        <v>1081</v>
       </c>
       <c r="C336" t="s">
         <v>859</v>
       </c>
       <c r="D336" t="s">
-        <v>911</v>
+        <v>13</v>
       </c>
       <c r="E336" t="s">
         <v>14</v>
       </c>
       <c r="F336" t="s">
-        <v>1131</v>
+        <v>272</v>
       </c>
       <c r="G336" t="s">
-        <v>862</v>
+        <v>430</v>
       </c>
       <c r="H336" t="s">
         <v>681</v>
       </c>
       <c r="I336" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J336" t="s">
         <v>67</v>
@@ -14602,31 +14449,31 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" t="s">
-        <v>1132</v>
+        <v>1082</v>
       </c>
       <c r="B337" t="s">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="C337" t="s">
         <v>859</v>
       </c>
       <c r="D337" t="s">
-        <v>992</v>
+        <v>157</v>
       </c>
       <c r="E337" t="s">
         <v>14</v>
       </c>
       <c r="F337" t="s">
-        <v>867</v>
+        <v>287</v>
       </c>
       <c r="G337" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="H337" t="s">
         <v>647</v>
       </c>
       <c r="I337" t="s">
-        <v>1134</v>
+        <v>1084</v>
       </c>
       <c r="J337" t="s">
         <v>75</v>
@@ -14637,28 +14484,28 @@
         <v>305</v>
       </c>
       <c r="B338" t="s">
-        <v>1135</v>
+        <v>1085</v>
       </c>
       <c r="C338" t="s">
         <v>859</v>
       </c>
       <c r="D338" t="s">
-        <v>1091</v>
+        <v>307</v>
       </c>
       <c r="E338" t="s">
         <v>14</v>
       </c>
       <c r="F338" t="s">
-        <v>1136</v>
+        <v>308</v>
       </c>
       <c r="G338" t="s">
-        <v>1023</v>
+        <v>16</v>
       </c>
       <c r="H338" t="s">
         <v>681</v>
       </c>
       <c r="I338" t="s">
-        <v>1137</v>
+        <v>1086</v>
       </c>
       <c r="J338" t="s">
         <v>91</v>
@@ -14666,31 +14513,31 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" t="s">
-        <v>1138</v>
+        <v>1087</v>
       </c>
       <c r="B339" t="s">
-        <v>1139</v>
+        <v>1088</v>
       </c>
       <c r="C339" t="s">
         <v>859</v>
       </c>
       <c r="D339" t="s">
-        <v>1106</v>
+        <v>1058</v>
       </c>
       <c r="E339" t="s">
         <v>14</v>
       </c>
       <c r="F339" t="s">
-        <v>1140</v>
+        <v>1089</v>
       </c>
       <c r="G339" t="s">
-        <v>1141</v>
+        <v>1090</v>
       </c>
       <c r="H339" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
       <c r="I339" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="J339" t="s">
         <v>91</v>
@@ -14698,25 +14545,25 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
-        <v>1142</v>
+        <v>1091</v>
       </c>
       <c r="B340" t="s">
-        <v>1143</v>
+        <v>1092</v>
       </c>
       <c r="C340" t="s">
         <v>859</v>
       </c>
       <c r="D340" t="s">
-        <v>987</v>
+        <v>161</v>
       </c>
       <c r="E340" t="s">
         <v>14</v>
       </c>
       <c r="F340" t="s">
-        <v>932</v>
+        <v>378</v>
       </c>
       <c r="G340" t="s">
-        <v>1144</v>
+        <v>1093</v>
       </c>
       <c r="H340" t="s">
         <v>333</v>

--- a/data_M.xlsx
+++ b/data_M.xlsx
@@ -229,7 +229,7 @@
     <t>고대림의 댄스 파티</t>
   </si>
   <si>
-    <t>마콰(マッカォ) 15마리 토벌</t>
+    <t>마카오(マッカォ) 15마리 토벌</t>
   </si>
   <si>
     <t>盾蟹たちの集い</t>
@@ -313,7 +313,7 @@
     <t>스피드 킥커</t>
   </si>
   <si>
-    <t>도스마콰(ドスマッカォ) 1마리 수렵</t>
+    <t>도스마카오(ドスマッカォ) 1마리 수렵</t>
   </si>
   <si>
     <t>심층시메지(深層シメジ) 5개 납품</t>
@@ -349,7 +349,7 @@
     <t>새빨간 얼굴의 난폭한 사나이</t>
   </si>
   <si>
-    <t>마콰(マッカォ) 20마리 토벌</t>
+    <t>마카오(マッカォ) 20마리 토벌</t>
   </si>
   <si>
     <t>渓流のポイント招きネコ</t>
@@ -1468,10 +1468,10 @@
     <t>도스덤벼! 유적평원의 도구룡</t>
   </si>
   <si>
-    <t>도스마콰(ドスマッカォ) 1마리 포획</t>
-  </si>
-  <si>
-    <t>마콰(マッカォ) 12마리 토벌</t>
+    <t>도스마카오(ドスマッカォ) 1마리 포획</t>
+  </si>
+  <si>
+    <t>마카오(マッカォ) 12마리 토벌</t>
   </si>
   <si>
     <t>야오자미(ヤオザミ) 10마리 토벌</t>
@@ -1495,10 +1495,10 @@
     <t>초☆메모장 ~도구룡수렵편~</t>
   </si>
   <si>
-    <t>도스마콰(ドスマッカォ) 2마리 수렵</t>
-  </si>
-  <si>
-    <t>도스마콰(ドスマッカォ)의 머리 파괴</t>
+    <t>도스마카오(ドスマッカォ) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>도스마카오(ドスマッカォ)의 머리 파괴</t>
   </si>
   <si>
     <t>強敵、ドスギアノス現る！</t>

--- a/data_M.xlsx
+++ b/data_M.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19007"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="1093">
   <si>
     <t>questName</t>
   </si>
@@ -3272,9 +3272,6 @@
   </si>
   <si>
     <t>21900z</t>
-  </si>
-  <si>
-    <t>돌고 모여서 회귀하리라</t>
   </si>
   <si>
     <t>15600z</t>
@@ -3677,8 +3674,8 @@
   <dimension ref="A1:J340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="E323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G341" sqref="G341"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14484,7 +14481,7 @@
         <v>305</v>
       </c>
       <c r="B338" t="s">
-        <v>1085</v>
+        <v>306</v>
       </c>
       <c r="C338" t="s">
         <v>859</v>
@@ -14505,7 +14502,7 @@
         <v>681</v>
       </c>
       <c r="I338" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="J338" t="s">
         <v>91</v>
@@ -14513,10 +14510,10 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B339" t="s">
         <v>1087</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1088</v>
       </c>
       <c r="C339" t="s">
         <v>859</v>
@@ -14528,10 +14525,10 @@
         <v>14</v>
       </c>
       <c r="F339" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G339" t="s">
         <v>1089</v>
-      </c>
-      <c r="G339" t="s">
-        <v>1090</v>
       </c>
       <c r="H339" t="s">
         <v>919</v>
@@ -14545,10 +14542,10 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B340" t="s">
         <v>1091</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1092</v>
       </c>
       <c r="C340" t="s">
         <v>859</v>
@@ -14563,7 +14560,7 @@
         <v>378</v>
       </c>
       <c r="G340" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H340" t="s">
         <v>333</v>

--- a/data_M.xlsx
+++ b/data_M.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19024"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1522,7 +1522,7 @@
     <t>ライバルの激突！！</t>
   </si>
   <si>
-    <t>라이벌의 격돌</t>
+    <t>라이벌의 격돌!!</t>
   </si>
   <si>
     <t>수상투기장(水上闘技場)</t>
@@ -3674,8 +3674,8 @@
   <dimension ref="A1:J340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B339" sqref="B339"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
